--- a/01 DOCUEMENTOS/CENTRAL#15  ARCHIVO   2 0 2 2/CENTRAL #12  DICIEMBRE 2022/BALANCE   HERRADURA  DICIEMBRE       2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL#15  ARCHIVO   2 0 2 2/CENTRAL #12  DICIEMBRE 2022/BALANCE   HERRADURA  DICIEMBRE       2022.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ROUSS\Documents\GitHub\TRABAJO\01 DOCUEMENTOS\CENTRAL  ARCHIVO   2 0 2 2\CENTRAL #12  DICIEMBRE 2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ROUSS\Documents\GitHub\TRABAJO\01 DOCUEMENTOS\CENTRAL#15  ARCHIVO   2 0 2 2\CENTRAL #12  DICIEMBRE 2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="195" yWindow="915" windowWidth="16905" windowHeight="10110" firstSheet="20" activeTab="22"/>
+    <workbookView xWindow="195" yWindow="915" windowWidth="16905" windowHeight="10110" firstSheet="22" activeTab="22"/>
   </bookViews>
   <sheets>
     <sheet name="E N E R O    2 0 2 2         " sheetId="1" r:id="rId1"/>
@@ -752,7 +752,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1170" uniqueCount="590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1177" uniqueCount="594">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -2535,6 +2535,18 @@
   </si>
   <si>
     <t>BALANCE      ABASTO 4 CARNES    H E R R A D U R A    DICIEMBRE    2 0 2 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">compras central </t>
+  </si>
+  <si>
+    <t>NOMINA # 49</t>
+  </si>
+  <si>
+    <t>CHORIZO-ARABE</t>
+  </si>
+  <si>
+    <t>=</t>
   </si>
 </sst>
 </file>
@@ -3907,7 +3919,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="447">
+  <cellXfs count="446">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -4638,6 +4650,47 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="14" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="19" fillId="14" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="2" fillId="14" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="14" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="15" fontId="2" fillId="14" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="14" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="16" fillId="14" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="14" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="44" fontId="44" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -4719,39 +4772,6 @@
     <xf numFmtId="44" fontId="13" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="44" fontId="14" fillId="0" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4764,15 +4784,6 @@
     <xf numFmtId="166" fontId="12" fillId="6" borderId="51" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="14" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="19" fillId="14" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="15" fontId="2" fillId="14" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="14" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="15" fontId="2" fillId="14" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="14" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="16" fillId="14" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="14" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -10205,23 +10216,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="423"/>
-      <c r="C1" s="425" t="s">
+      <c r="B1" s="404"/>
+      <c r="C1" s="406" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="426"/>
-      <c r="E1" s="426"/>
-      <c r="F1" s="426"/>
-      <c r="G1" s="426"/>
-      <c r="H1" s="426"/>
-      <c r="I1" s="426"/>
-      <c r="J1" s="426"/>
-      <c r="K1" s="426"/>
-      <c r="L1" s="426"/>
-      <c r="M1" s="426"/>
+      <c r="D1" s="407"/>
+      <c r="E1" s="407"/>
+      <c r="F1" s="407"/>
+      <c r="G1" s="407"/>
+      <c r="H1" s="407"/>
+      <c r="I1" s="407"/>
+      <c r="J1" s="407"/>
+      <c r="K1" s="407"/>
+      <c r="L1" s="407"/>
+      <c r="M1" s="407"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="424"/>
+      <c r="B2" s="405"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -10231,21 +10242,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="427" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="428"/>
+      <c r="B3" s="408" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="409"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="429" t="s">
+      <c r="H3" s="410" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="429"/>
+      <c r="I3" s="410"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="396" t="s">
+      <c r="R3" s="415" t="s">
         <v>38</v>
       </c>
     </row>
@@ -10260,14 +10271,14 @@
       <c r="D4" s="16">
         <v>44563</v>
       </c>
-      <c r="E4" s="430" t="s">
+      <c r="E4" s="411" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="431"/>
-      <c r="H4" s="432" t="s">
+      <c r="F4" s="412"/>
+      <c r="H4" s="413" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="433"/>
+      <c r="I4" s="414"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -10277,11 +10288,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="403" t="s">
+      <c r="P4" s="422" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="404"/>
-      <c r="R4" s="397"/>
+      <c r="Q4" s="423"/>
+      <c r="R4" s="416"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -11736,11 +11747,11 @@
       <c r="J40" s="71"/>
       <c r="K40" s="87"/>
       <c r="L40" s="73"/>
-      <c r="M40" s="405">
+      <c r="M40" s="424">
         <f>SUM(M5:M39)</f>
         <v>1527030</v>
       </c>
-      <c r="N40" s="407">
+      <c r="N40" s="426">
         <f>SUM(N5:N39)</f>
         <v>50013</v>
       </c>
@@ -11765,8 +11776,8 @@
       <c r="J41" s="71"/>
       <c r="K41" s="74"/>
       <c r="L41" s="73"/>
-      <c r="M41" s="406"/>
-      <c r="N41" s="408"/>
+      <c r="M41" s="425"/>
+      <c r="N41" s="427"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -11973,29 +11984,29 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="409" t="s">
+      <c r="H53" s="428" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="410"/>
+      <c r="I53" s="429"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="411">
+      <c r="K53" s="430">
         <f>I51+L51</f>
         <v>50143.28</v>
       </c>
-      <c r="L53" s="412"/>
-      <c r="M53" s="413">
+      <c r="L53" s="431"/>
+      <c r="M53" s="432">
         <f>N40+M40</f>
         <v>1577043</v>
       </c>
-      <c r="N53" s="414"/>
+      <c r="N53" s="433"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="415" t="s">
+      <c r="D54" s="434" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="415"/>
+      <c r="E54" s="434"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
         <v>1561421.72</v>
@@ -12006,22 +12017,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="416" t="s">
+      <c r="D55" s="435" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="416"/>
+      <c r="E55" s="435"/>
       <c r="F55" s="111">
         <v>-1419082.77</v>
       </c>
-      <c r="I55" s="417" t="s">
+      <c r="I55" s="436" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="418"/>
-      <c r="K55" s="419">
+      <c r="J55" s="437"/>
+      <c r="K55" s="438">
         <f>F57+F58+F59</f>
         <v>296963.46999999997</v>
       </c>
-      <c r="L55" s="420"/>
+      <c r="L55" s="439"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -12052,11 +12063,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="421">
+      <c r="K57" s="440">
         <f>-C4</f>
         <v>-221059.7</v>
       </c>
-      <c r="L57" s="422"/>
+      <c r="L57" s="441"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -12073,22 +12084,22 @@
       <c r="C59" s="128">
         <v>44591</v>
       </c>
-      <c r="D59" s="398" t="s">
+      <c r="D59" s="417" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="399"/>
+      <c r="E59" s="418"/>
       <c r="F59" s="129">
         <v>154314.51999999999</v>
       </c>
-      <c r="I59" s="400" t="s">
+      <c r="I59" s="419" t="s">
         <v>168</v>
       </c>
-      <c r="J59" s="401"/>
-      <c r="K59" s="402">
+      <c r="J59" s="420"/>
+      <c r="K59" s="421">
         <f>K55+K57</f>
         <v>75903.76999999996</v>
       </c>
-      <c r="L59" s="402"/>
+      <c r="L59" s="421"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="130"/>
@@ -12213,12 +12224,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="D59:E59"/>
     <mergeCell ref="I59:J59"/>
@@ -12234,6 +12239,12 @@
     <mergeCell ref="I55:J55"/>
     <mergeCell ref="K55:L55"/>
     <mergeCell ref="K57:L57"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -13686,23 +13697,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="423"/>
-      <c r="C1" s="425" t="s">
+      <c r="B1" s="404"/>
+      <c r="C1" s="406" t="s">
         <v>326</v>
       </c>
-      <c r="D1" s="426"/>
-      <c r="E1" s="426"/>
-      <c r="F1" s="426"/>
-      <c r="G1" s="426"/>
-      <c r="H1" s="426"/>
-      <c r="I1" s="426"/>
-      <c r="J1" s="426"/>
-      <c r="K1" s="426"/>
-      <c r="L1" s="426"/>
-      <c r="M1" s="426"/>
+      <c r="D1" s="407"/>
+      <c r="E1" s="407"/>
+      <c r="F1" s="407"/>
+      <c r="G1" s="407"/>
+      <c r="H1" s="407"/>
+      <c r="I1" s="407"/>
+      <c r="J1" s="407"/>
+      <c r="K1" s="407"/>
+      <c r="L1" s="407"/>
+      <c r="M1" s="407"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="424"/>
+      <c r="B2" s="405"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -13712,21 +13723,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="427" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="428"/>
+      <c r="B3" s="408" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="409"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="429" t="s">
+      <c r="H3" s="410" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="429"/>
+      <c r="I3" s="410"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="396" t="s">
+      <c r="R3" s="415" t="s">
         <v>38</v>
       </c>
     </row>
@@ -13741,14 +13752,14 @@
       <c r="D4" s="16">
         <v>44710</v>
       </c>
-      <c r="E4" s="430" t="s">
+      <c r="E4" s="411" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="431"/>
-      <c r="H4" s="432" t="s">
+      <c r="F4" s="412"/>
+      <c r="H4" s="413" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="433"/>
+      <c r="I4" s="414"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -13758,11 +13769,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="403" t="s">
+      <c r="P4" s="422" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="404"/>
-      <c r="R4" s="397"/>
+      <c r="Q4" s="423"/>
+      <c r="R4" s="416"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -15292,11 +15303,11 @@
       <c r="J40" s="71"/>
       <c r="K40" s="74"/>
       <c r="L40" s="73"/>
-      <c r="M40" s="405">
+      <c r="M40" s="424">
         <f>SUM(M5:M39)</f>
         <v>2772689</v>
       </c>
-      <c r="N40" s="407">
+      <c r="N40" s="426">
         <f>SUM(N5:N39)</f>
         <v>107354</v>
       </c>
@@ -15327,8 +15338,8 @@
       <c r="L41" s="73">
         <v>638.99</v>
       </c>
-      <c r="M41" s="406"/>
-      <c r="N41" s="408"/>
+      <c r="M41" s="425"/>
+      <c r="N41" s="427"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -15574,29 +15585,29 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="409" t="s">
+      <c r="H53" s="428" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="410"/>
+      <c r="I53" s="429"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="411">
+      <c r="K53" s="430">
         <f>I51+L51</f>
         <v>60691.69</v>
       </c>
-      <c r="L53" s="412"/>
-      <c r="M53" s="413">
+      <c r="L53" s="431"/>
+      <c r="M53" s="432">
         <f>N40+M40</f>
         <v>2880043</v>
       </c>
-      <c r="N53" s="414"/>
+      <c r="N53" s="433"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="415" t="s">
+      <c r="D54" s="434" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="415"/>
+      <c r="E54" s="434"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
         <v>2844548.31</v>
@@ -15607,22 +15618,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="416" t="s">
+      <c r="D55" s="435" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="416"/>
+      <c r="E55" s="435"/>
       <c r="F55" s="111">
         <v>-2875380.48</v>
       </c>
-      <c r="I55" s="417" t="s">
+      <c r="I55" s="436" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="418"/>
-      <c r="K55" s="419">
+      <c r="J55" s="437"/>
+      <c r="K55" s="438">
         <f>F57+F58+F59</f>
         <v>247554.74000000008</v>
       </c>
-      <c r="L55" s="420"/>
+      <c r="L55" s="439"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -15653,11 +15664,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="421">
+      <c r="K57" s="440">
         <f>-C4</f>
         <v>-149938.81</v>
       </c>
-      <c r="L57" s="422"/>
+      <c r="L57" s="441"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -15674,22 +15685,22 @@
       <c r="C59" s="128">
         <v>44745</v>
       </c>
-      <c r="D59" s="398" t="s">
+      <c r="D59" s="417" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="399"/>
+      <c r="E59" s="418"/>
       <c r="F59" s="129">
         <v>232165.91</v>
       </c>
-      <c r="I59" s="400" t="s">
+      <c r="I59" s="419" t="s">
         <v>168</v>
       </c>
-      <c r="J59" s="401"/>
-      <c r="K59" s="402">
+      <c r="J59" s="420"/>
+      <c r="K59" s="421">
         <f>K55+K57</f>
         <v>97615.93000000008</v>
       </c>
-      <c r="L59" s="402"/>
+      <c r="L59" s="421"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="130"/>
@@ -15817,6 +15828,18 @@
     <sortCondition ref="B7:B9"/>
   </sortState>
   <mergeCells count="21">
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -15826,18 +15849,6 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.38" right="0.17" top="0.4" bottom="0.34" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -17319,23 +17330,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="423"/>
-      <c r="C1" s="425" t="s">
+      <c r="B1" s="404"/>
+      <c r="C1" s="406" t="s">
         <v>380</v>
       </c>
-      <c r="D1" s="426"/>
-      <c r="E1" s="426"/>
-      <c r="F1" s="426"/>
-      <c r="G1" s="426"/>
-      <c r="H1" s="426"/>
-      <c r="I1" s="426"/>
-      <c r="J1" s="426"/>
-      <c r="K1" s="426"/>
-      <c r="L1" s="426"/>
-      <c r="M1" s="426"/>
+      <c r="D1" s="407"/>
+      <c r="E1" s="407"/>
+      <c r="F1" s="407"/>
+      <c r="G1" s="407"/>
+      <c r="H1" s="407"/>
+      <c r="I1" s="407"/>
+      <c r="J1" s="407"/>
+      <c r="K1" s="407"/>
+      <c r="L1" s="407"/>
+      <c r="M1" s="407"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="424"/>
+      <c r="B2" s="405"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -17345,21 +17356,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="427" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="428"/>
+      <c r="B3" s="408" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="409"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="429" t="s">
+      <c r="H3" s="410" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="429"/>
+      <c r="I3" s="410"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="396" t="s">
+      <c r="R3" s="415" t="s">
         <v>38</v>
       </c>
     </row>
@@ -17374,14 +17385,14 @@
       <c r="D4" s="16">
         <v>44745</v>
       </c>
-      <c r="E4" s="430" t="s">
+      <c r="E4" s="411" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="431"/>
-      <c r="H4" s="432" t="s">
+      <c r="F4" s="412"/>
+      <c r="H4" s="413" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="433"/>
+      <c r="I4" s="414"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -17391,11 +17402,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="403" t="s">
+      <c r="P4" s="422" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="404"/>
-      <c r="R4" s="397"/>
+      <c r="Q4" s="423"/>
+      <c r="R4" s="416"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -18840,11 +18851,11 @@
       <c r="J40" s="71"/>
       <c r="K40" s="74"/>
       <c r="L40" s="73"/>
-      <c r="M40" s="405">
+      <c r="M40" s="424">
         <f>SUM(M5:M39)</f>
         <v>2373103</v>
       </c>
-      <c r="N40" s="407">
+      <c r="N40" s="426">
         <f>SUM(N5:N39)</f>
         <v>67308</v>
       </c>
@@ -18873,8 +18884,8 @@
       <c r="J41" s="71"/>
       <c r="K41" s="235"/>
       <c r="L41" s="73"/>
-      <c r="M41" s="406"/>
-      <c r="N41" s="408"/>
+      <c r="M41" s="425"/>
+      <c r="N41" s="427"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -19089,29 +19100,29 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="409" t="s">
+      <c r="H53" s="428" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="410"/>
+      <c r="I53" s="429"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="411">
+      <c r="K53" s="430">
         <f>I51+L51</f>
         <v>79649.720000000016</v>
       </c>
-      <c r="L53" s="412"/>
-      <c r="M53" s="413">
+      <c r="L53" s="431"/>
+      <c r="M53" s="432">
         <f>N40+M40</f>
         <v>2440411</v>
       </c>
-      <c r="N53" s="414"/>
+      <c r="N53" s="433"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="415" t="s">
+      <c r="D54" s="434" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="415"/>
+      <c r="E54" s="434"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
         <v>2356249.2799999998</v>
@@ -19122,22 +19133,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="416" t="s">
+      <c r="D55" s="435" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="416"/>
+      <c r="E55" s="435"/>
       <c r="F55" s="111">
         <v>-2471332.31</v>
       </c>
-      <c r="I55" s="417" t="s">
+      <c r="I55" s="436" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="418"/>
-      <c r="K55" s="419">
+      <c r="J55" s="437"/>
+      <c r="K55" s="438">
         <f>F57+F58+F59</f>
         <v>214026.38999999972</v>
       </c>
-      <c r="L55" s="420"/>
+      <c r="L55" s="439"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -19168,11 +19179,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="421">
+      <c r="K57" s="440">
         <f>-C4</f>
         <v>-232165.91</v>
       </c>
-      <c r="L57" s="422"/>
+      <c r="L57" s="441"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -19189,22 +19200,22 @@
       <c r="C59" s="128">
         <v>44773</v>
       </c>
-      <c r="D59" s="398" t="s">
+      <c r="D59" s="417" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="399"/>
+      <c r="E59" s="418"/>
       <c r="F59" s="129">
         <v>273736.42</v>
       </c>
-      <c r="I59" s="400" t="s">
+      <c r="I59" s="419" t="s">
         <v>325</v>
       </c>
-      <c r="J59" s="401"/>
-      <c r="K59" s="402">
+      <c r="J59" s="420"/>
+      <c r="K59" s="421">
         <f>K55+K57</f>
         <v>-18139.520000000281</v>
       </c>
-      <c r="L59" s="402"/>
+      <c r="L59" s="421"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="130"/>
@@ -19329,6 +19340,18 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -19338,18 +19361,6 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.31496062992125984" right="0.27559055118110237" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="60" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -20741,23 +20752,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="423"/>
-      <c r="C1" s="425" t="s">
+      <c r="B1" s="404"/>
+      <c r="C1" s="406" t="s">
         <v>421</v>
       </c>
-      <c r="D1" s="426"/>
-      <c r="E1" s="426"/>
-      <c r="F1" s="426"/>
-      <c r="G1" s="426"/>
-      <c r="H1" s="426"/>
-      <c r="I1" s="426"/>
-      <c r="J1" s="426"/>
-      <c r="K1" s="426"/>
-      <c r="L1" s="426"/>
-      <c r="M1" s="426"/>
+      <c r="D1" s="407"/>
+      <c r="E1" s="407"/>
+      <c r="F1" s="407"/>
+      <c r="G1" s="407"/>
+      <c r="H1" s="407"/>
+      <c r="I1" s="407"/>
+      <c r="J1" s="407"/>
+      <c r="K1" s="407"/>
+      <c r="L1" s="407"/>
+      <c r="M1" s="407"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="424"/>
+      <c r="B2" s="405"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -20767,21 +20778,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="427" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="428"/>
+      <c r="B3" s="408" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="409"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="429" t="s">
+      <c r="H3" s="410" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="429"/>
+      <c r="I3" s="410"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="396" t="s">
+      <c r="R3" s="415" t="s">
         <v>38</v>
       </c>
     </row>
@@ -20796,14 +20807,14 @@
       <c r="D4" s="16">
         <v>44773</v>
       </c>
-      <c r="E4" s="430" t="s">
+      <c r="E4" s="411" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="431"/>
-      <c r="H4" s="432" t="s">
+      <c r="F4" s="412"/>
+      <c r="H4" s="413" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="433"/>
+      <c r="I4" s="414"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -20813,11 +20824,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="403" t="s">
+      <c r="P4" s="422" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="404"/>
-      <c r="R4" s="397"/>
+      <c r="Q4" s="423"/>
+      <c r="R4" s="416"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -22297,11 +22308,11 @@
       <c r="J40" s="71"/>
       <c r="K40" s="74"/>
       <c r="L40" s="73"/>
-      <c r="M40" s="405">
+      <c r="M40" s="424">
         <f>SUM(M5:M39)</f>
         <v>2375259</v>
       </c>
-      <c r="N40" s="407">
+      <c r="N40" s="426">
         <f>SUM(N5:N39)</f>
         <v>61117</v>
       </c>
@@ -22330,8 +22341,8 @@
       <c r="J41" s="71"/>
       <c r="K41" s="235"/>
       <c r="L41" s="73"/>
-      <c r="M41" s="406"/>
-      <c r="N41" s="408"/>
+      <c r="M41" s="425"/>
+      <c r="N41" s="427"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -22546,29 +22557,29 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="409" t="s">
+      <c r="H53" s="428" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="410"/>
+      <c r="I53" s="429"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="411">
+      <c r="K53" s="430">
         <f>I51+L51</f>
         <v>52857.25</v>
       </c>
-      <c r="L53" s="412"/>
-      <c r="M53" s="413">
+      <c r="L53" s="431"/>
+      <c r="M53" s="432">
         <f>N40+M40</f>
         <v>2436376</v>
       </c>
-      <c r="N53" s="414"/>
+      <c r="N53" s="433"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="415" t="s">
+      <c r="D54" s="434" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="415"/>
+      <c r="E54" s="434"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
         <v>2370653.75</v>
@@ -22579,22 +22590,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="416" t="s">
+      <c r="D55" s="435" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="416"/>
+      <c r="E55" s="435"/>
       <c r="F55" s="111">
         <v>-2401197.5699999998</v>
       </c>
-      <c r="I55" s="417" t="s">
+      <c r="I55" s="436" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="418"/>
-      <c r="K55" s="419">
+      <c r="J55" s="437"/>
+      <c r="K55" s="438">
         <f>F57+F58+F59</f>
         <v>259241.77000000016</v>
       </c>
-      <c r="L55" s="420"/>
+      <c r="L55" s="439"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -22625,11 +22636,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="421">
+      <c r="K57" s="440">
         <f>-C4</f>
         <v>-273736.42</v>
       </c>
-      <c r="L57" s="422"/>
+      <c r="L57" s="441"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -22646,22 +22657,22 @@
       <c r="C59" s="128">
         <v>44801</v>
       </c>
-      <c r="D59" s="398" t="s">
+      <c r="D59" s="417" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="399"/>
+      <c r="E59" s="418"/>
       <c r="F59" s="129">
         <v>236400.59</v>
       </c>
-      <c r="I59" s="435" t="s">
+      <c r="I59" s="443" t="s">
         <v>325</v>
       </c>
-      <c r="J59" s="436"/>
-      <c r="K59" s="437">
+      <c r="J59" s="444"/>
+      <c r="K59" s="445">
         <f>K55+K57</f>
         <v>-14494.64999999982</v>
       </c>
-      <c r="L59" s="437"/>
+      <c r="L59" s="445"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="130"/>
@@ -22786,6 +22797,18 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -22795,18 +22818,6 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -24253,23 +24264,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="423"/>
-      <c r="C1" s="425" t="s">
+      <c r="B1" s="404"/>
+      <c r="C1" s="406" t="s">
         <v>465</v>
       </c>
-      <c r="D1" s="426"/>
-      <c r="E1" s="426"/>
-      <c r="F1" s="426"/>
-      <c r="G1" s="426"/>
-      <c r="H1" s="426"/>
-      <c r="I1" s="426"/>
-      <c r="J1" s="426"/>
-      <c r="K1" s="426"/>
-      <c r="L1" s="426"/>
-      <c r="M1" s="426"/>
+      <c r="D1" s="407"/>
+      <c r="E1" s="407"/>
+      <c r="F1" s="407"/>
+      <c r="G1" s="407"/>
+      <c r="H1" s="407"/>
+      <c r="I1" s="407"/>
+      <c r="J1" s="407"/>
+      <c r="K1" s="407"/>
+      <c r="L1" s="407"/>
+      <c r="M1" s="407"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="424"/>
+      <c r="B2" s="405"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -24279,21 +24290,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="427" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="428"/>
+      <c r="B3" s="408" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="409"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="429" t="s">
+      <c r="H3" s="410" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="429"/>
+      <c r="I3" s="410"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="396" t="s">
+      <c r="R3" s="415" t="s">
         <v>38</v>
       </c>
     </row>
@@ -24308,14 +24319,14 @@
       <c r="D4" s="16">
         <v>44801</v>
       </c>
-      <c r="E4" s="430" t="s">
+      <c r="E4" s="411" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="431"/>
-      <c r="H4" s="432" t="s">
+      <c r="F4" s="412"/>
+      <c r="H4" s="413" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="433"/>
+      <c r="I4" s="414"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -24325,11 +24336,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="403" t="s">
+      <c r="P4" s="422" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="404"/>
-      <c r="R4" s="397"/>
+      <c r="Q4" s="423"/>
+      <c r="R4" s="416"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -26057,11 +26068,11 @@
       <c r="L40" s="73">
         <v>927.48</v>
       </c>
-      <c r="M40" s="405">
+      <c r="M40" s="424">
         <f>SUM(M5:M39)</f>
         <v>3147309.5</v>
       </c>
-      <c r="N40" s="407">
+      <c r="N40" s="426">
         <f>SUM(N5:N39)</f>
         <v>76569</v>
       </c>
@@ -26096,8 +26107,8 @@
       <c r="L41" s="73">
         <v>33312</v>
       </c>
-      <c r="M41" s="406"/>
-      <c r="N41" s="408"/>
+      <c r="M41" s="425"/>
+      <c r="N41" s="427"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -26340,29 +26351,29 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="409" t="s">
+      <c r="H53" s="428" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="410"/>
+      <c r="I53" s="429"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="411">
+      <c r="K53" s="430">
         <f>I51+L51</f>
         <v>102873.87000000001</v>
       </c>
-      <c r="L53" s="412"/>
-      <c r="M53" s="413">
+      <c r="L53" s="431"/>
+      <c r="M53" s="432">
         <f>N40+M40</f>
         <v>3223878.5</v>
       </c>
-      <c r="N53" s="414"/>
+      <c r="N53" s="433"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="415" t="s">
+      <c r="D54" s="434" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="415"/>
+      <c r="E54" s="434"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
         <v>3130076.13</v>
@@ -26373,22 +26384,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="416" t="s">
+      <c r="D55" s="435" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="416"/>
+      <c r="E55" s="435"/>
       <c r="F55" s="111">
         <v>-3171951.31</v>
       </c>
-      <c r="I55" s="417" t="s">
+      <c r="I55" s="436" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="418"/>
-      <c r="K55" s="419">
+      <c r="J55" s="437"/>
+      <c r="K55" s="438">
         <f>F57+F58+F59</f>
         <v>265314.0299999998</v>
       </c>
-      <c r="L55" s="420"/>
+      <c r="L55" s="439"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -26419,11 +26430,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="421">
+      <c r="K57" s="440">
         <f>-C4</f>
         <v>-236400.59</v>
       </c>
-      <c r="L57" s="422"/>
+      <c r="L57" s="441"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -26440,22 +26451,22 @@
       <c r="C59" s="128">
         <v>44836</v>
       </c>
-      <c r="D59" s="398" t="s">
+      <c r="D59" s="417" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="399"/>
+      <c r="E59" s="418"/>
       <c r="F59" s="129">
         <v>242354.21</v>
       </c>
-      <c r="I59" s="435" t="s">
+      <c r="I59" s="443" t="s">
         <v>325</v>
       </c>
-      <c r="J59" s="436"/>
-      <c r="K59" s="437">
+      <c r="J59" s="444"/>
+      <c r="K59" s="445">
         <f>K55+K57</f>
         <v>28913.439999999799</v>
       </c>
-      <c r="L59" s="437"/>
+      <c r="L59" s="445"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="130"/>
@@ -26583,18 +26594,6 @@
     <sortCondition ref="J41:J45"/>
   </sortState>
   <mergeCells count="21">
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -26604,6 +26603,18 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -28101,23 +28112,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="423"/>
-      <c r="C1" s="425" t="s">
+      <c r="B1" s="404"/>
+      <c r="C1" s="406" t="s">
         <v>512</v>
       </c>
-      <c r="D1" s="426"/>
-      <c r="E1" s="426"/>
-      <c r="F1" s="426"/>
-      <c r="G1" s="426"/>
-      <c r="H1" s="426"/>
-      <c r="I1" s="426"/>
-      <c r="J1" s="426"/>
-      <c r="K1" s="426"/>
-      <c r="L1" s="426"/>
-      <c r="M1" s="426"/>
+      <c r="D1" s="407"/>
+      <c r="E1" s="407"/>
+      <c r="F1" s="407"/>
+      <c r="G1" s="407"/>
+      <c r="H1" s="407"/>
+      <c r="I1" s="407"/>
+      <c r="J1" s="407"/>
+      <c r="K1" s="407"/>
+      <c r="L1" s="407"/>
+      <c r="M1" s="407"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="424"/>
+      <c r="B2" s="405"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -28127,21 +28138,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="427" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="428"/>
+      <c r="B3" s="408" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="409"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="429" t="s">
+      <c r="H3" s="410" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="429"/>
+      <c r="I3" s="410"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="396" t="s">
+      <c r="R3" s="415" t="s">
         <v>38</v>
       </c>
     </row>
@@ -28156,14 +28167,14 @@
       <c r="D4" s="16">
         <v>44836</v>
       </c>
-      <c r="E4" s="430" t="s">
+      <c r="E4" s="411" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="431"/>
-      <c r="H4" s="432" t="s">
+      <c r="F4" s="412"/>
+      <c r="H4" s="413" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="433"/>
+      <c r="I4" s="414"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -28173,11 +28184,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="403" t="s">
+      <c r="P4" s="422" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="404"/>
-      <c r="R4" s="397"/>
+      <c r="Q4" s="423"/>
+      <c r="R4" s="416"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -29856,11 +29867,11 @@
       <c r="J40" s="71"/>
       <c r="K40" s="360"/>
       <c r="L40" s="73"/>
-      <c r="M40" s="405">
+      <c r="M40" s="424">
         <f>SUM(M5:M39)</f>
         <v>2563550</v>
       </c>
-      <c r="N40" s="407">
+      <c r="N40" s="426">
         <f>SUM(N5:N39)</f>
         <v>77235</v>
       </c>
@@ -29890,8 +29901,8 @@
       <c r="J41" s="71"/>
       <c r="K41" s="363"/>
       <c r="L41" s="73"/>
-      <c r="M41" s="406"/>
-      <c r="N41" s="408"/>
+      <c r="M41" s="425"/>
+      <c r="N41" s="427"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -30106,29 +30117,29 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="409" t="s">
+      <c r="H53" s="428" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="410"/>
+      <c r="I53" s="429"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="411">
+      <c r="K53" s="430">
         <f>I51+L51</f>
         <v>152307.24</v>
       </c>
-      <c r="L53" s="412"/>
-      <c r="M53" s="413">
+      <c r="L53" s="431"/>
+      <c r="M53" s="432">
         <f>N40+M40</f>
         <v>2640785</v>
       </c>
-      <c r="N53" s="414"/>
+      <c r="N53" s="433"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="415" t="s">
+      <c r="D54" s="434" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="415"/>
+      <c r="E54" s="434"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
         <v>2467299.5599999996</v>
@@ -30139,22 +30150,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="416" t="s">
+      <c r="D55" s="435" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="416"/>
+      <c r="E55" s="435"/>
       <c r="F55" s="111">
         <v>-2793202.57</v>
       </c>
-      <c r="I55" s="417" t="s">
+      <c r="I55" s="436" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="418"/>
-      <c r="K55" s="419">
+      <c r="J55" s="437"/>
+      <c r="K55" s="438">
         <f>F57+F58+F59</f>
         <v>149047.74999999977</v>
       </c>
-      <c r="L55" s="420"/>
+      <c r="L55" s="439"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -30185,11 +30196,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="421">
+      <c r="K57" s="440">
         <f>-C4</f>
         <v>-242354.21</v>
       </c>
-      <c r="L57" s="422"/>
+      <c r="L57" s="441"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -30206,22 +30217,22 @@
       <c r="C59" s="128">
         <v>44864</v>
       </c>
-      <c r="D59" s="398" t="s">
+      <c r="D59" s="417" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="399"/>
+      <c r="E59" s="418"/>
       <c r="F59" s="129">
         <v>419424.76</v>
       </c>
-      <c r="I59" s="435" t="s">
+      <c r="I59" s="443" t="s">
         <v>325</v>
       </c>
-      <c r="J59" s="436"/>
-      <c r="K59" s="437">
+      <c r="J59" s="444"/>
+      <c r="K59" s="445">
         <f>K55+K57</f>
         <v>-93306.460000000225</v>
       </c>
-      <c r="L59" s="437"/>
+      <c r="L59" s="445"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="130"/>
@@ -30349,6 +30360,18 @@
     <sortCondition ref="J34:J39"/>
   </sortState>
   <mergeCells count="21">
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -30358,18 +30381,6 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -33509,7 +33520,7 @@
   <dimension ref="A1:U81"/>
   <sheetViews>
     <sheetView topLeftCell="B27" workbookViewId="0">
-      <selection activeCell="B27" sqref="A1:XFD1048576"/>
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33534,23 +33545,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="423"/>
-      <c r="C1" s="425" t="s">
+      <c r="B1" s="404"/>
+      <c r="C1" s="406" t="s">
         <v>550</v>
       </c>
-      <c r="D1" s="426"/>
-      <c r="E1" s="426"/>
-      <c r="F1" s="426"/>
-      <c r="G1" s="426"/>
-      <c r="H1" s="426"/>
-      <c r="I1" s="426"/>
-      <c r="J1" s="426"/>
-      <c r="K1" s="426"/>
-      <c r="L1" s="426"/>
-      <c r="M1" s="426"/>
+      <c r="D1" s="407"/>
+      <c r="E1" s="407"/>
+      <c r="F1" s="407"/>
+      <c r="G1" s="407"/>
+      <c r="H1" s="407"/>
+      <c r="I1" s="407"/>
+      <c r="J1" s="407"/>
+      <c r="K1" s="407"/>
+      <c r="L1" s="407"/>
+      <c r="M1" s="407"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="424"/>
+      <c r="B2" s="405"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -33560,21 +33571,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="427" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="428"/>
+      <c r="B3" s="408" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="409"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="429" t="s">
+      <c r="H3" s="410" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="429"/>
+      <c r="I3" s="410"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="396" t="s">
+      <c r="R3" s="415" t="s">
         <v>38</v>
       </c>
     </row>
@@ -33589,14 +33600,14 @@
       <c r="D4" s="16">
         <v>44864</v>
       </c>
-      <c r="E4" s="430" t="s">
+      <c r="E4" s="411" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="431"/>
-      <c r="H4" s="432" t="s">
+      <c r="F4" s="412"/>
+      <c r="H4" s="413" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="433"/>
+      <c r="I4" s="414"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -33606,11 +33617,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="403" t="s">
+      <c r="P4" s="422" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="404"/>
-      <c r="R4" s="397"/>
+      <c r="Q4" s="423"/>
+      <c r="R4" s="416"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -35275,11 +35286,11 @@
       <c r="J40" s="71"/>
       <c r="K40" s="360"/>
       <c r="L40" s="73"/>
-      <c r="M40" s="405">
+      <c r="M40" s="424">
         <f>SUM(M5:M39)</f>
         <v>2972555</v>
       </c>
-      <c r="N40" s="407">
+      <c r="N40" s="426">
         <f>SUM(N5:N39)</f>
         <v>108935</v>
       </c>
@@ -35309,8 +35320,8 @@
       <c r="J41" s="71"/>
       <c r="K41" s="363"/>
       <c r="L41" s="73"/>
-      <c r="M41" s="406"/>
-      <c r="N41" s="408"/>
+      <c r="M41" s="425"/>
+      <c r="N41" s="427"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -35525,29 +35536,29 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="409" t="s">
+      <c r="H53" s="428" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="410"/>
+      <c r="I53" s="429"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="411">
+      <c r="K53" s="430">
         <f>I51+L51</f>
         <v>84934.209999999992</v>
       </c>
-      <c r="L53" s="412"/>
-      <c r="M53" s="413">
+      <c r="L53" s="431"/>
+      <c r="M53" s="432">
         <f>N40+M40</f>
         <v>3081490</v>
       </c>
-      <c r="N53" s="414"/>
+      <c r="N53" s="433"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="415" t="s">
+      <c r="D54" s="434" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="415"/>
+      <c r="E54" s="434"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
         <v>2986572.79</v>
@@ -35558,22 +35569,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="416" t="s">
+      <c r="D55" s="435" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="416"/>
+      <c r="E55" s="435"/>
       <c r="F55" s="111">
         <v>-2936244.87</v>
       </c>
-      <c r="I55" s="417" t="s">
+      <c r="I55" s="436" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="418"/>
-      <c r="K55" s="419">
+      <c r="J55" s="437"/>
+      <c r="K55" s="438">
         <f>F57+F58+F59</f>
         <v>437052.46999999991</v>
       </c>
-      <c r="L55" s="420"/>
+      <c r="L55" s="439"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -35604,11 +35615,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="421">
+      <c r="K57" s="440">
         <f>-C4</f>
         <v>-419424.76</v>
       </c>
-      <c r="L57" s="422"/>
+      <c r="L57" s="441"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -35625,22 +35636,22 @@
       <c r="C59" s="128">
         <v>44892</v>
       </c>
-      <c r="D59" s="398" t="s">
+      <c r="D59" s="417" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="399"/>
+      <c r="E59" s="418"/>
       <c r="F59" s="129">
         <v>315698.55</v>
       </c>
-      <c r="I59" s="435" t="s">
+      <c r="I59" s="443" t="s">
         <v>168</v>
       </c>
-      <c r="J59" s="436"/>
-      <c r="K59" s="437">
+      <c r="J59" s="444"/>
+      <c r="K59" s="445">
         <f>K55+K57</f>
         <v>17627.709999999905</v>
       </c>
-      <c r="L59" s="437"/>
+      <c r="L59" s="445"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="130"/>
@@ -35765,18 +35776,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -35786,6 +35785,18 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -35801,7 +35812,7 @@
   <dimension ref="A1:J115"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A22" sqref="A1:XFD1048576"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -37150,10 +37161,10 @@
   <dimension ref="A1:U81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F1" sqref="F1"/>
+      <pane xSplit="8" ySplit="4" topLeftCell="I5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="M16" sqref="M16"/>
+      <selection pane="bottomRight" activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37173,28 +37184,28 @@
     <col min="16" max="16" width="18.42578125" customWidth="1"/>
     <col min="17" max="17" width="18.140625" customWidth="1"/>
     <col min="18" max="18" width="23.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.42578125" style="174"/>
+    <col min="19" max="19" width="27" style="174" customWidth="1"/>
     <col min="20" max="20" width="11.42578125" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="423"/>
-      <c r="C1" s="425" t="s">
+      <c r="B1" s="404"/>
+      <c r="C1" s="406" t="s">
         <v>589</v>
       </c>
-      <c r="D1" s="426"/>
-      <c r="E1" s="426"/>
-      <c r="F1" s="426"/>
-      <c r="G1" s="426"/>
-      <c r="H1" s="426"/>
-      <c r="I1" s="426"/>
-      <c r="J1" s="426"/>
-      <c r="K1" s="426"/>
-      <c r="L1" s="426"/>
-      <c r="M1" s="426"/>
+      <c r="D1" s="407"/>
+      <c r="E1" s="407"/>
+      <c r="F1" s="407"/>
+      <c r="G1" s="407"/>
+      <c r="H1" s="407"/>
+      <c r="I1" s="407"/>
+      <c r="J1" s="407"/>
+      <c r="K1" s="407"/>
+      <c r="L1" s="407"/>
+      <c r="M1" s="407"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="424"/>
+      <c r="B2" s="405"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -37204,21 +37215,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="427" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="428"/>
+      <c r="B3" s="408" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="409"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="429" t="s">
+      <c r="H3" s="410" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="429"/>
+      <c r="I3" s="410"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="396" t="s">
+      <c r="R3" s="415" t="s">
         <v>38</v>
       </c>
     </row>
@@ -37233,14 +37244,14 @@
       <c r="D4" s="16">
         <v>44892</v>
       </c>
-      <c r="E4" s="430" t="s">
+      <c r="E4" s="411" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="431"/>
-      <c r="H4" s="432" t="s">
+      <c r="F4" s="412"/>
+      <c r="H4" s="413" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="433"/>
+      <c r="I4" s="414"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -37250,11 +37261,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="403" t="s">
+      <c r="P4" s="422" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="404"/>
-      <c r="R4" s="397"/>
+      <c r="Q4" s="423"/>
+      <c r="R4" s="416"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -37263,37 +37274,46 @@
       <c r="B5" s="320">
         <v>44893</v>
       </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="321"/>
+      <c r="C5" s="24">
+        <v>3120</v>
+      </c>
+      <c r="D5" s="321" t="s">
+        <v>47</v>
+      </c>
       <c r="E5" s="322">
         <v>44893</v>
       </c>
-      <c r="F5" s="27"/>
+      <c r="F5" s="27">
+        <v>153815</v>
+      </c>
       <c r="G5" s="323"/>
       <c r="H5" s="324">
         <v>44893</v>
       </c>
-      <c r="I5" s="29"/>
+      <c r="I5" s="29">
+        <v>105</v>
+      </c>
       <c r="J5" s="6"/>
       <c r="K5" s="325"/>
       <c r="L5" s="8"/>
       <c r="M5" s="30">
-        <v>0</v>
+        <f>24500+7666+45000+90000</f>
+        <v>167166</v>
       </c>
       <c r="N5" s="31">
-        <v>0</v>
+        <v>221</v>
       </c>
       <c r="O5" s="314"/>
       <c r="P5" s="32">
         <f>N5+M5+L5+I5+C5</f>
-        <v>0</v>
+        <v>170612</v>
       </c>
       <c r="Q5" s="12">
         <f>P5-F5</f>
-        <v>0</v>
-      </c>
-      <c r="R5" s="12">
-        <v>0</v>
+        <v>16797</v>
+      </c>
+      <c r="R5" s="283">
+        <v>16797</v>
       </c>
       <c r="S5" s="369"/>
     </row>
@@ -37302,36 +37322,44 @@
       <c r="B6" s="320">
         <v>44894</v>
       </c>
-      <c r="C6" s="24"/>
+      <c r="C6" s="24">
+        <v>0</v>
+      </c>
       <c r="D6" s="326"/>
       <c r="E6" s="322">
         <v>44894</v>
       </c>
-      <c r="F6" s="27"/>
+      <c r="F6" s="27">
+        <v>63844</v>
+      </c>
       <c r="G6" s="323"/>
       <c r="H6" s="324">
         <v>44894</v>
       </c>
-      <c r="I6" s="29"/>
+      <c r="I6" s="29">
+        <v>35</v>
+      </c>
       <c r="J6" s="36"/>
       <c r="K6" s="327"/>
       <c r="L6" s="38"/>
       <c r="M6" s="30">
-        <v>0</v>
+        <f>20000+46840</f>
+        <v>66840</v>
       </c>
       <c r="N6" s="31">
-        <v>0</v>
+        <v>7027</v>
       </c>
       <c r="O6" s="314"/>
       <c r="P6" s="32">
         <f>N6+M6+L6+I6+C6</f>
-        <v>0</v>
+        <v>73902</v>
       </c>
       <c r="Q6" s="12">
-        <v>0</v>
-      </c>
-      <c r="R6" s="12">
-        <v>0</v>
+        <f t="shared" ref="Q6:Q39" si="0">P6-F6</f>
+        <v>10058</v>
+      </c>
+      <c r="R6" s="283">
+        <v>10058</v>
       </c>
       <c r="S6" s="369"/>
       <c r="T6" s="8"/>
@@ -37341,33 +37369,40 @@
       <c r="B7" s="320">
         <v>44895</v>
       </c>
-      <c r="C7" s="24"/>
+      <c r="C7" s="24">
+        <v>0</v>
+      </c>
       <c r="D7" s="328"/>
       <c r="E7" s="322">
         <v>44895</v>
       </c>
-      <c r="F7" s="8"/>
+      <c r="F7" s="8">
+        <v>97476</v>
+      </c>
       <c r="G7" s="323"/>
       <c r="H7" s="324">
         <v>44895</v>
       </c>
-      <c r="I7" s="29"/>
+      <c r="I7" s="29">
+        <v>98</v>
+      </c>
       <c r="J7" s="36"/>
       <c r="K7" s="329"/>
       <c r="L7" s="38"/>
       <c r="M7" s="30">
-        <v>0</v>
+        <f>25000+68474</f>
+        <v>93474</v>
       </c>
       <c r="N7" s="31">
-        <v>0</v>
+        <v>3904</v>
       </c>
       <c r="O7" s="314"/>
       <c r="P7" s="32">
         <f>N7+M7+L7+I7+C7</f>
-        <v>0</v>
+        <v>97476</v>
       </c>
       <c r="Q7" s="12">
-        <f t="shared" ref="Q7:Q39" si="0">P7-F7</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R7" s="12">
@@ -37380,36 +37415,44 @@
       <c r="B8" s="320">
         <v>44896</v>
       </c>
-      <c r="C8" s="24"/>
+      <c r="C8" s="24">
+        <v>0</v>
+      </c>
       <c r="D8" s="328"/>
       <c r="E8" s="322">
         <v>44896</v>
       </c>
-      <c r="F8" s="27"/>
+      <c r="F8" s="27">
+        <v>79421</v>
+      </c>
       <c r="G8" s="323"/>
       <c r="H8" s="324">
         <v>44896</v>
       </c>
-      <c r="I8" s="29"/>
+      <c r="I8" s="29">
+        <v>165</v>
+      </c>
       <c r="J8" s="42"/>
       <c r="K8" s="330"/>
       <c r="L8" s="38"/>
       <c r="M8" s="30">
-        <v>0</v>
+        <f>60000+30997</f>
+        <v>90997</v>
       </c>
       <c r="N8" s="31">
-        <v>0</v>
+        <v>1044</v>
       </c>
       <c r="O8" s="314"/>
       <c r="P8" s="32">
         <f t="shared" ref="P8:P40" si="1">N8+M8+L8+I8+C8</f>
-        <v>0</v>
+        <v>92206</v>
       </c>
       <c r="Q8" s="12">
-        <v>0</v>
-      </c>
-      <c r="R8" s="12">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>12785</v>
+      </c>
+      <c r="R8" s="283">
+        <v>12785</v>
       </c>
       <c r="S8" s="369"/>
     </row>
@@ -37418,37 +37461,46 @@
       <c r="B9" s="320">
         <v>44897</v>
       </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="328"/>
+      <c r="C9" s="24">
+        <v>26423</v>
+      </c>
+      <c r="D9" s="328" t="s">
+        <v>590</v>
+      </c>
       <c r="E9" s="322">
         <v>44897</v>
       </c>
-      <c r="F9" s="27"/>
+      <c r="F9" s="27">
+        <v>135184</v>
+      </c>
       <c r="G9" s="323"/>
       <c r="H9" s="324">
         <v>44897</v>
       </c>
-      <c r="I9" s="29"/>
+      <c r="I9" s="29">
+        <v>0</v>
+      </c>
       <c r="J9" s="36"/>
       <c r="K9" s="331"/>
       <c r="L9" s="38"/>
       <c r="M9" s="30">
-        <v>0</v>
+        <f>51241+60000</f>
+        <v>111241</v>
       </c>
       <c r="N9" s="31">
-        <v>0</v>
+        <v>2520</v>
       </c>
       <c r="O9" s="314"/>
       <c r="P9" s="32">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>140184</v>
       </c>
       <c r="Q9" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R9" s="12">
-        <v>0</v>
+        <v>5000</v>
+      </c>
+      <c r="R9" s="283">
+        <v>5000</v>
       </c>
       <c r="S9" s="369"/>
     </row>
@@ -37457,37 +37509,44 @@
       <c r="B10" s="320">
         <v>44898</v>
       </c>
-      <c r="C10" s="24"/>
+      <c r="C10" s="24">
+        <v>0</v>
+      </c>
       <c r="D10" s="326"/>
       <c r="E10" s="322">
         <v>44898</v>
       </c>
-      <c r="F10" s="27"/>
+      <c r="F10" s="27">
+        <v>107195</v>
+      </c>
       <c r="G10" s="323"/>
       <c r="H10" s="324">
         <v>44898</v>
       </c>
-      <c r="I10" s="29"/>
+      <c r="I10" s="29">
+        <v>142</v>
+      </c>
       <c r="J10" s="36"/>
       <c r="K10" s="332"/>
       <c r="L10" s="46"/>
       <c r="M10" s="30">
-        <v>0</v>
+        <f>60480+40000</f>
+        <v>100480</v>
       </c>
       <c r="N10" s="31">
-        <v>0</v>
+        <v>10369</v>
       </c>
       <c r="O10" s="314"/>
       <c r="P10" s="32">
         <f>N10+M10+L10+I10+C10</f>
-        <v>0</v>
+        <v>110991</v>
       </c>
       <c r="Q10" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R10" s="12">
-        <v>0</v>
+        <v>3796</v>
+      </c>
+      <c r="R10" s="283">
+        <v>3796</v>
       </c>
       <c r="S10" s="369"/>
       <c r="U10" t="s">
@@ -37499,36 +37558,44 @@
       <c r="B11" s="320">
         <v>44899</v>
       </c>
-      <c r="C11" s="24"/>
+      <c r="C11" s="24">
+        <v>0</v>
+      </c>
       <c r="D11" s="326"/>
       <c r="E11" s="322">
         <v>44899</v>
       </c>
-      <c r="F11" s="27"/>
+      <c r="F11" s="27">
+        <v>110138</v>
+      </c>
       <c r="G11" s="323"/>
       <c r="H11" s="324">
         <v>44899</v>
       </c>
-      <c r="I11" s="29"/>
+      <c r="I11" s="29">
+        <v>18</v>
+      </c>
       <c r="J11" s="42"/>
       <c r="K11" s="333"/>
       <c r="L11" s="38"/>
       <c r="M11" s="30">
-        <v>0</v>
+        <f>16994+70000+35000</f>
+        <v>121994</v>
       </c>
       <c r="N11" s="31">
-        <v>0</v>
+        <v>4126</v>
       </c>
       <c r="O11" s="314"/>
       <c r="P11" s="32">
         <f>N11+M11+L11+I11+C11</f>
-        <v>0</v>
+        <v>126138</v>
       </c>
       <c r="Q11" s="12">
-        <v>0</v>
-      </c>
-      <c r="R11" s="12">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>16000</v>
+      </c>
+      <c r="R11" s="283">
+        <v>16000</v>
       </c>
       <c r="S11" s="369"/>
     </row>
@@ -37537,30 +37604,45 @@
       <c r="B12" s="320">
         <v>44900</v>
       </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="326"/>
+      <c r="C12" s="24">
+        <v>3347</v>
+      </c>
+      <c r="D12" s="326" t="s">
+        <v>47</v>
+      </c>
       <c r="E12" s="322">
         <v>44900</v>
       </c>
-      <c r="F12" s="27"/>
+      <c r="F12" s="27">
+        <v>123228</v>
+      </c>
       <c r="G12" s="323"/>
       <c r="H12" s="324">
         <v>44900</v>
       </c>
-      <c r="I12" s="29"/>
-      <c r="J12" s="36"/>
-      <c r="K12" s="334"/>
-      <c r="L12" s="38"/>
+      <c r="I12" s="29">
+        <v>172</v>
+      </c>
+      <c r="J12" s="36">
+        <v>44900</v>
+      </c>
+      <c r="K12" s="334" t="s">
+        <v>591</v>
+      </c>
+      <c r="L12" s="38">
+        <v>9500</v>
+      </c>
       <c r="M12" s="30">
-        <v>0</v>
+        <f>77200+17780+14500</f>
+        <v>109480</v>
       </c>
       <c r="N12" s="31">
-        <v>0</v>
+        <v>729</v>
       </c>
       <c r="O12" s="314"/>
       <c r="P12" s="32">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>123228</v>
       </c>
       <c r="Q12" s="12">
         <f t="shared" si="0"/>
@@ -37576,37 +37658,44 @@
       <c r="B13" s="320">
         <v>44901</v>
       </c>
-      <c r="C13" s="24"/>
+      <c r="C13" s="24">
+        <v>0</v>
+      </c>
       <c r="D13" s="328"/>
       <c r="E13" s="322">
         <v>44901</v>
       </c>
-      <c r="F13" s="27"/>
+      <c r="F13" s="27">
+        <v>80003</v>
+      </c>
       <c r="G13" s="323"/>
       <c r="H13" s="324">
         <v>44901</v>
       </c>
-      <c r="I13" s="29"/>
+      <c r="I13" s="29">
+        <v>105</v>
+      </c>
       <c r="J13" s="36"/>
       <c r="K13" s="327"/>
       <c r="L13" s="38"/>
       <c r="M13" s="30">
-        <v>0</v>
+        <f>20000+60298</f>
+        <v>80298</v>
       </c>
       <c r="N13" s="31">
-        <v>0</v>
+        <v>6190</v>
       </c>
       <c r="O13" s="314"/>
       <c r="P13" s="32">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>86593</v>
       </c>
       <c r="Q13" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R13" s="12">
-        <v>0</v>
+        <v>6590</v>
+      </c>
+      <c r="R13" s="283">
+        <v>6590</v>
       </c>
       <c r="S13" s="369"/>
     </row>
@@ -37615,22 +37704,31 @@
       <c r="B14" s="320">
         <v>44902</v>
       </c>
-      <c r="C14" s="24"/>
-      <c r="D14" s="335"/>
+      <c r="C14" s="24">
+        <v>965</v>
+      </c>
+      <c r="D14" s="335" t="s">
+        <v>592</v>
+      </c>
       <c r="E14" s="322">
         <v>44902</v>
       </c>
-      <c r="F14" s="27"/>
+      <c r="F14" s="27">
+        <v>86227</v>
+      </c>
       <c r="G14" s="323"/>
       <c r="H14" s="324">
         <v>44902</v>
       </c>
-      <c r="I14" s="29"/>
+      <c r="I14" s="29">
+        <v>304</v>
+      </c>
       <c r="J14" s="36"/>
       <c r="K14" s="330"/>
       <c r="L14" s="38"/>
       <c r="M14" s="30">
-        <v>0</v>
+        <f>15000+69958</f>
+        <v>84958</v>
       </c>
       <c r="N14" s="31">
         <v>0</v>
@@ -37638,7 +37736,7 @@
       <c r="O14" s="314"/>
       <c r="P14" s="32">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>86227</v>
       </c>
       <c r="Q14" s="12">
         <f t="shared" si="0"/>
@@ -37654,33 +37752,42 @@
       <c r="B15" s="320">
         <v>44903</v>
       </c>
-      <c r="C15" s="24"/>
-      <c r="D15" s="335"/>
+      <c r="C15" s="24">
+        <v>15187</v>
+      </c>
+      <c r="D15" s="335" t="s">
+        <v>590</v>
+      </c>
       <c r="E15" s="322">
         <v>44903</v>
       </c>
-      <c r="F15" s="27"/>
+      <c r="F15" s="27">
+        <v>85943</v>
+      </c>
       <c r="G15" s="323"/>
       <c r="H15" s="324">
         <v>44903</v>
       </c>
-      <c r="I15" s="29"/>
+      <c r="I15" s="29">
+        <v>143</v>
+      </c>
       <c r="J15" s="36"/>
       <c r="K15" s="330"/>
       <c r="L15" s="38"/>
-      <c r="M15" s="30">
-        <v>0</v>
+      <c r="M15" s="30" t="s">
+        <v>593</v>
       </c>
       <c r="N15" s="31">
         <v>0</v>
       </c>
       <c r="O15" s="314"/>
-      <c r="P15" s="32">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q15" s="12">
-        <v>0</v>
+      <c r="P15" s="32" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q15" s="12" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
       <c r="R15" s="12">
         <v>0</v>
@@ -37692,7 +37799,9 @@
       <c r="B16" s="320">
         <v>44904</v>
       </c>
-      <c r="C16" s="24"/>
+      <c r="C16" s="24">
+        <v>0</v>
+      </c>
       <c r="D16" s="326"/>
       <c r="E16" s="322">
         <v>44904</v>
@@ -37731,7 +37840,9 @@
       <c r="B17" s="320">
         <v>44905</v>
       </c>
-      <c r="C17" s="24"/>
+      <c r="C17" s="24">
+        <v>0</v>
+      </c>
       <c r="D17" s="328"/>
       <c r="E17" s="322">
         <v>44905</v>
@@ -37770,7 +37881,9 @@
       <c r="B18" s="320">
         <v>44906</v>
       </c>
-      <c r="C18" s="24"/>
+      <c r="C18" s="24">
+        <v>0</v>
+      </c>
       <c r="D18" s="326"/>
       <c r="E18" s="322">
         <v>44906</v>
@@ -37809,7 +37922,9 @@
       <c r="B19" s="320">
         <v>44907</v>
       </c>
-      <c r="C19" s="24"/>
+      <c r="C19" s="24">
+        <v>0</v>
+      </c>
       <c r="D19" s="326"/>
       <c r="E19" s="322">
         <v>44907</v>
@@ -37848,7 +37963,9 @@
       <c r="B20" s="320">
         <v>44908</v>
       </c>
-      <c r="C20" s="24"/>
+      <c r="C20" s="24">
+        <v>0</v>
+      </c>
       <c r="D20" s="326"/>
       <c r="E20" s="322">
         <v>44908</v>
@@ -37887,7 +38004,9 @@
       <c r="B21" s="320">
         <v>44909</v>
       </c>
-      <c r="C21" s="24"/>
+      <c r="C21" s="24">
+        <v>0</v>
+      </c>
       <c r="D21" s="326"/>
       <c r="E21" s="322">
         <v>44909</v>
@@ -37926,7 +38045,9 @@
       <c r="B22" s="320">
         <v>44910</v>
       </c>
-      <c r="C22" s="24"/>
+      <c r="C22" s="24">
+        <v>0</v>
+      </c>
       <c r="D22" s="326"/>
       <c r="E22" s="322">
         <v>44910</v>
@@ -37965,7 +38086,9 @@
       <c r="B23" s="320">
         <v>44911</v>
       </c>
-      <c r="C23" s="24"/>
+      <c r="C23" s="24">
+        <v>0</v>
+      </c>
       <c r="D23" s="326"/>
       <c r="E23" s="322">
         <v>44911</v>
@@ -38004,7 +38127,9 @@
       <c r="B24" s="320">
         <v>44912</v>
       </c>
-      <c r="C24" s="24"/>
+      <c r="C24" s="24">
+        <v>0</v>
+      </c>
       <c r="D24" s="328"/>
       <c r="E24" s="322">
         <v>44912</v>
@@ -38043,7 +38168,9 @@
       <c r="B25" s="320">
         <v>44913</v>
       </c>
-      <c r="C25" s="24"/>
+      <c r="C25" s="24">
+        <v>0</v>
+      </c>
       <c r="D25" s="326"/>
       <c r="E25" s="322">
         <v>44913</v>
@@ -38082,7 +38209,9 @@
       <c r="B26" s="320">
         <v>44914</v>
       </c>
-      <c r="C26" s="24"/>
+      <c r="C26" s="24">
+        <v>0</v>
+      </c>
       <c r="D26" s="326"/>
       <c r="E26" s="322">
         <v>44914</v>
@@ -38121,7 +38250,9 @@
       <c r="B27" s="320">
         <v>44915</v>
       </c>
-      <c r="C27" s="24"/>
+      <c r="C27" s="24">
+        <v>0</v>
+      </c>
       <c r="D27" s="328"/>
       <c r="E27" s="322">
         <v>44915</v>
@@ -38160,7 +38291,9 @@
       <c r="B28" s="320">
         <v>44916</v>
       </c>
-      <c r="C28" s="24"/>
+      <c r="C28" s="24">
+        <v>0</v>
+      </c>
       <c r="D28" s="328"/>
       <c r="E28" s="322">
         <v>44916</v>
@@ -38199,7 +38332,9 @@
       <c r="B29" s="320">
         <v>44917</v>
       </c>
-      <c r="C29" s="24"/>
+      <c r="C29" s="24">
+        <v>0</v>
+      </c>
       <c r="D29" s="347"/>
       <c r="E29" s="322">
         <v>44917</v>
@@ -38239,7 +38374,9 @@
       <c r="B30" s="320">
         <v>44918</v>
       </c>
-      <c r="C30" s="24"/>
+      <c r="C30" s="24">
+        <v>0</v>
+      </c>
       <c r="D30" s="347"/>
       <c r="E30" s="322">
         <v>44918</v>
@@ -38278,7 +38415,9 @@
       <c r="B31" s="320">
         <v>44919</v>
       </c>
-      <c r="C31" s="24"/>
+      <c r="C31" s="24">
+        <v>0</v>
+      </c>
       <c r="D31" s="350"/>
       <c r="E31" s="322">
         <v>44919</v>
@@ -38317,17 +38456,19 @@
       <c r="B32" s="320">
         <v>44920</v>
       </c>
-      <c r="C32" s="438"/>
-      <c r="D32" s="445"/>
-      <c r="E32" s="440">
+      <c r="C32" s="24">
+        <v>0</v>
+      </c>
+      <c r="D32" s="402"/>
+      <c r="E32" s="397">
         <v>44920</v>
       </c>
-      <c r="F32" s="446"/>
-      <c r="G32" s="442"/>
-      <c r="H32" s="443">
+      <c r="F32" s="403"/>
+      <c r="G32" s="399"/>
+      <c r="H32" s="400">
         <v>44920</v>
       </c>
-      <c r="I32" s="444"/>
+      <c r="I32" s="401"/>
       <c r="J32" s="71"/>
       <c r="K32" s="349"/>
       <c r="L32" s="73"/>
@@ -38356,7 +38497,9 @@
       <c r="B33" s="320">
         <v>44921</v>
       </c>
-      <c r="C33" s="24"/>
+      <c r="C33" s="24">
+        <v>0</v>
+      </c>
       <c r="D33" s="353"/>
       <c r="E33" s="322">
         <v>44921</v>
@@ -38395,7 +38538,9 @@
       <c r="B34" s="320">
         <v>44922</v>
       </c>
-      <c r="C34" s="24"/>
+      <c r="C34" s="24">
+        <v>0</v>
+      </c>
       <c r="D34" s="352"/>
       <c r="E34" s="322">
         <v>44922</v>
@@ -38434,7 +38579,9 @@
       <c r="B35" s="320">
         <v>44923</v>
       </c>
-      <c r="C35" s="24"/>
+      <c r="C35" s="24">
+        <v>0</v>
+      </c>
       <c r="D35" s="350"/>
       <c r="E35" s="322">
         <v>44923</v>
@@ -38473,7 +38620,9 @@
       <c r="B36" s="320">
         <v>44924</v>
       </c>
-      <c r="C36" s="24"/>
+      <c r="C36" s="24">
+        <v>0</v>
+      </c>
       <c r="D36" s="355"/>
       <c r="E36" s="322">
         <v>44924</v>
@@ -38512,7 +38661,9 @@
       <c r="B37" s="320">
         <v>44925</v>
       </c>
-      <c r="C37" s="24"/>
+      <c r="C37" s="24">
+        <v>0</v>
+      </c>
       <c r="D37" s="352"/>
       <c r="E37" s="322">
         <v>44925</v>
@@ -38551,7 +38702,9 @@
       <c r="B38" s="320">
         <v>44926</v>
       </c>
-      <c r="C38" s="24"/>
+      <c r="C38" s="24">
+        <v>0</v>
+      </c>
       <c r="D38" s="353"/>
       <c r="E38" s="322">
         <v>44926</v>
@@ -38590,17 +38743,19 @@
       <c r="B39" s="320">
         <v>44927</v>
       </c>
-      <c r="C39" s="438"/>
-      <c r="D39" s="439"/>
-      <c r="E39" s="440">
+      <c r="C39" s="24">
+        <v>0</v>
+      </c>
+      <c r="D39" s="396"/>
+      <c r="E39" s="397">
         <v>44927</v>
       </c>
-      <c r="F39" s="441"/>
-      <c r="G39" s="442"/>
-      <c r="H39" s="443">
+      <c r="F39" s="398"/>
+      <c r="G39" s="399"/>
+      <c r="H39" s="400">
         <v>44927</v>
       </c>
-      <c r="I39" s="444"/>
+      <c r="I39" s="401"/>
       <c r="J39" s="71"/>
       <c r="K39" s="358"/>
       <c r="L39" s="73"/>
@@ -38629,7 +38784,9 @@
       <c r="B40" s="320">
         <v>44928</v>
       </c>
-      <c r="C40" s="24"/>
+      <c r="C40" s="24">
+        <v>0</v>
+      </c>
       <c r="D40" s="355"/>
       <c r="E40" s="322">
         <v>44928</v>
@@ -38643,25 +38800,25 @@
       <c r="J40" s="71"/>
       <c r="K40" s="360"/>
       <c r="L40" s="73"/>
-      <c r="M40" s="405">
+      <c r="M40" s="424">
         <f>SUM(M5:M39)</f>
-        <v>0</v>
-      </c>
-      <c r="N40" s="407">
+        <v>1026928</v>
+      </c>
+      <c r="N40" s="426">
         <f>SUM(N5:N39)</f>
-        <v>0</v>
+        <v>36130</v>
       </c>
       <c r="P40" s="32">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q40" s="284">
+        <v>1063058</v>
+      </c>
+      <c r="Q40" s="284" t="e">
         <f>SUM(Q5:Q39)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="R40" s="316">
         <f>SUM(R5:R39)</f>
-        <v>0</v>
+        <v>71026</v>
       </c>
     </row>
     <row r="41" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -38677,8 +38834,8 @@
       <c r="J41" s="71"/>
       <c r="K41" s="363"/>
       <c r="L41" s="73"/>
-      <c r="M41" s="406"/>
-      <c r="N41" s="408"/>
+      <c r="M41" s="425"/>
+      <c r="N41" s="427"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -38851,7 +39008,7 @@
       </c>
       <c r="C51" s="102">
         <f>SUM(C5:C50)</f>
-        <v>0</v>
+        <v>49042</v>
       </c>
       <c r="D51" s="103"/>
       <c r="E51" s="104" t="s">
@@ -38859,7 +39016,7 @@
       </c>
       <c r="F51" s="105">
         <f>SUM(F5:F50)</f>
-        <v>0</v>
+        <v>1122474</v>
       </c>
       <c r="G51" s="103"/>
       <c r="H51" s="106" t="s">
@@ -38867,7 +39024,7 @@
       </c>
       <c r="I51" s="107">
         <f>SUM(I5:I50)</f>
-        <v>0</v>
+        <v>1287</v>
       </c>
       <c r="J51" s="108"/>
       <c r="K51" s="109" t="s">
@@ -38875,7 +39032,7 @@
       </c>
       <c r="L51" s="110">
         <f>SUM(L5:L50)</f>
-        <v>0</v>
+        <v>9500</v>
       </c>
       <c r="M51" s="111"/>
       <c r="N51" s="111"/>
@@ -38893,32 +39050,32 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="409" t="s">
+      <c r="H53" s="428" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="410"/>
+      <c r="I53" s="429"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="411">
+      <c r="K53" s="430">
         <f>I51+L51</f>
-        <v>0</v>
-      </c>
-      <c r="L53" s="412"/>
-      <c r="M53" s="413">
+        <v>10787</v>
+      </c>
+      <c r="L53" s="431"/>
+      <c r="M53" s="432">
         <f>N40+M40</f>
-        <v>0</v>
-      </c>
-      <c r="N53" s="414"/>
+        <v>1063058</v>
+      </c>
+      <c r="N53" s="433"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="415" t="s">
+      <c r="D54" s="434" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="415"/>
+      <c r="E54" s="434"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
-        <v>0</v>
+        <v>1062645</v>
       </c>
       <c r="I54" s="116"/>
       <c r="J54" s="117"/>
@@ -38926,22 +39083,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="416" t="s">
+      <c r="D55" s="435" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="416"/>
+      <c r="E55" s="435"/>
       <c r="F55" s="111">
         <v>0</v>
       </c>
-      <c r="I55" s="417" t="s">
+      <c r="I55" s="436" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="418"/>
-      <c r="K55" s="419">
+      <c r="J55" s="437"/>
+      <c r="K55" s="438">
         <f>F57+F58+F59</f>
-        <v>0</v>
-      </c>
-      <c r="L55" s="420"/>
+        <v>1062645</v>
+      </c>
+      <c r="L55" s="439"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -38965,18 +39122,18 @@
       </c>
       <c r="F57" s="111">
         <f>SUM(F54:F56)</f>
-        <v>0</v>
+        <v>1062645</v>
       </c>
       <c r="H57" s="22"/>
       <c r="I57" s="124" t="s">
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="421">
+      <c r="K57" s="440">
         <f>-C4</f>
         <v>-315698.55</v>
       </c>
-      <c r="L57" s="422"/>
+      <c r="L57" s="441"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -38991,22 +39148,22 @@
     </row>
     <row r="59" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C59" s="128"/>
-      <c r="D59" s="398" t="s">
+      <c r="D59" s="417" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="399"/>
+      <c r="E59" s="418"/>
       <c r="F59" s="129">
         <v>0</v>
       </c>
-      <c r="I59" s="435" t="s">
+      <c r="I59" s="443" t="s">
         <v>168</v>
       </c>
-      <c r="J59" s="436"/>
-      <c r="K59" s="437">
+      <c r="J59" s="444"/>
+      <c r="K59" s="445">
         <f>K55+K57</f>
-        <v>-315698.55</v>
-      </c>
-      <c r="L59" s="437"/>
+        <v>746946.45</v>
+      </c>
+      <c r="L59" s="445"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="130"/>
@@ -39131,6 +39288,20 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="N40:N41"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="M53:N53"/>
     <mergeCell ref="D55:E55"/>
     <mergeCell ref="I55:J55"/>
     <mergeCell ref="K55:L55"/>
@@ -39138,20 +39309,6 @@
     <mergeCell ref="D59:E59"/>
     <mergeCell ref="I59:J59"/>
     <mergeCell ref="K59:L59"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="N40:N41"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="P4:Q4"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.35" bottom="0.28000000000000003" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -40276,23 +40433,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="423"/>
-      <c r="C1" s="425" t="s">
+      <c r="B1" s="404"/>
+      <c r="C1" s="406" t="s">
         <v>125</v>
       </c>
-      <c r="D1" s="426"/>
-      <c r="E1" s="426"/>
-      <c r="F1" s="426"/>
-      <c r="G1" s="426"/>
-      <c r="H1" s="426"/>
-      <c r="I1" s="426"/>
-      <c r="J1" s="426"/>
-      <c r="K1" s="426"/>
-      <c r="L1" s="426"/>
-      <c r="M1" s="426"/>
+      <c r="D1" s="407"/>
+      <c r="E1" s="407"/>
+      <c r="F1" s="407"/>
+      <c r="G1" s="407"/>
+      <c r="H1" s="407"/>
+      <c r="I1" s="407"/>
+      <c r="J1" s="407"/>
+      <c r="K1" s="407"/>
+      <c r="L1" s="407"/>
+      <c r="M1" s="407"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="424"/>
+      <c r="B2" s="405"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -40302,21 +40459,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="427" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="428"/>
+      <c r="B3" s="408" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="409"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="429" t="s">
+      <c r="H3" s="410" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="429"/>
+      <c r="I3" s="410"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="396" t="s">
+      <c r="R3" s="415" t="s">
         <v>38</v>
       </c>
     </row>
@@ -40331,14 +40488,14 @@
       <c r="D4" s="16">
         <v>44591</v>
       </c>
-      <c r="E4" s="430" t="s">
+      <c r="E4" s="411" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="431"/>
-      <c r="H4" s="432" t="s">
+      <c r="F4" s="412"/>
+      <c r="H4" s="413" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="433"/>
+      <c r="I4" s="414"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -40348,11 +40505,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="403" t="s">
+      <c r="P4" s="422" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="404"/>
-      <c r="R4" s="397"/>
+      <c r="Q4" s="423"/>
+      <c r="R4" s="416"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -41789,11 +41946,11 @@
       <c r="J40" s="71"/>
       <c r="K40" s="87"/>
       <c r="L40" s="78"/>
-      <c r="M40" s="434">
+      <c r="M40" s="442">
         <f>SUM(M5:M39)</f>
         <v>1636108</v>
       </c>
-      <c r="N40" s="407">
+      <c r="N40" s="426">
         <f>SUM(N5:N39)</f>
         <v>55675</v>
       </c>
@@ -41818,8 +41975,8 @@
       <c r="J41" s="71"/>
       <c r="K41" s="74"/>
       <c r="L41" s="73"/>
-      <c r="M41" s="406"/>
-      <c r="N41" s="408"/>
+      <c r="M41" s="425"/>
+      <c r="N41" s="427"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -42026,29 +42183,29 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="409" t="s">
+      <c r="H53" s="428" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="410"/>
+      <c r="I53" s="429"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="411">
+      <c r="K53" s="430">
         <f>I51+L51</f>
         <v>45634.280000000006</v>
       </c>
-      <c r="L53" s="412"/>
-      <c r="M53" s="413">
+      <c r="L53" s="431"/>
+      <c r="M53" s="432">
         <f>N40+M40</f>
         <v>1691783</v>
       </c>
-      <c r="N53" s="414"/>
+      <c r="N53" s="433"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="415" t="s">
+      <c r="D54" s="434" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="415"/>
+      <c r="E54" s="434"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
         <v>1686442.72</v>
@@ -42059,22 +42216,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="416" t="s">
+      <c r="D55" s="435" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="416"/>
+      <c r="E55" s="435"/>
       <c r="F55" s="111">
         <v>-1631962.77</v>
       </c>
-      <c r="I55" s="417" t="s">
+      <c r="I55" s="436" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="418"/>
-      <c r="K55" s="419">
+      <c r="J55" s="437"/>
+      <c r="K55" s="438">
         <f>F57+F58+F59</f>
         <v>238822.13999999996</v>
       </c>
-      <c r="L55" s="420"/>
+      <c r="L55" s="439"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -42105,11 +42262,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="421">
+      <c r="K57" s="440">
         <f>-C4</f>
         <v>-154314.51999999999</v>
       </c>
-      <c r="L57" s="422"/>
+      <c r="L57" s="441"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -42126,22 +42283,22 @@
       <c r="C59" s="128">
         <v>44619</v>
       </c>
-      <c r="D59" s="398" t="s">
+      <c r="D59" s="417" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="399"/>
+      <c r="E59" s="418"/>
       <c r="F59" s="129">
         <v>184342.19</v>
       </c>
-      <c r="I59" s="400" t="s">
+      <c r="I59" s="419" t="s">
         <v>168</v>
       </c>
-      <c r="J59" s="401"/>
-      <c r="K59" s="402">
+      <c r="J59" s="420"/>
+      <c r="K59" s="421">
         <f>K55+K57</f>
         <v>84507.619999999966</v>
       </c>
-      <c r="L59" s="402"/>
+      <c r="L59" s="421"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="130"/>
@@ -42266,18 +42423,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -42287,6 +42432,18 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -43591,23 +43748,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="423"/>
-      <c r="C1" s="425" t="s">
+      <c r="B1" s="404"/>
+      <c r="C1" s="406" t="s">
         <v>135</v>
       </c>
-      <c r="D1" s="426"/>
-      <c r="E1" s="426"/>
-      <c r="F1" s="426"/>
-      <c r="G1" s="426"/>
-      <c r="H1" s="426"/>
-      <c r="I1" s="426"/>
-      <c r="J1" s="426"/>
-      <c r="K1" s="426"/>
-      <c r="L1" s="426"/>
-      <c r="M1" s="426"/>
+      <c r="D1" s="407"/>
+      <c r="E1" s="407"/>
+      <c r="F1" s="407"/>
+      <c r="G1" s="407"/>
+      <c r="H1" s="407"/>
+      <c r="I1" s="407"/>
+      <c r="J1" s="407"/>
+      <c r="K1" s="407"/>
+      <c r="L1" s="407"/>
+      <c r="M1" s="407"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="424"/>
+      <c r="B2" s="405"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -43617,21 +43774,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="427" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="428"/>
+      <c r="B3" s="408" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="409"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="429" t="s">
+      <c r="H3" s="410" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="429"/>
+      <c r="I3" s="410"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="396" t="s">
+      <c r="R3" s="415" t="s">
         <v>38</v>
       </c>
     </row>
@@ -43646,14 +43803,14 @@
       <c r="D4" s="16">
         <v>44619</v>
       </c>
-      <c r="E4" s="430" t="s">
+      <c r="E4" s="411" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="431"/>
-      <c r="H4" s="432" t="s">
+      <c r="F4" s="412"/>
+      <c r="H4" s="413" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="433"/>
+      <c r="I4" s="414"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -43663,11 +43820,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="403" t="s">
+      <c r="P4" s="422" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="404"/>
-      <c r="R4" s="397"/>
+      <c r="Q4" s="423"/>
+      <c r="R4" s="416"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -45118,11 +45275,11 @@
       <c r="J40" s="71"/>
       <c r="K40" s="87"/>
       <c r="L40" s="73"/>
-      <c r="M40" s="405">
+      <c r="M40" s="424">
         <f>SUM(M5:M39)</f>
         <v>1793435</v>
       </c>
-      <c r="N40" s="407">
+      <c r="N40" s="426">
         <f>SUM(N5:N39)</f>
         <v>63995</v>
       </c>
@@ -45147,8 +45304,8 @@
       <c r="J41" s="71"/>
       <c r="K41" s="235"/>
       <c r="L41" s="73"/>
-      <c r="M41" s="406"/>
-      <c r="N41" s="408"/>
+      <c r="M41" s="425"/>
+      <c r="N41" s="427"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -45287,29 +45444,29 @@
       <c r="A49" s="33"/>
       <c r="B49" s="113"/>
       <c r="C49" s="1"/>
-      <c r="H49" s="409" t="s">
+      <c r="H49" s="428" t="s">
         <v>12</v>
       </c>
-      <c r="I49" s="410"/>
+      <c r="I49" s="429"/>
       <c r="J49" s="114"/>
-      <c r="K49" s="411">
+      <c r="K49" s="430">
         <f>I47+L47</f>
         <v>90434.03</v>
       </c>
-      <c r="L49" s="412"/>
-      <c r="M49" s="413">
+      <c r="L49" s="431"/>
+      <c r="M49" s="432">
         <f>N40+M40</f>
         <v>1857430</v>
       </c>
-      <c r="N49" s="414"/>
+      <c r="N49" s="433"/>
       <c r="P49" s="32"/>
       <c r="Q49" s="8"/>
     </row>
     <row r="50" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D50" s="415" t="s">
+      <c r="D50" s="434" t="s">
         <v>13</v>
       </c>
-      <c r="E50" s="415"/>
+      <c r="E50" s="434"/>
       <c r="F50" s="115">
         <f>F47-K49-C47</f>
         <v>1824260.97</v>
@@ -45320,22 +45477,22 @@
       <c r="Q50" s="8"/>
     </row>
     <row r="51" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D51" s="416" t="s">
+      <c r="D51" s="435" t="s">
         <v>14</v>
       </c>
-      <c r="E51" s="416"/>
+      <c r="E51" s="435"/>
       <c r="F51" s="111">
         <v>-1848136.64</v>
       </c>
-      <c r="I51" s="417" t="s">
+      <c r="I51" s="436" t="s">
         <v>15</v>
       </c>
-      <c r="J51" s="418"/>
-      <c r="K51" s="419">
+      <c r="J51" s="437"/>
+      <c r="K51" s="438">
         <f>F53+F54+F55</f>
         <v>195541.70000000007</v>
       </c>
-      <c r="L51" s="420"/>
+      <c r="L51" s="439"/>
       <c r="P51" s="32"/>
       <c r="Q51" s="8"/>
     </row>
@@ -45366,11 +45523,11 @@
         <v>17</v>
       </c>
       <c r="J53" s="125"/>
-      <c r="K53" s="421">
+      <c r="K53" s="440">
         <f>-C4</f>
         <v>-184342.19</v>
       </c>
-      <c r="L53" s="422"/>
+      <c r="L53" s="441"/>
     </row>
     <row r="54" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D54" s="126" t="s">
@@ -45387,22 +45544,22 @@
       <c r="C55" s="128">
         <v>44647</v>
       </c>
-      <c r="D55" s="398" t="s">
+      <c r="D55" s="417" t="s">
         <v>20</v>
       </c>
-      <c r="E55" s="399"/>
+      <c r="E55" s="418"/>
       <c r="F55" s="129">
         <v>219417.37</v>
       </c>
-      <c r="I55" s="400" t="s">
+      <c r="I55" s="419" t="s">
         <v>226</v>
       </c>
-      <c r="J55" s="401"/>
-      <c r="K55" s="402">
+      <c r="J55" s="420"/>
+      <c r="K55" s="421">
         <f>K51+K53</f>
         <v>11199.510000000068</v>
       </c>
-      <c r="L55" s="402"/>
+      <c r="L55" s="421"/>
     </row>
     <row r="56" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C56" s="130"/>
@@ -45530,6 +45687,18 @@
     <sortCondition ref="J34:J38"/>
   </sortState>
   <mergeCells count="21">
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -45539,18 +45708,6 @@
     <mergeCell ref="H49:I49"/>
     <mergeCell ref="K49:L49"/>
     <mergeCell ref="M49:N49"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -47025,23 +47182,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="423"/>
-      <c r="C1" s="425" t="s">
+      <c r="B1" s="404"/>
+      <c r="C1" s="406" t="s">
         <v>225</v>
       </c>
-      <c r="D1" s="426"/>
-      <c r="E1" s="426"/>
-      <c r="F1" s="426"/>
-      <c r="G1" s="426"/>
-      <c r="H1" s="426"/>
-      <c r="I1" s="426"/>
-      <c r="J1" s="426"/>
-      <c r="K1" s="426"/>
-      <c r="L1" s="426"/>
-      <c r="M1" s="426"/>
+      <c r="D1" s="407"/>
+      <c r="E1" s="407"/>
+      <c r="F1" s="407"/>
+      <c r="G1" s="407"/>
+      <c r="H1" s="407"/>
+      <c r="I1" s="407"/>
+      <c r="J1" s="407"/>
+      <c r="K1" s="407"/>
+      <c r="L1" s="407"/>
+      <c r="M1" s="407"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="424"/>
+      <c r="B2" s="405"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -47051,21 +47208,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="427" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="428"/>
+      <c r="B3" s="408" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="409"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="429" t="s">
+      <c r="H3" s="410" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="429"/>
+      <c r="I3" s="410"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="396" t="s">
+      <c r="R3" s="415" t="s">
         <v>38</v>
       </c>
     </row>
@@ -47080,14 +47237,14 @@
       <c r="D4" s="16">
         <v>44647</v>
       </c>
-      <c r="E4" s="430" t="s">
+      <c r="E4" s="411" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="431"/>
-      <c r="H4" s="432" t="s">
+      <c r="F4" s="412"/>
+      <c r="H4" s="413" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="433"/>
+      <c r="I4" s="414"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -47097,11 +47254,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="403" t="s">
+      <c r="P4" s="422" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="404"/>
-      <c r="R4" s="397"/>
+      <c r="Q4" s="423"/>
+      <c r="R4" s="416"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -48698,11 +48855,11 @@
         <f>927.48+128</f>
         <v>1055.48</v>
       </c>
-      <c r="M40" s="405">
+      <c r="M40" s="424">
         <f>SUM(M5:M39)</f>
         <v>2146671</v>
       </c>
-      <c r="N40" s="407">
+      <c r="N40" s="426">
         <f>SUM(N5:N39)</f>
         <v>68590</v>
       </c>
@@ -48733,8 +48890,8 @@
       <c r="L41" s="73">
         <v>1195.68</v>
       </c>
-      <c r="M41" s="406"/>
-      <c r="N41" s="408"/>
+      <c r="M41" s="425"/>
+      <c r="N41" s="427"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -48965,29 +49122,29 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="409" t="s">
+      <c r="H53" s="428" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="410"/>
+      <c r="I53" s="429"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="411">
+      <c r="K53" s="430">
         <f>I51+L51</f>
         <v>91272.77</v>
       </c>
-      <c r="L53" s="412"/>
-      <c r="M53" s="413">
+      <c r="L53" s="431"/>
+      <c r="M53" s="432">
         <f>N40+M40</f>
         <v>2215261</v>
       </c>
-      <c r="N53" s="414"/>
+      <c r="N53" s="433"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="415" t="s">
+      <c r="D54" s="434" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="415"/>
+      <c r="E54" s="434"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
         <v>2179879.23</v>
@@ -48998,22 +49155,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="416" t="s">
+      <c r="D55" s="435" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="416"/>
+      <c r="E55" s="435"/>
       <c r="F55" s="111">
         <v>-2227493.48</v>
       </c>
-      <c r="I55" s="417" t="s">
+      <c r="I55" s="436" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="418"/>
-      <c r="K55" s="419">
+      <c r="J55" s="437"/>
+      <c r="K55" s="438">
         <f>F57+F58+F59</f>
         <v>261521.34000000003</v>
       </c>
-      <c r="L55" s="420"/>
+      <c r="L55" s="439"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -49044,11 +49201,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="421">
+      <c r="K57" s="440">
         <f>-C4</f>
         <v>-219417.37</v>
       </c>
-      <c r="L57" s="422"/>
+      <c r="L57" s="441"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -49065,22 +49222,22 @@
       <c r="C59" s="128">
         <v>44682</v>
       </c>
-      <c r="D59" s="398" t="s">
+      <c r="D59" s="417" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="399"/>
+      <c r="E59" s="418"/>
       <c r="F59" s="129">
         <v>297874.59000000003</v>
       </c>
-      <c r="I59" s="400" t="s">
+      <c r="I59" s="419" t="s">
         <v>168</v>
       </c>
-      <c r="J59" s="401"/>
-      <c r="K59" s="402">
+      <c r="J59" s="420"/>
+      <c r="K59" s="421">
         <f>K55+K57</f>
         <v>42103.97000000003</v>
       </c>
-      <c r="L59" s="402"/>
+      <c r="L59" s="421"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="130"/>
@@ -49208,6 +49365,18 @@
     <sortCondition ref="J40:J44"/>
   </sortState>
   <mergeCells count="21">
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -49217,18 +49386,6 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -50732,23 +50889,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="423"/>
-      <c r="C1" s="425" t="s">
+      <c r="B1" s="404"/>
+      <c r="C1" s="406" t="s">
         <v>277</v>
       </c>
-      <c r="D1" s="426"/>
-      <c r="E1" s="426"/>
-      <c r="F1" s="426"/>
-      <c r="G1" s="426"/>
-      <c r="H1" s="426"/>
-      <c r="I1" s="426"/>
-      <c r="J1" s="426"/>
-      <c r="K1" s="426"/>
-      <c r="L1" s="426"/>
-      <c r="M1" s="426"/>
+      <c r="D1" s="407"/>
+      <c r="E1" s="407"/>
+      <c r="F1" s="407"/>
+      <c r="G1" s="407"/>
+      <c r="H1" s="407"/>
+      <c r="I1" s="407"/>
+      <c r="J1" s="407"/>
+      <c r="K1" s="407"/>
+      <c r="L1" s="407"/>
+      <c r="M1" s="407"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="424"/>
+      <c r="B2" s="405"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -50758,21 +50915,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="427" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="428"/>
+      <c r="B3" s="408" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="409"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="429" t="s">
+      <c r="H3" s="410" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="429"/>
+      <c r="I3" s="410"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="396" t="s">
+      <c r="R3" s="415" t="s">
         <v>38</v>
       </c>
     </row>
@@ -50787,14 +50944,14 @@
       <c r="D4" s="16">
         <v>44682</v>
       </c>
-      <c r="E4" s="430" t="s">
+      <c r="E4" s="411" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="431"/>
-      <c r="H4" s="432" t="s">
+      <c r="F4" s="412"/>
+      <c r="H4" s="413" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="433"/>
+      <c r="I4" s="414"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -50804,11 +50961,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="403" t="s">
+      <c r="P4" s="422" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="404"/>
-      <c r="R4" s="397"/>
+      <c r="Q4" s="423"/>
+      <c r="R4" s="416"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -52325,11 +52482,11 @@
       <c r="J40" s="71"/>
       <c r="K40" s="74"/>
       <c r="L40" s="73"/>
-      <c r="M40" s="405">
+      <c r="M40" s="424">
         <f>SUM(M5:M39)</f>
         <v>2144215</v>
       </c>
-      <c r="N40" s="407">
+      <c r="N40" s="426">
         <f>SUM(N5:N39)</f>
         <v>62525</v>
       </c>
@@ -52354,8 +52511,8 @@
       <c r="J41" s="71"/>
       <c r="K41" s="235"/>
       <c r="L41" s="73"/>
-      <c r="M41" s="406"/>
-      <c r="N41" s="408"/>
+      <c r="M41" s="425"/>
+      <c r="N41" s="427"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -52566,29 +52723,29 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="409" t="s">
+      <c r="H53" s="428" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="410"/>
+      <c r="I53" s="429"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="411">
+      <c r="K53" s="430">
         <f>I51+L51</f>
         <v>51231.42</v>
       </c>
-      <c r="L53" s="412"/>
-      <c r="M53" s="413">
+      <c r="L53" s="431"/>
+      <c r="M53" s="432">
         <f>N40+M40</f>
         <v>2206740</v>
       </c>
-      <c r="N53" s="414"/>
+      <c r="N53" s="433"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="415" t="s">
+      <c r="D54" s="434" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="415"/>
+      <c r="E54" s="434"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
         <v>2189405.58</v>
@@ -52599,22 +52756,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="416" t="s">
+      <c r="D55" s="435" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="416"/>
+      <c r="E55" s="435"/>
       <c r="F55" s="111">
         <v>-2251924.65</v>
       </c>
-      <c r="I55" s="417" t="s">
+      <c r="I55" s="436" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="418"/>
-      <c r="K55" s="419">
+      <c r="J55" s="437"/>
+      <c r="K55" s="438">
         <f>F57+F58+F59</f>
         <v>112552.74000000017</v>
       </c>
-      <c r="L55" s="420"/>
+      <c r="L55" s="439"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -52645,11 +52802,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="421">
+      <c r="K57" s="440">
         <f>-C4</f>
         <v>-297874.59000000003</v>
       </c>
-      <c r="L57" s="422"/>
+      <c r="L57" s="441"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -52666,22 +52823,22 @@
       <c r="C59" s="128">
         <v>44710</v>
       </c>
-      <c r="D59" s="398" t="s">
+      <c r="D59" s="417" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="399"/>
+      <c r="E59" s="418"/>
       <c r="F59" s="129">
         <v>149938.81</v>
       </c>
-      <c r="I59" s="400" t="s">
+      <c r="I59" s="419" t="s">
         <v>325</v>
       </c>
-      <c r="J59" s="401"/>
-      <c r="K59" s="402">
+      <c r="J59" s="420"/>
+      <c r="K59" s="421">
         <f>K55+K57</f>
         <v>-185321.84999999986</v>
       </c>
-      <c r="L59" s="402"/>
+      <c r="L59" s="421"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="130"/>
@@ -52809,18 +52966,6 @@
     <sortCondition ref="J35:J40"/>
   </sortState>
   <mergeCells count="21">
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -52830,6 +52975,18 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL#15  ARCHIVO   2 0 2 2/CENTRAL #12  DICIEMBRE 2022/BALANCE   HERRADURA  DICIEMBRE       2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL#15  ARCHIVO   2 0 2 2/CENTRAL #12  DICIEMBRE 2022/BALANCE   HERRADURA  DICIEMBRE       2022.xlsx
@@ -752,7 +752,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1177" uniqueCount="594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1183" uniqueCount="594">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -2546,7 +2546,7 @@
     <t>CHORIZO-ARABE</t>
   </si>
   <si>
-    <t>=</t>
+    <t>nomina # 50</t>
   </si>
 </sst>
 </file>
@@ -3023,7 +3023,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3105,6 +3105,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3919,7 +3925,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="446">
+  <cellXfs count="449">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -4658,39 +4664,6 @@
     <xf numFmtId="44" fontId="2" fillId="14" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="16" fillId="14" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="14" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="44" fontId="44" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -4772,6 +4745,39 @@
     <xf numFmtId="44" fontId="13" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="44" fontId="14" fillId="0" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4784,6 +4790,9 @@
     <xf numFmtId="166" fontId="12" fillId="6" borderId="51" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="17" fillId="15" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="15" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -10216,23 +10225,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="404"/>
-      <c r="C1" s="406" t="s">
+      <c r="B1" s="431"/>
+      <c r="C1" s="433" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="407"/>
-      <c r="E1" s="407"/>
-      <c r="F1" s="407"/>
-      <c r="G1" s="407"/>
-      <c r="H1" s="407"/>
-      <c r="I1" s="407"/>
-      <c r="J1" s="407"/>
-      <c r="K1" s="407"/>
-      <c r="L1" s="407"/>
-      <c r="M1" s="407"/>
+      <c r="D1" s="434"/>
+      <c r="E1" s="434"/>
+      <c r="F1" s="434"/>
+      <c r="G1" s="434"/>
+      <c r="H1" s="434"/>
+      <c r="I1" s="434"/>
+      <c r="J1" s="434"/>
+      <c r="K1" s="434"/>
+      <c r="L1" s="434"/>
+      <c r="M1" s="434"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="405"/>
+      <c r="B2" s="432"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -10242,21 +10251,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="408" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="409"/>
+      <c r="B3" s="435" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="436"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="410" t="s">
+      <c r="H3" s="437" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="410"/>
+      <c r="I3" s="437"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="415" t="s">
+      <c r="R3" s="404" t="s">
         <v>38</v>
       </c>
     </row>
@@ -10271,14 +10280,14 @@
       <c r="D4" s="16">
         <v>44563</v>
       </c>
-      <c r="E4" s="411" t="s">
+      <c r="E4" s="438" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="412"/>
-      <c r="H4" s="413" t="s">
+      <c r="F4" s="439"/>
+      <c r="H4" s="440" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="414"/>
+      <c r="I4" s="441"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -10288,11 +10297,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="422" t="s">
+      <c r="P4" s="411" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="423"/>
-      <c r="R4" s="416"/>
+      <c r="Q4" s="412"/>
+      <c r="R4" s="405"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -11747,11 +11756,11 @@
       <c r="J40" s="71"/>
       <c r="K40" s="87"/>
       <c r="L40" s="73"/>
-      <c r="M40" s="424">
+      <c r="M40" s="413">
         <f>SUM(M5:M39)</f>
         <v>1527030</v>
       </c>
-      <c r="N40" s="426">
+      <c r="N40" s="415">
         <f>SUM(N5:N39)</f>
         <v>50013</v>
       </c>
@@ -11776,8 +11785,8 @@
       <c r="J41" s="71"/>
       <c r="K41" s="74"/>
       <c r="L41" s="73"/>
-      <c r="M41" s="425"/>
-      <c r="N41" s="427"/>
+      <c r="M41" s="414"/>
+      <c r="N41" s="416"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -11984,29 +11993,29 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="428" t="s">
+      <c r="H53" s="417" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="429"/>
+      <c r="I53" s="418"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="430">
+      <c r="K53" s="419">
         <f>I51+L51</f>
         <v>50143.28</v>
       </c>
-      <c r="L53" s="431"/>
-      <c r="M53" s="432">
+      <c r="L53" s="420"/>
+      <c r="M53" s="421">
         <f>N40+M40</f>
         <v>1577043</v>
       </c>
-      <c r="N53" s="433"/>
+      <c r="N53" s="422"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="434" t="s">
+      <c r="D54" s="423" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="434"/>
+      <c r="E54" s="423"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
         <v>1561421.72</v>
@@ -12017,22 +12026,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="435" t="s">
+      <c r="D55" s="424" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="435"/>
+      <c r="E55" s="424"/>
       <c r="F55" s="111">
         <v>-1419082.77</v>
       </c>
-      <c r="I55" s="436" t="s">
+      <c r="I55" s="425" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="437"/>
-      <c r="K55" s="438">
+      <c r="J55" s="426"/>
+      <c r="K55" s="427">
         <f>F57+F58+F59</f>
         <v>296963.46999999997</v>
       </c>
-      <c r="L55" s="439"/>
+      <c r="L55" s="428"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -12063,11 +12072,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="440">
+      <c r="K57" s="429">
         <f>-C4</f>
         <v>-221059.7</v>
       </c>
-      <c r="L57" s="441"/>
+      <c r="L57" s="430"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -12084,22 +12093,22 @@
       <c r="C59" s="128">
         <v>44591</v>
       </c>
-      <c r="D59" s="417" t="s">
+      <c r="D59" s="406" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="418"/>
+      <c r="E59" s="407"/>
       <c r="F59" s="129">
         <v>154314.51999999999</v>
       </c>
-      <c r="I59" s="419" t="s">
+      <c r="I59" s="408" t="s">
         <v>168</v>
       </c>
-      <c r="J59" s="420"/>
-      <c r="K59" s="421">
+      <c r="J59" s="409"/>
+      <c r="K59" s="410">
         <f>K55+K57</f>
         <v>75903.76999999996</v>
       </c>
-      <c r="L59" s="421"/>
+      <c r="L59" s="410"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="130"/>
@@ -12224,6 +12233,12 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="D59:E59"/>
     <mergeCell ref="I59:J59"/>
@@ -12239,12 +12254,6 @@
     <mergeCell ref="I55:J55"/>
     <mergeCell ref="K55:L55"/>
     <mergeCell ref="K57:L57"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -13697,23 +13706,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="404"/>
-      <c r="C1" s="406" t="s">
+      <c r="B1" s="431"/>
+      <c r="C1" s="433" t="s">
         <v>326</v>
       </c>
-      <c r="D1" s="407"/>
-      <c r="E1" s="407"/>
-      <c r="F1" s="407"/>
-      <c r="G1" s="407"/>
-      <c r="H1" s="407"/>
-      <c r="I1" s="407"/>
-      <c r="J1" s="407"/>
-      <c r="K1" s="407"/>
-      <c r="L1" s="407"/>
-      <c r="M1" s="407"/>
+      <c r="D1" s="434"/>
+      <c r="E1" s="434"/>
+      <c r="F1" s="434"/>
+      <c r="G1" s="434"/>
+      <c r="H1" s="434"/>
+      <c r="I1" s="434"/>
+      <c r="J1" s="434"/>
+      <c r="K1" s="434"/>
+      <c r="L1" s="434"/>
+      <c r="M1" s="434"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="405"/>
+      <c r="B2" s="432"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -13723,21 +13732,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="408" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="409"/>
+      <c r="B3" s="435" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="436"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="410" t="s">
+      <c r="H3" s="437" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="410"/>
+      <c r="I3" s="437"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="415" t="s">
+      <c r="R3" s="404" t="s">
         <v>38</v>
       </c>
     </row>
@@ -13752,14 +13761,14 @@
       <c r="D4" s="16">
         <v>44710</v>
       </c>
-      <c r="E4" s="411" t="s">
+      <c r="E4" s="438" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="412"/>
-      <c r="H4" s="413" t="s">
+      <c r="F4" s="439"/>
+      <c r="H4" s="440" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="414"/>
+      <c r="I4" s="441"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -13769,11 +13778,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="422" t="s">
+      <c r="P4" s="411" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="423"/>
-      <c r="R4" s="416"/>
+      <c r="Q4" s="412"/>
+      <c r="R4" s="405"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -15303,11 +15312,11 @@
       <c r="J40" s="71"/>
       <c r="K40" s="74"/>
       <c r="L40" s="73"/>
-      <c r="M40" s="424">
+      <c r="M40" s="413">
         <f>SUM(M5:M39)</f>
         <v>2772689</v>
       </c>
-      <c r="N40" s="426">
+      <c r="N40" s="415">
         <f>SUM(N5:N39)</f>
         <v>107354</v>
       </c>
@@ -15338,8 +15347,8 @@
       <c r="L41" s="73">
         <v>638.99</v>
       </c>
-      <c r="M41" s="425"/>
-      <c r="N41" s="427"/>
+      <c r="M41" s="414"/>
+      <c r="N41" s="416"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -15585,29 +15594,29 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="428" t="s">
+      <c r="H53" s="417" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="429"/>
+      <c r="I53" s="418"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="430">
+      <c r="K53" s="419">
         <f>I51+L51</f>
         <v>60691.69</v>
       </c>
-      <c r="L53" s="431"/>
-      <c r="M53" s="432">
+      <c r="L53" s="420"/>
+      <c r="M53" s="421">
         <f>N40+M40</f>
         <v>2880043</v>
       </c>
-      <c r="N53" s="433"/>
+      <c r="N53" s="422"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="434" t="s">
+      <c r="D54" s="423" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="434"/>
+      <c r="E54" s="423"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
         <v>2844548.31</v>
@@ -15618,22 +15627,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="435" t="s">
+      <c r="D55" s="424" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="435"/>
+      <c r="E55" s="424"/>
       <c r="F55" s="111">
         <v>-2875380.48</v>
       </c>
-      <c r="I55" s="436" t="s">
+      <c r="I55" s="425" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="437"/>
-      <c r="K55" s="438">
+      <c r="J55" s="426"/>
+      <c r="K55" s="427">
         <f>F57+F58+F59</f>
         <v>247554.74000000008</v>
       </c>
-      <c r="L55" s="439"/>
+      <c r="L55" s="428"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -15664,11 +15673,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="440">
+      <c r="K57" s="429">
         <f>-C4</f>
         <v>-149938.81</v>
       </c>
-      <c r="L57" s="441"/>
+      <c r="L57" s="430"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -15685,22 +15694,22 @@
       <c r="C59" s="128">
         <v>44745</v>
       </c>
-      <c r="D59" s="417" t="s">
+      <c r="D59" s="406" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="418"/>
+      <c r="E59" s="407"/>
       <c r="F59" s="129">
         <v>232165.91</v>
       </c>
-      <c r="I59" s="419" t="s">
+      <c r="I59" s="408" t="s">
         <v>168</v>
       </c>
-      <c r="J59" s="420"/>
-      <c r="K59" s="421">
+      <c r="J59" s="409"/>
+      <c r="K59" s="410">
         <f>K55+K57</f>
         <v>97615.93000000008</v>
       </c>
-      <c r="L59" s="421"/>
+      <c r="L59" s="410"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="130"/>
@@ -15828,18 +15837,6 @@
     <sortCondition ref="B7:B9"/>
   </sortState>
   <mergeCells count="21">
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -15849,6 +15846,18 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.38" right="0.17" top="0.4" bottom="0.34" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -17330,23 +17339,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="404"/>
-      <c r="C1" s="406" t="s">
+      <c r="B1" s="431"/>
+      <c r="C1" s="433" t="s">
         <v>380</v>
       </c>
-      <c r="D1" s="407"/>
-      <c r="E1" s="407"/>
-      <c r="F1" s="407"/>
-      <c r="G1" s="407"/>
-      <c r="H1" s="407"/>
-      <c r="I1" s="407"/>
-      <c r="J1" s="407"/>
-      <c r="K1" s="407"/>
-      <c r="L1" s="407"/>
-      <c r="M1" s="407"/>
+      <c r="D1" s="434"/>
+      <c r="E1" s="434"/>
+      <c r="F1" s="434"/>
+      <c r="G1" s="434"/>
+      <c r="H1" s="434"/>
+      <c r="I1" s="434"/>
+      <c r="J1" s="434"/>
+      <c r="K1" s="434"/>
+      <c r="L1" s="434"/>
+      <c r="M1" s="434"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="405"/>
+      <c r="B2" s="432"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -17356,21 +17365,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="408" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="409"/>
+      <c r="B3" s="435" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="436"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="410" t="s">
+      <c r="H3" s="437" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="410"/>
+      <c r="I3" s="437"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="415" t="s">
+      <c r="R3" s="404" t="s">
         <v>38</v>
       </c>
     </row>
@@ -17385,14 +17394,14 @@
       <c r="D4" s="16">
         <v>44745</v>
       </c>
-      <c r="E4" s="411" t="s">
+      <c r="E4" s="438" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="412"/>
-      <c r="H4" s="413" t="s">
+      <c r="F4" s="439"/>
+      <c r="H4" s="440" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="414"/>
+      <c r="I4" s="441"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -17402,11 +17411,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="422" t="s">
+      <c r="P4" s="411" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="423"/>
-      <c r="R4" s="416"/>
+      <c r="Q4" s="412"/>
+      <c r="R4" s="405"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -18851,11 +18860,11 @@
       <c r="J40" s="71"/>
       <c r="K40" s="74"/>
       <c r="L40" s="73"/>
-      <c r="M40" s="424">
+      <c r="M40" s="413">
         <f>SUM(M5:M39)</f>
         <v>2373103</v>
       </c>
-      <c r="N40" s="426">
+      <c r="N40" s="415">
         <f>SUM(N5:N39)</f>
         <v>67308</v>
       </c>
@@ -18884,8 +18893,8 @@
       <c r="J41" s="71"/>
       <c r="K41" s="235"/>
       <c r="L41" s="73"/>
-      <c r="M41" s="425"/>
-      <c r="N41" s="427"/>
+      <c r="M41" s="414"/>
+      <c r="N41" s="416"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -19100,29 +19109,29 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="428" t="s">
+      <c r="H53" s="417" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="429"/>
+      <c r="I53" s="418"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="430">
+      <c r="K53" s="419">
         <f>I51+L51</f>
         <v>79649.720000000016</v>
       </c>
-      <c r="L53" s="431"/>
-      <c r="M53" s="432">
+      <c r="L53" s="420"/>
+      <c r="M53" s="421">
         <f>N40+M40</f>
         <v>2440411</v>
       </c>
-      <c r="N53" s="433"/>
+      <c r="N53" s="422"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="434" t="s">
+      <c r="D54" s="423" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="434"/>
+      <c r="E54" s="423"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
         <v>2356249.2799999998</v>
@@ -19133,22 +19142,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="435" t="s">
+      <c r="D55" s="424" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="435"/>
+      <c r="E55" s="424"/>
       <c r="F55" s="111">
         <v>-2471332.31</v>
       </c>
-      <c r="I55" s="436" t="s">
+      <c r="I55" s="425" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="437"/>
-      <c r="K55" s="438">
+      <c r="J55" s="426"/>
+      <c r="K55" s="427">
         <f>F57+F58+F59</f>
         <v>214026.38999999972</v>
       </c>
-      <c r="L55" s="439"/>
+      <c r="L55" s="428"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -19179,11 +19188,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="440">
+      <c r="K57" s="429">
         <f>-C4</f>
         <v>-232165.91</v>
       </c>
-      <c r="L57" s="441"/>
+      <c r="L57" s="430"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -19200,22 +19209,22 @@
       <c r="C59" s="128">
         <v>44773</v>
       </c>
-      <c r="D59" s="417" t="s">
+      <c r="D59" s="406" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="418"/>
+      <c r="E59" s="407"/>
       <c r="F59" s="129">
         <v>273736.42</v>
       </c>
-      <c r="I59" s="419" t="s">
+      <c r="I59" s="408" t="s">
         <v>325</v>
       </c>
-      <c r="J59" s="420"/>
-      <c r="K59" s="421">
+      <c r="J59" s="409"/>
+      <c r="K59" s="410">
         <f>K55+K57</f>
         <v>-18139.520000000281</v>
       </c>
-      <c r="L59" s="421"/>
+      <c r="L59" s="410"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="130"/>
@@ -19340,18 +19349,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -19361,6 +19358,18 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.31496062992125984" right="0.27559055118110237" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="60" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -20752,23 +20761,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="404"/>
-      <c r="C1" s="406" t="s">
+      <c r="B1" s="431"/>
+      <c r="C1" s="433" t="s">
         <v>421</v>
       </c>
-      <c r="D1" s="407"/>
-      <c r="E1" s="407"/>
-      <c r="F1" s="407"/>
-      <c r="G1" s="407"/>
-      <c r="H1" s="407"/>
-      <c r="I1" s="407"/>
-      <c r="J1" s="407"/>
-      <c r="K1" s="407"/>
-      <c r="L1" s="407"/>
-      <c r="M1" s="407"/>
+      <c r="D1" s="434"/>
+      <c r="E1" s="434"/>
+      <c r="F1" s="434"/>
+      <c r="G1" s="434"/>
+      <c r="H1" s="434"/>
+      <c r="I1" s="434"/>
+      <c r="J1" s="434"/>
+      <c r="K1" s="434"/>
+      <c r="L1" s="434"/>
+      <c r="M1" s="434"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="405"/>
+      <c r="B2" s="432"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -20778,21 +20787,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="408" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="409"/>
+      <c r="B3" s="435" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="436"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="410" t="s">
+      <c r="H3" s="437" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="410"/>
+      <c r="I3" s="437"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="415" t="s">
+      <c r="R3" s="404" t="s">
         <v>38</v>
       </c>
     </row>
@@ -20807,14 +20816,14 @@
       <c r="D4" s="16">
         <v>44773</v>
       </c>
-      <c r="E4" s="411" t="s">
+      <c r="E4" s="438" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="412"/>
-      <c r="H4" s="413" t="s">
+      <c r="F4" s="439"/>
+      <c r="H4" s="440" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="414"/>
+      <c r="I4" s="441"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -20824,11 +20833,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="422" t="s">
+      <c r="P4" s="411" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="423"/>
-      <c r="R4" s="416"/>
+      <c r="Q4" s="412"/>
+      <c r="R4" s="405"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -22308,11 +22317,11 @@
       <c r="J40" s="71"/>
       <c r="K40" s="74"/>
       <c r="L40" s="73"/>
-      <c r="M40" s="424">
+      <c r="M40" s="413">
         <f>SUM(M5:M39)</f>
         <v>2375259</v>
       </c>
-      <c r="N40" s="426">
+      <c r="N40" s="415">
         <f>SUM(N5:N39)</f>
         <v>61117</v>
       </c>
@@ -22341,8 +22350,8 @@
       <c r="J41" s="71"/>
       <c r="K41" s="235"/>
       <c r="L41" s="73"/>
-      <c r="M41" s="425"/>
-      <c r="N41" s="427"/>
+      <c r="M41" s="414"/>
+      <c r="N41" s="416"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -22557,29 +22566,29 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="428" t="s">
+      <c r="H53" s="417" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="429"/>
+      <c r="I53" s="418"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="430">
+      <c r="K53" s="419">
         <f>I51+L51</f>
         <v>52857.25</v>
       </c>
-      <c r="L53" s="431"/>
-      <c r="M53" s="432">
+      <c r="L53" s="420"/>
+      <c r="M53" s="421">
         <f>N40+M40</f>
         <v>2436376</v>
       </c>
-      <c r="N53" s="433"/>
+      <c r="N53" s="422"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="434" t="s">
+      <c r="D54" s="423" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="434"/>
+      <c r="E54" s="423"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
         <v>2370653.75</v>
@@ -22590,22 +22599,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="435" t="s">
+      <c r="D55" s="424" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="435"/>
+      <c r="E55" s="424"/>
       <c r="F55" s="111">
         <v>-2401197.5699999998</v>
       </c>
-      <c r="I55" s="436" t="s">
+      <c r="I55" s="425" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="437"/>
-      <c r="K55" s="438">
+      <c r="J55" s="426"/>
+      <c r="K55" s="427">
         <f>F57+F58+F59</f>
         <v>259241.77000000016</v>
       </c>
-      <c r="L55" s="439"/>
+      <c r="L55" s="428"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -22636,11 +22645,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="440">
+      <c r="K57" s="429">
         <f>-C4</f>
         <v>-273736.42</v>
       </c>
-      <c r="L57" s="441"/>
+      <c r="L57" s="430"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -22657,10 +22666,10 @@
       <c r="C59" s="128">
         <v>44801</v>
       </c>
-      <c r="D59" s="417" t="s">
+      <c r="D59" s="406" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="418"/>
+      <c r="E59" s="407"/>
       <c r="F59" s="129">
         <v>236400.59</v>
       </c>
@@ -22797,18 +22806,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -22818,6 +22815,18 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -24264,23 +24273,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="404"/>
-      <c r="C1" s="406" t="s">
+      <c r="B1" s="431"/>
+      <c r="C1" s="433" t="s">
         <v>465</v>
       </c>
-      <c r="D1" s="407"/>
-      <c r="E1" s="407"/>
-      <c r="F1" s="407"/>
-      <c r="G1" s="407"/>
-      <c r="H1" s="407"/>
-      <c r="I1" s="407"/>
-      <c r="J1" s="407"/>
-      <c r="K1" s="407"/>
-      <c r="L1" s="407"/>
-      <c r="M1" s="407"/>
+      <c r="D1" s="434"/>
+      <c r="E1" s="434"/>
+      <c r="F1" s="434"/>
+      <c r="G1" s="434"/>
+      <c r="H1" s="434"/>
+      <c r="I1" s="434"/>
+      <c r="J1" s="434"/>
+      <c r="K1" s="434"/>
+      <c r="L1" s="434"/>
+      <c r="M1" s="434"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="405"/>
+      <c r="B2" s="432"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -24290,21 +24299,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="408" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="409"/>
+      <c r="B3" s="435" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="436"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="410" t="s">
+      <c r="H3" s="437" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="410"/>
+      <c r="I3" s="437"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="415" t="s">
+      <c r="R3" s="404" t="s">
         <v>38</v>
       </c>
     </row>
@@ -24319,14 +24328,14 @@
       <c r="D4" s="16">
         <v>44801</v>
       </c>
-      <c r="E4" s="411" t="s">
+      <c r="E4" s="438" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="412"/>
-      <c r="H4" s="413" t="s">
+      <c r="F4" s="439"/>
+      <c r="H4" s="440" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="414"/>
+      <c r="I4" s="441"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -24336,11 +24345,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="422" t="s">
+      <c r="P4" s="411" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="423"/>
-      <c r="R4" s="416"/>
+      <c r="Q4" s="412"/>
+      <c r="R4" s="405"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -26068,11 +26077,11 @@
       <c r="L40" s="73">
         <v>927.48</v>
       </c>
-      <c r="M40" s="424">
+      <c r="M40" s="413">
         <f>SUM(M5:M39)</f>
         <v>3147309.5</v>
       </c>
-      <c r="N40" s="426">
+      <c r="N40" s="415">
         <f>SUM(N5:N39)</f>
         <v>76569</v>
       </c>
@@ -26107,8 +26116,8 @@
       <c r="L41" s="73">
         <v>33312</v>
       </c>
-      <c r="M41" s="425"/>
-      <c r="N41" s="427"/>
+      <c r="M41" s="414"/>
+      <c r="N41" s="416"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -26351,29 +26360,29 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="428" t="s">
+      <c r="H53" s="417" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="429"/>
+      <c r="I53" s="418"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="430">
+      <c r="K53" s="419">
         <f>I51+L51</f>
         <v>102873.87000000001</v>
       </c>
-      <c r="L53" s="431"/>
-      <c r="M53" s="432">
+      <c r="L53" s="420"/>
+      <c r="M53" s="421">
         <f>N40+M40</f>
         <v>3223878.5</v>
       </c>
-      <c r="N53" s="433"/>
+      <c r="N53" s="422"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="434" t="s">
+      <c r="D54" s="423" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="434"/>
+      <c r="E54" s="423"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
         <v>3130076.13</v>
@@ -26384,22 +26393,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="435" t="s">
+      <c r="D55" s="424" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="435"/>
+      <c r="E55" s="424"/>
       <c r="F55" s="111">
         <v>-3171951.31</v>
       </c>
-      <c r="I55" s="436" t="s">
+      <c r="I55" s="425" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="437"/>
-      <c r="K55" s="438">
+      <c r="J55" s="426"/>
+      <c r="K55" s="427">
         <f>F57+F58+F59</f>
         <v>265314.0299999998</v>
       </c>
-      <c r="L55" s="439"/>
+      <c r="L55" s="428"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -26430,11 +26439,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="440">
+      <c r="K57" s="429">
         <f>-C4</f>
         <v>-236400.59</v>
       </c>
-      <c r="L57" s="441"/>
+      <c r="L57" s="430"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -26451,10 +26460,10 @@
       <c r="C59" s="128">
         <v>44836</v>
       </c>
-      <c r="D59" s="417" t="s">
+      <c r="D59" s="406" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="418"/>
+      <c r="E59" s="407"/>
       <c r="F59" s="129">
         <v>242354.21</v>
       </c>
@@ -26594,6 +26603,18 @@
     <sortCondition ref="J41:J45"/>
   </sortState>
   <mergeCells count="21">
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -26603,18 +26624,6 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -28112,23 +28121,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="404"/>
-      <c r="C1" s="406" t="s">
+      <c r="B1" s="431"/>
+      <c r="C1" s="433" t="s">
         <v>512</v>
       </c>
-      <c r="D1" s="407"/>
-      <c r="E1" s="407"/>
-      <c r="F1" s="407"/>
-      <c r="G1" s="407"/>
-      <c r="H1" s="407"/>
-      <c r="I1" s="407"/>
-      <c r="J1" s="407"/>
-      <c r="K1" s="407"/>
-      <c r="L1" s="407"/>
-      <c r="M1" s="407"/>
+      <c r="D1" s="434"/>
+      <c r="E1" s="434"/>
+      <c r="F1" s="434"/>
+      <c r="G1" s="434"/>
+      <c r="H1" s="434"/>
+      <c r="I1" s="434"/>
+      <c r="J1" s="434"/>
+      <c r="K1" s="434"/>
+      <c r="L1" s="434"/>
+      <c r="M1" s="434"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="405"/>
+      <c r="B2" s="432"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -28138,21 +28147,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="408" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="409"/>
+      <c r="B3" s="435" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="436"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="410" t="s">
+      <c r="H3" s="437" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="410"/>
+      <c r="I3" s="437"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="415" t="s">
+      <c r="R3" s="404" t="s">
         <v>38</v>
       </c>
     </row>
@@ -28167,14 +28176,14 @@
       <c r="D4" s="16">
         <v>44836</v>
       </c>
-      <c r="E4" s="411" t="s">
+      <c r="E4" s="438" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="412"/>
-      <c r="H4" s="413" t="s">
+      <c r="F4" s="439"/>
+      <c r="H4" s="440" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="414"/>
+      <c r="I4" s="441"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -28184,11 +28193,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="422" t="s">
+      <c r="P4" s="411" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="423"/>
-      <c r="R4" s="416"/>
+      <c r="Q4" s="412"/>
+      <c r="R4" s="405"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -29867,11 +29876,11 @@
       <c r="J40" s="71"/>
       <c r="K40" s="360"/>
       <c r="L40" s="73"/>
-      <c r="M40" s="424">
+      <c r="M40" s="413">
         <f>SUM(M5:M39)</f>
         <v>2563550</v>
       </c>
-      <c r="N40" s="426">
+      <c r="N40" s="415">
         <f>SUM(N5:N39)</f>
         <v>77235</v>
       </c>
@@ -29901,8 +29910,8 @@
       <c r="J41" s="71"/>
       <c r="K41" s="363"/>
       <c r="L41" s="73"/>
-      <c r="M41" s="425"/>
-      <c r="N41" s="427"/>
+      <c r="M41" s="414"/>
+      <c r="N41" s="416"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -30117,29 +30126,29 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="428" t="s">
+      <c r="H53" s="417" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="429"/>
+      <c r="I53" s="418"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="430">
+      <c r="K53" s="419">
         <f>I51+L51</f>
         <v>152307.24</v>
       </c>
-      <c r="L53" s="431"/>
-      <c r="M53" s="432">
+      <c r="L53" s="420"/>
+      <c r="M53" s="421">
         <f>N40+M40</f>
         <v>2640785</v>
       </c>
-      <c r="N53" s="433"/>
+      <c r="N53" s="422"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="434" t="s">
+      <c r="D54" s="423" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="434"/>
+      <c r="E54" s="423"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
         <v>2467299.5599999996</v>
@@ -30150,22 +30159,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="435" t="s">
+      <c r="D55" s="424" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="435"/>
+      <c r="E55" s="424"/>
       <c r="F55" s="111">
         <v>-2793202.57</v>
       </c>
-      <c r="I55" s="436" t="s">
+      <c r="I55" s="425" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="437"/>
-      <c r="K55" s="438">
+      <c r="J55" s="426"/>
+      <c r="K55" s="427">
         <f>F57+F58+F59</f>
         <v>149047.74999999977</v>
       </c>
-      <c r="L55" s="439"/>
+      <c r="L55" s="428"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -30196,11 +30205,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="440">
+      <c r="K57" s="429">
         <f>-C4</f>
         <v>-242354.21</v>
       </c>
-      <c r="L57" s="441"/>
+      <c r="L57" s="430"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -30217,10 +30226,10 @@
       <c r="C59" s="128">
         <v>44864</v>
       </c>
-      <c r="D59" s="417" t="s">
+      <c r="D59" s="406" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="418"/>
+      <c r="E59" s="407"/>
       <c r="F59" s="129">
         <v>419424.76</v>
       </c>
@@ -30360,18 +30369,6 @@
     <sortCondition ref="J34:J39"/>
   </sortState>
   <mergeCells count="21">
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -30381,6 +30378,18 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -33545,23 +33554,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="404"/>
-      <c r="C1" s="406" t="s">
+      <c r="B1" s="431"/>
+      <c r="C1" s="433" t="s">
         <v>550</v>
       </c>
-      <c r="D1" s="407"/>
-      <c r="E1" s="407"/>
-      <c r="F1" s="407"/>
-      <c r="G1" s="407"/>
-      <c r="H1" s="407"/>
-      <c r="I1" s="407"/>
-      <c r="J1" s="407"/>
-      <c r="K1" s="407"/>
-      <c r="L1" s="407"/>
-      <c r="M1" s="407"/>
+      <c r="D1" s="434"/>
+      <c r="E1" s="434"/>
+      <c r="F1" s="434"/>
+      <c r="G1" s="434"/>
+      <c r="H1" s="434"/>
+      <c r="I1" s="434"/>
+      <c r="J1" s="434"/>
+      <c r="K1" s="434"/>
+      <c r="L1" s="434"/>
+      <c r="M1" s="434"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="405"/>
+      <c r="B2" s="432"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -33571,21 +33580,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="408" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="409"/>
+      <c r="B3" s="435" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="436"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="410" t="s">
+      <c r="H3" s="437" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="410"/>
+      <c r="I3" s="437"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="415" t="s">
+      <c r="R3" s="404" t="s">
         <v>38</v>
       </c>
     </row>
@@ -33600,14 +33609,14 @@
       <c r="D4" s="16">
         <v>44864</v>
       </c>
-      <c r="E4" s="411" t="s">
+      <c r="E4" s="438" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="412"/>
-      <c r="H4" s="413" t="s">
+      <c r="F4" s="439"/>
+      <c r="H4" s="440" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="414"/>
+      <c r="I4" s="441"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -33617,11 +33626,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="422" t="s">
+      <c r="P4" s="411" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="423"/>
-      <c r="R4" s="416"/>
+      <c r="Q4" s="412"/>
+      <c r="R4" s="405"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -35286,11 +35295,11 @@
       <c r="J40" s="71"/>
       <c r="K40" s="360"/>
       <c r="L40" s="73"/>
-      <c r="M40" s="424">
+      <c r="M40" s="413">
         <f>SUM(M5:M39)</f>
         <v>2972555</v>
       </c>
-      <c r="N40" s="426">
+      <c r="N40" s="415">
         <f>SUM(N5:N39)</f>
         <v>108935</v>
       </c>
@@ -35320,8 +35329,8 @@
       <c r="J41" s="71"/>
       <c r="K41" s="363"/>
       <c r="L41" s="73"/>
-      <c r="M41" s="425"/>
-      <c r="N41" s="427"/>
+      <c r="M41" s="414"/>
+      <c r="N41" s="416"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -35536,29 +35545,29 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="428" t="s">
+      <c r="H53" s="417" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="429"/>
+      <c r="I53" s="418"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="430">
+      <c r="K53" s="419">
         <f>I51+L51</f>
         <v>84934.209999999992</v>
       </c>
-      <c r="L53" s="431"/>
-      <c r="M53" s="432">
+      <c r="L53" s="420"/>
+      <c r="M53" s="421">
         <f>N40+M40</f>
         <v>3081490</v>
       </c>
-      <c r="N53" s="433"/>
+      <c r="N53" s="422"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="434" t="s">
+      <c r="D54" s="423" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="434"/>
+      <c r="E54" s="423"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
         <v>2986572.79</v>
@@ -35569,22 +35578,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="435" t="s">
+      <c r="D55" s="424" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="435"/>
+      <c r="E55" s="424"/>
       <c r="F55" s="111">
         <v>-2936244.87</v>
       </c>
-      <c r="I55" s="436" t="s">
+      <c r="I55" s="425" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="437"/>
-      <c r="K55" s="438">
+      <c r="J55" s="426"/>
+      <c r="K55" s="427">
         <f>F57+F58+F59</f>
         <v>437052.46999999991</v>
       </c>
-      <c r="L55" s="439"/>
+      <c r="L55" s="428"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -35615,11 +35624,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="440">
+      <c r="K57" s="429">
         <f>-C4</f>
         <v>-419424.76</v>
       </c>
-      <c r="L57" s="441"/>
+      <c r="L57" s="430"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -35636,10 +35645,10 @@
       <c r="C59" s="128">
         <v>44892</v>
       </c>
-      <c r="D59" s="417" t="s">
+      <c r="D59" s="406" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="418"/>
+      <c r="E59" s="407"/>
       <c r="F59" s="129">
         <v>315698.55</v>
       </c>
@@ -35776,6 +35785,18 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -35785,18 +35806,6 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -37161,10 +37170,10 @@
   <dimension ref="A1:U81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="8" ySplit="4" topLeftCell="I5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="4" topLeftCell="M17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="M15" sqref="M15"/>
+      <selection pane="bottomRight" activeCell="R23" sqref="R23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37189,23 +37198,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="404"/>
-      <c r="C1" s="406" t="s">
+      <c r="B1" s="431"/>
+      <c r="C1" s="433" t="s">
         <v>589</v>
       </c>
-      <c r="D1" s="407"/>
-      <c r="E1" s="407"/>
-      <c r="F1" s="407"/>
-      <c r="G1" s="407"/>
-      <c r="H1" s="407"/>
-      <c r="I1" s="407"/>
-      <c r="J1" s="407"/>
-      <c r="K1" s="407"/>
-      <c r="L1" s="407"/>
-      <c r="M1" s="407"/>
+      <c r="D1" s="434"/>
+      <c r="E1" s="434"/>
+      <c r="F1" s="434"/>
+      <c r="G1" s="434"/>
+      <c r="H1" s="434"/>
+      <c r="I1" s="434"/>
+      <c r="J1" s="434"/>
+      <c r="K1" s="434"/>
+      <c r="L1" s="434"/>
+      <c r="M1" s="434"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="405"/>
+      <c r="B2" s="432"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -37215,21 +37224,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="408" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="409"/>
+      <c r="B3" s="435" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="436"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="410" t="s">
+      <c r="H3" s="437" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="410"/>
+      <c r="I3" s="437"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="415" t="s">
+      <c r="R3" s="404" t="s">
         <v>38</v>
       </c>
     </row>
@@ -37244,14 +37253,14 @@
       <c r="D4" s="16">
         <v>44892</v>
       </c>
-      <c r="E4" s="411" t="s">
+      <c r="E4" s="438" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="412"/>
-      <c r="H4" s="413" t="s">
+      <c r="F4" s="439"/>
+      <c r="H4" s="440" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="414"/>
+      <c r="I4" s="441"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -37261,11 +37270,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="422" t="s">
+      <c r="P4" s="411" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="423"/>
-      <c r="R4" s="416"/>
+      <c r="Q4" s="412"/>
+      <c r="R4" s="405"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -37464,7 +37473,7 @@
       <c r="C9" s="24">
         <v>26423</v>
       </c>
-      <c r="D9" s="328" t="s">
+      <c r="D9" s="335" t="s">
         <v>590</v>
       </c>
       <c r="E9" s="322">
@@ -37774,20 +37783,21 @@
       <c r="J15" s="36"/>
       <c r="K15" s="330"/>
       <c r="L15" s="38"/>
-      <c r="M15" s="30" t="s">
-        <v>593</v>
+      <c r="M15" s="30">
+        <f>30000+39204</f>
+        <v>69204</v>
       </c>
       <c r="N15" s="31">
-        <v>0</v>
+        <v>1409</v>
       </c>
       <c r="O15" s="314"/>
-      <c r="P15" s="32" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q15" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="P15" s="32">
+        <f t="shared" si="1"/>
+        <v>85943</v>
+      </c>
+      <c r="Q15" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="R15" s="12">
         <v>0</v>
@@ -37800,31 +37810,38 @@
         <v>44904</v>
       </c>
       <c r="C16" s="24">
-        <v>0</v>
-      </c>
-      <c r="D16" s="326"/>
+        <v>570</v>
+      </c>
+      <c r="D16" s="446" t="s">
+        <v>590</v>
+      </c>
       <c r="E16" s="322">
         <v>44904</v>
       </c>
-      <c r="F16" s="27"/>
+      <c r="F16" s="27">
+        <v>133146</v>
+      </c>
       <c r="G16" s="323"/>
       <c r="H16" s="324">
         <v>44904</v>
       </c>
-      <c r="I16" s="29"/>
+      <c r="I16" s="29">
+        <v>82</v>
+      </c>
       <c r="J16" s="36"/>
       <c r="K16" s="330"/>
       <c r="L16" s="8"/>
       <c r="M16" s="30">
-        <v>0</v>
+        <f>74080+55000</f>
+        <v>129080</v>
       </c>
       <c r="N16" s="31">
-        <v>0</v>
+        <v>3414</v>
       </c>
       <c r="O16" s="314"/>
       <c r="P16" s="32">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>133146</v>
       </c>
       <c r="Q16" s="12">
         <f t="shared" si="0"/>
@@ -37841,31 +37858,44 @@
         <v>44905</v>
       </c>
       <c r="C17" s="24">
-        <v>0</v>
-      </c>
-      <c r="D17" s="328"/>
+        <v>6397</v>
+      </c>
+      <c r="D17" s="335" t="s">
+        <v>590</v>
+      </c>
       <c r="E17" s="322">
         <v>44905</v>
       </c>
-      <c r="F17" s="27"/>
+      <c r="F17" s="27">
+        <v>134891</v>
+      </c>
       <c r="G17" s="323"/>
       <c r="H17" s="324">
         <v>44905</v>
       </c>
-      <c r="I17" s="29"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="336"/>
-      <c r="L17" s="46"/>
+      <c r="I17" s="29">
+        <v>175</v>
+      </c>
+      <c r="J17" s="36">
+        <v>44905</v>
+      </c>
+      <c r="K17" s="336" t="s">
+        <v>593</v>
+      </c>
+      <c r="L17" s="46">
+        <v>9500</v>
+      </c>
       <c r="M17" s="30">
-        <v>0</v>
+        <f>35000+75617</f>
+        <v>110617</v>
       </c>
       <c r="N17" s="31">
-        <v>0</v>
+        <v>8202</v>
       </c>
       <c r="O17" s="314"/>
       <c r="P17" s="32">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>134891</v>
       </c>
       <c r="Q17" s="12">
         <f t="shared" si="0"/>
@@ -37888,25 +37918,30 @@
       <c r="E18" s="322">
         <v>44906</v>
       </c>
-      <c r="F18" s="27"/>
+      <c r="F18" s="27">
+        <v>133350</v>
+      </c>
       <c r="G18" s="323"/>
       <c r="H18" s="324">
         <v>44906</v>
       </c>
-      <c r="I18" s="29"/>
+      <c r="I18" s="29">
+        <v>385</v>
+      </c>
       <c r="J18" s="36"/>
       <c r="K18" s="337"/>
       <c r="L18" s="38"/>
       <c r="M18" s="30">
-        <v>0</v>
+        <f>10180+35000+80000</f>
+        <v>125180</v>
       </c>
       <c r="N18" s="31">
-        <v>0</v>
+        <v>7785</v>
       </c>
       <c r="O18" s="314"/>
       <c r="P18" s="32">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>133350</v>
       </c>
       <c r="Q18" s="12">
         <f t="shared" si="0"/>
@@ -37929,29 +37964,34 @@
       <c r="E19" s="322">
         <v>44907</v>
       </c>
-      <c r="F19" s="27"/>
+      <c r="F19" s="27">
+        <v>108729</v>
+      </c>
       <c r="G19" s="323"/>
       <c r="H19" s="324">
         <v>44907</v>
       </c>
-      <c r="I19" s="29"/>
+      <c r="I19" s="29">
+        <v>111</v>
+      </c>
       <c r="J19" s="36"/>
       <c r="K19" s="338"/>
       <c r="L19" s="53"/>
       <c r="M19" s="30">
-        <v>0</v>
+        <f>80000+26700</f>
+        <v>106700</v>
       </c>
       <c r="N19" s="31">
-        <v>0</v>
+        <v>1919</v>
       </c>
       <c r="O19" s="314"/>
       <c r="P19" s="32">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>108730</v>
       </c>
       <c r="Q19" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R19" s="12">
         <v>0</v>
@@ -37970,25 +38010,30 @@
       <c r="E20" s="322">
         <v>44908</v>
       </c>
-      <c r="F20" s="27"/>
+      <c r="F20" s="27">
+        <v>80811</v>
+      </c>
       <c r="G20" s="323"/>
       <c r="H20" s="324">
         <v>44908</v>
       </c>
-      <c r="I20" s="29"/>
+      <c r="I20" s="29">
+        <v>107</v>
+      </c>
       <c r="J20" s="36"/>
       <c r="K20" s="339"/>
       <c r="L20" s="46"/>
       <c r="M20" s="30">
-        <v>0</v>
+        <f>20000+57356</f>
+        <v>77356</v>
       </c>
       <c r="N20" s="31">
-        <v>0</v>
+        <v>3348</v>
       </c>
       <c r="O20" s="314"/>
       <c r="P20" s="32">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>80811</v>
       </c>
       <c r="Q20" s="12">
         <f t="shared" si="0"/>
@@ -38005,35 +38050,41 @@
         <v>44909</v>
       </c>
       <c r="C21" s="24">
-        <v>0</v>
-      </c>
-      <c r="D21" s="326"/>
+        <v>4680</v>
+      </c>
+      <c r="D21" s="326" t="s">
+        <v>47</v>
+      </c>
       <c r="E21" s="322">
         <v>44909</v>
       </c>
-      <c r="F21" s="27"/>
+      <c r="F21" s="27">
+        <v>75497</v>
+      </c>
       <c r="G21" s="323"/>
       <c r="H21" s="324">
         <v>44909</v>
       </c>
-      <c r="I21" s="29"/>
+      <c r="I21" s="29">
+        <v>128</v>
+      </c>
       <c r="J21" s="36"/>
       <c r="K21" s="340"/>
       <c r="L21" s="46"/>
       <c r="M21" s="30">
-        <v>0</v>
+        <f>69766</f>
+        <v>69766</v>
       </c>
       <c r="N21" s="31">
-        <v>0</v>
+        <v>923</v>
       </c>
       <c r="O21" s="314"/>
       <c r="P21" s="32">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q21" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>75497</v>
+      </c>
+      <c r="Q21" s="12" t="s">
+        <v>471</v>
       </c>
       <c r="R21" s="12">
         <v>0</v>
@@ -38046,31 +38097,38 @@
         <v>44910</v>
       </c>
       <c r="C22" s="24">
-        <v>0</v>
-      </c>
-      <c r="D22" s="326"/>
+        <v>5</v>
+      </c>
+      <c r="D22" s="326" t="s">
+        <v>34</v>
+      </c>
       <c r="E22" s="322">
         <v>44910</v>
       </c>
-      <c r="F22" s="27"/>
+      <c r="F22" s="27">
+        <v>110669</v>
+      </c>
       <c r="G22" s="323"/>
       <c r="H22" s="324">
         <v>44910</v>
       </c>
-      <c r="I22" s="29"/>
+      <c r="I22" s="29">
+        <v>43</v>
+      </c>
       <c r="J22" s="36"/>
       <c r="K22" s="330"/>
       <c r="L22" s="56"/>
       <c r="M22" s="30">
-        <v>0</v>
+        <f>80000+27621</f>
+        <v>107621</v>
       </c>
       <c r="N22" s="31">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="O22" s="314"/>
       <c r="P22" s="32">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>110669</v>
       </c>
       <c r="Q22" s="12">
         <f t="shared" si="0"/>
@@ -38087,31 +38145,38 @@
         <v>44911</v>
       </c>
       <c r="C23" s="24">
-        <v>0</v>
-      </c>
-      <c r="D23" s="326"/>
+        <v>5522</v>
+      </c>
+      <c r="D23" s="335" t="s">
+        <v>590</v>
+      </c>
       <c r="E23" s="322">
         <v>44911</v>
       </c>
-      <c r="F23" s="27"/>
+      <c r="F23" s="27">
+        <v>141817</v>
+      </c>
       <c r="G23" s="323"/>
       <c r="H23" s="324">
         <v>44911</v>
       </c>
-      <c r="I23" s="29"/>
+      <c r="I23" s="29">
+        <v>162</v>
+      </c>
       <c r="J23" s="57"/>
       <c r="K23" s="341"/>
       <c r="L23" s="46"/>
       <c r="M23" s="30">
-        <v>0</v>
+        <f>30000+70000+34433</f>
+        <v>134433</v>
       </c>
       <c r="N23" s="31">
-        <v>0</v>
+        <v>1700</v>
       </c>
       <c r="O23" s="314"/>
       <c r="P23" s="32">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>141817</v>
       </c>
       <c r="Q23" s="12">
         <f t="shared" si="0"/>
@@ -38472,10 +38537,10 @@
       <c r="J32" s="71"/>
       <c r="K32" s="349"/>
       <c r="L32" s="73"/>
-      <c r="M32" s="30">
-        <v>0</v>
-      </c>
-      <c r="N32" s="31">
+      <c r="M32" s="447">
+        <v>0</v>
+      </c>
+      <c r="N32" s="448">
         <v>0</v>
       </c>
       <c r="O32" s="314"/>
@@ -38800,21 +38865,21 @@
       <c r="J40" s="71"/>
       <c r="K40" s="360"/>
       <c r="L40" s="73"/>
-      <c r="M40" s="424">
+      <c r="M40" s="413">
         <f>SUM(M5:M39)</f>
-        <v>1026928</v>
-      </c>
-      <c r="N40" s="426">
+        <v>1956885</v>
+      </c>
+      <c r="N40" s="415">
         <f>SUM(N5:N39)</f>
-        <v>36130</v>
+        <v>67830</v>
       </c>
       <c r="P40" s="32">
         <f t="shared" si="1"/>
-        <v>1063058</v>
-      </c>
-      <c r="Q40" s="284" t="e">
+        <v>2024715</v>
+      </c>
+      <c r="Q40" s="284">
         <f>SUM(Q5:Q39)</f>
-        <v>#VALUE!</v>
+        <v>71027</v>
       </c>
       <c r="R40" s="316">
         <f>SUM(R5:R39)</f>
@@ -38834,8 +38899,8 @@
       <c r="J41" s="71"/>
       <c r="K41" s="363"/>
       <c r="L41" s="73"/>
-      <c r="M41" s="425"/>
-      <c r="N41" s="427"/>
+      <c r="M41" s="414"/>
+      <c r="N41" s="416"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -39008,7 +39073,7 @@
       </c>
       <c r="C51" s="102">
         <f>SUM(C5:C50)</f>
-        <v>49042</v>
+        <v>66216</v>
       </c>
       <c r="D51" s="103"/>
       <c r="E51" s="104" t="s">
@@ -39016,7 +39081,7 @@
       </c>
       <c r="F51" s="105">
         <f>SUM(F5:F50)</f>
-        <v>1122474</v>
+        <v>2041384</v>
       </c>
       <c r="G51" s="103"/>
       <c r="H51" s="106" t="s">
@@ -39024,7 +39089,7 @@
       </c>
       <c r="I51" s="107">
         <f>SUM(I5:I50)</f>
-        <v>1287</v>
+        <v>2480</v>
       </c>
       <c r="J51" s="108"/>
       <c r="K51" s="109" t="s">
@@ -39032,7 +39097,7 @@
       </c>
       <c r="L51" s="110">
         <f>SUM(L5:L50)</f>
-        <v>9500</v>
+        <v>19000</v>
       </c>
       <c r="M51" s="111"/>
       <c r="N51" s="111"/>
@@ -39050,32 +39115,32 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="428" t="s">
+      <c r="H53" s="417" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="429"/>
+      <c r="I53" s="418"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="430">
+      <c r="K53" s="419">
         <f>I51+L51</f>
-        <v>10787</v>
-      </c>
-      <c r="L53" s="431"/>
-      <c r="M53" s="432">
+        <v>21480</v>
+      </c>
+      <c r="L53" s="420"/>
+      <c r="M53" s="421">
         <f>N40+M40</f>
-        <v>1063058</v>
-      </c>
-      <c r="N53" s="433"/>
+        <v>2024715</v>
+      </c>
+      <c r="N53" s="422"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="434" t="s">
+      <c r="D54" s="423" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="434"/>
+      <c r="E54" s="423"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
-        <v>1062645</v>
+        <v>1953688</v>
       </c>
       <c r="I54" s="116"/>
       <c r="J54" s="117"/>
@@ -39083,22 +39148,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="435" t="s">
+      <c r="D55" s="424" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="435"/>
+      <c r="E55" s="424"/>
       <c r="F55" s="111">
         <v>0</v>
       </c>
-      <c r="I55" s="436" t="s">
+      <c r="I55" s="425" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="437"/>
-      <c r="K55" s="438">
+      <c r="J55" s="426"/>
+      <c r="K55" s="427">
         <f>F57+F58+F59</f>
-        <v>1062645</v>
-      </c>
-      <c r="L55" s="439"/>
+        <v>1953688</v>
+      </c>
+      <c r="L55" s="428"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -39122,18 +39187,18 @@
       </c>
       <c r="F57" s="111">
         <f>SUM(F54:F56)</f>
-        <v>1062645</v>
+        <v>1953688</v>
       </c>
       <c r="H57" s="22"/>
       <c r="I57" s="124" t="s">
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="440">
+      <c r="K57" s="429">
         <f>-C4</f>
         <v>-315698.55</v>
       </c>
-      <c r="L57" s="441"/>
+      <c r="L57" s="430"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -39148,10 +39213,10 @@
     </row>
     <row r="59" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C59" s="128"/>
-      <c r="D59" s="417" t="s">
+      <c r="D59" s="406" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="418"/>
+      <c r="E59" s="407"/>
       <c r="F59" s="129">
         <v>0</v>
       </c>
@@ -39161,7 +39226,7 @@
       <c r="J59" s="444"/>
       <c r="K59" s="445">
         <f>K55+K57</f>
-        <v>746946.45</v>
+        <v>1637989.45</v>
       </c>
       <c r="L59" s="445"/>
     </row>
@@ -39288,20 +39353,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="N40:N41"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="M53:N53"/>
     <mergeCell ref="D55:E55"/>
     <mergeCell ref="I55:J55"/>
     <mergeCell ref="K55:L55"/>
@@ -39309,6 +39360,20 @@
     <mergeCell ref="D59:E59"/>
     <mergeCell ref="I59:J59"/>
     <mergeCell ref="K59:L59"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="N40:N41"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="M53:N53"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.35" bottom="0.28000000000000003" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -40433,23 +40498,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="404"/>
-      <c r="C1" s="406" t="s">
+      <c r="B1" s="431"/>
+      <c r="C1" s="433" t="s">
         <v>125</v>
       </c>
-      <c r="D1" s="407"/>
-      <c r="E1" s="407"/>
-      <c r="F1" s="407"/>
-      <c r="G1" s="407"/>
-      <c r="H1" s="407"/>
-      <c r="I1" s="407"/>
-      <c r="J1" s="407"/>
-      <c r="K1" s="407"/>
-      <c r="L1" s="407"/>
-      <c r="M1" s="407"/>
+      <c r="D1" s="434"/>
+      <c r="E1" s="434"/>
+      <c r="F1" s="434"/>
+      <c r="G1" s="434"/>
+      <c r="H1" s="434"/>
+      <c r="I1" s="434"/>
+      <c r="J1" s="434"/>
+      <c r="K1" s="434"/>
+      <c r="L1" s="434"/>
+      <c r="M1" s="434"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="405"/>
+      <c r="B2" s="432"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -40459,21 +40524,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="408" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="409"/>
+      <c r="B3" s="435" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="436"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="410" t="s">
+      <c r="H3" s="437" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="410"/>
+      <c r="I3" s="437"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="415" t="s">
+      <c r="R3" s="404" t="s">
         <v>38</v>
       </c>
     </row>
@@ -40488,14 +40553,14 @@
       <c r="D4" s="16">
         <v>44591</v>
       </c>
-      <c r="E4" s="411" t="s">
+      <c r="E4" s="438" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="412"/>
-      <c r="H4" s="413" t="s">
+      <c r="F4" s="439"/>
+      <c r="H4" s="440" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="414"/>
+      <c r="I4" s="441"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -40505,11 +40570,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="422" t="s">
+      <c r="P4" s="411" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="423"/>
-      <c r="R4" s="416"/>
+      <c r="Q4" s="412"/>
+      <c r="R4" s="405"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -41950,7 +42015,7 @@
         <f>SUM(M5:M39)</f>
         <v>1636108</v>
       </c>
-      <c r="N40" s="426">
+      <c r="N40" s="415">
         <f>SUM(N5:N39)</f>
         <v>55675</v>
       </c>
@@ -41975,8 +42040,8 @@
       <c r="J41" s="71"/>
       <c r="K41" s="74"/>
       <c r="L41" s="73"/>
-      <c r="M41" s="425"/>
-      <c r="N41" s="427"/>
+      <c r="M41" s="414"/>
+      <c r="N41" s="416"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -42183,29 +42248,29 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="428" t="s">
+      <c r="H53" s="417" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="429"/>
+      <c r="I53" s="418"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="430">
+      <c r="K53" s="419">
         <f>I51+L51</f>
         <v>45634.280000000006</v>
       </c>
-      <c r="L53" s="431"/>
-      <c r="M53" s="432">
+      <c r="L53" s="420"/>
+      <c r="M53" s="421">
         <f>N40+M40</f>
         <v>1691783</v>
       </c>
-      <c r="N53" s="433"/>
+      <c r="N53" s="422"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="434" t="s">
+      <c r="D54" s="423" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="434"/>
+      <c r="E54" s="423"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
         <v>1686442.72</v>
@@ -42216,22 +42281,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="435" t="s">
+      <c r="D55" s="424" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="435"/>
+      <c r="E55" s="424"/>
       <c r="F55" s="111">
         <v>-1631962.77</v>
       </c>
-      <c r="I55" s="436" t="s">
+      <c r="I55" s="425" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="437"/>
-      <c r="K55" s="438">
+      <c r="J55" s="426"/>
+      <c r="K55" s="427">
         <f>F57+F58+F59</f>
         <v>238822.13999999996</v>
       </c>
-      <c r="L55" s="439"/>
+      <c r="L55" s="428"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -42262,11 +42327,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="440">
+      <c r="K57" s="429">
         <f>-C4</f>
         <v>-154314.51999999999</v>
       </c>
-      <c r="L57" s="441"/>
+      <c r="L57" s="430"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -42283,22 +42348,22 @@
       <c r="C59" s="128">
         <v>44619</v>
       </c>
-      <c r="D59" s="417" t="s">
+      <c r="D59" s="406" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="418"/>
+      <c r="E59" s="407"/>
       <c r="F59" s="129">
         <v>184342.19</v>
       </c>
-      <c r="I59" s="419" t="s">
+      <c r="I59" s="408" t="s">
         <v>168</v>
       </c>
-      <c r="J59" s="420"/>
-      <c r="K59" s="421">
+      <c r="J59" s="409"/>
+      <c r="K59" s="410">
         <f>K55+K57</f>
         <v>84507.619999999966</v>
       </c>
-      <c r="L59" s="421"/>
+      <c r="L59" s="410"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="130"/>
@@ -42423,6 +42488,18 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -42432,18 +42509,6 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -43748,23 +43813,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="404"/>
-      <c r="C1" s="406" t="s">
+      <c r="B1" s="431"/>
+      <c r="C1" s="433" t="s">
         <v>135</v>
       </c>
-      <c r="D1" s="407"/>
-      <c r="E1" s="407"/>
-      <c r="F1" s="407"/>
-      <c r="G1" s="407"/>
-      <c r="H1" s="407"/>
-      <c r="I1" s="407"/>
-      <c r="J1" s="407"/>
-      <c r="K1" s="407"/>
-      <c r="L1" s="407"/>
-      <c r="M1" s="407"/>
+      <c r="D1" s="434"/>
+      <c r="E1" s="434"/>
+      <c r="F1" s="434"/>
+      <c r="G1" s="434"/>
+      <c r="H1" s="434"/>
+      <c r="I1" s="434"/>
+      <c r="J1" s="434"/>
+      <c r="K1" s="434"/>
+      <c r="L1" s="434"/>
+      <c r="M1" s="434"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="405"/>
+      <c r="B2" s="432"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -43774,21 +43839,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="408" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="409"/>
+      <c r="B3" s="435" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="436"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="410" t="s">
+      <c r="H3" s="437" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="410"/>
+      <c r="I3" s="437"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="415" t="s">
+      <c r="R3" s="404" t="s">
         <v>38</v>
       </c>
     </row>
@@ -43803,14 +43868,14 @@
       <c r="D4" s="16">
         <v>44619</v>
       </c>
-      <c r="E4" s="411" t="s">
+      <c r="E4" s="438" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="412"/>
-      <c r="H4" s="413" t="s">
+      <c r="F4" s="439"/>
+      <c r="H4" s="440" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="414"/>
+      <c r="I4" s="441"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -43820,11 +43885,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="422" t="s">
+      <c r="P4" s="411" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="423"/>
-      <c r="R4" s="416"/>
+      <c r="Q4" s="412"/>
+      <c r="R4" s="405"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -45275,11 +45340,11 @@
       <c r="J40" s="71"/>
       <c r="K40" s="87"/>
       <c r="L40" s="73"/>
-      <c r="M40" s="424">
+      <c r="M40" s="413">
         <f>SUM(M5:M39)</f>
         <v>1793435</v>
       </c>
-      <c r="N40" s="426">
+      <c r="N40" s="415">
         <f>SUM(N5:N39)</f>
         <v>63995</v>
       </c>
@@ -45304,8 +45369,8 @@
       <c r="J41" s="71"/>
       <c r="K41" s="235"/>
       <c r="L41" s="73"/>
-      <c r="M41" s="425"/>
-      <c r="N41" s="427"/>
+      <c r="M41" s="414"/>
+      <c r="N41" s="416"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -45444,29 +45509,29 @@
       <c r="A49" s="33"/>
       <c r="B49" s="113"/>
       <c r="C49" s="1"/>
-      <c r="H49" s="428" t="s">
+      <c r="H49" s="417" t="s">
         <v>12</v>
       </c>
-      <c r="I49" s="429"/>
+      <c r="I49" s="418"/>
       <c r="J49" s="114"/>
-      <c r="K49" s="430">
+      <c r="K49" s="419">
         <f>I47+L47</f>
         <v>90434.03</v>
       </c>
-      <c r="L49" s="431"/>
-      <c r="M49" s="432">
+      <c r="L49" s="420"/>
+      <c r="M49" s="421">
         <f>N40+M40</f>
         <v>1857430</v>
       </c>
-      <c r="N49" s="433"/>
+      <c r="N49" s="422"/>
       <c r="P49" s="32"/>
       <c r="Q49" s="8"/>
     </row>
     <row r="50" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D50" s="434" t="s">
+      <c r="D50" s="423" t="s">
         <v>13</v>
       </c>
-      <c r="E50" s="434"/>
+      <c r="E50" s="423"/>
       <c r="F50" s="115">
         <f>F47-K49-C47</f>
         <v>1824260.97</v>
@@ -45477,22 +45542,22 @@
       <c r="Q50" s="8"/>
     </row>
     <row r="51" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D51" s="435" t="s">
+      <c r="D51" s="424" t="s">
         <v>14</v>
       </c>
-      <c r="E51" s="435"/>
+      <c r="E51" s="424"/>
       <c r="F51" s="111">
         <v>-1848136.64</v>
       </c>
-      <c r="I51" s="436" t="s">
+      <c r="I51" s="425" t="s">
         <v>15</v>
       </c>
-      <c r="J51" s="437"/>
-      <c r="K51" s="438">
+      <c r="J51" s="426"/>
+      <c r="K51" s="427">
         <f>F53+F54+F55</f>
         <v>195541.70000000007</v>
       </c>
-      <c r="L51" s="439"/>
+      <c r="L51" s="428"/>
       <c r="P51" s="32"/>
       <c r="Q51" s="8"/>
     </row>
@@ -45523,11 +45588,11 @@
         <v>17</v>
       </c>
       <c r="J53" s="125"/>
-      <c r="K53" s="440">
+      <c r="K53" s="429">
         <f>-C4</f>
         <v>-184342.19</v>
       </c>
-      <c r="L53" s="441"/>
+      <c r="L53" s="430"/>
     </row>
     <row r="54" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D54" s="126" t="s">
@@ -45544,22 +45609,22 @@
       <c r="C55" s="128">
         <v>44647</v>
       </c>
-      <c r="D55" s="417" t="s">
+      <c r="D55" s="406" t="s">
         <v>20</v>
       </c>
-      <c r="E55" s="418"/>
+      <c r="E55" s="407"/>
       <c r="F55" s="129">
         <v>219417.37</v>
       </c>
-      <c r="I55" s="419" t="s">
+      <c r="I55" s="408" t="s">
         <v>226</v>
       </c>
-      <c r="J55" s="420"/>
-      <c r="K55" s="421">
+      <c r="J55" s="409"/>
+      <c r="K55" s="410">
         <f>K51+K53</f>
         <v>11199.510000000068</v>
       </c>
-      <c r="L55" s="421"/>
+      <c r="L55" s="410"/>
     </row>
     <row r="56" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C56" s="130"/>
@@ -45687,18 +45752,6 @@
     <sortCondition ref="J34:J38"/>
   </sortState>
   <mergeCells count="21">
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -45708,6 +45761,18 @@
     <mergeCell ref="H49:I49"/>
     <mergeCell ref="K49:L49"/>
     <mergeCell ref="M49:N49"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -47182,23 +47247,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="404"/>
-      <c r="C1" s="406" t="s">
+      <c r="B1" s="431"/>
+      <c r="C1" s="433" t="s">
         <v>225</v>
       </c>
-      <c r="D1" s="407"/>
-      <c r="E1" s="407"/>
-      <c r="F1" s="407"/>
-      <c r="G1" s="407"/>
-      <c r="H1" s="407"/>
-      <c r="I1" s="407"/>
-      <c r="J1" s="407"/>
-      <c r="K1" s="407"/>
-      <c r="L1" s="407"/>
-      <c r="M1" s="407"/>
+      <c r="D1" s="434"/>
+      <c r="E1" s="434"/>
+      <c r="F1" s="434"/>
+      <c r="G1" s="434"/>
+      <c r="H1" s="434"/>
+      <c r="I1" s="434"/>
+      <c r="J1" s="434"/>
+      <c r="K1" s="434"/>
+      <c r="L1" s="434"/>
+      <c r="M1" s="434"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="405"/>
+      <c r="B2" s="432"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -47208,21 +47273,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="408" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="409"/>
+      <c r="B3" s="435" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="436"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="410" t="s">
+      <c r="H3" s="437" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="410"/>
+      <c r="I3" s="437"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="415" t="s">
+      <c r="R3" s="404" t="s">
         <v>38</v>
       </c>
     </row>
@@ -47237,14 +47302,14 @@
       <c r="D4" s="16">
         <v>44647</v>
       </c>
-      <c r="E4" s="411" t="s">
+      <c r="E4" s="438" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="412"/>
-      <c r="H4" s="413" t="s">
+      <c r="F4" s="439"/>
+      <c r="H4" s="440" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="414"/>
+      <c r="I4" s="441"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -47254,11 +47319,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="422" t="s">
+      <c r="P4" s="411" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="423"/>
-      <c r="R4" s="416"/>
+      <c r="Q4" s="412"/>
+      <c r="R4" s="405"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -48855,11 +48920,11 @@
         <f>927.48+128</f>
         <v>1055.48</v>
       </c>
-      <c r="M40" s="424">
+      <c r="M40" s="413">
         <f>SUM(M5:M39)</f>
         <v>2146671</v>
       </c>
-      <c r="N40" s="426">
+      <c r="N40" s="415">
         <f>SUM(N5:N39)</f>
         <v>68590</v>
       </c>
@@ -48890,8 +48955,8 @@
       <c r="L41" s="73">
         <v>1195.68</v>
       </c>
-      <c r="M41" s="425"/>
-      <c r="N41" s="427"/>
+      <c r="M41" s="414"/>
+      <c r="N41" s="416"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -49122,29 +49187,29 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="428" t="s">
+      <c r="H53" s="417" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="429"/>
+      <c r="I53" s="418"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="430">
+      <c r="K53" s="419">
         <f>I51+L51</f>
         <v>91272.77</v>
       </c>
-      <c r="L53" s="431"/>
-      <c r="M53" s="432">
+      <c r="L53" s="420"/>
+      <c r="M53" s="421">
         <f>N40+M40</f>
         <v>2215261</v>
       </c>
-      <c r="N53" s="433"/>
+      <c r="N53" s="422"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="434" t="s">
+      <c r="D54" s="423" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="434"/>
+      <c r="E54" s="423"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
         <v>2179879.23</v>
@@ -49155,22 +49220,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="435" t="s">
+      <c r="D55" s="424" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="435"/>
+      <c r="E55" s="424"/>
       <c r="F55" s="111">
         <v>-2227493.48</v>
       </c>
-      <c r="I55" s="436" t="s">
+      <c r="I55" s="425" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="437"/>
-      <c r="K55" s="438">
+      <c r="J55" s="426"/>
+      <c r="K55" s="427">
         <f>F57+F58+F59</f>
         <v>261521.34000000003</v>
       </c>
-      <c r="L55" s="439"/>
+      <c r="L55" s="428"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -49201,11 +49266,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="440">
+      <c r="K57" s="429">
         <f>-C4</f>
         <v>-219417.37</v>
       </c>
-      <c r="L57" s="441"/>
+      <c r="L57" s="430"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -49222,22 +49287,22 @@
       <c r="C59" s="128">
         <v>44682</v>
       </c>
-      <c r="D59" s="417" t="s">
+      <c r="D59" s="406" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="418"/>
+      <c r="E59" s="407"/>
       <c r="F59" s="129">
         <v>297874.59000000003</v>
       </c>
-      <c r="I59" s="419" t="s">
+      <c r="I59" s="408" t="s">
         <v>168</v>
       </c>
-      <c r="J59" s="420"/>
-      <c r="K59" s="421">
+      <c r="J59" s="409"/>
+      <c r="K59" s="410">
         <f>K55+K57</f>
         <v>42103.97000000003</v>
       </c>
-      <c r="L59" s="421"/>
+      <c r="L59" s="410"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="130"/>
@@ -49365,18 +49430,6 @@
     <sortCondition ref="J40:J44"/>
   </sortState>
   <mergeCells count="21">
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -49386,6 +49439,18 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -50889,23 +50954,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="404"/>
-      <c r="C1" s="406" t="s">
+      <c r="B1" s="431"/>
+      <c r="C1" s="433" t="s">
         <v>277</v>
       </c>
-      <c r="D1" s="407"/>
-      <c r="E1" s="407"/>
-      <c r="F1" s="407"/>
-      <c r="G1" s="407"/>
-      <c r="H1" s="407"/>
-      <c r="I1" s="407"/>
-      <c r="J1" s="407"/>
-      <c r="K1" s="407"/>
-      <c r="L1" s="407"/>
-      <c r="M1" s="407"/>
+      <c r="D1" s="434"/>
+      <c r="E1" s="434"/>
+      <c r="F1" s="434"/>
+      <c r="G1" s="434"/>
+      <c r="H1" s="434"/>
+      <c r="I1" s="434"/>
+      <c r="J1" s="434"/>
+      <c r="K1" s="434"/>
+      <c r="L1" s="434"/>
+      <c r="M1" s="434"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="405"/>
+      <c r="B2" s="432"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -50915,21 +50980,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="408" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="409"/>
+      <c r="B3" s="435" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="436"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="410" t="s">
+      <c r="H3" s="437" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="410"/>
+      <c r="I3" s="437"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="415" t="s">
+      <c r="R3" s="404" t="s">
         <v>38</v>
       </c>
     </row>
@@ -50944,14 +51009,14 @@
       <c r="D4" s="16">
         <v>44682</v>
       </c>
-      <c r="E4" s="411" t="s">
+      <c r="E4" s="438" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="412"/>
-      <c r="H4" s="413" t="s">
+      <c r="F4" s="439"/>
+      <c r="H4" s="440" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="414"/>
+      <c r="I4" s="441"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -50961,11 +51026,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="422" t="s">
+      <c r="P4" s="411" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="423"/>
-      <c r="R4" s="416"/>
+      <c r="Q4" s="412"/>
+      <c r="R4" s="405"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -52482,11 +52547,11 @@
       <c r="J40" s="71"/>
       <c r="K40" s="74"/>
       <c r="L40" s="73"/>
-      <c r="M40" s="424">
+      <c r="M40" s="413">
         <f>SUM(M5:M39)</f>
         <v>2144215</v>
       </c>
-      <c r="N40" s="426">
+      <c r="N40" s="415">
         <f>SUM(N5:N39)</f>
         <v>62525</v>
       </c>
@@ -52511,8 +52576,8 @@
       <c r="J41" s="71"/>
       <c r="K41" s="235"/>
       <c r="L41" s="73"/>
-      <c r="M41" s="425"/>
-      <c r="N41" s="427"/>
+      <c r="M41" s="414"/>
+      <c r="N41" s="416"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -52723,29 +52788,29 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="428" t="s">
+      <c r="H53" s="417" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="429"/>
+      <c r="I53" s="418"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="430">
+      <c r="K53" s="419">
         <f>I51+L51</f>
         <v>51231.42</v>
       </c>
-      <c r="L53" s="431"/>
-      <c r="M53" s="432">
+      <c r="L53" s="420"/>
+      <c r="M53" s="421">
         <f>N40+M40</f>
         <v>2206740</v>
       </c>
-      <c r="N53" s="433"/>
+      <c r="N53" s="422"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="434" t="s">
+      <c r="D54" s="423" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="434"/>
+      <c r="E54" s="423"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
         <v>2189405.58</v>
@@ -52756,22 +52821,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="435" t="s">
+      <c r="D55" s="424" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="435"/>
+      <c r="E55" s="424"/>
       <c r="F55" s="111">
         <v>-2251924.65</v>
       </c>
-      <c r="I55" s="436" t="s">
+      <c r="I55" s="425" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="437"/>
-      <c r="K55" s="438">
+      <c r="J55" s="426"/>
+      <c r="K55" s="427">
         <f>F57+F58+F59</f>
         <v>112552.74000000017</v>
       </c>
-      <c r="L55" s="439"/>
+      <c r="L55" s="428"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -52802,11 +52867,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="440">
+      <c r="K57" s="429">
         <f>-C4</f>
         <v>-297874.59000000003</v>
       </c>
-      <c r="L57" s="441"/>
+      <c r="L57" s="430"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -52823,22 +52888,22 @@
       <c r="C59" s="128">
         <v>44710</v>
       </c>
-      <c r="D59" s="417" t="s">
+      <c r="D59" s="406" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="418"/>
+      <c r="E59" s="407"/>
       <c r="F59" s="129">
         <v>149938.81</v>
       </c>
-      <c r="I59" s="419" t="s">
+      <c r="I59" s="408" t="s">
         <v>325</v>
       </c>
-      <c r="J59" s="420"/>
-      <c r="K59" s="421">
+      <c r="J59" s="409"/>
+      <c r="K59" s="410">
         <f>K55+K57</f>
         <v>-185321.84999999986</v>
       </c>
-      <c r="L59" s="421"/>
+      <c r="L59" s="410"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="130"/>
@@ -52966,6 +53031,18 @@
     <sortCondition ref="J35:J40"/>
   </sortState>
   <mergeCells count="21">
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -52975,18 +53052,6 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL#15  ARCHIVO   2 0 2 2/CENTRAL #12  DICIEMBRE 2022/BALANCE   HERRADURA  DICIEMBRE       2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL#15  ARCHIVO   2 0 2 2/CENTRAL #12  DICIEMBRE 2022/BALANCE   HERRADURA  DICIEMBRE       2022.xlsx
@@ -752,7 +752,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1183" uniqueCount="594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="595">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -2547,6 +2547,9 @@
   </si>
   <si>
     <t>nomina # 50</t>
+  </si>
+  <si>
+    <t>NOMINA # 51</t>
   </si>
 </sst>
 </file>
@@ -4664,6 +4667,42 @@
     <xf numFmtId="44" fontId="2" fillId="14" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="16" fillId="14" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="14" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="17" fillId="15" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="15" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="44" fontId="44" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -4745,39 +4784,6 @@
     <xf numFmtId="44" fontId="13" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="44" fontId="14" fillId="0" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4790,9 +4796,6 @@
     <xf numFmtId="166" fontId="12" fillId="6" borderId="51" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="17" fillId="15" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="15" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -10225,23 +10228,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="431"/>
-      <c r="C1" s="433" t="s">
+      <c r="B1" s="407"/>
+      <c r="C1" s="409" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="434"/>
-      <c r="E1" s="434"/>
-      <c r="F1" s="434"/>
-      <c r="G1" s="434"/>
-      <c r="H1" s="434"/>
-      <c r="I1" s="434"/>
-      <c r="J1" s="434"/>
-      <c r="K1" s="434"/>
-      <c r="L1" s="434"/>
-      <c r="M1" s="434"/>
+      <c r="D1" s="410"/>
+      <c r="E1" s="410"/>
+      <c r="F1" s="410"/>
+      <c r="G1" s="410"/>
+      <c r="H1" s="410"/>
+      <c r="I1" s="410"/>
+      <c r="J1" s="410"/>
+      <c r="K1" s="410"/>
+      <c r="L1" s="410"/>
+      <c r="M1" s="410"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="432"/>
+      <c r="B2" s="408"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -10251,21 +10254,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="435" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="436"/>
+      <c r="B3" s="411" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="412"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="437" t="s">
+      <c r="H3" s="413" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="437"/>
+      <c r="I3" s="413"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="404" t="s">
+      <c r="R3" s="418" t="s">
         <v>38</v>
       </c>
     </row>
@@ -10280,14 +10283,14 @@
       <c r="D4" s="16">
         <v>44563</v>
       </c>
-      <c r="E4" s="438" t="s">
+      <c r="E4" s="414" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="439"/>
-      <c r="H4" s="440" t="s">
+      <c r="F4" s="415"/>
+      <c r="H4" s="416" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="441"/>
+      <c r="I4" s="417"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -10297,11 +10300,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="411" t="s">
+      <c r="P4" s="425" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="412"/>
-      <c r="R4" s="405"/>
+      <c r="Q4" s="426"/>
+      <c r="R4" s="419"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -11756,11 +11759,11 @@
       <c r="J40" s="71"/>
       <c r="K40" s="87"/>
       <c r="L40" s="73"/>
-      <c r="M40" s="413">
+      <c r="M40" s="427">
         <f>SUM(M5:M39)</f>
         <v>1527030</v>
       </c>
-      <c r="N40" s="415">
+      <c r="N40" s="429">
         <f>SUM(N5:N39)</f>
         <v>50013</v>
       </c>
@@ -11785,8 +11788,8 @@
       <c r="J41" s="71"/>
       <c r="K41" s="74"/>
       <c r="L41" s="73"/>
-      <c r="M41" s="414"/>
-      <c r="N41" s="416"/>
+      <c r="M41" s="428"/>
+      <c r="N41" s="430"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -11993,29 +11996,29 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="417" t="s">
+      <c r="H53" s="431" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="418"/>
+      <c r="I53" s="432"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="419">
+      <c r="K53" s="433">
         <f>I51+L51</f>
         <v>50143.28</v>
       </c>
-      <c r="L53" s="420"/>
-      <c r="M53" s="421">
+      <c r="L53" s="434"/>
+      <c r="M53" s="435">
         <f>N40+M40</f>
         <v>1577043</v>
       </c>
-      <c r="N53" s="422"/>
+      <c r="N53" s="436"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="423" t="s">
+      <c r="D54" s="437" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="423"/>
+      <c r="E54" s="437"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
         <v>1561421.72</v>
@@ -12026,22 +12029,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="424" t="s">
+      <c r="D55" s="438" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="424"/>
+      <c r="E55" s="438"/>
       <c r="F55" s="111">
         <v>-1419082.77</v>
       </c>
-      <c r="I55" s="425" t="s">
+      <c r="I55" s="439" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="426"/>
-      <c r="K55" s="427">
+      <c r="J55" s="440"/>
+      <c r="K55" s="441">
         <f>F57+F58+F59</f>
         <v>296963.46999999997</v>
       </c>
-      <c r="L55" s="428"/>
+      <c r="L55" s="442"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -12072,11 +12075,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="429">
+      <c r="K57" s="443">
         <f>-C4</f>
         <v>-221059.7</v>
       </c>
-      <c r="L57" s="430"/>
+      <c r="L57" s="444"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -12093,22 +12096,22 @@
       <c r="C59" s="128">
         <v>44591</v>
       </c>
-      <c r="D59" s="406" t="s">
+      <c r="D59" s="420" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="407"/>
+      <c r="E59" s="421"/>
       <c r="F59" s="129">
         <v>154314.51999999999</v>
       </c>
-      <c r="I59" s="408" t="s">
+      <c r="I59" s="422" t="s">
         <v>168</v>
       </c>
-      <c r="J59" s="409"/>
-      <c r="K59" s="410">
+      <c r="J59" s="423"/>
+      <c r="K59" s="424">
         <f>K55+K57</f>
         <v>75903.76999999996</v>
       </c>
-      <c r="L59" s="410"/>
+      <c r="L59" s="424"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="130"/>
@@ -12233,12 +12236,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="D59:E59"/>
     <mergeCell ref="I59:J59"/>
@@ -12254,6 +12251,12 @@
     <mergeCell ref="I55:J55"/>
     <mergeCell ref="K55:L55"/>
     <mergeCell ref="K57:L57"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -13706,23 +13709,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="431"/>
-      <c r="C1" s="433" t="s">
+      <c r="B1" s="407"/>
+      <c r="C1" s="409" t="s">
         <v>326</v>
       </c>
-      <c r="D1" s="434"/>
-      <c r="E1" s="434"/>
-      <c r="F1" s="434"/>
-      <c r="G1" s="434"/>
-      <c r="H1" s="434"/>
-      <c r="I1" s="434"/>
-      <c r="J1" s="434"/>
-      <c r="K1" s="434"/>
-      <c r="L1" s="434"/>
-      <c r="M1" s="434"/>
+      <c r="D1" s="410"/>
+      <c r="E1" s="410"/>
+      <c r="F1" s="410"/>
+      <c r="G1" s="410"/>
+      <c r="H1" s="410"/>
+      <c r="I1" s="410"/>
+      <c r="J1" s="410"/>
+      <c r="K1" s="410"/>
+      <c r="L1" s="410"/>
+      <c r="M1" s="410"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="432"/>
+      <c r="B2" s="408"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -13732,21 +13735,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="435" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="436"/>
+      <c r="B3" s="411" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="412"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="437" t="s">
+      <c r="H3" s="413" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="437"/>
+      <c r="I3" s="413"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="404" t="s">
+      <c r="R3" s="418" t="s">
         <v>38</v>
       </c>
     </row>
@@ -13761,14 +13764,14 @@
       <c r="D4" s="16">
         <v>44710</v>
       </c>
-      <c r="E4" s="438" t="s">
+      <c r="E4" s="414" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="439"/>
-      <c r="H4" s="440" t="s">
+      <c r="F4" s="415"/>
+      <c r="H4" s="416" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="441"/>
+      <c r="I4" s="417"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -13778,11 +13781,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="411" t="s">
+      <c r="P4" s="425" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="412"/>
-      <c r="R4" s="405"/>
+      <c r="Q4" s="426"/>
+      <c r="R4" s="419"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -15312,11 +15315,11 @@
       <c r="J40" s="71"/>
       <c r="K40" s="74"/>
       <c r="L40" s="73"/>
-      <c r="M40" s="413">
+      <c r="M40" s="427">
         <f>SUM(M5:M39)</f>
         <v>2772689</v>
       </c>
-      <c r="N40" s="415">
+      <c r="N40" s="429">
         <f>SUM(N5:N39)</f>
         <v>107354</v>
       </c>
@@ -15347,8 +15350,8 @@
       <c r="L41" s="73">
         <v>638.99</v>
       </c>
-      <c r="M41" s="414"/>
-      <c r="N41" s="416"/>
+      <c r="M41" s="428"/>
+      <c r="N41" s="430"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -15594,29 +15597,29 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="417" t="s">
+      <c r="H53" s="431" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="418"/>
+      <c r="I53" s="432"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="419">
+      <c r="K53" s="433">
         <f>I51+L51</f>
         <v>60691.69</v>
       </c>
-      <c r="L53" s="420"/>
-      <c r="M53" s="421">
+      <c r="L53" s="434"/>
+      <c r="M53" s="435">
         <f>N40+M40</f>
         <v>2880043</v>
       </c>
-      <c r="N53" s="422"/>
+      <c r="N53" s="436"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="423" t="s">
+      <c r="D54" s="437" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="423"/>
+      <c r="E54" s="437"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
         <v>2844548.31</v>
@@ -15627,22 +15630,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="424" t="s">
+      <c r="D55" s="438" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="424"/>
+      <c r="E55" s="438"/>
       <c r="F55" s="111">
         <v>-2875380.48</v>
       </c>
-      <c r="I55" s="425" t="s">
+      <c r="I55" s="439" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="426"/>
-      <c r="K55" s="427">
+      <c r="J55" s="440"/>
+      <c r="K55" s="441">
         <f>F57+F58+F59</f>
         <v>247554.74000000008</v>
       </c>
-      <c r="L55" s="428"/>
+      <c r="L55" s="442"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -15673,11 +15676,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="429">
+      <c r="K57" s="443">
         <f>-C4</f>
         <v>-149938.81</v>
       </c>
-      <c r="L57" s="430"/>
+      <c r="L57" s="444"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -15694,22 +15697,22 @@
       <c r="C59" s="128">
         <v>44745</v>
       </c>
-      <c r="D59" s="406" t="s">
+      <c r="D59" s="420" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="407"/>
+      <c r="E59" s="421"/>
       <c r="F59" s="129">
         <v>232165.91</v>
       </c>
-      <c r="I59" s="408" t="s">
+      <c r="I59" s="422" t="s">
         <v>168</v>
       </c>
-      <c r="J59" s="409"/>
-      <c r="K59" s="410">
+      <c r="J59" s="423"/>
+      <c r="K59" s="424">
         <f>K55+K57</f>
         <v>97615.93000000008</v>
       </c>
-      <c r="L59" s="410"/>
+      <c r="L59" s="424"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="130"/>
@@ -15837,6 +15840,18 @@
     <sortCondition ref="B7:B9"/>
   </sortState>
   <mergeCells count="21">
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -15846,18 +15861,6 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.38" right="0.17" top="0.4" bottom="0.34" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -17339,23 +17342,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="431"/>
-      <c r="C1" s="433" t="s">
+      <c r="B1" s="407"/>
+      <c r="C1" s="409" t="s">
         <v>380</v>
       </c>
-      <c r="D1" s="434"/>
-      <c r="E1" s="434"/>
-      <c r="F1" s="434"/>
-      <c r="G1" s="434"/>
-      <c r="H1" s="434"/>
-      <c r="I1" s="434"/>
-      <c r="J1" s="434"/>
-      <c r="K1" s="434"/>
-      <c r="L1" s="434"/>
-      <c r="M1" s="434"/>
+      <c r="D1" s="410"/>
+      <c r="E1" s="410"/>
+      <c r="F1" s="410"/>
+      <c r="G1" s="410"/>
+      <c r="H1" s="410"/>
+      <c r="I1" s="410"/>
+      <c r="J1" s="410"/>
+      <c r="K1" s="410"/>
+      <c r="L1" s="410"/>
+      <c r="M1" s="410"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="432"/>
+      <c r="B2" s="408"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -17365,21 +17368,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="435" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="436"/>
+      <c r="B3" s="411" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="412"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="437" t="s">
+      <c r="H3" s="413" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="437"/>
+      <c r="I3" s="413"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="404" t="s">
+      <c r="R3" s="418" t="s">
         <v>38</v>
       </c>
     </row>
@@ -17394,14 +17397,14 @@
       <c r="D4" s="16">
         <v>44745</v>
       </c>
-      <c r="E4" s="438" t="s">
+      <c r="E4" s="414" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="439"/>
-      <c r="H4" s="440" t="s">
+      <c r="F4" s="415"/>
+      <c r="H4" s="416" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="441"/>
+      <c r="I4" s="417"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -17411,11 +17414,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="411" t="s">
+      <c r="P4" s="425" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="412"/>
-      <c r="R4" s="405"/>
+      <c r="Q4" s="426"/>
+      <c r="R4" s="419"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -18860,11 +18863,11 @@
       <c r="J40" s="71"/>
       <c r="K40" s="74"/>
       <c r="L40" s="73"/>
-      <c r="M40" s="413">
+      <c r="M40" s="427">
         <f>SUM(M5:M39)</f>
         <v>2373103</v>
       </c>
-      <c r="N40" s="415">
+      <c r="N40" s="429">
         <f>SUM(N5:N39)</f>
         <v>67308</v>
       </c>
@@ -18893,8 +18896,8 @@
       <c r="J41" s="71"/>
       <c r="K41" s="235"/>
       <c r="L41" s="73"/>
-      <c r="M41" s="414"/>
-      <c r="N41" s="416"/>
+      <c r="M41" s="428"/>
+      <c r="N41" s="430"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -19109,29 +19112,29 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="417" t="s">
+      <c r="H53" s="431" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="418"/>
+      <c r="I53" s="432"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="419">
+      <c r="K53" s="433">
         <f>I51+L51</f>
         <v>79649.720000000016</v>
       </c>
-      <c r="L53" s="420"/>
-      <c r="M53" s="421">
+      <c r="L53" s="434"/>
+      <c r="M53" s="435">
         <f>N40+M40</f>
         <v>2440411</v>
       </c>
-      <c r="N53" s="422"/>
+      <c r="N53" s="436"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="423" t="s">
+      <c r="D54" s="437" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="423"/>
+      <c r="E54" s="437"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
         <v>2356249.2799999998</v>
@@ -19142,22 +19145,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="424" t="s">
+      <c r="D55" s="438" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="424"/>
+      <c r="E55" s="438"/>
       <c r="F55" s="111">
         <v>-2471332.31</v>
       </c>
-      <c r="I55" s="425" t="s">
+      <c r="I55" s="439" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="426"/>
-      <c r="K55" s="427">
+      <c r="J55" s="440"/>
+      <c r="K55" s="441">
         <f>F57+F58+F59</f>
         <v>214026.38999999972</v>
       </c>
-      <c r="L55" s="428"/>
+      <c r="L55" s="442"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -19188,11 +19191,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="429">
+      <c r="K57" s="443">
         <f>-C4</f>
         <v>-232165.91</v>
       </c>
-      <c r="L57" s="430"/>
+      <c r="L57" s="444"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -19209,22 +19212,22 @@
       <c r="C59" s="128">
         <v>44773</v>
       </c>
-      <c r="D59" s="406" t="s">
+      <c r="D59" s="420" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="407"/>
+      <c r="E59" s="421"/>
       <c r="F59" s="129">
         <v>273736.42</v>
       </c>
-      <c r="I59" s="408" t="s">
+      <c r="I59" s="422" t="s">
         <v>325</v>
       </c>
-      <c r="J59" s="409"/>
-      <c r="K59" s="410">
+      <c r="J59" s="423"/>
+      <c r="K59" s="424">
         <f>K55+K57</f>
         <v>-18139.520000000281</v>
       </c>
-      <c r="L59" s="410"/>
+      <c r="L59" s="424"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="130"/>
@@ -19349,6 +19352,18 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -19358,18 +19373,6 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.31496062992125984" right="0.27559055118110237" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="60" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -20761,23 +20764,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="431"/>
-      <c r="C1" s="433" t="s">
+      <c r="B1" s="407"/>
+      <c r="C1" s="409" t="s">
         <v>421</v>
       </c>
-      <c r="D1" s="434"/>
-      <c r="E1" s="434"/>
-      <c r="F1" s="434"/>
-      <c r="G1" s="434"/>
-      <c r="H1" s="434"/>
-      <c r="I1" s="434"/>
-      <c r="J1" s="434"/>
-      <c r="K1" s="434"/>
-      <c r="L1" s="434"/>
-      <c r="M1" s="434"/>
+      <c r="D1" s="410"/>
+      <c r="E1" s="410"/>
+      <c r="F1" s="410"/>
+      <c r="G1" s="410"/>
+      <c r="H1" s="410"/>
+      <c r="I1" s="410"/>
+      <c r="J1" s="410"/>
+      <c r="K1" s="410"/>
+      <c r="L1" s="410"/>
+      <c r="M1" s="410"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="432"/>
+      <c r="B2" s="408"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -20787,21 +20790,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="435" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="436"/>
+      <c r="B3" s="411" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="412"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="437" t="s">
+      <c r="H3" s="413" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="437"/>
+      <c r="I3" s="413"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="404" t="s">
+      <c r="R3" s="418" t="s">
         <v>38</v>
       </c>
     </row>
@@ -20816,14 +20819,14 @@
       <c r="D4" s="16">
         <v>44773</v>
       </c>
-      <c r="E4" s="438" t="s">
+      <c r="E4" s="414" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="439"/>
-      <c r="H4" s="440" t="s">
+      <c r="F4" s="415"/>
+      <c r="H4" s="416" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="441"/>
+      <c r="I4" s="417"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -20833,11 +20836,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="411" t="s">
+      <c r="P4" s="425" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="412"/>
-      <c r="R4" s="405"/>
+      <c r="Q4" s="426"/>
+      <c r="R4" s="419"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -22317,11 +22320,11 @@
       <c r="J40" s="71"/>
       <c r="K40" s="74"/>
       <c r="L40" s="73"/>
-      <c r="M40" s="413">
+      <c r="M40" s="427">
         <f>SUM(M5:M39)</f>
         <v>2375259</v>
       </c>
-      <c r="N40" s="415">
+      <c r="N40" s="429">
         <f>SUM(N5:N39)</f>
         <v>61117</v>
       </c>
@@ -22350,8 +22353,8 @@
       <c r="J41" s="71"/>
       <c r="K41" s="235"/>
       <c r="L41" s="73"/>
-      <c r="M41" s="414"/>
-      <c r="N41" s="416"/>
+      <c r="M41" s="428"/>
+      <c r="N41" s="430"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -22566,29 +22569,29 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="417" t="s">
+      <c r="H53" s="431" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="418"/>
+      <c r="I53" s="432"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="419">
+      <c r="K53" s="433">
         <f>I51+L51</f>
         <v>52857.25</v>
       </c>
-      <c r="L53" s="420"/>
-      <c r="M53" s="421">
+      <c r="L53" s="434"/>
+      <c r="M53" s="435">
         <f>N40+M40</f>
         <v>2436376</v>
       </c>
-      <c r="N53" s="422"/>
+      <c r="N53" s="436"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="423" t="s">
+      <c r="D54" s="437" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="423"/>
+      <c r="E54" s="437"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
         <v>2370653.75</v>
@@ -22599,22 +22602,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="424" t="s">
+      <c r="D55" s="438" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="424"/>
+      <c r="E55" s="438"/>
       <c r="F55" s="111">
         <v>-2401197.5699999998</v>
       </c>
-      <c r="I55" s="425" t="s">
+      <c r="I55" s="439" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="426"/>
-      <c r="K55" s="427">
+      <c r="J55" s="440"/>
+      <c r="K55" s="441">
         <f>F57+F58+F59</f>
         <v>259241.77000000016</v>
       </c>
-      <c r="L55" s="428"/>
+      <c r="L55" s="442"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -22645,11 +22648,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="429">
+      <c r="K57" s="443">
         <f>-C4</f>
         <v>-273736.42</v>
       </c>
-      <c r="L57" s="430"/>
+      <c r="L57" s="444"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -22666,22 +22669,22 @@
       <c r="C59" s="128">
         <v>44801</v>
       </c>
-      <c r="D59" s="406" t="s">
+      <c r="D59" s="420" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="407"/>
+      <c r="E59" s="421"/>
       <c r="F59" s="129">
         <v>236400.59</v>
       </c>
-      <c r="I59" s="443" t="s">
+      <c r="I59" s="446" t="s">
         <v>325</v>
       </c>
-      <c r="J59" s="444"/>
-      <c r="K59" s="445">
+      <c r="J59" s="447"/>
+      <c r="K59" s="448">
         <f>K55+K57</f>
         <v>-14494.64999999982</v>
       </c>
-      <c r="L59" s="445"/>
+      <c r="L59" s="448"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="130"/>
@@ -22806,6 +22809,18 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -22815,18 +22830,6 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -24273,23 +24276,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="431"/>
-      <c r="C1" s="433" t="s">
+      <c r="B1" s="407"/>
+      <c r="C1" s="409" t="s">
         <v>465</v>
       </c>
-      <c r="D1" s="434"/>
-      <c r="E1" s="434"/>
-      <c r="F1" s="434"/>
-      <c r="G1" s="434"/>
-      <c r="H1" s="434"/>
-      <c r="I1" s="434"/>
-      <c r="J1" s="434"/>
-      <c r="K1" s="434"/>
-      <c r="L1" s="434"/>
-      <c r="M1" s="434"/>
+      <c r="D1" s="410"/>
+      <c r="E1" s="410"/>
+      <c r="F1" s="410"/>
+      <c r="G1" s="410"/>
+      <c r="H1" s="410"/>
+      <c r="I1" s="410"/>
+      <c r="J1" s="410"/>
+      <c r="K1" s="410"/>
+      <c r="L1" s="410"/>
+      <c r="M1" s="410"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="432"/>
+      <c r="B2" s="408"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -24299,21 +24302,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="435" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="436"/>
+      <c r="B3" s="411" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="412"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="437" t="s">
+      <c r="H3" s="413" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="437"/>
+      <c r="I3" s="413"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="404" t="s">
+      <c r="R3" s="418" t="s">
         <v>38</v>
       </c>
     </row>
@@ -24328,14 +24331,14 @@
       <c r="D4" s="16">
         <v>44801</v>
       </c>
-      <c r="E4" s="438" t="s">
+      <c r="E4" s="414" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="439"/>
-      <c r="H4" s="440" t="s">
+      <c r="F4" s="415"/>
+      <c r="H4" s="416" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="441"/>
+      <c r="I4" s="417"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -24345,11 +24348,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="411" t="s">
+      <c r="P4" s="425" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="412"/>
-      <c r="R4" s="405"/>
+      <c r="Q4" s="426"/>
+      <c r="R4" s="419"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -26077,11 +26080,11 @@
       <c r="L40" s="73">
         <v>927.48</v>
       </c>
-      <c r="M40" s="413">
+      <c r="M40" s="427">
         <f>SUM(M5:M39)</f>
         <v>3147309.5</v>
       </c>
-      <c r="N40" s="415">
+      <c r="N40" s="429">
         <f>SUM(N5:N39)</f>
         <v>76569</v>
       </c>
@@ -26116,8 +26119,8 @@
       <c r="L41" s="73">
         <v>33312</v>
       </c>
-      <c r="M41" s="414"/>
-      <c r="N41" s="416"/>
+      <c r="M41" s="428"/>
+      <c r="N41" s="430"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -26360,29 +26363,29 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="417" t="s">
+      <c r="H53" s="431" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="418"/>
+      <c r="I53" s="432"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="419">
+      <c r="K53" s="433">
         <f>I51+L51</f>
         <v>102873.87000000001</v>
       </c>
-      <c r="L53" s="420"/>
-      <c r="M53" s="421">
+      <c r="L53" s="434"/>
+      <c r="M53" s="435">
         <f>N40+M40</f>
         <v>3223878.5</v>
       </c>
-      <c r="N53" s="422"/>
+      <c r="N53" s="436"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="423" t="s">
+      <c r="D54" s="437" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="423"/>
+      <c r="E54" s="437"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
         <v>3130076.13</v>
@@ -26393,22 +26396,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="424" t="s">
+      <c r="D55" s="438" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="424"/>
+      <c r="E55" s="438"/>
       <c r="F55" s="111">
         <v>-3171951.31</v>
       </c>
-      <c r="I55" s="425" t="s">
+      <c r="I55" s="439" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="426"/>
-      <c r="K55" s="427">
+      <c r="J55" s="440"/>
+      <c r="K55" s="441">
         <f>F57+F58+F59</f>
         <v>265314.0299999998</v>
       </c>
-      <c r="L55" s="428"/>
+      <c r="L55" s="442"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -26439,11 +26442,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="429">
+      <c r="K57" s="443">
         <f>-C4</f>
         <v>-236400.59</v>
       </c>
-      <c r="L57" s="430"/>
+      <c r="L57" s="444"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -26460,22 +26463,22 @@
       <c r="C59" s="128">
         <v>44836</v>
       </c>
-      <c r="D59" s="406" t="s">
+      <c r="D59" s="420" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="407"/>
+      <c r="E59" s="421"/>
       <c r="F59" s="129">
         <v>242354.21</v>
       </c>
-      <c r="I59" s="443" t="s">
+      <c r="I59" s="446" t="s">
         <v>325</v>
       </c>
-      <c r="J59" s="444"/>
-      <c r="K59" s="445">
+      <c r="J59" s="447"/>
+      <c r="K59" s="448">
         <f>K55+K57</f>
         <v>28913.439999999799</v>
       </c>
-      <c r="L59" s="445"/>
+      <c r="L59" s="448"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="130"/>
@@ -26603,18 +26606,6 @@
     <sortCondition ref="J41:J45"/>
   </sortState>
   <mergeCells count="21">
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -26624,6 +26615,18 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -28121,23 +28124,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="431"/>
-      <c r="C1" s="433" t="s">
+      <c r="B1" s="407"/>
+      <c r="C1" s="409" t="s">
         <v>512</v>
       </c>
-      <c r="D1" s="434"/>
-      <c r="E1" s="434"/>
-      <c r="F1" s="434"/>
-      <c r="G1" s="434"/>
-      <c r="H1" s="434"/>
-      <c r="I1" s="434"/>
-      <c r="J1" s="434"/>
-      <c r="K1" s="434"/>
-      <c r="L1" s="434"/>
-      <c r="M1" s="434"/>
+      <c r="D1" s="410"/>
+      <c r="E1" s="410"/>
+      <c r="F1" s="410"/>
+      <c r="G1" s="410"/>
+      <c r="H1" s="410"/>
+      <c r="I1" s="410"/>
+      <c r="J1" s="410"/>
+      <c r="K1" s="410"/>
+      <c r="L1" s="410"/>
+      <c r="M1" s="410"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="432"/>
+      <c r="B2" s="408"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -28147,21 +28150,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="435" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="436"/>
+      <c r="B3" s="411" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="412"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="437" t="s">
+      <c r="H3" s="413" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="437"/>
+      <c r="I3" s="413"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="404" t="s">
+      <c r="R3" s="418" t="s">
         <v>38</v>
       </c>
     </row>
@@ -28176,14 +28179,14 @@
       <c r="D4" s="16">
         <v>44836</v>
       </c>
-      <c r="E4" s="438" t="s">
+      <c r="E4" s="414" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="439"/>
-      <c r="H4" s="440" t="s">
+      <c r="F4" s="415"/>
+      <c r="H4" s="416" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="441"/>
+      <c r="I4" s="417"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -28193,11 +28196,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="411" t="s">
+      <c r="P4" s="425" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="412"/>
-      <c r="R4" s="405"/>
+      <c r="Q4" s="426"/>
+      <c r="R4" s="419"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -29876,11 +29879,11 @@
       <c r="J40" s="71"/>
       <c r="K40" s="360"/>
       <c r="L40" s="73"/>
-      <c r="M40" s="413">
+      <c r="M40" s="427">
         <f>SUM(M5:M39)</f>
         <v>2563550</v>
       </c>
-      <c r="N40" s="415">
+      <c r="N40" s="429">
         <f>SUM(N5:N39)</f>
         <v>77235</v>
       </c>
@@ -29910,8 +29913,8 @@
       <c r="J41" s="71"/>
       <c r="K41" s="363"/>
       <c r="L41" s="73"/>
-      <c r="M41" s="414"/>
-      <c r="N41" s="416"/>
+      <c r="M41" s="428"/>
+      <c r="N41" s="430"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -30126,29 +30129,29 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="417" t="s">
+      <c r="H53" s="431" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="418"/>
+      <c r="I53" s="432"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="419">
+      <c r="K53" s="433">
         <f>I51+L51</f>
         <v>152307.24</v>
       </c>
-      <c r="L53" s="420"/>
-      <c r="M53" s="421">
+      <c r="L53" s="434"/>
+      <c r="M53" s="435">
         <f>N40+M40</f>
         <v>2640785</v>
       </c>
-      <c r="N53" s="422"/>
+      <c r="N53" s="436"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="423" t="s">
+      <c r="D54" s="437" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="423"/>
+      <c r="E54" s="437"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
         <v>2467299.5599999996</v>
@@ -30159,22 +30162,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="424" t="s">
+      <c r="D55" s="438" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="424"/>
+      <c r="E55" s="438"/>
       <c r="F55" s="111">
         <v>-2793202.57</v>
       </c>
-      <c r="I55" s="425" t="s">
+      <c r="I55" s="439" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="426"/>
-      <c r="K55" s="427">
+      <c r="J55" s="440"/>
+      <c r="K55" s="441">
         <f>F57+F58+F59</f>
         <v>149047.74999999977</v>
       </c>
-      <c r="L55" s="428"/>
+      <c r="L55" s="442"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -30205,11 +30208,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="429">
+      <c r="K57" s="443">
         <f>-C4</f>
         <v>-242354.21</v>
       </c>
-      <c r="L57" s="430"/>
+      <c r="L57" s="444"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -30226,22 +30229,22 @@
       <c r="C59" s="128">
         <v>44864</v>
       </c>
-      <c r="D59" s="406" t="s">
+      <c r="D59" s="420" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="407"/>
+      <c r="E59" s="421"/>
       <c r="F59" s="129">
         <v>419424.76</v>
       </c>
-      <c r="I59" s="443" t="s">
+      <c r="I59" s="446" t="s">
         <v>325</v>
       </c>
-      <c r="J59" s="444"/>
-      <c r="K59" s="445">
+      <c r="J59" s="447"/>
+      <c r="K59" s="448">
         <f>K55+K57</f>
         <v>-93306.460000000225</v>
       </c>
-      <c r="L59" s="445"/>
+      <c r="L59" s="448"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="130"/>
@@ -30369,6 +30372,18 @@
     <sortCondition ref="J34:J39"/>
   </sortState>
   <mergeCells count="21">
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -30378,18 +30393,6 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -33554,23 +33557,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="431"/>
-      <c r="C1" s="433" t="s">
+      <c r="B1" s="407"/>
+      <c r="C1" s="409" t="s">
         <v>550</v>
       </c>
-      <c r="D1" s="434"/>
-      <c r="E1" s="434"/>
-      <c r="F1" s="434"/>
-      <c r="G1" s="434"/>
-      <c r="H1" s="434"/>
-      <c r="I1" s="434"/>
-      <c r="J1" s="434"/>
-      <c r="K1" s="434"/>
-      <c r="L1" s="434"/>
-      <c r="M1" s="434"/>
+      <c r="D1" s="410"/>
+      <c r="E1" s="410"/>
+      <c r="F1" s="410"/>
+      <c r="G1" s="410"/>
+      <c r="H1" s="410"/>
+      <c r="I1" s="410"/>
+      <c r="J1" s="410"/>
+      <c r="K1" s="410"/>
+      <c r="L1" s="410"/>
+      <c r="M1" s="410"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="432"/>
+      <c r="B2" s="408"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -33580,21 +33583,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="435" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="436"/>
+      <c r="B3" s="411" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="412"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="437" t="s">
+      <c r="H3" s="413" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="437"/>
+      <c r="I3" s="413"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="404" t="s">
+      <c r="R3" s="418" t="s">
         <v>38</v>
       </c>
     </row>
@@ -33609,14 +33612,14 @@
       <c r="D4" s="16">
         <v>44864</v>
       </c>
-      <c r="E4" s="438" t="s">
+      <c r="E4" s="414" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="439"/>
-      <c r="H4" s="440" t="s">
+      <c r="F4" s="415"/>
+      <c r="H4" s="416" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="441"/>
+      <c r="I4" s="417"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -33626,11 +33629,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="411" t="s">
+      <c r="P4" s="425" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="412"/>
-      <c r="R4" s="405"/>
+      <c r="Q4" s="426"/>
+      <c r="R4" s="419"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -35295,11 +35298,11 @@
       <c r="J40" s="71"/>
       <c r="K40" s="360"/>
       <c r="L40" s="73"/>
-      <c r="M40" s="413">
+      <c r="M40" s="427">
         <f>SUM(M5:M39)</f>
         <v>2972555</v>
       </c>
-      <c r="N40" s="415">
+      <c r="N40" s="429">
         <f>SUM(N5:N39)</f>
         <v>108935</v>
       </c>
@@ -35329,8 +35332,8 @@
       <c r="J41" s="71"/>
       <c r="K41" s="363"/>
       <c r="L41" s="73"/>
-      <c r="M41" s="414"/>
-      <c r="N41" s="416"/>
+      <c r="M41" s="428"/>
+      <c r="N41" s="430"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -35545,29 +35548,29 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="417" t="s">
+      <c r="H53" s="431" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="418"/>
+      <c r="I53" s="432"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="419">
+      <c r="K53" s="433">
         <f>I51+L51</f>
         <v>84934.209999999992</v>
       </c>
-      <c r="L53" s="420"/>
-      <c r="M53" s="421">
+      <c r="L53" s="434"/>
+      <c r="M53" s="435">
         <f>N40+M40</f>
         <v>3081490</v>
       </c>
-      <c r="N53" s="422"/>
+      <c r="N53" s="436"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="423" t="s">
+      <c r="D54" s="437" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="423"/>
+      <c r="E54" s="437"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
         <v>2986572.79</v>
@@ -35578,22 +35581,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="424" t="s">
+      <c r="D55" s="438" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="424"/>
+      <c r="E55" s="438"/>
       <c r="F55" s="111">
         <v>-2936244.87</v>
       </c>
-      <c r="I55" s="425" t="s">
+      <c r="I55" s="439" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="426"/>
-      <c r="K55" s="427">
+      <c r="J55" s="440"/>
+      <c r="K55" s="441">
         <f>F57+F58+F59</f>
         <v>437052.46999999991</v>
       </c>
-      <c r="L55" s="428"/>
+      <c r="L55" s="442"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -35624,11 +35627,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="429">
+      <c r="K57" s="443">
         <f>-C4</f>
         <v>-419424.76</v>
       </c>
-      <c r="L57" s="430"/>
+      <c r="L57" s="444"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -35645,22 +35648,22 @@
       <c r="C59" s="128">
         <v>44892</v>
       </c>
-      <c r="D59" s="406" t="s">
+      <c r="D59" s="420" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="407"/>
+      <c r="E59" s="421"/>
       <c r="F59" s="129">
         <v>315698.55</v>
       </c>
-      <c r="I59" s="443" t="s">
+      <c r="I59" s="446" t="s">
         <v>168</v>
       </c>
-      <c r="J59" s="444"/>
-      <c r="K59" s="445">
+      <c r="J59" s="447"/>
+      <c r="K59" s="448">
         <f>K55+K57</f>
         <v>17627.709999999905</v>
       </c>
-      <c r="L59" s="445"/>
+      <c r="L59" s="448"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="130"/>
@@ -35785,18 +35788,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -35806,6 +35797,18 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -37170,10 +37173,10 @@
   <dimension ref="A1:U81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="8" ySplit="4" topLeftCell="M17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="4" topLeftCell="I17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="R23" sqref="R23"/>
+      <selection pane="bottomRight" activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37198,23 +37201,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="431"/>
-      <c r="C1" s="433" t="s">
+      <c r="B1" s="407"/>
+      <c r="C1" s="409" t="s">
         <v>589</v>
       </c>
-      <c r="D1" s="434"/>
-      <c r="E1" s="434"/>
-      <c r="F1" s="434"/>
-      <c r="G1" s="434"/>
-      <c r="H1" s="434"/>
-      <c r="I1" s="434"/>
-      <c r="J1" s="434"/>
-      <c r="K1" s="434"/>
-      <c r="L1" s="434"/>
-      <c r="M1" s="434"/>
+      <c r="D1" s="410"/>
+      <c r="E1" s="410"/>
+      <c r="F1" s="410"/>
+      <c r="G1" s="410"/>
+      <c r="H1" s="410"/>
+      <c r="I1" s="410"/>
+      <c r="J1" s="410"/>
+      <c r="K1" s="410"/>
+      <c r="L1" s="410"/>
+      <c r="M1" s="410"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="432"/>
+      <c r="B2" s="408"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -37224,21 +37227,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="435" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="436"/>
+      <c r="B3" s="411" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="412"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="437" t="s">
+      <c r="H3" s="413" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="437"/>
+      <c r="I3" s="413"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="404" t="s">
+      <c r="R3" s="418" t="s">
         <v>38</v>
       </c>
     </row>
@@ -37253,14 +37256,14 @@
       <c r="D4" s="16">
         <v>44892</v>
       </c>
-      <c r="E4" s="438" t="s">
+      <c r="E4" s="414" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="439"/>
-      <c r="H4" s="440" t="s">
+      <c r="F4" s="415"/>
+      <c r="H4" s="416" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="441"/>
+      <c r="I4" s="417"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -37270,11 +37273,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="411" t="s">
+      <c r="P4" s="425" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="412"/>
-      <c r="R4" s="405"/>
+      <c r="Q4" s="426"/>
+      <c r="R4" s="419"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -37812,7 +37815,7 @@
       <c r="C16" s="24">
         <v>570</v>
       </c>
-      <c r="D16" s="446" t="s">
+      <c r="D16" s="404" t="s">
         <v>590</v>
       </c>
       <c r="E16" s="322">
@@ -38199,15 +38202,25 @@
       <c r="E24" s="322">
         <v>44912</v>
       </c>
-      <c r="F24" s="27"/>
+      <c r="F24" s="27">
+        <v>127889</v>
+      </c>
       <c r="G24" s="323"/>
       <c r="H24" s="324">
         <v>44912</v>
       </c>
-      <c r="I24" s="29"/>
-      <c r="J24" s="342"/>
-      <c r="K24" s="343"/>
-      <c r="L24" s="61"/>
+      <c r="I24" s="29">
+        <v>158</v>
+      </c>
+      <c r="J24" s="342">
+        <v>44912</v>
+      </c>
+      <c r="K24" s="343" t="s">
+        <v>594</v>
+      </c>
+      <c r="L24" s="61">
+        <v>9500</v>
+      </c>
       <c r="M24" s="30">
         <v>0</v>
       </c>
@@ -38217,11 +38230,11 @@
       <c r="O24" s="314"/>
       <c r="P24" s="32">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9658</v>
       </c>
       <c r="Q24" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-118231</v>
       </c>
       <c r="R24" s="12">
         <v>0</v>
@@ -38537,10 +38550,10 @@
       <c r="J32" s="71"/>
       <c r="K32" s="349"/>
       <c r="L32" s="73"/>
-      <c r="M32" s="447">
-        <v>0</v>
-      </c>
-      <c r="N32" s="448">
+      <c r="M32" s="405">
+        <v>0</v>
+      </c>
+      <c r="N32" s="406">
         <v>0</v>
       </c>
       <c r="O32" s="314"/>
@@ -38865,11 +38878,11 @@
       <c r="J40" s="71"/>
       <c r="K40" s="360"/>
       <c r="L40" s="73"/>
-      <c r="M40" s="413">
+      <c r="M40" s="427">
         <f>SUM(M5:M39)</f>
         <v>1956885</v>
       </c>
-      <c r="N40" s="415">
+      <c r="N40" s="429">
         <f>SUM(N5:N39)</f>
         <v>67830</v>
       </c>
@@ -38879,7 +38892,7 @@
       </c>
       <c r="Q40" s="284">
         <f>SUM(Q5:Q39)</f>
-        <v>71027</v>
+        <v>-47204</v>
       </c>
       <c r="R40" s="316">
         <f>SUM(R5:R39)</f>
@@ -38899,8 +38912,8 @@
       <c r="J41" s="71"/>
       <c r="K41" s="363"/>
       <c r="L41" s="73"/>
-      <c r="M41" s="414"/>
-      <c r="N41" s="416"/>
+      <c r="M41" s="428"/>
+      <c r="N41" s="430"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -39081,7 +39094,7 @@
       </c>
       <c r="F51" s="105">
         <f>SUM(F5:F50)</f>
-        <v>2041384</v>
+        <v>2169273</v>
       </c>
       <c r="G51" s="103"/>
       <c r="H51" s="106" t="s">
@@ -39089,7 +39102,7 @@
       </c>
       <c r="I51" s="107">
         <f>SUM(I5:I50)</f>
-        <v>2480</v>
+        <v>2638</v>
       </c>
       <c r="J51" s="108"/>
       <c r="K51" s="109" t="s">
@@ -39097,7 +39110,7 @@
       </c>
       <c r="L51" s="110">
         <f>SUM(L5:L50)</f>
-        <v>19000</v>
+        <v>28500</v>
       </c>
       <c r="M51" s="111"/>
       <c r="N51" s="111"/>
@@ -39115,32 +39128,32 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="417" t="s">
+      <c r="H53" s="431" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="418"/>
+      <c r="I53" s="432"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="419">
+      <c r="K53" s="433">
         <f>I51+L51</f>
-        <v>21480</v>
-      </c>
-      <c r="L53" s="420"/>
-      <c r="M53" s="421">
+        <v>31138</v>
+      </c>
+      <c r="L53" s="434"/>
+      <c r="M53" s="435">
         <f>N40+M40</f>
         <v>2024715</v>
       </c>
-      <c r="N53" s="422"/>
+      <c r="N53" s="436"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="423" t="s">
+      <c r="D54" s="437" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="423"/>
+      <c r="E54" s="437"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
-        <v>1953688</v>
+        <v>2071919</v>
       </c>
       <c r="I54" s="116"/>
       <c r="J54" s="117"/>
@@ -39148,22 +39161,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="424" t="s">
+      <c r="D55" s="438" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="424"/>
+      <c r="E55" s="438"/>
       <c r="F55" s="111">
         <v>0</v>
       </c>
-      <c r="I55" s="425" t="s">
+      <c r="I55" s="439" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="426"/>
-      <c r="K55" s="427">
+      <c r="J55" s="440"/>
+      <c r="K55" s="441">
         <f>F57+F58+F59</f>
-        <v>1953688</v>
-      </c>
-      <c r="L55" s="428"/>
+        <v>2071919</v>
+      </c>
+      <c r="L55" s="442"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -39187,18 +39200,18 @@
       </c>
       <c r="F57" s="111">
         <f>SUM(F54:F56)</f>
-        <v>1953688</v>
+        <v>2071919</v>
       </c>
       <c r="H57" s="22"/>
       <c r="I57" s="124" t="s">
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="429">
+      <c r="K57" s="443">
         <f>-C4</f>
         <v>-315698.55</v>
       </c>
-      <c r="L57" s="430"/>
+      <c r="L57" s="444"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -39213,22 +39226,22 @@
     </row>
     <row r="59" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C59" s="128"/>
-      <c r="D59" s="406" t="s">
+      <c r="D59" s="420" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="407"/>
+      <c r="E59" s="421"/>
       <c r="F59" s="129">
         <v>0</v>
       </c>
-      <c r="I59" s="443" t="s">
+      <c r="I59" s="446" t="s">
         <v>168</v>
       </c>
-      <c r="J59" s="444"/>
-      <c r="K59" s="445">
+      <c r="J59" s="447"/>
+      <c r="K59" s="448">
         <f>K55+K57</f>
-        <v>1637989.45</v>
-      </c>
-      <c r="L59" s="445"/>
+        <v>1756220.45</v>
+      </c>
+      <c r="L59" s="448"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="130"/>
@@ -39353,18 +39366,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -39374,6 +39375,18 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.35" bottom="0.28000000000000003" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -40498,23 +40511,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="431"/>
-      <c r="C1" s="433" t="s">
+      <c r="B1" s="407"/>
+      <c r="C1" s="409" t="s">
         <v>125</v>
       </c>
-      <c r="D1" s="434"/>
-      <c r="E1" s="434"/>
-      <c r="F1" s="434"/>
-      <c r="G1" s="434"/>
-      <c r="H1" s="434"/>
-      <c r="I1" s="434"/>
-      <c r="J1" s="434"/>
-      <c r="K1" s="434"/>
-      <c r="L1" s="434"/>
-      <c r="M1" s="434"/>
+      <c r="D1" s="410"/>
+      <c r="E1" s="410"/>
+      <c r="F1" s="410"/>
+      <c r="G1" s="410"/>
+      <c r="H1" s="410"/>
+      <c r="I1" s="410"/>
+      <c r="J1" s="410"/>
+      <c r="K1" s="410"/>
+      <c r="L1" s="410"/>
+      <c r="M1" s="410"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="432"/>
+      <c r="B2" s="408"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -40524,21 +40537,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="435" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="436"/>
+      <c r="B3" s="411" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="412"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="437" t="s">
+      <c r="H3" s="413" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="437"/>
+      <c r="I3" s="413"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="404" t="s">
+      <c r="R3" s="418" t="s">
         <v>38</v>
       </c>
     </row>
@@ -40553,14 +40566,14 @@
       <c r="D4" s="16">
         <v>44591</v>
       </c>
-      <c r="E4" s="438" t="s">
+      <c r="E4" s="414" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="439"/>
-      <c r="H4" s="440" t="s">
+      <c r="F4" s="415"/>
+      <c r="H4" s="416" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="441"/>
+      <c r="I4" s="417"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -40570,11 +40583,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="411" t="s">
+      <c r="P4" s="425" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="412"/>
-      <c r="R4" s="405"/>
+      <c r="Q4" s="426"/>
+      <c r="R4" s="419"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -42011,11 +42024,11 @@
       <c r="J40" s="71"/>
       <c r="K40" s="87"/>
       <c r="L40" s="78"/>
-      <c r="M40" s="442">
+      <c r="M40" s="445">
         <f>SUM(M5:M39)</f>
         <v>1636108</v>
       </c>
-      <c r="N40" s="415">
+      <c r="N40" s="429">
         <f>SUM(N5:N39)</f>
         <v>55675</v>
       </c>
@@ -42040,8 +42053,8 @@
       <c r="J41" s="71"/>
       <c r="K41" s="74"/>
       <c r="L41" s="73"/>
-      <c r="M41" s="414"/>
-      <c r="N41" s="416"/>
+      <c r="M41" s="428"/>
+      <c r="N41" s="430"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -42248,29 +42261,29 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="417" t="s">
+      <c r="H53" s="431" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="418"/>
+      <c r="I53" s="432"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="419">
+      <c r="K53" s="433">
         <f>I51+L51</f>
         <v>45634.280000000006</v>
       </c>
-      <c r="L53" s="420"/>
-      <c r="M53" s="421">
+      <c r="L53" s="434"/>
+      <c r="M53" s="435">
         <f>N40+M40</f>
         <v>1691783</v>
       </c>
-      <c r="N53" s="422"/>
+      <c r="N53" s="436"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="423" t="s">
+      <c r="D54" s="437" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="423"/>
+      <c r="E54" s="437"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
         <v>1686442.72</v>
@@ -42281,22 +42294,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="424" t="s">
+      <c r="D55" s="438" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="424"/>
+      <c r="E55" s="438"/>
       <c r="F55" s="111">
         <v>-1631962.77</v>
       </c>
-      <c r="I55" s="425" t="s">
+      <c r="I55" s="439" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="426"/>
-      <c r="K55" s="427">
+      <c r="J55" s="440"/>
+      <c r="K55" s="441">
         <f>F57+F58+F59</f>
         <v>238822.13999999996</v>
       </c>
-      <c r="L55" s="428"/>
+      <c r="L55" s="442"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -42327,11 +42340,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="429">
+      <c r="K57" s="443">
         <f>-C4</f>
         <v>-154314.51999999999</v>
       </c>
-      <c r="L57" s="430"/>
+      <c r="L57" s="444"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -42348,22 +42361,22 @@
       <c r="C59" s="128">
         <v>44619</v>
       </c>
-      <c r="D59" s="406" t="s">
+      <c r="D59" s="420" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="407"/>
+      <c r="E59" s="421"/>
       <c r="F59" s="129">
         <v>184342.19</v>
       </c>
-      <c r="I59" s="408" t="s">
+      <c r="I59" s="422" t="s">
         <v>168</v>
       </c>
-      <c r="J59" s="409"/>
-      <c r="K59" s="410">
+      <c r="J59" s="423"/>
+      <c r="K59" s="424">
         <f>K55+K57</f>
         <v>84507.619999999966</v>
       </c>
-      <c r="L59" s="410"/>
+      <c r="L59" s="424"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="130"/>
@@ -42488,18 +42501,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -42509,6 +42510,18 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -43813,23 +43826,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="431"/>
-      <c r="C1" s="433" t="s">
+      <c r="B1" s="407"/>
+      <c r="C1" s="409" t="s">
         <v>135</v>
       </c>
-      <c r="D1" s="434"/>
-      <c r="E1" s="434"/>
-      <c r="F1" s="434"/>
-      <c r="G1" s="434"/>
-      <c r="H1" s="434"/>
-      <c r="I1" s="434"/>
-      <c r="J1" s="434"/>
-      <c r="K1" s="434"/>
-      <c r="L1" s="434"/>
-      <c r="M1" s="434"/>
+      <c r="D1" s="410"/>
+      <c r="E1" s="410"/>
+      <c r="F1" s="410"/>
+      <c r="G1" s="410"/>
+      <c r="H1" s="410"/>
+      <c r="I1" s="410"/>
+      <c r="J1" s="410"/>
+      <c r="K1" s="410"/>
+      <c r="L1" s="410"/>
+      <c r="M1" s="410"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="432"/>
+      <c r="B2" s="408"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -43839,21 +43852,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="435" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="436"/>
+      <c r="B3" s="411" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="412"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="437" t="s">
+      <c r="H3" s="413" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="437"/>
+      <c r="I3" s="413"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="404" t="s">
+      <c r="R3" s="418" t="s">
         <v>38</v>
       </c>
     </row>
@@ -43868,14 +43881,14 @@
       <c r="D4" s="16">
         <v>44619</v>
       </c>
-      <c r="E4" s="438" t="s">
+      <c r="E4" s="414" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="439"/>
-      <c r="H4" s="440" t="s">
+      <c r="F4" s="415"/>
+      <c r="H4" s="416" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="441"/>
+      <c r="I4" s="417"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -43885,11 +43898,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="411" t="s">
+      <c r="P4" s="425" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="412"/>
-      <c r="R4" s="405"/>
+      <c r="Q4" s="426"/>
+      <c r="R4" s="419"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -45340,11 +45353,11 @@
       <c r="J40" s="71"/>
       <c r="K40" s="87"/>
       <c r="L40" s="73"/>
-      <c r="M40" s="413">
+      <c r="M40" s="427">
         <f>SUM(M5:M39)</f>
         <v>1793435</v>
       </c>
-      <c r="N40" s="415">
+      <c r="N40" s="429">
         <f>SUM(N5:N39)</f>
         <v>63995</v>
       </c>
@@ -45369,8 +45382,8 @@
       <c r="J41" s="71"/>
       <c r="K41" s="235"/>
       <c r="L41" s="73"/>
-      <c r="M41" s="414"/>
-      <c r="N41" s="416"/>
+      <c r="M41" s="428"/>
+      <c r="N41" s="430"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -45509,29 +45522,29 @@
       <c r="A49" s="33"/>
       <c r="B49" s="113"/>
       <c r="C49" s="1"/>
-      <c r="H49" s="417" t="s">
+      <c r="H49" s="431" t="s">
         <v>12</v>
       </c>
-      <c r="I49" s="418"/>
+      <c r="I49" s="432"/>
       <c r="J49" s="114"/>
-      <c r="K49" s="419">
+      <c r="K49" s="433">
         <f>I47+L47</f>
         <v>90434.03</v>
       </c>
-      <c r="L49" s="420"/>
-      <c r="M49" s="421">
+      <c r="L49" s="434"/>
+      <c r="M49" s="435">
         <f>N40+M40</f>
         <v>1857430</v>
       </c>
-      <c r="N49" s="422"/>
+      <c r="N49" s="436"/>
       <c r="P49" s="32"/>
       <c r="Q49" s="8"/>
     </row>
     <row r="50" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D50" s="423" t="s">
+      <c r="D50" s="437" t="s">
         <v>13</v>
       </c>
-      <c r="E50" s="423"/>
+      <c r="E50" s="437"/>
       <c r="F50" s="115">
         <f>F47-K49-C47</f>
         <v>1824260.97</v>
@@ -45542,22 +45555,22 @@
       <c r="Q50" s="8"/>
     </row>
     <row r="51" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D51" s="424" t="s">
+      <c r="D51" s="438" t="s">
         <v>14</v>
       </c>
-      <c r="E51" s="424"/>
+      <c r="E51" s="438"/>
       <c r="F51" s="111">
         <v>-1848136.64</v>
       </c>
-      <c r="I51" s="425" t="s">
+      <c r="I51" s="439" t="s">
         <v>15</v>
       </c>
-      <c r="J51" s="426"/>
-      <c r="K51" s="427">
+      <c r="J51" s="440"/>
+      <c r="K51" s="441">
         <f>F53+F54+F55</f>
         <v>195541.70000000007</v>
       </c>
-      <c r="L51" s="428"/>
+      <c r="L51" s="442"/>
       <c r="P51" s="32"/>
       <c r="Q51" s="8"/>
     </row>
@@ -45588,11 +45601,11 @@
         <v>17</v>
       </c>
       <c r="J53" s="125"/>
-      <c r="K53" s="429">
+      <c r="K53" s="443">
         <f>-C4</f>
         <v>-184342.19</v>
       </c>
-      <c r="L53" s="430"/>
+      <c r="L53" s="444"/>
     </row>
     <row r="54" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D54" s="126" t="s">
@@ -45609,22 +45622,22 @@
       <c r="C55" s="128">
         <v>44647</v>
       </c>
-      <c r="D55" s="406" t="s">
+      <c r="D55" s="420" t="s">
         <v>20</v>
       </c>
-      <c r="E55" s="407"/>
+      <c r="E55" s="421"/>
       <c r="F55" s="129">
         <v>219417.37</v>
       </c>
-      <c r="I55" s="408" t="s">
+      <c r="I55" s="422" t="s">
         <v>226</v>
       </c>
-      <c r="J55" s="409"/>
-      <c r="K55" s="410">
+      <c r="J55" s="423"/>
+      <c r="K55" s="424">
         <f>K51+K53</f>
         <v>11199.510000000068</v>
       </c>
-      <c r="L55" s="410"/>
+      <c r="L55" s="424"/>
     </row>
     <row r="56" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C56" s="130"/>
@@ -45752,6 +45765,18 @@
     <sortCondition ref="J34:J38"/>
   </sortState>
   <mergeCells count="21">
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -45761,18 +45786,6 @@
     <mergeCell ref="H49:I49"/>
     <mergeCell ref="K49:L49"/>
     <mergeCell ref="M49:N49"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -47247,23 +47260,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="431"/>
-      <c r="C1" s="433" t="s">
+      <c r="B1" s="407"/>
+      <c r="C1" s="409" t="s">
         <v>225</v>
       </c>
-      <c r="D1" s="434"/>
-      <c r="E1" s="434"/>
-      <c r="F1" s="434"/>
-      <c r="G1" s="434"/>
-      <c r="H1" s="434"/>
-      <c r="I1" s="434"/>
-      <c r="J1" s="434"/>
-      <c r="K1" s="434"/>
-      <c r="L1" s="434"/>
-      <c r="M1" s="434"/>
+      <c r="D1" s="410"/>
+      <c r="E1" s="410"/>
+      <c r="F1" s="410"/>
+      <c r="G1" s="410"/>
+      <c r="H1" s="410"/>
+      <c r="I1" s="410"/>
+      <c r="J1" s="410"/>
+      <c r="K1" s="410"/>
+      <c r="L1" s="410"/>
+      <c r="M1" s="410"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="432"/>
+      <c r="B2" s="408"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -47273,21 +47286,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="435" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="436"/>
+      <c r="B3" s="411" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="412"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="437" t="s">
+      <c r="H3" s="413" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="437"/>
+      <c r="I3" s="413"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="404" t="s">
+      <c r="R3" s="418" t="s">
         <v>38</v>
       </c>
     </row>
@@ -47302,14 +47315,14 @@
       <c r="D4" s="16">
         <v>44647</v>
       </c>
-      <c r="E4" s="438" t="s">
+      <c r="E4" s="414" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="439"/>
-      <c r="H4" s="440" t="s">
+      <c r="F4" s="415"/>
+      <c r="H4" s="416" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="441"/>
+      <c r="I4" s="417"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -47319,11 +47332,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="411" t="s">
+      <c r="P4" s="425" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="412"/>
-      <c r="R4" s="405"/>
+      <c r="Q4" s="426"/>
+      <c r="R4" s="419"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -48920,11 +48933,11 @@
         <f>927.48+128</f>
         <v>1055.48</v>
       </c>
-      <c r="M40" s="413">
+      <c r="M40" s="427">
         <f>SUM(M5:M39)</f>
         <v>2146671</v>
       </c>
-      <c r="N40" s="415">
+      <c r="N40" s="429">
         <f>SUM(N5:N39)</f>
         <v>68590</v>
       </c>
@@ -48955,8 +48968,8 @@
       <c r="L41" s="73">
         <v>1195.68</v>
       </c>
-      <c r="M41" s="414"/>
-      <c r="N41" s="416"/>
+      <c r="M41" s="428"/>
+      <c r="N41" s="430"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -49187,29 +49200,29 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="417" t="s">
+      <c r="H53" s="431" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="418"/>
+      <c r="I53" s="432"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="419">
+      <c r="K53" s="433">
         <f>I51+L51</f>
         <v>91272.77</v>
       </c>
-      <c r="L53" s="420"/>
-      <c r="M53" s="421">
+      <c r="L53" s="434"/>
+      <c r="M53" s="435">
         <f>N40+M40</f>
         <v>2215261</v>
       </c>
-      <c r="N53" s="422"/>
+      <c r="N53" s="436"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="423" t="s">
+      <c r="D54" s="437" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="423"/>
+      <c r="E54" s="437"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
         <v>2179879.23</v>
@@ -49220,22 +49233,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="424" t="s">
+      <c r="D55" s="438" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="424"/>
+      <c r="E55" s="438"/>
       <c r="F55" s="111">
         <v>-2227493.48</v>
       </c>
-      <c r="I55" s="425" t="s">
+      <c r="I55" s="439" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="426"/>
-      <c r="K55" s="427">
+      <c r="J55" s="440"/>
+      <c r="K55" s="441">
         <f>F57+F58+F59</f>
         <v>261521.34000000003</v>
       </c>
-      <c r="L55" s="428"/>
+      <c r="L55" s="442"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -49266,11 +49279,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="429">
+      <c r="K57" s="443">
         <f>-C4</f>
         <v>-219417.37</v>
       </c>
-      <c r="L57" s="430"/>
+      <c r="L57" s="444"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -49287,22 +49300,22 @@
       <c r="C59" s="128">
         <v>44682</v>
       </c>
-      <c r="D59" s="406" t="s">
+      <c r="D59" s="420" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="407"/>
+      <c r="E59" s="421"/>
       <c r="F59" s="129">
         <v>297874.59000000003</v>
       </c>
-      <c r="I59" s="408" t="s">
+      <c r="I59" s="422" t="s">
         <v>168</v>
       </c>
-      <c r="J59" s="409"/>
-      <c r="K59" s="410">
+      <c r="J59" s="423"/>
+      <c r="K59" s="424">
         <f>K55+K57</f>
         <v>42103.97000000003</v>
       </c>
-      <c r="L59" s="410"/>
+      <c r="L59" s="424"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="130"/>
@@ -49430,6 +49443,18 @@
     <sortCondition ref="J40:J44"/>
   </sortState>
   <mergeCells count="21">
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -49439,18 +49464,6 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -50954,23 +50967,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="431"/>
-      <c r="C1" s="433" t="s">
+      <c r="B1" s="407"/>
+      <c r="C1" s="409" t="s">
         <v>277</v>
       </c>
-      <c r="D1" s="434"/>
-      <c r="E1" s="434"/>
-      <c r="F1" s="434"/>
-      <c r="G1" s="434"/>
-      <c r="H1" s="434"/>
-      <c r="I1" s="434"/>
-      <c r="J1" s="434"/>
-      <c r="K1" s="434"/>
-      <c r="L1" s="434"/>
-      <c r="M1" s="434"/>
+      <c r="D1" s="410"/>
+      <c r="E1" s="410"/>
+      <c r="F1" s="410"/>
+      <c r="G1" s="410"/>
+      <c r="H1" s="410"/>
+      <c r="I1" s="410"/>
+      <c r="J1" s="410"/>
+      <c r="K1" s="410"/>
+      <c r="L1" s="410"/>
+      <c r="M1" s="410"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="432"/>
+      <c r="B2" s="408"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -50980,21 +50993,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="435" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="436"/>
+      <c r="B3" s="411" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="412"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="437" t="s">
+      <c r="H3" s="413" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="437"/>
+      <c r="I3" s="413"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="404" t="s">
+      <c r="R3" s="418" t="s">
         <v>38</v>
       </c>
     </row>
@@ -51009,14 +51022,14 @@
       <c r="D4" s="16">
         <v>44682</v>
       </c>
-      <c r="E4" s="438" t="s">
+      <c r="E4" s="414" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="439"/>
-      <c r="H4" s="440" t="s">
+      <c r="F4" s="415"/>
+      <c r="H4" s="416" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="441"/>
+      <c r="I4" s="417"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -51026,11 +51039,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="411" t="s">
+      <c r="P4" s="425" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="412"/>
-      <c r="R4" s="405"/>
+      <c r="Q4" s="426"/>
+      <c r="R4" s="419"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -52547,11 +52560,11 @@
       <c r="J40" s="71"/>
       <c r="K40" s="74"/>
       <c r="L40" s="73"/>
-      <c r="M40" s="413">
+      <c r="M40" s="427">
         <f>SUM(M5:M39)</f>
         <v>2144215</v>
       </c>
-      <c r="N40" s="415">
+      <c r="N40" s="429">
         <f>SUM(N5:N39)</f>
         <v>62525</v>
       </c>
@@ -52576,8 +52589,8 @@
       <c r="J41" s="71"/>
       <c r="K41" s="235"/>
       <c r="L41" s="73"/>
-      <c r="M41" s="414"/>
-      <c r="N41" s="416"/>
+      <c r="M41" s="428"/>
+      <c r="N41" s="430"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -52788,29 +52801,29 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="417" t="s">
+      <c r="H53" s="431" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="418"/>
+      <c r="I53" s="432"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="419">
+      <c r="K53" s="433">
         <f>I51+L51</f>
         <v>51231.42</v>
       </c>
-      <c r="L53" s="420"/>
-      <c r="M53" s="421">
+      <c r="L53" s="434"/>
+      <c r="M53" s="435">
         <f>N40+M40</f>
         <v>2206740</v>
       </c>
-      <c r="N53" s="422"/>
+      <c r="N53" s="436"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="423" t="s">
+      <c r="D54" s="437" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="423"/>
+      <c r="E54" s="437"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
         <v>2189405.58</v>
@@ -52821,22 +52834,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="424" t="s">
+      <c r="D55" s="438" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="424"/>
+      <c r="E55" s="438"/>
       <c r="F55" s="111">
         <v>-2251924.65</v>
       </c>
-      <c r="I55" s="425" t="s">
+      <c r="I55" s="439" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="426"/>
-      <c r="K55" s="427">
+      <c r="J55" s="440"/>
+      <c r="K55" s="441">
         <f>F57+F58+F59</f>
         <v>112552.74000000017</v>
       </c>
-      <c r="L55" s="428"/>
+      <c r="L55" s="442"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -52867,11 +52880,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="429">
+      <c r="K57" s="443">
         <f>-C4</f>
         <v>-297874.59000000003</v>
       </c>
-      <c r="L57" s="430"/>
+      <c r="L57" s="444"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -52888,22 +52901,22 @@
       <c r="C59" s="128">
         <v>44710</v>
       </c>
-      <c r="D59" s="406" t="s">
+      <c r="D59" s="420" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="407"/>
+      <c r="E59" s="421"/>
       <c r="F59" s="129">
         <v>149938.81</v>
       </c>
-      <c r="I59" s="408" t="s">
+      <c r="I59" s="422" t="s">
         <v>325</v>
       </c>
-      <c r="J59" s="409"/>
-      <c r="K59" s="410">
+      <c r="J59" s="423"/>
+      <c r="K59" s="424">
         <f>K55+K57</f>
         <v>-185321.84999999986</v>
       </c>
-      <c r="L59" s="410"/>
+      <c r="L59" s="424"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="130"/>
@@ -53031,18 +53044,6 @@
     <sortCondition ref="J35:J40"/>
   </sortState>
   <mergeCells count="21">
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -53052,6 +53053,18 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL#15  ARCHIVO   2 0 2 2/CENTRAL #12  DICIEMBRE 2022/BALANCE   HERRADURA  DICIEMBRE       2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL#15  ARCHIVO   2 0 2 2/CENTRAL #12  DICIEMBRE 2022/BALANCE   HERRADURA  DICIEMBRE       2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="195" yWindow="915" windowWidth="16905" windowHeight="10110" firstSheet="22" activeTab="22"/>
+    <workbookView xWindow="195" yWindow="915" windowWidth="16905" windowHeight="10110" firstSheet="21" activeTab="22"/>
   </bookViews>
   <sheets>
     <sheet name="E N E R O    2 0 2 2         " sheetId="1" r:id="rId1"/>
@@ -752,7 +752,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1191" uniqueCount="598">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -2550,6 +2550,15 @@
   </si>
   <si>
     <t>NOMINA # 51</t>
+  </si>
+  <si>
+    <t>MANCHEGO GOUDA</t>
+  </si>
+  <si>
+    <t>AGUINALDOS</t>
+  </si>
+  <si>
+    <t>NOMINA # 52</t>
   </si>
 </sst>
 </file>
@@ -28096,7 +28105,7 @@
   <dimension ref="A1:U81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="D26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="D35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
       <selection pane="bottomRight" activeCell="J40" sqref="J40"/>
@@ -33532,7 +33541,7 @@
   <dimension ref="A1:U81"/>
   <sheetViews>
     <sheetView topLeftCell="B27" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+      <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37173,10 +37182,10 @@
   <dimension ref="A1:U81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="8" ySplit="4" topLeftCell="I17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="4" topLeftCell="N29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="L25" sqref="L25"/>
+      <selection pane="bottomRight" activeCell="R34" sqref="R34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38222,19 +38231,20 @@
         <v>9500</v>
       </c>
       <c r="M24" s="30">
-        <v>0</v>
+        <f>52373+50000</f>
+        <v>102373</v>
       </c>
       <c r="N24" s="31">
-        <v>0</v>
+        <v>15858</v>
       </c>
       <c r="O24" s="314"/>
       <c r="P24" s="32">
         <f t="shared" si="1"/>
-        <v>9658</v>
+        <v>127889</v>
       </c>
       <c r="Q24" s="12">
         <f t="shared" si="0"/>
-        <v>-118231</v>
+        <v>0</v>
       </c>
       <c r="R24" s="12">
         <v>0</v>
@@ -38247,31 +38257,38 @@
         <v>44913</v>
       </c>
       <c r="C25" s="24">
-        <v>0</v>
-      </c>
-      <c r="D25" s="326"/>
+        <v>4894</v>
+      </c>
+      <c r="D25" s="326" t="s">
+        <v>47</v>
+      </c>
       <c r="E25" s="322">
         <v>44913</v>
       </c>
-      <c r="F25" s="27"/>
+      <c r="F25" s="27">
+        <v>195366</v>
+      </c>
       <c r="G25" s="323"/>
       <c r="H25" s="324">
         <v>44913</v>
       </c>
-      <c r="I25" s="29"/>
+      <c r="I25" s="29">
+        <v>108</v>
+      </c>
       <c r="J25" s="62"/>
       <c r="K25" s="344"/>
       <c r="L25" s="64"/>
       <c r="M25" s="30">
-        <v>0</v>
+        <f>105000+65000+13570</f>
+        <v>183570</v>
       </c>
       <c r="N25" s="31">
-        <v>0</v>
+        <v>6794</v>
       </c>
       <c r="O25" s="314"/>
       <c r="P25" s="32">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>195366</v>
       </c>
       <c r="Q25" s="12">
         <f t="shared" si="0"/>
@@ -38288,31 +38305,38 @@
         <v>44914</v>
       </c>
       <c r="C26" s="24">
-        <v>0</v>
-      </c>
-      <c r="D26" s="326"/>
+        <v>16579</v>
+      </c>
+      <c r="D26" s="326" t="s">
+        <v>590</v>
+      </c>
       <c r="E26" s="322">
         <v>44914</v>
       </c>
-      <c r="F26" s="27"/>
+      <c r="F26" s="27">
+        <v>175046</v>
+      </c>
       <c r="G26" s="323"/>
       <c r="H26" s="324">
         <v>44914</v>
       </c>
-      <c r="I26" s="29"/>
+      <c r="I26" s="29">
+        <v>85</v>
+      </c>
       <c r="J26" s="36"/>
       <c r="K26" s="343"/>
       <c r="L26" s="46"/>
       <c r="M26" s="30">
-        <v>0</v>
+        <f>25000+110000+22264</f>
+        <v>157264</v>
       </c>
       <c r="N26" s="31">
-        <v>0</v>
+        <v>1118</v>
       </c>
       <c r="O26" s="314"/>
       <c r="P26" s="32">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>175046</v>
       </c>
       <c r="Q26" s="12">
         <f t="shared" si="0"/>
@@ -38329,31 +38353,44 @@
         <v>44915</v>
       </c>
       <c r="C27" s="24">
-        <v>0</v>
-      </c>
-      <c r="D27" s="328"/>
+        <v>2929</v>
+      </c>
+      <c r="D27" s="328" t="s">
+        <v>595</v>
+      </c>
       <c r="E27" s="322">
         <v>44915</v>
       </c>
-      <c r="F27" s="27"/>
+      <c r="F27" s="27">
+        <v>104482</v>
+      </c>
       <c r="G27" s="323"/>
       <c r="H27" s="324">
         <v>44915</v>
       </c>
-      <c r="I27" s="29"/>
-      <c r="J27" s="65"/>
-      <c r="K27" s="345"/>
-      <c r="L27" s="64"/>
+      <c r="I27" s="29">
+        <v>114</v>
+      </c>
+      <c r="J27" s="65">
+        <v>44915</v>
+      </c>
+      <c r="K27" s="345" t="s">
+        <v>596</v>
+      </c>
+      <c r="L27" s="64">
+        <v>14572</v>
+      </c>
       <c r="M27" s="30">
-        <v>0</v>
+        <f>51031+30000</f>
+        <v>81031</v>
       </c>
       <c r="N27" s="31">
-        <v>0</v>
+        <v>5836</v>
       </c>
       <c r="O27" s="314"/>
       <c r="P27" s="32">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>104482</v>
       </c>
       <c r="Q27" s="12">
         <f t="shared" si="0"/>
@@ -38376,25 +38413,30 @@
       <c r="E28" s="322">
         <v>44916</v>
       </c>
-      <c r="F28" s="27"/>
+      <c r="F28" s="27">
+        <v>116617</v>
+      </c>
       <c r="G28" s="323"/>
       <c r="H28" s="324">
         <v>44916</v>
       </c>
-      <c r="I28" s="29"/>
+      <c r="I28" s="29">
+        <v>132</v>
+      </c>
       <c r="J28" s="67"/>
       <c r="K28" s="346"/>
       <c r="L28" s="64"/>
       <c r="M28" s="30">
-        <v>0</v>
+        <f>30000+67736</f>
+        <v>97736</v>
       </c>
       <c r="N28" s="31">
-        <v>0</v>
+        <v>18749</v>
       </c>
       <c r="O28" s="314"/>
       <c r="P28" s="32">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>116617</v>
       </c>
       <c r="Q28" s="12">
         <f t="shared" si="0"/>
@@ -38417,25 +38459,30 @@
       <c r="E29" s="322">
         <v>44917</v>
       </c>
-      <c r="F29" s="27"/>
+      <c r="F29" s="27">
+        <v>185061</v>
+      </c>
       <c r="G29" s="323"/>
       <c r="H29" s="324">
         <v>44917</v>
       </c>
-      <c r="I29" s="29"/>
+      <c r="I29" s="29">
+        <v>217</v>
+      </c>
       <c r="J29" s="65"/>
       <c r="K29" s="348"/>
       <c r="L29" s="64"/>
       <c r="M29" s="30">
-        <v>0</v>
+        <f>41376+75000+60000</f>
+        <v>176376</v>
       </c>
       <c r="N29" s="31">
-        <v>0</v>
+        <v>8468</v>
       </c>
       <c r="O29" s="314"/>
       <c r="P29" s="32">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>185061</v>
       </c>
       <c r="Q29" s="12">
         <f t="shared" si="0"/>
@@ -38453,31 +38500,38 @@
         <v>44918</v>
       </c>
       <c r="C30" s="24">
-        <v>0</v>
-      </c>
-      <c r="D30" s="347"/>
+        <v>3198</v>
+      </c>
+      <c r="D30" s="347" t="s">
+        <v>47</v>
+      </c>
       <c r="E30" s="322">
         <v>44918</v>
       </c>
-      <c r="F30" s="27"/>
+      <c r="F30" s="27">
+        <v>189471</v>
+      </c>
       <c r="G30" s="323"/>
       <c r="H30" s="324">
         <v>44918</v>
       </c>
-      <c r="I30" s="29"/>
+      <c r="I30" s="29">
+        <v>97</v>
+      </c>
       <c r="J30" s="71"/>
       <c r="K30" s="349"/>
       <c r="L30" s="73"/>
       <c r="M30" s="30">
-        <v>0</v>
+        <f>58812+20000+100000</f>
+        <v>178812</v>
       </c>
       <c r="N30" s="31">
-        <v>0</v>
+        <v>7364</v>
       </c>
       <c r="O30" s="314"/>
       <c r="P30" s="32">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>189471</v>
       </c>
       <c r="Q30" s="12">
         <f t="shared" si="0"/>
@@ -38494,31 +38548,44 @@
         <v>44919</v>
       </c>
       <c r="C31" s="24">
-        <v>0</v>
-      </c>
-      <c r="D31" s="350"/>
+        <v>19814</v>
+      </c>
+      <c r="D31" s="350" t="s">
+        <v>590</v>
+      </c>
       <c r="E31" s="322">
         <v>44919</v>
       </c>
-      <c r="F31" s="27"/>
+      <c r="F31" s="27">
+        <v>180306</v>
+      </c>
       <c r="G31" s="323"/>
       <c r="H31" s="324">
         <v>44919</v>
       </c>
-      <c r="I31" s="29"/>
-      <c r="J31" s="71"/>
-      <c r="K31" s="351"/>
-      <c r="L31" s="75"/>
+      <c r="I31" s="29">
+        <v>84</v>
+      </c>
+      <c r="J31" s="71">
+        <v>44919</v>
+      </c>
+      <c r="K31" s="351" t="s">
+        <v>597</v>
+      </c>
+      <c r="L31" s="75">
+        <v>11900</v>
+      </c>
       <c r="M31" s="30">
-        <v>0</v>
+        <f>40000+65000+30547</f>
+        <v>135547</v>
       </c>
       <c r="N31" s="31">
-        <v>0</v>
+        <v>12961</v>
       </c>
       <c r="O31" s="314"/>
       <c r="P31" s="32">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>180306</v>
       </c>
       <c r="Q31" s="12">
         <f t="shared" si="0"/>
@@ -38541,12 +38608,16 @@
       <c r="E32" s="397">
         <v>44920</v>
       </c>
-      <c r="F32" s="403"/>
+      <c r="F32" s="403">
+        <v>0</v>
+      </c>
       <c r="G32" s="399"/>
       <c r="H32" s="400">
         <v>44920</v>
       </c>
-      <c r="I32" s="401"/>
+      <c r="I32" s="401">
+        <v>0</v>
+      </c>
       <c r="J32" s="71"/>
       <c r="K32" s="349"/>
       <c r="L32" s="73"/>
@@ -38582,25 +38653,30 @@
       <c r="E33" s="322">
         <v>44921</v>
       </c>
-      <c r="F33" s="27"/>
+      <c r="F33" s="27">
+        <v>117457</v>
+      </c>
       <c r="G33" s="323"/>
       <c r="H33" s="324">
         <v>44921</v>
       </c>
-      <c r="I33" s="29"/>
+      <c r="I33" s="29">
+        <v>195</v>
+      </c>
       <c r="J33" s="71"/>
       <c r="K33" s="351"/>
       <c r="L33" s="78"/>
       <c r="M33" s="30">
-        <v>0</v>
+        <f>66443+50000</f>
+        <v>116443</v>
       </c>
       <c r="N33" s="31">
-        <v>0</v>
+        <v>819</v>
       </c>
       <c r="O33" s="314"/>
       <c r="P33" s="32">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>117457</v>
       </c>
       <c r="Q33" s="12">
         <f t="shared" si="0"/>
@@ -38623,25 +38699,30 @@
       <c r="E34" s="322">
         <v>44922</v>
       </c>
-      <c r="F34" s="27"/>
+      <c r="F34" s="27">
+        <v>61954</v>
+      </c>
       <c r="G34" s="323"/>
       <c r="H34" s="324">
         <v>44922</v>
       </c>
-      <c r="I34" s="29"/>
+      <c r="I34" s="29">
+        <v>60</v>
+      </c>
       <c r="J34" s="71"/>
       <c r="K34" s="354"/>
       <c r="L34" s="80"/>
       <c r="M34" s="30">
-        <v>0</v>
+        <f>20000+36876</f>
+        <v>56876</v>
       </c>
       <c r="N34" s="31">
-        <v>0</v>
+        <v>5018</v>
       </c>
       <c r="O34" s="314"/>
       <c r="P34" s="32">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>61954</v>
       </c>
       <c r="Q34" s="12">
         <f t="shared" si="0"/>
@@ -38880,19 +38961,19 @@
       <c r="L40" s="73"/>
       <c r="M40" s="427">
         <f>SUM(M5:M39)</f>
-        <v>1956885</v>
+        <v>3242913</v>
       </c>
       <c r="N40" s="429">
         <f>SUM(N5:N39)</f>
-        <v>67830</v>
+        <v>150815</v>
       </c>
       <c r="P40" s="32">
         <f t="shared" si="1"/>
-        <v>2024715</v>
+        <v>3393728</v>
       </c>
       <c r="Q40" s="284">
         <f>SUM(Q5:Q39)</f>
-        <v>-47204</v>
+        <v>71027</v>
       </c>
       <c r="R40" s="316">
         <f>SUM(R5:R39)</f>
@@ -39086,7 +39167,7 @@
       </c>
       <c r="C51" s="102">
         <f>SUM(C5:C50)</f>
-        <v>66216</v>
+        <v>113630</v>
       </c>
       <c r="D51" s="103"/>
       <c r="E51" s="104" t="s">
@@ -39094,7 +39175,7 @@
       </c>
       <c r="F51" s="105">
         <f>SUM(F5:F50)</f>
-        <v>2169273</v>
+        <v>3495033</v>
       </c>
       <c r="G51" s="103"/>
       <c r="H51" s="106" t="s">
@@ -39102,7 +39183,7 @@
       </c>
       <c r="I51" s="107">
         <f>SUM(I5:I50)</f>
-        <v>2638</v>
+        <v>3730</v>
       </c>
       <c r="J51" s="108"/>
       <c r="K51" s="109" t="s">
@@ -39110,7 +39191,7 @@
       </c>
       <c r="L51" s="110">
         <f>SUM(L5:L50)</f>
-        <v>28500</v>
+        <v>54972</v>
       </c>
       <c r="M51" s="111"/>
       <c r="N51" s="111"/>
@@ -39135,12 +39216,12 @@
       <c r="J53" s="114"/>
       <c r="K53" s="433">
         <f>I51+L51</f>
-        <v>31138</v>
+        <v>58702</v>
       </c>
       <c r="L53" s="434"/>
       <c r="M53" s="435">
         <f>N40+M40</f>
-        <v>2024715</v>
+        <v>3393728</v>
       </c>
       <c r="N53" s="436"/>
       <c r="P53" s="32"/>
@@ -39153,7 +39234,7 @@
       <c r="E54" s="437"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
-        <v>2071919</v>
+        <v>3322701</v>
       </c>
       <c r="I54" s="116"/>
       <c r="J54" s="117"/>
@@ -39174,7 +39255,7 @@
       <c r="J55" s="440"/>
       <c r="K55" s="441">
         <f>F57+F58+F59</f>
-        <v>2071919</v>
+        <v>3322701</v>
       </c>
       <c r="L55" s="442"/>
       <c r="P55" s="32"/>
@@ -39200,7 +39281,7 @@
       </c>
       <c r="F57" s="111">
         <f>SUM(F54:F56)</f>
-        <v>2071919</v>
+        <v>3322701</v>
       </c>
       <c r="H57" s="22"/>
       <c r="I57" s="124" t="s">
@@ -39239,7 +39320,7 @@
       <c r="J59" s="447"/>
       <c r="K59" s="448">
         <f>K55+K57</f>
-        <v>1756220.45</v>
+        <v>3007002.45</v>
       </c>
       <c r="L59" s="448"/>
     </row>

--- a/01 DOCUEMENTOS/CENTRAL#15  ARCHIVO   2 0 2 2/CENTRAL #12  DICIEMBRE 2022/BALANCE   HERRADURA  DICIEMBRE       2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL#15  ARCHIVO   2 0 2 2/CENTRAL #12  DICIEMBRE 2022/BALANCE   HERRADURA  DICIEMBRE       2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="195" yWindow="915" windowWidth="16905" windowHeight="10110" firstSheet="21" activeTab="22"/>
+    <workbookView xWindow="195" yWindow="915" windowWidth="16905" windowHeight="10110" firstSheet="20" activeTab="22"/>
   </bookViews>
   <sheets>
     <sheet name="E N E R O    2 0 2 2         " sheetId="1" r:id="rId1"/>
@@ -752,7 +752,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1191" uniqueCount="598">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1199" uniqueCount="603">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -2559,6 +2559,21 @@
   </si>
   <si>
     <t>NOMINA # 52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LONGAZANIZAY COMPRAS CENTRAL </t>
+  </si>
+  <si>
+    <t>ARABE--COMPRAS CENTRAL</t>
+  </si>
+  <si>
+    <t>NOMINA # 01</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>NOMINA # 02</t>
   </si>
 </sst>
 </file>
@@ -3035,7 +3050,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3126,8 +3141,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="66">
+  <borders count="68">
     <border>
       <left/>
       <right/>
@@ -3932,12 +3953,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="449">
+  <cellXfs count="456">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -4679,39 +4724,6 @@
     <xf numFmtId="166" fontId="19" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="17" fillId="15" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="15" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="44" fontId="44" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -4793,6 +4805,39 @@
     <xf numFmtId="44" fontId="13" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="44" fontId="14" fillId="0" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4805,6 +4850,15 @@
     <xf numFmtId="166" fontId="12" fillId="6" borderId="51" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="17" fillId="0" borderId="66" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="67" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="16" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="15" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -6117,13 +6171,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>200024</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>85724</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6170,13 +6224,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1143000</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6223,13 +6277,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>200024</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>85724</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6276,13 +6330,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6329,13 +6383,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>200023</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>133352</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6390,7 +6444,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>64250</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1323990" cy="419708"/>
@@ -6485,13 +6539,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1152525</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -10237,23 +10291,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="407"/>
-      <c r="C1" s="409" t="s">
+      <c r="B1" s="434"/>
+      <c r="C1" s="436" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="410"/>
-      <c r="E1" s="410"/>
-      <c r="F1" s="410"/>
-      <c r="G1" s="410"/>
-      <c r="H1" s="410"/>
-      <c r="I1" s="410"/>
-      <c r="J1" s="410"/>
-      <c r="K1" s="410"/>
-      <c r="L1" s="410"/>
-      <c r="M1" s="410"/>
+      <c r="D1" s="437"/>
+      <c r="E1" s="437"/>
+      <c r="F1" s="437"/>
+      <c r="G1" s="437"/>
+      <c r="H1" s="437"/>
+      <c r="I1" s="437"/>
+      <c r="J1" s="437"/>
+      <c r="K1" s="437"/>
+      <c r="L1" s="437"/>
+      <c r="M1" s="437"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="408"/>
+      <c r="B2" s="435"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -10263,21 +10317,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="411" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="412"/>
+      <c r="B3" s="438" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="439"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="413" t="s">
+      <c r="H3" s="440" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="413"/>
+      <c r="I3" s="440"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="418" t="s">
+      <c r="R3" s="407" t="s">
         <v>38</v>
       </c>
     </row>
@@ -10292,14 +10346,14 @@
       <c r="D4" s="16">
         <v>44563</v>
       </c>
-      <c r="E4" s="414" t="s">
+      <c r="E4" s="441" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="415"/>
-      <c r="H4" s="416" t="s">
+      <c r="F4" s="442"/>
+      <c r="H4" s="443" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="417"/>
+      <c r="I4" s="444"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -10309,11 +10363,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="425" t="s">
+      <c r="P4" s="414" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="426"/>
-      <c r="R4" s="419"/>
+      <c r="Q4" s="415"/>
+      <c r="R4" s="408"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -11768,11 +11822,11 @@
       <c r="J40" s="71"/>
       <c r="K40" s="87"/>
       <c r="L40" s="73"/>
-      <c r="M40" s="427">
+      <c r="M40" s="416">
         <f>SUM(M5:M39)</f>
         <v>1527030</v>
       </c>
-      <c r="N40" s="429">
+      <c r="N40" s="418">
         <f>SUM(N5:N39)</f>
         <v>50013</v>
       </c>
@@ -11797,8 +11851,8 @@
       <c r="J41" s="71"/>
       <c r="K41" s="74"/>
       <c r="L41" s="73"/>
-      <c r="M41" s="428"/>
-      <c r="N41" s="430"/>
+      <c r="M41" s="417"/>
+      <c r="N41" s="419"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -12005,29 +12059,29 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="431" t="s">
+      <c r="H53" s="420" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="432"/>
+      <c r="I53" s="421"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="433">
+      <c r="K53" s="422">
         <f>I51+L51</f>
         <v>50143.28</v>
       </c>
-      <c r="L53" s="434"/>
-      <c r="M53" s="435">
+      <c r="L53" s="423"/>
+      <c r="M53" s="424">
         <f>N40+M40</f>
         <v>1577043</v>
       </c>
-      <c r="N53" s="436"/>
+      <c r="N53" s="425"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="437" t="s">
+      <c r="D54" s="426" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="437"/>
+      <c r="E54" s="426"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
         <v>1561421.72</v>
@@ -12038,22 +12092,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="438" t="s">
+      <c r="D55" s="427" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="438"/>
+      <c r="E55" s="427"/>
       <c r="F55" s="111">
         <v>-1419082.77</v>
       </c>
-      <c r="I55" s="439" t="s">
+      <c r="I55" s="428" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="440"/>
-      <c r="K55" s="441">
+      <c r="J55" s="429"/>
+      <c r="K55" s="430">
         <f>F57+F58+F59</f>
         <v>296963.46999999997</v>
       </c>
-      <c r="L55" s="442"/>
+      <c r="L55" s="431"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -12084,11 +12138,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="443">
+      <c r="K57" s="432">
         <f>-C4</f>
         <v>-221059.7</v>
       </c>
-      <c r="L57" s="444"/>
+      <c r="L57" s="433"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -12105,22 +12159,22 @@
       <c r="C59" s="128">
         <v>44591</v>
       </c>
-      <c r="D59" s="420" t="s">
+      <c r="D59" s="409" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="421"/>
+      <c r="E59" s="410"/>
       <c r="F59" s="129">
         <v>154314.51999999999</v>
       </c>
-      <c r="I59" s="422" t="s">
+      <c r="I59" s="411" t="s">
         <v>168</v>
       </c>
-      <c r="J59" s="423"/>
-      <c r="K59" s="424">
+      <c r="J59" s="412"/>
+      <c r="K59" s="413">
         <f>K55+K57</f>
         <v>75903.76999999996</v>
       </c>
-      <c r="L59" s="424"/>
+      <c r="L59" s="413"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="130"/>
@@ -12245,6 +12299,12 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="D59:E59"/>
     <mergeCell ref="I59:J59"/>
@@ -12260,12 +12320,6 @@
     <mergeCell ref="I55:J55"/>
     <mergeCell ref="K55:L55"/>
     <mergeCell ref="K57:L57"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -13718,23 +13772,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="407"/>
-      <c r="C1" s="409" t="s">
+      <c r="B1" s="434"/>
+      <c r="C1" s="436" t="s">
         <v>326</v>
       </c>
-      <c r="D1" s="410"/>
-      <c r="E1" s="410"/>
-      <c r="F1" s="410"/>
-      <c r="G1" s="410"/>
-      <c r="H1" s="410"/>
-      <c r="I1" s="410"/>
-      <c r="J1" s="410"/>
-      <c r="K1" s="410"/>
-      <c r="L1" s="410"/>
-      <c r="M1" s="410"/>
+      <c r="D1" s="437"/>
+      <c r="E1" s="437"/>
+      <c r="F1" s="437"/>
+      <c r="G1" s="437"/>
+      <c r="H1" s="437"/>
+      <c r="I1" s="437"/>
+      <c r="J1" s="437"/>
+      <c r="K1" s="437"/>
+      <c r="L1" s="437"/>
+      <c r="M1" s="437"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="408"/>
+      <c r="B2" s="435"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -13744,21 +13798,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="411" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="412"/>
+      <c r="B3" s="438" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="439"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="413" t="s">
+      <c r="H3" s="440" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="413"/>
+      <c r="I3" s="440"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="418" t="s">
+      <c r="R3" s="407" t="s">
         <v>38</v>
       </c>
     </row>
@@ -13773,14 +13827,14 @@
       <c r="D4" s="16">
         <v>44710</v>
       </c>
-      <c r="E4" s="414" t="s">
+      <c r="E4" s="441" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="415"/>
-      <c r="H4" s="416" t="s">
+      <c r="F4" s="442"/>
+      <c r="H4" s="443" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="417"/>
+      <c r="I4" s="444"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -13790,11 +13844,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="425" t="s">
+      <c r="P4" s="414" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="426"/>
-      <c r="R4" s="419"/>
+      <c r="Q4" s="415"/>
+      <c r="R4" s="408"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -15324,11 +15378,11 @@
       <c r="J40" s="71"/>
       <c r="K40" s="74"/>
       <c r="L40" s="73"/>
-      <c r="M40" s="427">
+      <c r="M40" s="416">
         <f>SUM(M5:M39)</f>
         <v>2772689</v>
       </c>
-      <c r="N40" s="429">
+      <c r="N40" s="418">
         <f>SUM(N5:N39)</f>
         <v>107354</v>
       </c>
@@ -15359,8 +15413,8 @@
       <c r="L41" s="73">
         <v>638.99</v>
       </c>
-      <c r="M41" s="428"/>
-      <c r="N41" s="430"/>
+      <c r="M41" s="417"/>
+      <c r="N41" s="419"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -15606,29 +15660,29 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="431" t="s">
+      <c r="H53" s="420" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="432"/>
+      <c r="I53" s="421"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="433">
+      <c r="K53" s="422">
         <f>I51+L51</f>
         <v>60691.69</v>
       </c>
-      <c r="L53" s="434"/>
-      <c r="M53" s="435">
+      <c r="L53" s="423"/>
+      <c r="M53" s="424">
         <f>N40+M40</f>
         <v>2880043</v>
       </c>
-      <c r="N53" s="436"/>
+      <c r="N53" s="425"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="437" t="s">
+      <c r="D54" s="426" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="437"/>
+      <c r="E54" s="426"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
         <v>2844548.31</v>
@@ -15639,22 +15693,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="438" t="s">
+      <c r="D55" s="427" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="438"/>
+      <c r="E55" s="427"/>
       <c r="F55" s="111">
         <v>-2875380.48</v>
       </c>
-      <c r="I55" s="439" t="s">
+      <c r="I55" s="428" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="440"/>
-      <c r="K55" s="441">
+      <c r="J55" s="429"/>
+      <c r="K55" s="430">
         <f>F57+F58+F59</f>
         <v>247554.74000000008</v>
       </c>
-      <c r="L55" s="442"/>
+      <c r="L55" s="431"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -15685,11 +15739,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="443">
+      <c r="K57" s="432">
         <f>-C4</f>
         <v>-149938.81</v>
       </c>
-      <c r="L57" s="444"/>
+      <c r="L57" s="433"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -15706,22 +15760,22 @@
       <c r="C59" s="128">
         <v>44745</v>
       </c>
-      <c r="D59" s="420" t="s">
+      <c r="D59" s="409" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="421"/>
+      <c r="E59" s="410"/>
       <c r="F59" s="129">
         <v>232165.91</v>
       </c>
-      <c r="I59" s="422" t="s">
+      <c r="I59" s="411" t="s">
         <v>168</v>
       </c>
-      <c r="J59" s="423"/>
-      <c r="K59" s="424">
+      <c r="J59" s="412"/>
+      <c r="K59" s="413">
         <f>K55+K57</f>
         <v>97615.93000000008</v>
       </c>
-      <c r="L59" s="424"/>
+      <c r="L59" s="413"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="130"/>
@@ -15849,18 +15903,6 @@
     <sortCondition ref="B7:B9"/>
   </sortState>
   <mergeCells count="21">
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -15870,6 +15912,18 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.38" right="0.17" top="0.4" bottom="0.34" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -17351,23 +17405,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="407"/>
-      <c r="C1" s="409" t="s">
+      <c r="B1" s="434"/>
+      <c r="C1" s="436" t="s">
         <v>380</v>
       </c>
-      <c r="D1" s="410"/>
-      <c r="E1" s="410"/>
-      <c r="F1" s="410"/>
-      <c r="G1" s="410"/>
-      <c r="H1" s="410"/>
-      <c r="I1" s="410"/>
-      <c r="J1" s="410"/>
-      <c r="K1" s="410"/>
-      <c r="L1" s="410"/>
-      <c r="M1" s="410"/>
+      <c r="D1" s="437"/>
+      <c r="E1" s="437"/>
+      <c r="F1" s="437"/>
+      <c r="G1" s="437"/>
+      <c r="H1" s="437"/>
+      <c r="I1" s="437"/>
+      <c r="J1" s="437"/>
+      <c r="K1" s="437"/>
+      <c r="L1" s="437"/>
+      <c r="M1" s="437"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="408"/>
+      <c r="B2" s="435"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -17377,21 +17431,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="411" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="412"/>
+      <c r="B3" s="438" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="439"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="413" t="s">
+      <c r="H3" s="440" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="413"/>
+      <c r="I3" s="440"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="418" t="s">
+      <c r="R3" s="407" t="s">
         <v>38</v>
       </c>
     </row>
@@ -17406,14 +17460,14 @@
       <c r="D4" s="16">
         <v>44745</v>
       </c>
-      <c r="E4" s="414" t="s">
+      <c r="E4" s="441" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="415"/>
-      <c r="H4" s="416" t="s">
+      <c r="F4" s="442"/>
+      <c r="H4" s="443" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="417"/>
+      <c r="I4" s="444"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -17423,11 +17477,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="425" t="s">
+      <c r="P4" s="414" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="426"/>
-      <c r="R4" s="419"/>
+      <c r="Q4" s="415"/>
+      <c r="R4" s="408"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -18872,11 +18926,11 @@
       <c r="J40" s="71"/>
       <c r="K40" s="74"/>
       <c r="L40" s="73"/>
-      <c r="M40" s="427">
+      <c r="M40" s="416">
         <f>SUM(M5:M39)</f>
         <v>2373103</v>
       </c>
-      <c r="N40" s="429">
+      <c r="N40" s="418">
         <f>SUM(N5:N39)</f>
         <v>67308</v>
       </c>
@@ -18905,8 +18959,8 @@
       <c r="J41" s="71"/>
       <c r="K41" s="235"/>
       <c r="L41" s="73"/>
-      <c r="M41" s="428"/>
-      <c r="N41" s="430"/>
+      <c r="M41" s="417"/>
+      <c r="N41" s="419"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -19121,29 +19175,29 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="431" t="s">
+      <c r="H53" s="420" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="432"/>
+      <c r="I53" s="421"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="433">
+      <c r="K53" s="422">
         <f>I51+L51</f>
         <v>79649.720000000016</v>
       </c>
-      <c r="L53" s="434"/>
-      <c r="M53" s="435">
+      <c r="L53" s="423"/>
+      <c r="M53" s="424">
         <f>N40+M40</f>
         <v>2440411</v>
       </c>
-      <c r="N53" s="436"/>
+      <c r="N53" s="425"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="437" t="s">
+      <c r="D54" s="426" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="437"/>
+      <c r="E54" s="426"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
         <v>2356249.2799999998</v>
@@ -19154,22 +19208,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="438" t="s">
+      <c r="D55" s="427" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="438"/>
+      <c r="E55" s="427"/>
       <c r="F55" s="111">
         <v>-2471332.31</v>
       </c>
-      <c r="I55" s="439" t="s">
+      <c r="I55" s="428" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="440"/>
-      <c r="K55" s="441">
+      <c r="J55" s="429"/>
+      <c r="K55" s="430">
         <f>F57+F58+F59</f>
         <v>214026.38999999972</v>
       </c>
-      <c r="L55" s="442"/>
+      <c r="L55" s="431"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -19200,11 +19254,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="443">
+      <c r="K57" s="432">
         <f>-C4</f>
         <v>-232165.91</v>
       </c>
-      <c r="L57" s="444"/>
+      <c r="L57" s="433"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -19221,22 +19275,22 @@
       <c r="C59" s="128">
         <v>44773</v>
       </c>
-      <c r="D59" s="420" t="s">
+      <c r="D59" s="409" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="421"/>
+      <c r="E59" s="410"/>
       <c r="F59" s="129">
         <v>273736.42</v>
       </c>
-      <c r="I59" s="422" t="s">
+      <c r="I59" s="411" t="s">
         <v>325</v>
       </c>
-      <c r="J59" s="423"/>
-      <c r="K59" s="424">
+      <c r="J59" s="412"/>
+      <c r="K59" s="413">
         <f>K55+K57</f>
         <v>-18139.520000000281</v>
       </c>
-      <c r="L59" s="424"/>
+      <c r="L59" s="413"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="130"/>
@@ -19361,18 +19415,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -19382,6 +19424,18 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.31496062992125984" right="0.27559055118110237" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="60" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -20773,23 +20827,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="407"/>
-      <c r="C1" s="409" t="s">
+      <c r="B1" s="434"/>
+      <c r="C1" s="436" t="s">
         <v>421</v>
       </c>
-      <c r="D1" s="410"/>
-      <c r="E1" s="410"/>
-      <c r="F1" s="410"/>
-      <c r="G1" s="410"/>
-      <c r="H1" s="410"/>
-      <c r="I1" s="410"/>
-      <c r="J1" s="410"/>
-      <c r="K1" s="410"/>
-      <c r="L1" s="410"/>
-      <c r="M1" s="410"/>
+      <c r="D1" s="437"/>
+      <c r="E1" s="437"/>
+      <c r="F1" s="437"/>
+      <c r="G1" s="437"/>
+      <c r="H1" s="437"/>
+      <c r="I1" s="437"/>
+      <c r="J1" s="437"/>
+      <c r="K1" s="437"/>
+      <c r="L1" s="437"/>
+      <c r="M1" s="437"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="408"/>
+      <c r="B2" s="435"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -20799,21 +20853,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="411" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="412"/>
+      <c r="B3" s="438" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="439"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="413" t="s">
+      <c r="H3" s="440" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="413"/>
+      <c r="I3" s="440"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="418" t="s">
+      <c r="R3" s="407" t="s">
         <v>38</v>
       </c>
     </row>
@@ -20828,14 +20882,14 @@
       <c r="D4" s="16">
         <v>44773</v>
       </c>
-      <c r="E4" s="414" t="s">
+      <c r="E4" s="441" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="415"/>
-      <c r="H4" s="416" t="s">
+      <c r="F4" s="442"/>
+      <c r="H4" s="443" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="417"/>
+      <c r="I4" s="444"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -20845,11 +20899,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="425" t="s">
+      <c r="P4" s="414" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="426"/>
-      <c r="R4" s="419"/>
+      <c r="Q4" s="415"/>
+      <c r="R4" s="408"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -22329,11 +22383,11 @@
       <c r="J40" s="71"/>
       <c r="K40" s="74"/>
       <c r="L40" s="73"/>
-      <c r="M40" s="427">
+      <c r="M40" s="416">
         <f>SUM(M5:M39)</f>
         <v>2375259</v>
       </c>
-      <c r="N40" s="429">
+      <c r="N40" s="418">
         <f>SUM(N5:N39)</f>
         <v>61117</v>
       </c>
@@ -22362,8 +22416,8 @@
       <c r="J41" s="71"/>
       <c r="K41" s="235"/>
       <c r="L41" s="73"/>
-      <c r="M41" s="428"/>
-      <c r="N41" s="430"/>
+      <c r="M41" s="417"/>
+      <c r="N41" s="419"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -22578,29 +22632,29 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="431" t="s">
+      <c r="H53" s="420" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="432"/>
+      <c r="I53" s="421"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="433">
+      <c r="K53" s="422">
         <f>I51+L51</f>
         <v>52857.25</v>
       </c>
-      <c r="L53" s="434"/>
-      <c r="M53" s="435">
+      <c r="L53" s="423"/>
+      <c r="M53" s="424">
         <f>N40+M40</f>
         <v>2436376</v>
       </c>
-      <c r="N53" s="436"/>
+      <c r="N53" s="425"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="437" t="s">
+      <c r="D54" s="426" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="437"/>
+      <c r="E54" s="426"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
         <v>2370653.75</v>
@@ -22611,22 +22665,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="438" t="s">
+      <c r="D55" s="427" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="438"/>
+      <c r="E55" s="427"/>
       <c r="F55" s="111">
         <v>-2401197.5699999998</v>
       </c>
-      <c r="I55" s="439" t="s">
+      <c r="I55" s="428" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="440"/>
-      <c r="K55" s="441">
+      <c r="J55" s="429"/>
+      <c r="K55" s="430">
         <f>F57+F58+F59</f>
         <v>259241.77000000016</v>
       </c>
-      <c r="L55" s="442"/>
+      <c r="L55" s="431"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -22657,11 +22711,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="443">
+      <c r="K57" s="432">
         <f>-C4</f>
         <v>-273736.42</v>
       </c>
-      <c r="L57" s="444"/>
+      <c r="L57" s="433"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -22678,10 +22732,10 @@
       <c r="C59" s="128">
         <v>44801</v>
       </c>
-      <c r="D59" s="420" t="s">
+      <c r="D59" s="409" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="421"/>
+      <c r="E59" s="410"/>
       <c r="F59" s="129">
         <v>236400.59</v>
       </c>
@@ -22818,18 +22872,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -22839,6 +22881,18 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -24285,23 +24339,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="407"/>
-      <c r="C1" s="409" t="s">
+      <c r="B1" s="434"/>
+      <c r="C1" s="436" t="s">
         <v>465</v>
       </c>
-      <c r="D1" s="410"/>
-      <c r="E1" s="410"/>
-      <c r="F1" s="410"/>
-      <c r="G1" s="410"/>
-      <c r="H1" s="410"/>
-      <c r="I1" s="410"/>
-      <c r="J1" s="410"/>
-      <c r="K1" s="410"/>
-      <c r="L1" s="410"/>
-      <c r="M1" s="410"/>
+      <c r="D1" s="437"/>
+      <c r="E1" s="437"/>
+      <c r="F1" s="437"/>
+      <c r="G1" s="437"/>
+      <c r="H1" s="437"/>
+      <c r="I1" s="437"/>
+      <c r="J1" s="437"/>
+      <c r="K1" s="437"/>
+      <c r="L1" s="437"/>
+      <c r="M1" s="437"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="408"/>
+      <c r="B2" s="435"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -24311,21 +24365,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="411" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="412"/>
+      <c r="B3" s="438" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="439"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="413" t="s">
+      <c r="H3" s="440" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="413"/>
+      <c r="I3" s="440"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="418" t="s">
+      <c r="R3" s="407" t="s">
         <v>38</v>
       </c>
     </row>
@@ -24340,14 +24394,14 @@
       <c r="D4" s="16">
         <v>44801</v>
       </c>
-      <c r="E4" s="414" t="s">
+      <c r="E4" s="441" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="415"/>
-      <c r="H4" s="416" t="s">
+      <c r="F4" s="442"/>
+      <c r="H4" s="443" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="417"/>
+      <c r="I4" s="444"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -24357,11 +24411,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="425" t="s">
+      <c r="P4" s="414" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="426"/>
-      <c r="R4" s="419"/>
+      <c r="Q4" s="415"/>
+      <c r="R4" s="408"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -26089,11 +26143,11 @@
       <c r="L40" s="73">
         <v>927.48</v>
       </c>
-      <c r="M40" s="427">
+      <c r="M40" s="416">
         <f>SUM(M5:M39)</f>
         <v>3147309.5</v>
       </c>
-      <c r="N40" s="429">
+      <c r="N40" s="418">
         <f>SUM(N5:N39)</f>
         <v>76569</v>
       </c>
@@ -26128,8 +26182,8 @@
       <c r="L41" s="73">
         <v>33312</v>
       </c>
-      <c r="M41" s="428"/>
-      <c r="N41" s="430"/>
+      <c r="M41" s="417"/>
+      <c r="N41" s="419"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -26372,29 +26426,29 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="431" t="s">
+      <c r="H53" s="420" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="432"/>
+      <c r="I53" s="421"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="433">
+      <c r="K53" s="422">
         <f>I51+L51</f>
         <v>102873.87000000001</v>
       </c>
-      <c r="L53" s="434"/>
-      <c r="M53" s="435">
+      <c r="L53" s="423"/>
+      <c r="M53" s="424">
         <f>N40+M40</f>
         <v>3223878.5</v>
       </c>
-      <c r="N53" s="436"/>
+      <c r="N53" s="425"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="437" t="s">
+      <c r="D54" s="426" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="437"/>
+      <c r="E54" s="426"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
         <v>3130076.13</v>
@@ -26405,22 +26459,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="438" t="s">
+      <c r="D55" s="427" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="438"/>
+      <c r="E55" s="427"/>
       <c r="F55" s="111">
         <v>-3171951.31</v>
       </c>
-      <c r="I55" s="439" t="s">
+      <c r="I55" s="428" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="440"/>
-      <c r="K55" s="441">
+      <c r="J55" s="429"/>
+      <c r="K55" s="430">
         <f>F57+F58+F59</f>
         <v>265314.0299999998</v>
       </c>
-      <c r="L55" s="442"/>
+      <c r="L55" s="431"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -26451,11 +26505,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="443">
+      <c r="K57" s="432">
         <f>-C4</f>
         <v>-236400.59</v>
       </c>
-      <c r="L57" s="444"/>
+      <c r="L57" s="433"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -26472,10 +26526,10 @@
       <c r="C59" s="128">
         <v>44836</v>
       </c>
-      <c r="D59" s="420" t="s">
+      <c r="D59" s="409" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="421"/>
+      <c r="E59" s="410"/>
       <c r="F59" s="129">
         <v>242354.21</v>
       </c>
@@ -26615,6 +26669,18 @@
     <sortCondition ref="J41:J45"/>
   </sortState>
   <mergeCells count="21">
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -26624,18 +26690,6 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -28133,23 +28187,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="407"/>
-      <c r="C1" s="409" t="s">
+      <c r="B1" s="434"/>
+      <c r="C1" s="436" t="s">
         <v>512</v>
       </c>
-      <c r="D1" s="410"/>
-      <c r="E1" s="410"/>
-      <c r="F1" s="410"/>
-      <c r="G1" s="410"/>
-      <c r="H1" s="410"/>
-      <c r="I1" s="410"/>
-      <c r="J1" s="410"/>
-      <c r="K1" s="410"/>
-      <c r="L1" s="410"/>
-      <c r="M1" s="410"/>
+      <c r="D1" s="437"/>
+      <c r="E1" s="437"/>
+      <c r="F1" s="437"/>
+      <c r="G1" s="437"/>
+      <c r="H1" s="437"/>
+      <c r="I1" s="437"/>
+      <c r="J1" s="437"/>
+      <c r="K1" s="437"/>
+      <c r="L1" s="437"/>
+      <c r="M1" s="437"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="408"/>
+      <c r="B2" s="435"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -28159,21 +28213,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="411" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="412"/>
+      <c r="B3" s="438" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="439"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="413" t="s">
+      <c r="H3" s="440" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="413"/>
+      <c r="I3" s="440"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="418" t="s">
+      <c r="R3" s="407" t="s">
         <v>38</v>
       </c>
     </row>
@@ -28188,14 +28242,14 @@
       <c r="D4" s="16">
         <v>44836</v>
       </c>
-      <c r="E4" s="414" t="s">
+      <c r="E4" s="441" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="415"/>
-      <c r="H4" s="416" t="s">
+      <c r="F4" s="442"/>
+      <c r="H4" s="443" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="417"/>
+      <c r="I4" s="444"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -28205,11 +28259,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="425" t="s">
+      <c r="P4" s="414" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="426"/>
-      <c r="R4" s="419"/>
+      <c r="Q4" s="415"/>
+      <c r="R4" s="408"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -29888,11 +29942,11 @@
       <c r="J40" s="71"/>
       <c r="K40" s="360"/>
       <c r="L40" s="73"/>
-      <c r="M40" s="427">
+      <c r="M40" s="416">
         <f>SUM(M5:M39)</f>
         <v>2563550</v>
       </c>
-      <c r="N40" s="429">
+      <c r="N40" s="418">
         <f>SUM(N5:N39)</f>
         <v>77235</v>
       </c>
@@ -29922,8 +29976,8 @@
       <c r="J41" s="71"/>
       <c r="K41" s="363"/>
       <c r="L41" s="73"/>
-      <c r="M41" s="428"/>
-      <c r="N41" s="430"/>
+      <c r="M41" s="417"/>
+      <c r="N41" s="419"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -30138,29 +30192,29 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="431" t="s">
+      <c r="H53" s="420" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="432"/>
+      <c r="I53" s="421"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="433">
+      <c r="K53" s="422">
         <f>I51+L51</f>
         <v>152307.24</v>
       </c>
-      <c r="L53" s="434"/>
-      <c r="M53" s="435">
+      <c r="L53" s="423"/>
+      <c r="M53" s="424">
         <f>N40+M40</f>
         <v>2640785</v>
       </c>
-      <c r="N53" s="436"/>
+      <c r="N53" s="425"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="437" t="s">
+      <c r="D54" s="426" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="437"/>
+      <c r="E54" s="426"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
         <v>2467299.5599999996</v>
@@ -30171,22 +30225,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="438" t="s">
+      <c r="D55" s="427" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="438"/>
+      <c r="E55" s="427"/>
       <c r="F55" s="111">
         <v>-2793202.57</v>
       </c>
-      <c r="I55" s="439" t="s">
+      <c r="I55" s="428" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="440"/>
-      <c r="K55" s="441">
+      <c r="J55" s="429"/>
+      <c r="K55" s="430">
         <f>F57+F58+F59</f>
         <v>149047.74999999977</v>
       </c>
-      <c r="L55" s="442"/>
+      <c r="L55" s="431"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -30217,11 +30271,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="443">
+      <c r="K57" s="432">
         <f>-C4</f>
         <v>-242354.21</v>
       </c>
-      <c r="L57" s="444"/>
+      <c r="L57" s="433"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -30238,10 +30292,10 @@
       <c r="C59" s="128">
         <v>44864</v>
       </c>
-      <c r="D59" s="420" t="s">
+      <c r="D59" s="409" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="421"/>
+      <c r="E59" s="410"/>
       <c r="F59" s="129">
         <v>419424.76</v>
       </c>
@@ -30381,18 +30435,6 @@
     <sortCondition ref="J34:J39"/>
   </sortState>
   <mergeCells count="21">
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -30402,6 +30444,18 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -33566,23 +33620,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="407"/>
-      <c r="C1" s="409" t="s">
+      <c r="B1" s="434"/>
+      <c r="C1" s="436" t="s">
         <v>550</v>
       </c>
-      <c r="D1" s="410"/>
-      <c r="E1" s="410"/>
-      <c r="F1" s="410"/>
-      <c r="G1" s="410"/>
-      <c r="H1" s="410"/>
-      <c r="I1" s="410"/>
-      <c r="J1" s="410"/>
-      <c r="K1" s="410"/>
-      <c r="L1" s="410"/>
-      <c r="M1" s="410"/>
+      <c r="D1" s="437"/>
+      <c r="E1" s="437"/>
+      <c r="F1" s="437"/>
+      <c r="G1" s="437"/>
+      <c r="H1" s="437"/>
+      <c r="I1" s="437"/>
+      <c r="J1" s="437"/>
+      <c r="K1" s="437"/>
+      <c r="L1" s="437"/>
+      <c r="M1" s="437"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="408"/>
+      <c r="B2" s="435"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -33592,21 +33646,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="411" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="412"/>
+      <c r="B3" s="438" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="439"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="413" t="s">
+      <c r="H3" s="440" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="413"/>
+      <c r="I3" s="440"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="418" t="s">
+      <c r="R3" s="407" t="s">
         <v>38</v>
       </c>
     </row>
@@ -33621,14 +33675,14 @@
       <c r="D4" s="16">
         <v>44864</v>
       </c>
-      <c r="E4" s="414" t="s">
+      <c r="E4" s="441" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="415"/>
-      <c r="H4" s="416" t="s">
+      <c r="F4" s="442"/>
+      <c r="H4" s="443" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="417"/>
+      <c r="I4" s="444"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -33638,11 +33692,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="425" t="s">
+      <c r="P4" s="414" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="426"/>
-      <c r="R4" s="419"/>
+      <c r="Q4" s="415"/>
+      <c r="R4" s="408"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -35307,11 +35361,11 @@
       <c r="J40" s="71"/>
       <c r="K40" s="360"/>
       <c r="L40" s="73"/>
-      <c r="M40" s="427">
+      <c r="M40" s="416">
         <f>SUM(M5:M39)</f>
         <v>2972555</v>
       </c>
-      <c r="N40" s="429">
+      <c r="N40" s="418">
         <f>SUM(N5:N39)</f>
         <v>108935</v>
       </c>
@@ -35341,8 +35395,8 @@
       <c r="J41" s="71"/>
       <c r="K41" s="363"/>
       <c r="L41" s="73"/>
-      <c r="M41" s="428"/>
-      <c r="N41" s="430"/>
+      <c r="M41" s="417"/>
+      <c r="N41" s="419"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -35557,29 +35611,29 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="431" t="s">
+      <c r="H53" s="420" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="432"/>
+      <c r="I53" s="421"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="433">
+      <c r="K53" s="422">
         <f>I51+L51</f>
         <v>84934.209999999992</v>
       </c>
-      <c r="L53" s="434"/>
-      <c r="M53" s="435">
+      <c r="L53" s="423"/>
+      <c r="M53" s="424">
         <f>N40+M40</f>
         <v>3081490</v>
       </c>
-      <c r="N53" s="436"/>
+      <c r="N53" s="425"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="437" t="s">
+      <c r="D54" s="426" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="437"/>
+      <c r="E54" s="426"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
         <v>2986572.79</v>
@@ -35590,22 +35644,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="438" t="s">
+      <c r="D55" s="427" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="438"/>
+      <c r="E55" s="427"/>
       <c r="F55" s="111">
         <v>-2936244.87</v>
       </c>
-      <c r="I55" s="439" t="s">
+      <c r="I55" s="428" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="440"/>
-      <c r="K55" s="441">
+      <c r="J55" s="429"/>
+      <c r="K55" s="430">
         <f>F57+F58+F59</f>
         <v>437052.46999999991</v>
       </c>
-      <c r="L55" s="442"/>
+      <c r="L55" s="431"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -35636,11 +35690,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="443">
+      <c r="K57" s="432">
         <f>-C4</f>
         <v>-419424.76</v>
       </c>
-      <c r="L57" s="444"/>
+      <c r="L57" s="433"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -35657,10 +35711,10 @@
       <c r="C59" s="128">
         <v>44892</v>
       </c>
-      <c r="D59" s="420" t="s">
+      <c r="D59" s="409" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="421"/>
+      <c r="E59" s="410"/>
       <c r="F59" s="129">
         <v>315698.55</v>
       </c>
@@ -35797,6 +35851,18 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -35806,18 +35872,6 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -37179,13 +37233,13 @@
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:U81"/>
+  <dimension ref="A1:U90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="8" ySplit="4" topLeftCell="N29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="4" topLeftCell="I47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="R34" sqref="R34"/>
+      <selection pane="bottomRight" activeCell="F68" sqref="F68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37210,23 +37264,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="407"/>
-      <c r="C1" s="409" t="s">
+      <c r="B1" s="434"/>
+      <c r="C1" s="436" t="s">
         <v>589</v>
       </c>
-      <c r="D1" s="410"/>
-      <c r="E1" s="410"/>
-      <c r="F1" s="410"/>
-      <c r="G1" s="410"/>
-      <c r="H1" s="410"/>
-      <c r="I1" s="410"/>
-      <c r="J1" s="410"/>
-      <c r="K1" s="410"/>
-      <c r="L1" s="410"/>
-      <c r="M1" s="410"/>
+      <c r="D1" s="437"/>
+      <c r="E1" s="437"/>
+      <c r="F1" s="437"/>
+      <c r="G1" s="437"/>
+      <c r="H1" s="437"/>
+      <c r="I1" s="437"/>
+      <c r="J1" s="437"/>
+      <c r="K1" s="437"/>
+      <c r="L1" s="437"/>
+      <c r="M1" s="437"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="408"/>
+      <c r="B2" s="435"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -37236,21 +37290,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="411" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="412"/>
+      <c r="B3" s="438" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="439"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="413" t="s">
+      <c r="H3" s="440" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="413"/>
+      <c r="I3" s="440"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="418" t="s">
+      <c r="R3" s="407" t="s">
         <v>38</v>
       </c>
     </row>
@@ -37265,14 +37319,14 @@
       <c r="D4" s="16">
         <v>44892</v>
       </c>
-      <c r="E4" s="414" t="s">
+      <c r="E4" s="441" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="415"/>
-      <c r="H4" s="416" t="s">
+      <c r="F4" s="442"/>
+      <c r="H4" s="443" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="417"/>
+      <c r="I4" s="444"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -37282,11 +37336,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="425" t="s">
+      <c r="P4" s="414" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="426"/>
-      <c r="R4" s="419"/>
+      <c r="Q4" s="415"/>
+      <c r="R4" s="408"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -37376,7 +37430,7 @@
         <v>73902</v>
       </c>
       <c r="Q6" s="12">
-        <f t="shared" ref="Q6:Q39" si="0">P6-F6</f>
+        <f t="shared" ref="Q6:Q48" si="0">P6-F6</f>
         <v>10058</v>
       </c>
       <c r="R6" s="283">
@@ -37465,7 +37519,7 @@
       </c>
       <c r="O8" s="314"/>
       <c r="P8" s="32">
-        <f t="shared" ref="P8:P40" si="1">N8+M8+L8+I8+C8</f>
+        <f t="shared" ref="P8:P49" si="1">N8+M8+L8+I8+C8</f>
         <v>92206</v>
       </c>
       <c r="Q8" s="12">
@@ -38745,25 +38799,30 @@
       <c r="E35" s="322">
         <v>44923</v>
       </c>
-      <c r="F35" s="27"/>
+      <c r="F35" s="27">
+        <v>91135</v>
+      </c>
       <c r="G35" s="323"/>
       <c r="H35" s="324">
         <v>44923</v>
       </c>
-      <c r="I35" s="29"/>
+      <c r="I35" s="29">
+        <v>159</v>
+      </c>
       <c r="J35" s="71"/>
       <c r="K35" s="351"/>
       <c r="L35" s="78"/>
       <c r="M35" s="30">
-        <v>0</v>
+        <f>25000+56795</f>
+        <v>81795</v>
       </c>
       <c r="N35" s="31">
-        <v>0</v>
+        <v>9181</v>
       </c>
       <c r="O35" s="314"/>
       <c r="P35" s="32">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>91135</v>
       </c>
       <c r="Q35" s="12">
         <f t="shared" si="0"/>
@@ -38780,31 +38839,38 @@
         <v>44924</v>
       </c>
       <c r="C36" s="24">
-        <v>0</v>
-      </c>
-      <c r="D36" s="355"/>
+        <v>22536</v>
+      </c>
+      <c r="D36" s="449" t="s">
+        <v>598</v>
+      </c>
       <c r="E36" s="322">
         <v>44924</v>
       </c>
-      <c r="F36" s="27"/>
+      <c r="F36" s="27">
+        <v>117042</v>
+      </c>
       <c r="G36" s="323"/>
       <c r="H36" s="324">
         <v>44924</v>
       </c>
-      <c r="I36" s="29"/>
+      <c r="I36" s="29">
+        <v>85</v>
+      </c>
       <c r="J36" s="289"/>
       <c r="K36" s="356"/>
       <c r="L36" s="78"/>
       <c r="M36" s="30">
-        <v>0</v>
+        <f>35000+48685</f>
+        <v>83685</v>
       </c>
       <c r="N36" s="31">
-        <v>0</v>
+        <v>10736</v>
       </c>
       <c r="O36" s="314"/>
       <c r="P36" s="32">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>117042</v>
       </c>
       <c r="Q36" s="12">
         <f t="shared" si="0"/>
@@ -38827,25 +38893,30 @@
       <c r="E37" s="322">
         <v>44925</v>
       </c>
-      <c r="F37" s="27"/>
+      <c r="F37" s="27">
+        <v>142688</v>
+      </c>
       <c r="G37" s="323"/>
       <c r="H37" s="324">
         <v>44925</v>
       </c>
-      <c r="I37" s="29"/>
+      <c r="I37" s="29">
+        <v>198</v>
+      </c>
       <c r="J37" s="71"/>
       <c r="K37" s="357"/>
       <c r="L37" s="78"/>
       <c r="M37" s="30">
-        <v>0</v>
+        <f>76907+60000</f>
+        <v>136907</v>
       </c>
       <c r="N37" s="31">
-        <v>0</v>
+        <v>5583</v>
       </c>
       <c r="O37" s="314"/>
       <c r="P37" s="32">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>142688</v>
       </c>
       <c r="Q37" s="12">
         <f t="shared" si="0"/>
@@ -38862,31 +38933,44 @@
         <v>44926</v>
       </c>
       <c r="C38" s="24">
-        <v>0</v>
-      </c>
-      <c r="D38" s="353"/>
+        <v>3304</v>
+      </c>
+      <c r="D38" s="353" t="s">
+        <v>599</v>
+      </c>
       <c r="E38" s="322">
         <v>44926</v>
       </c>
-      <c r="F38" s="27"/>
+      <c r="F38" s="27">
+        <v>193000</v>
+      </c>
       <c r="G38" s="323"/>
       <c r="H38" s="324">
         <v>44926</v>
       </c>
-      <c r="I38" s="29"/>
-      <c r="J38" s="71"/>
-      <c r="K38" s="329"/>
-      <c r="L38" s="78"/>
+      <c r="I38" s="29">
+        <v>131</v>
+      </c>
+      <c r="J38" s="71">
+        <v>44926</v>
+      </c>
+      <c r="K38" s="329" t="s">
+        <v>600</v>
+      </c>
+      <c r="L38" s="78">
+        <v>11900</v>
+      </c>
       <c r="M38" s="30">
-        <v>0</v>
+        <f>62072+100000</f>
+        <v>162072</v>
       </c>
       <c r="N38" s="31">
-        <v>0</v>
+        <v>15593</v>
       </c>
       <c r="O38" s="314"/>
       <c r="P38" s="32">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>193000</v>
       </c>
       <c r="Q38" s="12">
         <f t="shared" si="0"/>
@@ -38902,26 +38986,30 @@
       <c r="B39" s="320">
         <v>44927</v>
       </c>
-      <c r="C39" s="24">
+      <c r="C39" s="455">
         <v>0</v>
       </c>
       <c r="D39" s="396"/>
       <c r="E39" s="397">
         <v>44927</v>
       </c>
-      <c r="F39" s="398"/>
+      <c r="F39" s="398">
+        <v>0</v>
+      </c>
       <c r="G39" s="399"/>
       <c r="H39" s="400">
         <v>44927</v>
       </c>
-      <c r="I39" s="401"/>
+      <c r="I39" s="401">
+        <v>0</v>
+      </c>
       <c r="J39" s="71"/>
       <c r="K39" s="358"/>
       <c r="L39" s="73"/>
-      <c r="M39" s="30">
-        <v>0</v>
-      </c>
-      <c r="N39" s="31">
+      <c r="M39" s="405">
+        <v>0</v>
+      </c>
+      <c r="N39" s="406">
         <v>0</v>
       </c>
       <c r="O39" s="314"/>
@@ -38938,7 +39026,7 @@
       </c>
       <c r="S39" s="369"/>
     </row>
-    <row r="40" spans="1:19" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="22"/>
       <c r="B40" s="320">
         <v>44928</v>
@@ -38946,528 +39034,920 @@
       <c r="C40" s="24">
         <v>0</v>
       </c>
-      <c r="D40" s="355"/>
+      <c r="D40" s="353"/>
       <c r="E40" s="322">
         <v>44928</v>
       </c>
-      <c r="F40" s="359"/>
+      <c r="F40" s="83">
+        <v>98421</v>
+      </c>
       <c r="G40" s="323"/>
       <c r="H40" s="324">
         <v>44928</v>
       </c>
-      <c r="I40" s="86"/>
+      <c r="I40" s="93">
+        <v>185</v>
+      </c>
       <c r="J40" s="71"/>
-      <c r="K40" s="360"/>
+      <c r="K40" s="358"/>
       <c r="L40" s="73"/>
-      <c r="M40" s="427">
+      <c r="M40" s="30">
+        <f>53142+36000</f>
+        <v>89142</v>
+      </c>
+      <c r="N40" s="31">
+        <v>9094</v>
+      </c>
+      <c r="O40" s="314"/>
+      <c r="P40" s="32">
+        <f t="shared" si="1"/>
+        <v>98421</v>
+      </c>
+      <c r="Q40" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R40" s="12">
+        <v>0</v>
+      </c>
+      <c r="S40" s="369"/>
+    </row>
+    <row r="41" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="22"/>
+      <c r="B41" s="320">
+        <v>44929</v>
+      </c>
+      <c r="C41" s="24">
+        <v>3340</v>
+      </c>
+      <c r="D41" s="353" t="s">
+        <v>47</v>
+      </c>
+      <c r="E41" s="322">
+        <v>44929</v>
+      </c>
+      <c r="F41" s="83">
+        <v>79048</v>
+      </c>
+      <c r="G41" s="323"/>
+      <c r="H41" s="324">
+        <v>44929</v>
+      </c>
+      <c r="I41" s="93">
+        <v>94</v>
+      </c>
+      <c r="J41" s="71"/>
+      <c r="K41" s="358"/>
+      <c r="L41" s="73"/>
+      <c r="M41" s="30">
+        <f>52614+23000</f>
+        <v>75614</v>
+      </c>
+      <c r="N41" s="31">
+        <v>0</v>
+      </c>
+      <c r="O41" s="314"/>
+      <c r="P41" s="32">
+        <f t="shared" si="1"/>
+        <v>79048</v>
+      </c>
+      <c r="Q41" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R41" s="12">
+        <v>0</v>
+      </c>
+      <c r="S41" s="369"/>
+    </row>
+    <row r="42" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="22"/>
+      <c r="B42" s="320">
+        <v>44930</v>
+      </c>
+      <c r="C42" s="24">
+        <v>1500</v>
+      </c>
+      <c r="D42" s="353" t="s">
+        <v>383</v>
+      </c>
+      <c r="E42" s="322">
+        <v>44930</v>
+      </c>
+      <c r="F42" s="83">
+        <v>66581</v>
+      </c>
+      <c r="G42" s="323"/>
+      <c r="H42" s="324">
+        <v>44930</v>
+      </c>
+      <c r="I42" s="93">
+        <v>85</v>
+      </c>
+      <c r="J42" s="71"/>
+      <c r="K42" s="358"/>
+      <c r="L42" s="73"/>
+      <c r="M42" s="30">
+        <f>29000+35766</f>
+        <v>64766</v>
+      </c>
+      <c r="N42" s="31">
+        <v>230</v>
+      </c>
+      <c r="O42" s="314"/>
+      <c r="P42" s="32">
+        <f t="shared" si="1"/>
+        <v>66581</v>
+      </c>
+      <c r="Q42" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R42" s="12">
+        <v>0</v>
+      </c>
+      <c r="S42" s="369"/>
+    </row>
+    <row r="43" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="22"/>
+      <c r="B43" s="320">
+        <v>44931</v>
+      </c>
+      <c r="C43" s="24">
+        <v>0</v>
+      </c>
+      <c r="D43" s="353"/>
+      <c r="E43" s="322">
+        <v>44931</v>
+      </c>
+      <c r="F43" s="83">
+        <v>103632</v>
+      </c>
+      <c r="G43" s="323"/>
+      <c r="H43" s="324">
+        <v>44931</v>
+      </c>
+      <c r="I43" s="93">
+        <v>48</v>
+      </c>
+      <c r="J43" s="71"/>
+      <c r="K43" s="358"/>
+      <c r="L43" s="73"/>
+      <c r="M43" s="30">
+        <f>39000+64409</f>
+        <v>103409</v>
+      </c>
+      <c r="N43" s="31">
+        <v>176</v>
+      </c>
+      <c r="O43" s="314"/>
+      <c r="P43" s="32">
+        <f t="shared" si="1"/>
+        <v>103633</v>
+      </c>
+      <c r="Q43" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="R43" s="12">
+        <v>0</v>
+      </c>
+      <c r="S43" s="369"/>
+    </row>
+    <row r="44" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="22"/>
+      <c r="B44" s="320">
+        <v>44932</v>
+      </c>
+      <c r="C44" s="24">
+        <v>18337</v>
+      </c>
+      <c r="D44" s="353" t="s">
+        <v>590</v>
+      </c>
+      <c r="E44" s="322">
+        <v>44932</v>
+      </c>
+      <c r="F44" s="83">
+        <v>122830</v>
+      </c>
+      <c r="G44" s="323"/>
+      <c r="H44" s="324">
+        <v>44932</v>
+      </c>
+      <c r="I44" s="93">
+        <v>67</v>
+      </c>
+      <c r="J44" s="71"/>
+      <c r="K44" s="358"/>
+      <c r="L44" s="73"/>
+      <c r="M44" s="30">
+        <f>26000+75846</f>
+        <v>101846</v>
+      </c>
+      <c r="N44" s="31">
+        <v>2580</v>
+      </c>
+      <c r="O44" s="314"/>
+      <c r="P44" s="32">
+        <f t="shared" si="1"/>
+        <v>122830</v>
+      </c>
+      <c r="Q44" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R44" s="12">
+        <v>0</v>
+      </c>
+      <c r="S44" s="369"/>
+    </row>
+    <row r="45" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="22"/>
+      <c r="B45" s="320">
+        <v>44933</v>
+      </c>
+      <c r="C45" s="24">
+        <v>0</v>
+      </c>
+      <c r="D45" s="353"/>
+      <c r="E45" s="322">
+        <v>44933</v>
+      </c>
+      <c r="F45" s="83">
+        <v>79649</v>
+      </c>
+      <c r="G45" s="323"/>
+      <c r="H45" s="324">
+        <v>44933</v>
+      </c>
+      <c r="I45" s="93">
+        <v>182</v>
+      </c>
+      <c r="J45" s="71">
+        <v>44933</v>
+      </c>
+      <c r="K45" s="358" t="s">
+        <v>602</v>
+      </c>
+      <c r="L45" s="73">
+        <v>8900</v>
+      </c>
+      <c r="M45" s="30">
+        <v>63427</v>
+      </c>
+      <c r="N45" s="31">
+        <v>7140</v>
+      </c>
+      <c r="O45" s="314"/>
+      <c r="P45" s="32">
+        <f t="shared" si="1"/>
+        <v>79649</v>
+      </c>
+      <c r="Q45" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R45" s="12">
+        <v>0</v>
+      </c>
+      <c r="S45" s="369"/>
+    </row>
+    <row r="46" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="22"/>
+      <c r="B46" s="320">
+        <v>44934</v>
+      </c>
+      <c r="C46" s="24">
+        <v>0</v>
+      </c>
+      <c r="D46" s="353"/>
+      <c r="E46" s="322">
+        <v>44934</v>
+      </c>
+      <c r="F46" s="83">
+        <v>99106</v>
+      </c>
+      <c r="G46" s="323"/>
+      <c r="H46" s="324">
+        <v>44934</v>
+      </c>
+      <c r="I46" s="93">
+        <v>154</v>
+      </c>
+      <c r="J46" s="71"/>
+      <c r="K46" s="358"/>
+      <c r="L46" s="73"/>
+      <c r="M46" s="30">
+        <f>81000+15586</f>
+        <v>96586</v>
+      </c>
+      <c r="N46" s="31">
+        <v>2366</v>
+      </c>
+      <c r="O46" s="314"/>
+      <c r="P46" s="32">
+        <f t="shared" si="1"/>
+        <v>99106</v>
+      </c>
+      <c r="Q46" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R46" s="12">
+        <v>0</v>
+      </c>
+      <c r="S46" s="369"/>
+    </row>
+    <row r="47" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="22"/>
+      <c r="B47" s="320"/>
+      <c r="C47" s="24"/>
+      <c r="D47" s="353"/>
+      <c r="E47" s="322"/>
+      <c r="F47" s="83"/>
+      <c r="G47" s="323"/>
+      <c r="H47" s="324"/>
+      <c r="I47" s="93"/>
+      <c r="J47" s="71"/>
+      <c r="K47" s="358"/>
+      <c r="L47" s="73"/>
+      <c r="M47" s="30">
+        <v>0</v>
+      </c>
+      <c r="N47" s="31">
+        <v>0</v>
+      </c>
+      <c r="O47" s="314"/>
+      <c r="P47" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q47" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R47" s="12">
+        <v>0</v>
+      </c>
+      <c r="S47" s="369"/>
+    </row>
+    <row r="48" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="22"/>
+      <c r="B48" s="320"/>
+      <c r="C48" s="24"/>
+      <c r="D48" s="353"/>
+      <c r="E48" s="322"/>
+      <c r="F48" s="83"/>
+      <c r="G48" s="323"/>
+      <c r="H48" s="324"/>
+      <c r="I48" s="93"/>
+      <c r="J48" s="71"/>
+      <c r="K48" s="358"/>
+      <c r="L48" s="73"/>
+      <c r="M48" s="450">
+        <v>0</v>
+      </c>
+      <c r="N48" s="451"/>
+      <c r="O48" s="314"/>
+      <c r="P48" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q48" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R48" s="12">
+        <v>0</v>
+      </c>
+      <c r="S48" s="369"/>
+    </row>
+    <row r="49" spans="1:18" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="22"/>
+      <c r="B49" s="320"/>
+      <c r="C49" s="24"/>
+      <c r="D49" s="355"/>
+      <c r="E49" s="322"/>
+      <c r="F49" s="359"/>
+      <c r="G49" s="323"/>
+      <c r="H49" s="324"/>
+      <c r="I49" s="86"/>
+      <c r="J49" s="71"/>
+      <c r="K49" s="360"/>
+      <c r="L49" s="73"/>
+      <c r="M49" s="416">
         <f>SUM(M5:M39)</f>
-        <v>3242913</v>
-      </c>
-      <c r="N40" s="429">
+        <v>3707372</v>
+      </c>
+      <c r="N49" s="418">
         <f>SUM(N5:N39)</f>
-        <v>150815</v>
-      </c>
-      <c r="P40" s="32">
-        <f t="shared" si="1"/>
-        <v>3393728</v>
-      </c>
-      <c r="Q40" s="284">
+        <v>191908</v>
+      </c>
+      <c r="P49" s="453">
+        <f t="shared" si="1"/>
+        <v>3899280</v>
+      </c>
+      <c r="Q49" s="452">
         <f>SUM(Q5:Q39)</f>
         <v>71027</v>
       </c>
-      <c r="R40" s="316">
+      <c r="R49" s="316">
         <f>SUM(R5:R39)</f>
         <v>71026</v>
       </c>
     </row>
-    <row r="41" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="22"/>
-      <c r="B41" s="320"/>
-      <c r="C41" s="84"/>
-      <c r="D41" s="355"/>
-      <c r="E41" s="322"/>
-      <c r="F41" s="361"/>
-      <c r="G41" s="323"/>
-      <c r="H41" s="362"/>
-      <c r="I41" s="86"/>
-      <c r="J41" s="71"/>
-      <c r="K41" s="363"/>
-      <c r="L41" s="73"/>
-      <c r="M41" s="428"/>
-      <c r="N41" s="430"/>
-      <c r="P41" s="32"/>
-      <c r="Q41" s="8"/>
-    </row>
-    <row r="42" spans="1:19" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="22"/>
-      <c r="B42" s="320"/>
-      <c r="C42" s="84"/>
-      <c r="D42" s="355"/>
-      <c r="E42" s="364"/>
-      <c r="F42" s="365"/>
-      <c r="G42" s="366"/>
-      <c r="H42" s="367"/>
-      <c r="I42" s="93"/>
-      <c r="J42" s="71"/>
-      <c r="K42" s="365"/>
-      <c r="L42" s="73"/>
-      <c r="M42" s="94"/>
-      <c r="N42" s="95"/>
-      <c r="P42" s="32"/>
-      <c r="Q42" s="8"/>
-    </row>
-    <row r="43" spans="1:19" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="22"/>
-      <c r="B43" s="320"/>
-      <c r="C43" s="84"/>
-      <c r="D43" s="355"/>
-      <c r="E43" s="364"/>
-      <c r="F43" s="365"/>
-      <c r="G43" s="366"/>
-      <c r="H43" s="367"/>
-      <c r="I43" s="93"/>
-      <c r="J43" s="71"/>
-      <c r="K43" s="351"/>
-      <c r="L43" s="78"/>
-      <c r="M43" s="94"/>
-      <c r="N43" s="95"/>
-      <c r="P43" s="32"/>
-      <c r="Q43" s="8"/>
-    </row>
-    <row r="44" spans="1:19" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="22"/>
-      <c r="B44" s="320"/>
-      <c r="C44" s="84"/>
-      <c r="D44" s="355"/>
-      <c r="E44" s="364"/>
-      <c r="F44" s="365"/>
-      <c r="G44" s="366"/>
-      <c r="H44" s="367"/>
-      <c r="I44" s="93"/>
-      <c r="J44" s="71"/>
-      <c r="K44" s="368"/>
-      <c r="L44" s="78"/>
-      <c r="M44" s="94"/>
-      <c r="N44" s="95"/>
-      <c r="P44" s="32"/>
-      <c r="Q44" s="8"/>
-    </row>
-    <row r="45" spans="1:19" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="22"/>
-      <c r="B45" s="320"/>
-      <c r="C45" s="84"/>
-      <c r="D45" s="355"/>
-      <c r="E45" s="364"/>
-      <c r="F45" s="365"/>
-      <c r="G45" s="366"/>
-      <c r="H45" s="367"/>
-      <c r="I45" s="93"/>
-      <c r="J45" s="71"/>
-      <c r="K45" s="351"/>
-      <c r="L45" s="78"/>
-      <c r="M45" s="94"/>
-      <c r="N45" s="95"/>
-      <c r="P45" s="32"/>
-      <c r="Q45" s="8"/>
-    </row>
-    <row r="46" spans="1:19" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="22"/>
-      <c r="B46" s="23"/>
-      <c r="C46" s="88"/>
-      <c r="D46" s="89"/>
-      <c r="E46" s="281"/>
-      <c r="F46" s="235"/>
-      <c r="G46" s="251"/>
-      <c r="H46" s="35"/>
-      <c r="I46" s="93"/>
-      <c r="J46" s="71"/>
-      <c r="K46" s="282"/>
-      <c r="L46" s="78"/>
-      <c r="M46" s="94"/>
-      <c r="N46" s="95"/>
-      <c r="P46" s="32"/>
-      <c r="Q46" s="8"/>
-    </row>
-    <row r="47" spans="1:19" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="22"/>
-      <c r="B47" s="23"/>
-      <c r="C47" s="88"/>
-      <c r="D47" s="89"/>
-      <c r="E47" s="281"/>
-      <c r="F47" s="235"/>
-      <c r="G47" s="251"/>
-      <c r="H47" s="35"/>
-      <c r="I47" s="93"/>
-      <c r="J47" s="71"/>
-      <c r="K47" s="74"/>
-      <c r="L47" s="78"/>
-      <c r="M47" s="94"/>
-      <c r="N47" s="95"/>
-      <c r="P47" s="32"/>
-      <c r="Q47" s="8"/>
-    </row>
-    <row r="48" spans="1:19" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="22"/>
-      <c r="B48" s="23"/>
-      <c r="C48" s="88"/>
-      <c r="D48" s="89"/>
-      <c r="E48" s="281"/>
-      <c r="F48" s="235"/>
-      <c r="G48" s="251"/>
-      <c r="H48" s="35"/>
-      <c r="I48" s="93"/>
-      <c r="J48" s="71"/>
-      <c r="K48" s="74"/>
-      <c r="L48" s="78"/>
-      <c r="M48" s="94"/>
-      <c r="N48" s="95"/>
-      <c r="P48" s="32"/>
-      <c r="Q48" s="8"/>
-    </row>
-    <row r="49" spans="1:17" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="22"/>
-      <c r="B49" s="23"/>
-      <c r="C49" s="88"/>
-      <c r="D49" s="89"/>
-      <c r="E49" s="281"/>
-      <c r="F49" s="235"/>
-      <c r="G49" s="251"/>
-      <c r="H49" s="35"/>
-      <c r="I49" s="93"/>
-      <c r="J49" s="71"/>
-      <c r="K49" s="74"/>
-      <c r="L49" s="78"/>
-      <c r="M49" s="94"/>
-      <c r="N49" s="95"/>
-      <c r="P49" s="32"/>
-      <c r="Q49" s="8"/>
-    </row>
-    <row r="50" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="22"/>
-      <c r="B50" s="23"/>
-      <c r="C50" s="24">
-        <v>0</v>
-      </c>
-      <c r="D50" s="96"/>
-      <c r="E50" s="90"/>
-      <c r="F50" s="88"/>
-      <c r="H50" s="97"/>
-      <c r="I50" s="93"/>
-      <c r="J50" s="98"/>
-      <c r="K50" s="99"/>
-      <c r="L50" s="8"/>
-      <c r="M50" s="100"/>
-      <c r="N50" s="31"/>
+      <c r="B50" s="320"/>
+      <c r="C50" s="84"/>
+      <c r="D50" s="355"/>
+      <c r="E50" s="322"/>
+      <c r="F50" s="361"/>
+      <c r="G50" s="323"/>
+      <c r="H50" s="324"/>
+      <c r="I50" s="86"/>
+      <c r="J50" s="71"/>
+      <c r="K50" s="363"/>
+      <c r="L50" s="73"/>
+      <c r="M50" s="417"/>
+      <c r="N50" s="419"/>
       <c r="P50" s="32"/>
       <c r="Q50" s="8"/>
-    </row>
-    <row r="51" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="101" t="s">
-        <v>9</v>
-      </c>
-      <c r="C51" s="102">
-        <f>SUM(C5:C50)</f>
-        <v>113630</v>
-      </c>
-      <c r="D51" s="103"/>
-      <c r="E51" s="104" t="s">
-        <v>9</v>
-      </c>
-      <c r="F51" s="105">
-        <f>SUM(F5:F50)</f>
-        <v>3495033</v>
-      </c>
-      <c r="G51" s="103"/>
-      <c r="H51" s="106" t="s">
-        <v>10</v>
-      </c>
-      <c r="I51" s="107">
-        <f>SUM(I5:I50)</f>
-        <v>3730</v>
-      </c>
-      <c r="J51" s="108"/>
-      <c r="K51" s="109" t="s">
-        <v>11</v>
-      </c>
-      <c r="L51" s="110">
-        <f>SUM(L5:L50)</f>
-        <v>54972</v>
-      </c>
-      <c r="M51" s="111"/>
-      <c r="N51" s="111"/>
+      <c r="R50" s="454" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="22"/>
+      <c r="B51" s="320"/>
+      <c r="C51" s="84"/>
+      <c r="D51" s="355"/>
+      <c r="E51" s="322"/>
+      <c r="F51" s="365"/>
+      <c r="G51" s="366"/>
+      <c r="H51" s="324"/>
+      <c r="I51" s="93"/>
+      <c r="J51" s="71"/>
+      <c r="K51" s="365"/>
+      <c r="L51" s="73"/>
+      <c r="M51" s="94"/>
+      <c r="N51" s="95"/>
       <c r="P51" s="32"/>
       <c r="Q51" s="8"/>
     </row>
-    <row r="52" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C52" s="2" t="s">
-        <v>8</v>
-      </c>
+    <row r="52" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="22"/>
+      <c r="B52" s="320"/>
+      <c r="C52" s="84"/>
+      <c r="D52" s="355"/>
+      <c r="E52" s="322"/>
+      <c r="F52" s="365"/>
+      <c r="G52" s="366"/>
+      <c r="H52" s="324"/>
+      <c r="I52" s="93"/>
+      <c r="J52" s="71"/>
+      <c r="K52" s="351"/>
+      <c r="L52" s="78"/>
+      <c r="M52" s="94"/>
+      <c r="N52" s="95"/>
       <c r="P52" s="32"/>
       <c r="Q52" s="8"/>
     </row>
-    <row r="53" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="33"/>
-      <c r="B53" s="113"/>
-      <c r="C53" s="1"/>
-      <c r="H53" s="431" t="s">
-        <v>12</v>
-      </c>
-      <c r="I53" s="432"/>
-      <c r="J53" s="114"/>
-      <c r="K53" s="433">
-        <f>I51+L51</f>
-        <v>58702</v>
-      </c>
-      <c r="L53" s="434"/>
-      <c r="M53" s="435">
-        <f>N40+M40</f>
-        <v>3393728</v>
-      </c>
-      <c r="N53" s="436"/>
+    <row r="53" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="22"/>
+      <c r="B53" s="320"/>
+      <c r="C53" s="84"/>
+      <c r="D53" s="355"/>
+      <c r="E53" s="322"/>
+      <c r="F53" s="365"/>
+      <c r="G53" s="366"/>
+      <c r="H53" s="324"/>
+      <c r="I53" s="93"/>
+      <c r="J53" s="71"/>
+      <c r="K53" s="368"/>
+      <c r="L53" s="78"/>
+      <c r="M53" s="94"/>
+      <c r="N53" s="95"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
-    <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="437" t="s">
-        <v>13</v>
-      </c>
-      <c r="E54" s="437"/>
-      <c r="F54" s="115">
-        <f>F51-K53-C51</f>
-        <v>3322701</v>
-      </c>
-      <c r="I54" s="116"/>
-      <c r="J54" s="117"/>
+    <row r="54" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="22"/>
+      <c r="B54" s="320"/>
+      <c r="C54" s="84"/>
+      <c r="D54" s="355"/>
+      <c r="E54" s="322"/>
+      <c r="F54" s="365"/>
+      <c r="G54" s="366"/>
+      <c r="H54" s="324"/>
+      <c r="I54" s="93"/>
+      <c r="J54" s="71"/>
+      <c r="K54" s="351"/>
+      <c r="L54" s="78"/>
+      <c r="M54" s="94"/>
+      <c r="N54" s="95"/>
       <c r="P54" s="32"/>
       <c r="Q54" s="8"/>
     </row>
-    <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="438" t="s">
-        <v>14</v>
-      </c>
-      <c r="E55" s="438"/>
-      <c r="F55" s="111">
-        <v>0</v>
-      </c>
-      <c r="I55" s="439" t="s">
-        <v>15</v>
-      </c>
-      <c r="J55" s="440"/>
-      <c r="K55" s="441">
-        <f>F57+F58+F59</f>
-        <v>3322701</v>
-      </c>
-      <c r="L55" s="442"/>
+    <row r="55" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="22"/>
+      <c r="B55" s="320"/>
+      <c r="C55" s="88"/>
+      <c r="D55" s="89"/>
+      <c r="E55" s="322"/>
+      <c r="F55" s="235"/>
+      <c r="G55" s="251"/>
+      <c r="H55" s="324"/>
+      <c r="I55" s="93"/>
+      <c r="J55" s="71"/>
+      <c r="K55" s="282"/>
+      <c r="L55" s="78"/>
+      <c r="M55" s="94"/>
+      <c r="N55" s="95"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
-    <row r="56" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D56" s="118"/>
-      <c r="E56" s="375"/>
-      <c r="F56" s="119">
-        <v>0</v>
-      </c>
-      <c r="I56" s="120"/>
-      <c r="J56" s="121"/>
-      <c r="K56" s="122"/>
-      <c r="L56" s="123"/>
-    </row>
-    <row r="57" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="C57" s="3" t="s">
+    <row r="56" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="22"/>
+      <c r="B56" s="23"/>
+      <c r="C56" s="88"/>
+      <c r="D56" s="89"/>
+      <c r="E56" s="281"/>
+      <c r="F56" s="235"/>
+      <c r="G56" s="251"/>
+      <c r="H56" s="35"/>
+      <c r="I56" s="93"/>
+      <c r="J56" s="71"/>
+      <c r="K56" s="74"/>
+      <c r="L56" s="78"/>
+      <c r="M56" s="94"/>
+      <c r="N56" s="95"/>
+      <c r="P56" s="32"/>
+      <c r="Q56" s="8"/>
+    </row>
+    <row r="57" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="22"/>
+      <c r="B57" s="23"/>
+      <c r="C57" s="88"/>
+      <c r="D57" s="89"/>
+      <c r="E57" s="281"/>
+      <c r="F57" s="235"/>
+      <c r="G57" s="251"/>
+      <c r="H57" s="35"/>
+      <c r="I57" s="93"/>
+      <c r="J57" s="71"/>
+      <c r="K57" s="74"/>
+      <c r="L57" s="78"/>
+      <c r="M57" s="94"/>
+      <c r="N57" s="95"/>
+      <c r="P57" s="32"/>
+      <c r="Q57" s="8"/>
+    </row>
+    <row r="58" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="22"/>
+      <c r="B58" s="23"/>
+      <c r="C58" s="88"/>
+      <c r="D58" s="89"/>
+      <c r="E58" s="281"/>
+      <c r="F58" s="235"/>
+      <c r="G58" s="251"/>
+      <c r="H58" s="35"/>
+      <c r="I58" s="93"/>
+      <c r="J58" s="71"/>
+      <c r="K58" s="74"/>
+      <c r="L58" s="78"/>
+      <c r="M58" s="94"/>
+      <c r="N58" s="95"/>
+      <c r="P58" s="32"/>
+      <c r="Q58" s="8"/>
+    </row>
+    <row r="59" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="22"/>
+      <c r="B59" s="23"/>
+      <c r="C59" s="24">
+        <v>0</v>
+      </c>
+      <c r="D59" s="96"/>
+      <c r="E59" s="90"/>
+      <c r="F59" s="88"/>
+      <c r="H59" s="97"/>
+      <c r="I59" s="93"/>
+      <c r="J59" s="98"/>
+      <c r="K59" s="99"/>
+      <c r="L59" s="8"/>
+      <c r="M59" s="100"/>
+      <c r="N59" s="31"/>
+      <c r="P59" s="32"/>
+      <c r="Q59" s="8"/>
+    </row>
+    <row r="60" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="101" t="s">
+        <v>9</v>
+      </c>
+      <c r="C60" s="102">
+        <f>SUM(C5:C59)</f>
+        <v>162647</v>
+      </c>
+      <c r="D60" s="103"/>
+      <c r="E60" s="104" t="s">
+        <v>9</v>
+      </c>
+      <c r="F60" s="105">
+        <f>SUM(F5:F59)</f>
+        <v>4688165</v>
+      </c>
+      <c r="G60" s="103"/>
+      <c r="H60" s="106" t="s">
+        <v>10</v>
+      </c>
+      <c r="I60" s="107">
+        <f>SUM(I5:I59)</f>
+        <v>5118</v>
+      </c>
+      <c r="J60" s="108"/>
+      <c r="K60" s="109" t="s">
+        <v>11</v>
+      </c>
+      <c r="L60" s="110">
+        <f>SUM(L5:L59)</f>
+        <v>75772</v>
+      </c>
+      <c r="M60" s="111"/>
+      <c r="N60" s="111"/>
+      <c r="P60" s="32"/>
+      <c r="Q60" s="8"/>
+    </row>
+    <row r="61" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C61" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E57" s="33" t="s">
+      <c r="P61" s="32"/>
+      <c r="Q61" s="8"/>
+    </row>
+    <row r="62" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="33"/>
+      <c r="B62" s="113"/>
+      <c r="C62" s="1"/>
+      <c r="H62" s="420" t="s">
+        <v>12</v>
+      </c>
+      <c r="I62" s="421"/>
+      <c r="J62" s="114"/>
+      <c r="K62" s="422">
+        <f>I60+L60</f>
+        <v>80890</v>
+      </c>
+      <c r="L62" s="423"/>
+      <c r="M62" s="424">
+        <f>N49+M49</f>
+        <v>3899280</v>
+      </c>
+      <c r="N62" s="425"/>
+      <c r="P62" s="32"/>
+      <c r="Q62" s="8"/>
+    </row>
+    <row r="63" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D63" s="426" t="s">
+        <v>13</v>
+      </c>
+      <c r="E63" s="426"/>
+      <c r="F63" s="115">
+        <f>F60-K62-C60</f>
+        <v>4444628</v>
+      </c>
+      <c r="I63" s="116"/>
+      <c r="J63" s="117"/>
+      <c r="P63" s="32"/>
+      <c r="Q63" s="8"/>
+    </row>
+    <row r="64" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D64" s="427" t="s">
+        <v>14</v>
+      </c>
+      <c r="E64" s="427"/>
+      <c r="F64" s="111">
+        <v>0</v>
+      </c>
+      <c r="I64" s="428" t="s">
+        <v>15</v>
+      </c>
+      <c r="J64" s="429"/>
+      <c r="K64" s="430">
+        <f>F66+F67+F68</f>
+        <v>4498960</v>
+      </c>
+      <c r="L64" s="431"/>
+      <c r="P64" s="32"/>
+      <c r="Q64" s="8"/>
+    </row>
+    <row r="65" spans="2:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D65" s="118"/>
+      <c r="E65" s="375"/>
+      <c r="F65" s="119">
+        <v>0</v>
+      </c>
+      <c r="I65" s="120"/>
+      <c r="J65" s="121"/>
+      <c r="K65" s="122"/>
+      <c r="L65" s="123"/>
+    </row>
+    <row r="66" spans="2:14" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="C66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E66" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="F57" s="111">
-        <f>SUM(F54:F56)</f>
-        <v>3322701</v>
-      </c>
-      <c r="H57" s="22"/>
-      <c r="I57" s="124" t="s">
+      <c r="F66" s="111">
+        <f>SUM(F63:F65)</f>
+        <v>4444628</v>
+      </c>
+      <c r="H66" s="22"/>
+      <c r="I66" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="J57" s="125"/>
-      <c r="K57" s="443">
+      <c r="J66" s="125"/>
+      <c r="K66" s="432">
         <f>-C4</f>
         <v>-315698.55</v>
       </c>
-      <c r="L57" s="444"/>
-    </row>
-    <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D58" s="126" t="s">
+      <c r="L66" s="433"/>
+    </row>
+    <row r="67" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D67" s="126" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="33" t="s">
+      <c r="E67" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="F58" s="127">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C59" s="128"/>
-      <c r="D59" s="420" t="s">
+      <c r="F67" s="127">
+        <v>54332</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C68" s="128"/>
+      <c r="D68" s="409" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="421"/>
-      <c r="F59" s="129">
-        <v>0</v>
-      </c>
-      <c r="I59" s="446" t="s">
+      <c r="E68" s="410"/>
+      <c r="F68" s="129">
+        <v>0</v>
+      </c>
+      <c r="I68" s="446" t="s">
         <v>168</v>
       </c>
-      <c r="J59" s="447"/>
-      <c r="K59" s="448">
-        <f>K55+K57</f>
-        <v>3007002.45</v>
-      </c>
-      <c r="L59" s="448"/>
-    </row>
-    <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C60" s="130"/>
-      <c r="D60" s="131"/>
-      <c r="E60" s="132"/>
-      <c r="F60" s="133"/>
-      <c r="J60" s="134"/>
-    </row>
-    <row r="61" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I61" s="135"/>
-      <c r="J61" s="135"/>
-      <c r="K61" s="136"/>
-      <c r="L61" s="136"/>
-    </row>
-    <row r="62" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="137"/>
-      <c r="C62" s="138"/>
-      <c r="D62" s="139"/>
-      <c r="E62" s="32"/>
-      <c r="I62" s="135"/>
-      <c r="J62" s="135"/>
-      <c r="K62" s="136"/>
-      <c r="L62" s="136"/>
-      <c r="M62" s="140"/>
-      <c r="N62" s="33"/>
-    </row>
-    <row r="63" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B63" s="137"/>
-      <c r="C63" s="141"/>
-      <c r="E63" s="32"/>
-      <c r="M63" s="140"/>
-      <c r="N63" s="33"/>
-    </row>
-    <row r="64" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B64" s="137"/>
-      <c r="C64" s="141"/>
-      <c r="E64" s="32"/>
-      <c r="F64" s="142"/>
-      <c r="L64" s="143"/>
-      <c r="M64" s="1"/>
-    </row>
-    <row r="65" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B65" s="137"/>
-      <c r="C65" s="141"/>
-      <c r="E65" s="32"/>
-      <c r="M65" s="1"/>
-    </row>
-    <row r="66" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B66" s="137"/>
-      <c r="C66" s="141"/>
-      <c r="E66" s="32"/>
-      <c r="F66" s="144"/>
-      <c r="M66" s="1"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="E67" s="145"/>
-      <c r="F67" s="32"/>
-      <c r="M67" s="1"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="E68" s="145"/>
-      <c r="F68" s="32"/>
-      <c r="M68" s="1"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="E69" s="145"/>
-      <c r="F69" s="32"/>
-      <c r="M69" s="1"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="E70" s="145"/>
-      <c r="F70" s="32"/>
-      <c r="M70" s="1"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="E71" s="145"/>
-      <c r="F71" s="32"/>
-      <c r="M71" s="1"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="E72" s="145"/>
-      <c r="F72" s="32"/>
-      <c r="M72" s="1"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="E73" s="145"/>
-      <c r="F73" s="32"/>
+      <c r="J68" s="447"/>
+      <c r="K68" s="448">
+        <f>K64+K66</f>
+        <v>4183261.45</v>
+      </c>
+      <c r="L68" s="448"/>
+    </row>
+    <row r="69" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C69" s="130"/>
+      <c r="D69" s="131"/>
+      <c r="E69" s="132"/>
+      <c r="F69" s="133"/>
+      <c r="J69" s="134"/>
+    </row>
+    <row r="70" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I70" s="135"/>
+      <c r="J70" s="135"/>
+      <c r="K70" s="136"/>
+      <c r="L70" s="136"/>
+    </row>
+    <row r="71" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="137"/>
+      <c r="C71" s="138"/>
+      <c r="D71" s="139"/>
+      <c r="E71" s="32"/>
+      <c r="I71" s="135"/>
+      <c r="J71" s="135"/>
+      <c r="K71" s="136"/>
+      <c r="L71" s="136"/>
+      <c r="M71" s="140"/>
+      <c r="N71" s="33"/>
+    </row>
+    <row r="72" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B72" s="137"/>
+      <c r="C72" s="141"/>
+      <c r="E72" s="32"/>
+      <c r="M72" s="140"/>
+      <c r="N72" s="33"/>
+    </row>
+    <row r="73" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B73" s="137"/>
+      <c r="C73" s="141"/>
+      <c r="E73" s="32"/>
+      <c r="F73" s="142"/>
+      <c r="L73" s="143"/>
       <c r="M73" s="1"/>
     </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="E74" s="145"/>
-      <c r="F74" s="32"/>
+    <row r="74" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B74" s="137"/>
+      <c r="C74" s="141"/>
+      <c r="E74" s="32"/>
       <c r="M74" s="1"/>
     </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="E75" s="145"/>
-      <c r="F75" s="32"/>
+    <row r="75" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B75" s="137"/>
+      <c r="C75" s="141"/>
+      <c r="E75" s="32"/>
+      <c r="F75" s="144"/>
       <c r="M75" s="1"/>
     </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
       <c r="E76" s="145"/>
       <c r="F76" s="32"/>
       <c r="M76" s="1"/>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
       <c r="E77" s="145"/>
       <c r="F77" s="32"/>
       <c r="M77" s="1"/>
     </row>
-    <row r="78" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
       <c r="E78" s="145"/>
       <c r="F78" s="32"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F79" s="144"/>
-    </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F80" s="144"/>
-    </row>
-    <row r="81" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F81" s="144"/>
+      <c r="M78" s="1"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E79" s="145"/>
+      <c r="F79" s="32"/>
+      <c r="M79" s="1"/>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E80" s="145"/>
+      <c r="F80" s="32"/>
+      <c r="M80" s="1"/>
+    </row>
+    <row r="81" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E81" s="145"/>
+      <c r="F81" s="32"/>
+      <c r="M81" s="1"/>
+    </row>
+    <row r="82" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E82" s="145"/>
+      <c r="F82" s="32"/>
+      <c r="M82" s="1"/>
+    </row>
+    <row r="83" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E83" s="145"/>
+      <c r="F83" s="32"/>
+      <c r="M83" s="1"/>
+    </row>
+    <row r="84" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E84" s="145"/>
+      <c r="F84" s="32"/>
+      <c r="M84" s="1"/>
+    </row>
+    <row r="85" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E85" s="145"/>
+      <c r="F85" s="32"/>
+      <c r="M85" s="1"/>
+    </row>
+    <row r="86" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E86" s="145"/>
+      <c r="F86" s="32"/>
+      <c r="M86" s="1"/>
+    </row>
+    <row r="87" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E87" s="145"/>
+      <c r="F87" s="32"/>
+    </row>
+    <row r="88" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="F88" s="144"/>
+    </row>
+    <row r="89" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="F89" s="144"/>
+    </row>
+    <row r="90" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="F90" s="144"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="I64:J64"/>
+    <mergeCell ref="K64:L64"/>
+    <mergeCell ref="K66:L66"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="I68:J68"/>
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M49:M50"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="N40:N41"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="N49:N50"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="K62:L62"/>
+    <mergeCell ref="M62:N62"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.35" bottom="0.28000000000000003" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -40592,23 +41072,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="407"/>
-      <c r="C1" s="409" t="s">
+      <c r="B1" s="434"/>
+      <c r="C1" s="436" t="s">
         <v>125</v>
       </c>
-      <c r="D1" s="410"/>
-      <c r="E1" s="410"/>
-      <c r="F1" s="410"/>
-      <c r="G1" s="410"/>
-      <c r="H1" s="410"/>
-      <c r="I1" s="410"/>
-      <c r="J1" s="410"/>
-      <c r="K1" s="410"/>
-      <c r="L1" s="410"/>
-      <c r="M1" s="410"/>
+      <c r="D1" s="437"/>
+      <c r="E1" s="437"/>
+      <c r="F1" s="437"/>
+      <c r="G1" s="437"/>
+      <c r="H1" s="437"/>
+      <c r="I1" s="437"/>
+      <c r="J1" s="437"/>
+      <c r="K1" s="437"/>
+      <c r="L1" s="437"/>
+      <c r="M1" s="437"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="408"/>
+      <c r="B2" s="435"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -40618,21 +41098,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="411" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="412"/>
+      <c r="B3" s="438" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="439"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="413" t="s">
+      <c r="H3" s="440" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="413"/>
+      <c r="I3" s="440"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="418" t="s">
+      <c r="R3" s="407" t="s">
         <v>38</v>
       </c>
     </row>
@@ -40647,14 +41127,14 @@
       <c r="D4" s="16">
         <v>44591</v>
       </c>
-      <c r="E4" s="414" t="s">
+      <c r="E4" s="441" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="415"/>
-      <c r="H4" s="416" t="s">
+      <c r="F4" s="442"/>
+      <c r="H4" s="443" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="417"/>
+      <c r="I4" s="444"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -40664,11 +41144,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="425" t="s">
+      <c r="P4" s="414" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="426"/>
-      <c r="R4" s="419"/>
+      <c r="Q4" s="415"/>
+      <c r="R4" s="408"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -42109,7 +42589,7 @@
         <f>SUM(M5:M39)</f>
         <v>1636108</v>
       </c>
-      <c r="N40" s="429">
+      <c r="N40" s="418">
         <f>SUM(N5:N39)</f>
         <v>55675</v>
       </c>
@@ -42134,8 +42614,8 @@
       <c r="J41" s="71"/>
       <c r="K41" s="74"/>
       <c r="L41" s="73"/>
-      <c r="M41" s="428"/>
-      <c r="N41" s="430"/>
+      <c r="M41" s="417"/>
+      <c r="N41" s="419"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -42342,29 +42822,29 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="431" t="s">
+      <c r="H53" s="420" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="432"/>
+      <c r="I53" s="421"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="433">
+      <c r="K53" s="422">
         <f>I51+L51</f>
         <v>45634.280000000006</v>
       </c>
-      <c r="L53" s="434"/>
-      <c r="M53" s="435">
+      <c r="L53" s="423"/>
+      <c r="M53" s="424">
         <f>N40+M40</f>
         <v>1691783</v>
       </c>
-      <c r="N53" s="436"/>
+      <c r="N53" s="425"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="437" t="s">
+      <c r="D54" s="426" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="437"/>
+      <c r="E54" s="426"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
         <v>1686442.72</v>
@@ -42375,22 +42855,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="438" t="s">
+      <c r="D55" s="427" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="438"/>
+      <c r="E55" s="427"/>
       <c r="F55" s="111">
         <v>-1631962.77</v>
       </c>
-      <c r="I55" s="439" t="s">
+      <c r="I55" s="428" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="440"/>
-      <c r="K55" s="441">
+      <c r="J55" s="429"/>
+      <c r="K55" s="430">
         <f>F57+F58+F59</f>
         <v>238822.13999999996</v>
       </c>
-      <c r="L55" s="442"/>
+      <c r="L55" s="431"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -42421,11 +42901,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="443">
+      <c r="K57" s="432">
         <f>-C4</f>
         <v>-154314.51999999999</v>
       </c>
-      <c r="L57" s="444"/>
+      <c r="L57" s="433"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -42442,22 +42922,22 @@
       <c r="C59" s="128">
         <v>44619</v>
       </c>
-      <c r="D59" s="420" t="s">
+      <c r="D59" s="409" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="421"/>
+      <c r="E59" s="410"/>
       <c r="F59" s="129">
         <v>184342.19</v>
       </c>
-      <c r="I59" s="422" t="s">
+      <c r="I59" s="411" t="s">
         <v>168</v>
       </c>
-      <c r="J59" s="423"/>
-      <c r="K59" s="424">
+      <c r="J59" s="412"/>
+      <c r="K59" s="413">
         <f>K55+K57</f>
         <v>84507.619999999966</v>
       </c>
-      <c r="L59" s="424"/>
+      <c r="L59" s="413"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="130"/>
@@ -42582,6 +43062,18 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -42591,18 +43083,6 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -43907,23 +44387,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="407"/>
-      <c r="C1" s="409" t="s">
+      <c r="B1" s="434"/>
+      <c r="C1" s="436" t="s">
         <v>135</v>
       </c>
-      <c r="D1" s="410"/>
-      <c r="E1" s="410"/>
-      <c r="F1" s="410"/>
-      <c r="G1" s="410"/>
-      <c r="H1" s="410"/>
-      <c r="I1" s="410"/>
-      <c r="J1" s="410"/>
-      <c r="K1" s="410"/>
-      <c r="L1" s="410"/>
-      <c r="M1" s="410"/>
+      <c r="D1" s="437"/>
+      <c r="E1" s="437"/>
+      <c r="F1" s="437"/>
+      <c r="G1" s="437"/>
+      <c r="H1" s="437"/>
+      <c r="I1" s="437"/>
+      <c r="J1" s="437"/>
+      <c r="K1" s="437"/>
+      <c r="L1" s="437"/>
+      <c r="M1" s="437"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="408"/>
+      <c r="B2" s="435"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -43933,21 +44413,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="411" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="412"/>
+      <c r="B3" s="438" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="439"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="413" t="s">
+      <c r="H3" s="440" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="413"/>
+      <c r="I3" s="440"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="418" t="s">
+      <c r="R3" s="407" t="s">
         <v>38</v>
       </c>
     </row>
@@ -43962,14 +44442,14 @@
       <c r="D4" s="16">
         <v>44619</v>
       </c>
-      <c r="E4" s="414" t="s">
+      <c r="E4" s="441" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="415"/>
-      <c r="H4" s="416" t="s">
+      <c r="F4" s="442"/>
+      <c r="H4" s="443" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="417"/>
+      <c r="I4" s="444"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -43979,11 +44459,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="425" t="s">
+      <c r="P4" s="414" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="426"/>
-      <c r="R4" s="419"/>
+      <c r="Q4" s="415"/>
+      <c r="R4" s="408"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -45434,11 +45914,11 @@
       <c r="J40" s="71"/>
       <c r="K40" s="87"/>
       <c r="L40" s="73"/>
-      <c r="M40" s="427">
+      <c r="M40" s="416">
         <f>SUM(M5:M39)</f>
         <v>1793435</v>
       </c>
-      <c r="N40" s="429">
+      <c r="N40" s="418">
         <f>SUM(N5:N39)</f>
         <v>63995</v>
       </c>
@@ -45463,8 +45943,8 @@
       <c r="J41" s="71"/>
       <c r="K41" s="235"/>
       <c r="L41" s="73"/>
-      <c r="M41" s="428"/>
-      <c r="N41" s="430"/>
+      <c r="M41" s="417"/>
+      <c r="N41" s="419"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -45603,29 +46083,29 @@
       <c r="A49" s="33"/>
       <c r="B49" s="113"/>
       <c r="C49" s="1"/>
-      <c r="H49" s="431" t="s">
+      <c r="H49" s="420" t="s">
         <v>12</v>
       </c>
-      <c r="I49" s="432"/>
+      <c r="I49" s="421"/>
       <c r="J49" s="114"/>
-      <c r="K49" s="433">
+      <c r="K49" s="422">
         <f>I47+L47</f>
         <v>90434.03</v>
       </c>
-      <c r="L49" s="434"/>
-      <c r="M49" s="435">
+      <c r="L49" s="423"/>
+      <c r="M49" s="424">
         <f>N40+M40</f>
         <v>1857430</v>
       </c>
-      <c r="N49" s="436"/>
+      <c r="N49" s="425"/>
       <c r="P49" s="32"/>
       <c r="Q49" s="8"/>
     </row>
     <row r="50" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D50" s="437" t="s">
+      <c r="D50" s="426" t="s">
         <v>13</v>
       </c>
-      <c r="E50" s="437"/>
+      <c r="E50" s="426"/>
       <c r="F50" s="115">
         <f>F47-K49-C47</f>
         <v>1824260.97</v>
@@ -45636,22 +46116,22 @@
       <c r="Q50" s="8"/>
     </row>
     <row r="51" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D51" s="438" t="s">
+      <c r="D51" s="427" t="s">
         <v>14</v>
       </c>
-      <c r="E51" s="438"/>
+      <c r="E51" s="427"/>
       <c r="F51" s="111">
         <v>-1848136.64</v>
       </c>
-      <c r="I51" s="439" t="s">
+      <c r="I51" s="428" t="s">
         <v>15</v>
       </c>
-      <c r="J51" s="440"/>
-      <c r="K51" s="441">
+      <c r="J51" s="429"/>
+      <c r="K51" s="430">
         <f>F53+F54+F55</f>
         <v>195541.70000000007</v>
       </c>
-      <c r="L51" s="442"/>
+      <c r="L51" s="431"/>
       <c r="P51" s="32"/>
       <c r="Q51" s="8"/>
     </row>
@@ -45682,11 +46162,11 @@
         <v>17</v>
       </c>
       <c r="J53" s="125"/>
-      <c r="K53" s="443">
+      <c r="K53" s="432">
         <f>-C4</f>
         <v>-184342.19</v>
       </c>
-      <c r="L53" s="444"/>
+      <c r="L53" s="433"/>
     </row>
     <row r="54" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D54" s="126" t="s">
@@ -45703,22 +46183,22 @@
       <c r="C55" s="128">
         <v>44647</v>
       </c>
-      <c r="D55" s="420" t="s">
+      <c r="D55" s="409" t="s">
         <v>20</v>
       </c>
-      <c r="E55" s="421"/>
+      <c r="E55" s="410"/>
       <c r="F55" s="129">
         <v>219417.37</v>
       </c>
-      <c r="I55" s="422" t="s">
+      <c r="I55" s="411" t="s">
         <v>226</v>
       </c>
-      <c r="J55" s="423"/>
-      <c r="K55" s="424">
+      <c r="J55" s="412"/>
+      <c r="K55" s="413">
         <f>K51+K53</f>
         <v>11199.510000000068</v>
       </c>
-      <c r="L55" s="424"/>
+      <c r="L55" s="413"/>
     </row>
     <row r="56" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C56" s="130"/>
@@ -45846,18 +46326,6 @@
     <sortCondition ref="J34:J38"/>
   </sortState>
   <mergeCells count="21">
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -45867,6 +46335,18 @@
     <mergeCell ref="H49:I49"/>
     <mergeCell ref="K49:L49"/>
     <mergeCell ref="M49:N49"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -47341,23 +47821,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="407"/>
-      <c r="C1" s="409" t="s">
+      <c r="B1" s="434"/>
+      <c r="C1" s="436" t="s">
         <v>225</v>
       </c>
-      <c r="D1" s="410"/>
-      <c r="E1" s="410"/>
-      <c r="F1" s="410"/>
-      <c r="G1" s="410"/>
-      <c r="H1" s="410"/>
-      <c r="I1" s="410"/>
-      <c r="J1" s="410"/>
-      <c r="K1" s="410"/>
-      <c r="L1" s="410"/>
-      <c r="M1" s="410"/>
+      <c r="D1" s="437"/>
+      <c r="E1" s="437"/>
+      <c r="F1" s="437"/>
+      <c r="G1" s="437"/>
+      <c r="H1" s="437"/>
+      <c r="I1" s="437"/>
+      <c r="J1" s="437"/>
+      <c r="K1" s="437"/>
+      <c r="L1" s="437"/>
+      <c r="M1" s="437"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="408"/>
+      <c r="B2" s="435"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -47367,21 +47847,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="411" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="412"/>
+      <c r="B3" s="438" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="439"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="413" t="s">
+      <c r="H3" s="440" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="413"/>
+      <c r="I3" s="440"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="418" t="s">
+      <c r="R3" s="407" t="s">
         <v>38</v>
       </c>
     </row>
@@ -47396,14 +47876,14 @@
       <c r="D4" s="16">
         <v>44647</v>
       </c>
-      <c r="E4" s="414" t="s">
+      <c r="E4" s="441" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="415"/>
-      <c r="H4" s="416" t="s">
+      <c r="F4" s="442"/>
+      <c r="H4" s="443" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="417"/>
+      <c r="I4" s="444"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -47413,11 +47893,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="425" t="s">
+      <c r="P4" s="414" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="426"/>
-      <c r="R4" s="419"/>
+      <c r="Q4" s="415"/>
+      <c r="R4" s="408"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -49014,11 +49494,11 @@
         <f>927.48+128</f>
         <v>1055.48</v>
       </c>
-      <c r="M40" s="427">
+      <c r="M40" s="416">
         <f>SUM(M5:M39)</f>
         <v>2146671</v>
       </c>
-      <c r="N40" s="429">
+      <c r="N40" s="418">
         <f>SUM(N5:N39)</f>
         <v>68590</v>
       </c>
@@ -49049,8 +49529,8 @@
       <c r="L41" s="73">
         <v>1195.68</v>
       </c>
-      <c r="M41" s="428"/>
-      <c r="N41" s="430"/>
+      <c r="M41" s="417"/>
+      <c r="N41" s="419"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -49281,29 +49761,29 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="431" t="s">
+      <c r="H53" s="420" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="432"/>
+      <c r="I53" s="421"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="433">
+      <c r="K53" s="422">
         <f>I51+L51</f>
         <v>91272.77</v>
       </c>
-      <c r="L53" s="434"/>
-      <c r="M53" s="435">
+      <c r="L53" s="423"/>
+      <c r="M53" s="424">
         <f>N40+M40</f>
         <v>2215261</v>
       </c>
-      <c r="N53" s="436"/>
+      <c r="N53" s="425"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="437" t="s">
+      <c r="D54" s="426" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="437"/>
+      <c r="E54" s="426"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
         <v>2179879.23</v>
@@ -49314,22 +49794,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="438" t="s">
+      <c r="D55" s="427" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="438"/>
+      <c r="E55" s="427"/>
       <c r="F55" s="111">
         <v>-2227493.48</v>
       </c>
-      <c r="I55" s="439" t="s">
+      <c r="I55" s="428" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="440"/>
-      <c r="K55" s="441">
+      <c r="J55" s="429"/>
+      <c r="K55" s="430">
         <f>F57+F58+F59</f>
         <v>261521.34000000003</v>
       </c>
-      <c r="L55" s="442"/>
+      <c r="L55" s="431"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -49360,11 +49840,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="443">
+      <c r="K57" s="432">
         <f>-C4</f>
         <v>-219417.37</v>
       </c>
-      <c r="L57" s="444"/>
+      <c r="L57" s="433"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -49381,22 +49861,22 @@
       <c r="C59" s="128">
         <v>44682</v>
       </c>
-      <c r="D59" s="420" t="s">
+      <c r="D59" s="409" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="421"/>
+      <c r="E59" s="410"/>
       <c r="F59" s="129">
         <v>297874.59000000003</v>
       </c>
-      <c r="I59" s="422" t="s">
+      <c r="I59" s="411" t="s">
         <v>168</v>
       </c>
-      <c r="J59" s="423"/>
-      <c r="K59" s="424">
+      <c r="J59" s="412"/>
+      <c r="K59" s="413">
         <f>K55+K57</f>
         <v>42103.97000000003</v>
       </c>
-      <c r="L59" s="424"/>
+      <c r="L59" s="413"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="130"/>
@@ -49524,18 +50004,6 @@
     <sortCondition ref="J40:J44"/>
   </sortState>
   <mergeCells count="21">
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -49545,6 +50013,18 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -51048,23 +51528,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="407"/>
-      <c r="C1" s="409" t="s">
+      <c r="B1" s="434"/>
+      <c r="C1" s="436" t="s">
         <v>277</v>
       </c>
-      <c r="D1" s="410"/>
-      <c r="E1" s="410"/>
-      <c r="F1" s="410"/>
-      <c r="G1" s="410"/>
-      <c r="H1" s="410"/>
-      <c r="I1" s="410"/>
-      <c r="J1" s="410"/>
-      <c r="K1" s="410"/>
-      <c r="L1" s="410"/>
-      <c r="M1" s="410"/>
+      <c r="D1" s="437"/>
+      <c r="E1" s="437"/>
+      <c r="F1" s="437"/>
+      <c r="G1" s="437"/>
+      <c r="H1" s="437"/>
+      <c r="I1" s="437"/>
+      <c r="J1" s="437"/>
+      <c r="K1" s="437"/>
+      <c r="L1" s="437"/>
+      <c r="M1" s="437"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="408"/>
+      <c r="B2" s="435"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -51074,21 +51554,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="411" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="412"/>
+      <c r="B3" s="438" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="439"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="413" t="s">
+      <c r="H3" s="440" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="413"/>
+      <c r="I3" s="440"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="418" t="s">
+      <c r="R3" s="407" t="s">
         <v>38</v>
       </c>
     </row>
@@ -51103,14 +51583,14 @@
       <c r="D4" s="16">
         <v>44682</v>
       </c>
-      <c r="E4" s="414" t="s">
+      <c r="E4" s="441" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="415"/>
-      <c r="H4" s="416" t="s">
+      <c r="F4" s="442"/>
+      <c r="H4" s="443" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="417"/>
+      <c r="I4" s="444"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -51120,11 +51600,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="425" t="s">
+      <c r="P4" s="414" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="426"/>
-      <c r="R4" s="419"/>
+      <c r="Q4" s="415"/>
+      <c r="R4" s="408"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -52641,11 +53121,11 @@
       <c r="J40" s="71"/>
       <c r="K40" s="74"/>
       <c r="L40" s="73"/>
-      <c r="M40" s="427">
+      <c r="M40" s="416">
         <f>SUM(M5:M39)</f>
         <v>2144215</v>
       </c>
-      <c r="N40" s="429">
+      <c r="N40" s="418">
         <f>SUM(N5:N39)</f>
         <v>62525</v>
       </c>
@@ -52670,8 +53150,8 @@
       <c r="J41" s="71"/>
       <c r="K41" s="235"/>
       <c r="L41" s="73"/>
-      <c r="M41" s="428"/>
-      <c r="N41" s="430"/>
+      <c r="M41" s="417"/>
+      <c r="N41" s="419"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -52882,29 +53362,29 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="431" t="s">
+      <c r="H53" s="420" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="432"/>
+      <c r="I53" s="421"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="433">
+      <c r="K53" s="422">
         <f>I51+L51</f>
         <v>51231.42</v>
       </c>
-      <c r="L53" s="434"/>
-      <c r="M53" s="435">
+      <c r="L53" s="423"/>
+      <c r="M53" s="424">
         <f>N40+M40</f>
         <v>2206740</v>
       </c>
-      <c r="N53" s="436"/>
+      <c r="N53" s="425"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="437" t="s">
+      <c r="D54" s="426" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="437"/>
+      <c r="E54" s="426"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
         <v>2189405.58</v>
@@ -52915,22 +53395,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="438" t="s">
+      <c r="D55" s="427" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="438"/>
+      <c r="E55" s="427"/>
       <c r="F55" s="111">
         <v>-2251924.65</v>
       </c>
-      <c r="I55" s="439" t="s">
+      <c r="I55" s="428" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="440"/>
-      <c r="K55" s="441">
+      <c r="J55" s="429"/>
+      <c r="K55" s="430">
         <f>F57+F58+F59</f>
         <v>112552.74000000017</v>
       </c>
-      <c r="L55" s="442"/>
+      <c r="L55" s="431"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -52961,11 +53441,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="443">
+      <c r="K57" s="432">
         <f>-C4</f>
         <v>-297874.59000000003</v>
       </c>
-      <c r="L57" s="444"/>
+      <c r="L57" s="433"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -52982,22 +53462,22 @@
       <c r="C59" s="128">
         <v>44710</v>
       </c>
-      <c r="D59" s="420" t="s">
+      <c r="D59" s="409" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="421"/>
+      <c r="E59" s="410"/>
       <c r="F59" s="129">
         <v>149938.81</v>
       </c>
-      <c r="I59" s="422" t="s">
+      <c r="I59" s="411" t="s">
         <v>325</v>
       </c>
-      <c r="J59" s="423"/>
-      <c r="K59" s="424">
+      <c r="J59" s="412"/>
+      <c r="K59" s="413">
         <f>K55+K57</f>
         <v>-185321.84999999986</v>
       </c>
-      <c r="L59" s="424"/>
+      <c r="L59" s="413"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="130"/>
@@ -53125,6 +53605,18 @@
     <sortCondition ref="J35:J40"/>
   </sortState>
   <mergeCells count="21">
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -53134,18 +53626,6 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL#15  ARCHIVO   2 0 2 2/CENTRAL #12  DICIEMBRE 2022/BALANCE   HERRADURA  DICIEMBRE       2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL#15  ARCHIVO   2 0 2 2/CENTRAL #12  DICIEMBRE 2022/BALANCE   HERRADURA  DICIEMBRE       2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="195" yWindow="915" windowWidth="16905" windowHeight="10110" firstSheet="20" activeTab="22"/>
+    <workbookView xWindow="195" yWindow="915" windowWidth="16905" windowHeight="10110" firstSheet="21" activeTab="22"/>
   </bookViews>
   <sheets>
     <sheet name="E N E R O    2 0 2 2         " sheetId="1" r:id="rId1"/>
@@ -752,7 +752,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1199" uniqueCount="603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1252" uniqueCount="656">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -2575,6 +2575,178 @@
   <si>
     <t>NOMINA # 02</t>
   </si>
+  <si>
+    <t>18458 D</t>
+  </si>
+  <si>
+    <t>18622 D</t>
+  </si>
+  <si>
+    <t>18661 D</t>
+  </si>
+  <si>
+    <t>18719 D</t>
+  </si>
+  <si>
+    <t>18740 D</t>
+  </si>
+  <si>
+    <t>18775 D</t>
+  </si>
+  <si>
+    <t>18984 D</t>
+  </si>
+  <si>
+    <t>19032 D</t>
+  </si>
+  <si>
+    <t>19035 D</t>
+  </si>
+  <si>
+    <t>19233 D</t>
+  </si>
+  <si>
+    <t>19353 D</t>
+  </si>
+  <si>
+    <t>19462 D</t>
+  </si>
+  <si>
+    <t>19514 D</t>
+  </si>
+  <si>
+    <t>19626 D</t>
+  </si>
+  <si>
+    <t>19858 D</t>
+  </si>
+  <si>
+    <t>19971 D</t>
+  </si>
+  <si>
+    <t>19972 D</t>
+  </si>
+  <si>
+    <t>20085 D</t>
+  </si>
+  <si>
+    <t>20218 D</t>
+  </si>
+  <si>
+    <t>20353 D</t>
+  </si>
+  <si>
+    <t>20519 D</t>
+  </si>
+  <si>
+    <t>20645 D</t>
+  </si>
+  <si>
+    <t>20666 D</t>
+  </si>
+  <si>
+    <t>20688 D</t>
+  </si>
+  <si>
+    <t>20776 D</t>
+  </si>
+  <si>
+    <t>20844 D</t>
+  </si>
+  <si>
+    <t>21064  D</t>
+  </si>
+  <si>
+    <t>21201 D</t>
+  </si>
+  <si>
+    <t>21226 D</t>
+  </si>
+  <si>
+    <t>21376 D</t>
+  </si>
+  <si>
+    <t>21464 D</t>
+  </si>
+  <si>
+    <t>21485 D</t>
+  </si>
+  <si>
+    <t>21623 D</t>
+  </si>
+  <si>
+    <t>21666 D</t>
+  </si>
+  <si>
+    <t>21741 D</t>
+  </si>
+  <si>
+    <t>21809 D</t>
+  </si>
+  <si>
+    <t>21813 D</t>
+  </si>
+  <si>
+    <t>21995 D</t>
+  </si>
+  <si>
+    <t>21875 D</t>
+  </si>
+  <si>
+    <t>22024 D</t>
+  </si>
+  <si>
+    <t>22114 D</t>
+  </si>
+  <si>
+    <t>22136 D</t>
+  </si>
+  <si>
+    <t>22285 D</t>
+  </si>
+  <si>
+    <t>22422 D</t>
+  </si>
+  <si>
+    <t>22487 D</t>
+  </si>
+  <si>
+    <t>22492 D</t>
+  </si>
+  <si>
+    <t>22572 D</t>
+  </si>
+  <si>
+    <t>22665 D</t>
+  </si>
+  <si>
+    <t>22685 D</t>
+  </si>
+  <si>
+    <t>22712 D</t>
+  </si>
+  <si>
+    <t>22746 D</t>
+  </si>
+  <si>
+    <t>22762 D</t>
+  </si>
+  <si>
+    <r>
+      <t>23-Dic-22-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF800000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-30-Dic-22</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -2588,7 +2760,7 @@
     <numFmt numFmtId="167" formatCode="[$$-80A]#,##0.00;\-[$$-80A]#,##0.00"/>
     <numFmt numFmtId="168" formatCode="[$-C0A]d\-mmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="58" x14ac:knownFonts="1">
+  <fonts count="60" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3045,6 +3217,22 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="1"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF800000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3982,7 +4170,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="456">
+  <cellXfs count="468">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -4724,6 +4912,74 @@
     <xf numFmtId="166" fontId="19" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="17" fillId="15" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="15" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="17" fillId="0" borderId="66" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="67" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="16" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="15" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="43" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="40" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="43" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="40" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="58" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="58" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="21" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="59" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="59" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="49" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="55" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="33" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="44" fontId="44" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -4805,39 +5061,6 @@
     <xf numFmtId="44" fontId="13" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="44" fontId="14" fillId="0" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4850,15 +5073,6 @@
     <xf numFmtId="166" fontId="12" fillId="6" borderId="51" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="18" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="17" fillId="0" borderId="66" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="67" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="3" fillId="16" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="15" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -4868,11 +5082,11 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF800000"/>
+      <color rgb="FFFF66CC"/>
       <color rgb="FF0000FF"/>
-      <color rgb="FFFF66CC"/>
       <color rgb="FF00FF99"/>
       <color rgb="FF99FF99"/>
-      <color rgb="FF800000"/>
       <color rgb="FFFF99FF"/>
     </mruColors>
   </colors>
@@ -10291,23 +10505,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="434"/>
-      <c r="C1" s="436" t="s">
+      <c r="B1" s="426"/>
+      <c r="C1" s="428" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="437"/>
-      <c r="E1" s="437"/>
-      <c r="F1" s="437"/>
-      <c r="G1" s="437"/>
-      <c r="H1" s="437"/>
-      <c r="I1" s="437"/>
-      <c r="J1" s="437"/>
-      <c r="K1" s="437"/>
-      <c r="L1" s="437"/>
-      <c r="M1" s="437"/>
+      <c r="D1" s="429"/>
+      <c r="E1" s="429"/>
+      <c r="F1" s="429"/>
+      <c r="G1" s="429"/>
+      <c r="H1" s="429"/>
+      <c r="I1" s="429"/>
+      <c r="J1" s="429"/>
+      <c r="K1" s="429"/>
+      <c r="L1" s="429"/>
+      <c r="M1" s="429"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="435"/>
+      <c r="B2" s="427"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -10317,21 +10531,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="438" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="439"/>
+      <c r="B3" s="430" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="431"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="440" t="s">
+      <c r="H3" s="432" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="440"/>
+      <c r="I3" s="432"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="407" t="s">
+      <c r="R3" s="437" t="s">
         <v>38</v>
       </c>
     </row>
@@ -10346,14 +10560,14 @@
       <c r="D4" s="16">
         <v>44563</v>
       </c>
-      <c r="E4" s="441" t="s">
+      <c r="E4" s="433" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="442"/>
-      <c r="H4" s="443" t="s">
+      <c r="F4" s="434"/>
+      <c r="H4" s="435" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="444"/>
+      <c r="I4" s="436"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -10363,11 +10577,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="414" t="s">
+      <c r="P4" s="444" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="415"/>
-      <c r="R4" s="408"/>
+      <c r="Q4" s="445"/>
+      <c r="R4" s="438"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -11822,11 +12036,11 @@
       <c r="J40" s="71"/>
       <c r="K40" s="87"/>
       <c r="L40" s="73"/>
-      <c r="M40" s="416">
+      <c r="M40" s="446">
         <f>SUM(M5:M39)</f>
         <v>1527030</v>
       </c>
-      <c r="N40" s="418">
+      <c r="N40" s="448">
         <f>SUM(N5:N39)</f>
         <v>50013</v>
       </c>
@@ -11851,8 +12065,8 @@
       <c r="J41" s="71"/>
       <c r="K41" s="74"/>
       <c r="L41" s="73"/>
-      <c r="M41" s="417"/>
-      <c r="N41" s="419"/>
+      <c r="M41" s="447"/>
+      <c r="N41" s="449"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -12059,29 +12273,29 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="420" t="s">
+      <c r="H53" s="450" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="421"/>
+      <c r="I53" s="451"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="422">
+      <c r="K53" s="452">
         <f>I51+L51</f>
         <v>50143.28</v>
       </c>
-      <c r="L53" s="423"/>
-      <c r="M53" s="424">
+      <c r="L53" s="453"/>
+      <c r="M53" s="454">
         <f>N40+M40</f>
         <v>1577043</v>
       </c>
-      <c r="N53" s="425"/>
+      <c r="N53" s="455"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="426" t="s">
+      <c r="D54" s="456" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="426"/>
+      <c r="E54" s="456"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
         <v>1561421.72</v>
@@ -12092,22 +12306,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="427" t="s">
+      <c r="D55" s="457" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="427"/>
+      <c r="E55" s="457"/>
       <c r="F55" s="111">
         <v>-1419082.77</v>
       </c>
-      <c r="I55" s="428" t="s">
+      <c r="I55" s="458" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="429"/>
-      <c r="K55" s="430">
+      <c r="J55" s="459"/>
+      <c r="K55" s="460">
         <f>F57+F58+F59</f>
         <v>296963.46999999997</v>
       </c>
-      <c r="L55" s="431"/>
+      <c r="L55" s="461"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -12138,11 +12352,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="432">
+      <c r="K57" s="462">
         <f>-C4</f>
         <v>-221059.7</v>
       </c>
-      <c r="L57" s="433"/>
+      <c r="L57" s="463"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -12159,22 +12373,22 @@
       <c r="C59" s="128">
         <v>44591</v>
       </c>
-      <c r="D59" s="409" t="s">
+      <c r="D59" s="439" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="410"/>
+      <c r="E59" s="440"/>
       <c r="F59" s="129">
         <v>154314.51999999999</v>
       </c>
-      <c r="I59" s="411" t="s">
+      <c r="I59" s="441" t="s">
         <v>168</v>
       </c>
-      <c r="J59" s="412"/>
-      <c r="K59" s="413">
+      <c r="J59" s="442"/>
+      <c r="K59" s="443">
         <f>K55+K57</f>
         <v>75903.76999999996</v>
       </c>
-      <c r="L59" s="413"/>
+      <c r="L59" s="443"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="130"/>
@@ -12299,12 +12513,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="D59:E59"/>
     <mergeCell ref="I59:J59"/>
@@ -12320,6 +12528,12 @@
     <mergeCell ref="I55:J55"/>
     <mergeCell ref="K55:L55"/>
     <mergeCell ref="K57:L57"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -13772,23 +13986,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="434"/>
-      <c r="C1" s="436" t="s">
+      <c r="B1" s="426"/>
+      <c r="C1" s="428" t="s">
         <v>326</v>
       </c>
-      <c r="D1" s="437"/>
-      <c r="E1" s="437"/>
-      <c r="F1" s="437"/>
-      <c r="G1" s="437"/>
-      <c r="H1" s="437"/>
-      <c r="I1" s="437"/>
-      <c r="J1" s="437"/>
-      <c r="K1" s="437"/>
-      <c r="L1" s="437"/>
-      <c r="M1" s="437"/>
+      <c r="D1" s="429"/>
+      <c r="E1" s="429"/>
+      <c r="F1" s="429"/>
+      <c r="G1" s="429"/>
+      <c r="H1" s="429"/>
+      <c r="I1" s="429"/>
+      <c r="J1" s="429"/>
+      <c r="K1" s="429"/>
+      <c r="L1" s="429"/>
+      <c r="M1" s="429"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="435"/>
+      <c r="B2" s="427"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -13798,21 +14012,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="438" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="439"/>
+      <c r="B3" s="430" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="431"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="440" t="s">
+      <c r="H3" s="432" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="440"/>
+      <c r="I3" s="432"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="407" t="s">
+      <c r="R3" s="437" t="s">
         <v>38</v>
       </c>
     </row>
@@ -13827,14 +14041,14 @@
       <c r="D4" s="16">
         <v>44710</v>
       </c>
-      <c r="E4" s="441" t="s">
+      <c r="E4" s="433" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="442"/>
-      <c r="H4" s="443" t="s">
+      <c r="F4" s="434"/>
+      <c r="H4" s="435" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="444"/>
+      <c r="I4" s="436"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -13844,11 +14058,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="414" t="s">
+      <c r="P4" s="444" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="415"/>
-      <c r="R4" s="408"/>
+      <c r="Q4" s="445"/>
+      <c r="R4" s="438"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -15378,11 +15592,11 @@
       <c r="J40" s="71"/>
       <c r="K40" s="74"/>
       <c r="L40" s="73"/>
-      <c r="M40" s="416">
+      <c r="M40" s="446">
         <f>SUM(M5:M39)</f>
         <v>2772689</v>
       </c>
-      <c r="N40" s="418">
+      <c r="N40" s="448">
         <f>SUM(N5:N39)</f>
         <v>107354</v>
       </c>
@@ -15413,8 +15627,8 @@
       <c r="L41" s="73">
         <v>638.99</v>
       </c>
-      <c r="M41" s="417"/>
-      <c r="N41" s="419"/>
+      <c r="M41" s="447"/>
+      <c r="N41" s="449"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -15660,29 +15874,29 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="420" t="s">
+      <c r="H53" s="450" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="421"/>
+      <c r="I53" s="451"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="422">
+      <c r="K53" s="452">
         <f>I51+L51</f>
         <v>60691.69</v>
       </c>
-      <c r="L53" s="423"/>
-      <c r="M53" s="424">
+      <c r="L53" s="453"/>
+      <c r="M53" s="454">
         <f>N40+M40</f>
         <v>2880043</v>
       </c>
-      <c r="N53" s="425"/>
+      <c r="N53" s="455"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="426" t="s">
+      <c r="D54" s="456" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="426"/>
+      <c r="E54" s="456"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
         <v>2844548.31</v>
@@ -15693,22 +15907,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="427" t="s">
+      <c r="D55" s="457" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="427"/>
+      <c r="E55" s="457"/>
       <c r="F55" s="111">
         <v>-2875380.48</v>
       </c>
-      <c r="I55" s="428" t="s">
+      <c r="I55" s="458" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="429"/>
-      <c r="K55" s="430">
+      <c r="J55" s="459"/>
+      <c r="K55" s="460">
         <f>F57+F58+F59</f>
         <v>247554.74000000008</v>
       </c>
-      <c r="L55" s="431"/>
+      <c r="L55" s="461"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -15739,11 +15953,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="432">
+      <c r="K57" s="462">
         <f>-C4</f>
         <v>-149938.81</v>
       </c>
-      <c r="L57" s="433"/>
+      <c r="L57" s="463"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -15760,22 +15974,22 @@
       <c r="C59" s="128">
         <v>44745</v>
       </c>
-      <c r="D59" s="409" t="s">
+      <c r="D59" s="439" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="410"/>
+      <c r="E59" s="440"/>
       <c r="F59" s="129">
         <v>232165.91</v>
       </c>
-      <c r="I59" s="411" t="s">
+      <c r="I59" s="441" t="s">
         <v>168</v>
       </c>
-      <c r="J59" s="412"/>
-      <c r="K59" s="413">
+      <c r="J59" s="442"/>
+      <c r="K59" s="443">
         <f>K55+K57</f>
         <v>97615.93000000008</v>
       </c>
-      <c r="L59" s="413"/>
+      <c r="L59" s="443"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="130"/>
@@ -15903,6 +16117,18 @@
     <sortCondition ref="B7:B9"/>
   </sortState>
   <mergeCells count="21">
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -15912,18 +16138,6 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.38" right="0.17" top="0.4" bottom="0.34" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -17405,23 +17619,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="434"/>
-      <c r="C1" s="436" t="s">
+      <c r="B1" s="426"/>
+      <c r="C1" s="428" t="s">
         <v>380</v>
       </c>
-      <c r="D1" s="437"/>
-      <c r="E1" s="437"/>
-      <c r="F1" s="437"/>
-      <c r="G1" s="437"/>
-      <c r="H1" s="437"/>
-      <c r="I1" s="437"/>
-      <c r="J1" s="437"/>
-      <c r="K1" s="437"/>
-      <c r="L1" s="437"/>
-      <c r="M1" s="437"/>
+      <c r="D1" s="429"/>
+      <c r="E1" s="429"/>
+      <c r="F1" s="429"/>
+      <c r="G1" s="429"/>
+      <c r="H1" s="429"/>
+      <c r="I1" s="429"/>
+      <c r="J1" s="429"/>
+      <c r="K1" s="429"/>
+      <c r="L1" s="429"/>
+      <c r="M1" s="429"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="435"/>
+      <c r="B2" s="427"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -17431,21 +17645,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="438" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="439"/>
+      <c r="B3" s="430" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="431"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="440" t="s">
+      <c r="H3" s="432" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="440"/>
+      <c r="I3" s="432"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="407" t="s">
+      <c r="R3" s="437" t="s">
         <v>38</v>
       </c>
     </row>
@@ -17460,14 +17674,14 @@
       <c r="D4" s="16">
         <v>44745</v>
       </c>
-      <c r="E4" s="441" t="s">
+      <c r="E4" s="433" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="442"/>
-      <c r="H4" s="443" t="s">
+      <c r="F4" s="434"/>
+      <c r="H4" s="435" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="444"/>
+      <c r="I4" s="436"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -17477,11 +17691,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="414" t="s">
+      <c r="P4" s="444" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="415"/>
-      <c r="R4" s="408"/>
+      <c r="Q4" s="445"/>
+      <c r="R4" s="438"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -18926,11 +19140,11 @@
       <c r="J40" s="71"/>
       <c r="K40" s="74"/>
       <c r="L40" s="73"/>
-      <c r="M40" s="416">
+      <c r="M40" s="446">
         <f>SUM(M5:M39)</f>
         <v>2373103</v>
       </c>
-      <c r="N40" s="418">
+      <c r="N40" s="448">
         <f>SUM(N5:N39)</f>
         <v>67308</v>
       </c>
@@ -18959,8 +19173,8 @@
       <c r="J41" s="71"/>
       <c r="K41" s="235"/>
       <c r="L41" s="73"/>
-      <c r="M41" s="417"/>
-      <c r="N41" s="419"/>
+      <c r="M41" s="447"/>
+      <c r="N41" s="449"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -19175,29 +19389,29 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="420" t="s">
+      <c r="H53" s="450" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="421"/>
+      <c r="I53" s="451"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="422">
+      <c r="K53" s="452">
         <f>I51+L51</f>
         <v>79649.720000000016</v>
       </c>
-      <c r="L53" s="423"/>
-      <c r="M53" s="424">
+      <c r="L53" s="453"/>
+      <c r="M53" s="454">
         <f>N40+M40</f>
         <v>2440411</v>
       </c>
-      <c r="N53" s="425"/>
+      <c r="N53" s="455"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="426" t="s">
+      <c r="D54" s="456" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="426"/>
+      <c r="E54" s="456"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
         <v>2356249.2799999998</v>
@@ -19208,22 +19422,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="427" t="s">
+      <c r="D55" s="457" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="427"/>
+      <c r="E55" s="457"/>
       <c r="F55" s="111">
         <v>-2471332.31</v>
       </c>
-      <c r="I55" s="428" t="s">
+      <c r="I55" s="458" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="429"/>
-      <c r="K55" s="430">
+      <c r="J55" s="459"/>
+      <c r="K55" s="460">
         <f>F57+F58+F59</f>
         <v>214026.38999999972</v>
       </c>
-      <c r="L55" s="431"/>
+      <c r="L55" s="461"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -19254,11 +19468,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="432">
+      <c r="K57" s="462">
         <f>-C4</f>
         <v>-232165.91</v>
       </c>
-      <c r="L57" s="433"/>
+      <c r="L57" s="463"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -19275,22 +19489,22 @@
       <c r="C59" s="128">
         <v>44773</v>
       </c>
-      <c r="D59" s="409" t="s">
+      <c r="D59" s="439" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="410"/>
+      <c r="E59" s="440"/>
       <c r="F59" s="129">
         <v>273736.42</v>
       </c>
-      <c r="I59" s="411" t="s">
+      <c r="I59" s="441" t="s">
         <v>325</v>
       </c>
-      <c r="J59" s="412"/>
-      <c r="K59" s="413">
+      <c r="J59" s="442"/>
+      <c r="K59" s="443">
         <f>K55+K57</f>
         <v>-18139.520000000281</v>
       </c>
-      <c r="L59" s="413"/>
+      <c r="L59" s="443"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="130"/>
@@ -19415,6 +19629,18 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -19424,18 +19650,6 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.31496062992125984" right="0.27559055118110237" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="60" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -20827,23 +21041,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="434"/>
-      <c r="C1" s="436" t="s">
+      <c r="B1" s="426"/>
+      <c r="C1" s="428" t="s">
         <v>421</v>
       </c>
-      <c r="D1" s="437"/>
-      <c r="E1" s="437"/>
-      <c r="F1" s="437"/>
-      <c r="G1" s="437"/>
-      <c r="H1" s="437"/>
-      <c r="I1" s="437"/>
-      <c r="J1" s="437"/>
-      <c r="K1" s="437"/>
-      <c r="L1" s="437"/>
-      <c r="M1" s="437"/>
+      <c r="D1" s="429"/>
+      <c r="E1" s="429"/>
+      <c r="F1" s="429"/>
+      <c r="G1" s="429"/>
+      <c r="H1" s="429"/>
+      <c r="I1" s="429"/>
+      <c r="J1" s="429"/>
+      <c r="K1" s="429"/>
+      <c r="L1" s="429"/>
+      <c r="M1" s="429"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="435"/>
+      <c r="B2" s="427"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -20853,21 +21067,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="438" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="439"/>
+      <c r="B3" s="430" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="431"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="440" t="s">
+      <c r="H3" s="432" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="440"/>
+      <c r="I3" s="432"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="407" t="s">
+      <c r="R3" s="437" t="s">
         <v>38</v>
       </c>
     </row>
@@ -20882,14 +21096,14 @@
       <c r="D4" s="16">
         <v>44773</v>
       </c>
-      <c r="E4" s="441" t="s">
+      <c r="E4" s="433" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="442"/>
-      <c r="H4" s="443" t="s">
+      <c r="F4" s="434"/>
+      <c r="H4" s="435" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="444"/>
+      <c r="I4" s="436"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -20899,11 +21113,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="414" t="s">
+      <c r="P4" s="444" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="415"/>
-      <c r="R4" s="408"/>
+      <c r="Q4" s="445"/>
+      <c r="R4" s="438"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -22383,11 +22597,11 @@
       <c r="J40" s="71"/>
       <c r="K40" s="74"/>
       <c r="L40" s="73"/>
-      <c r="M40" s="416">
+      <c r="M40" s="446">
         <f>SUM(M5:M39)</f>
         <v>2375259</v>
       </c>
-      <c r="N40" s="418">
+      <c r="N40" s="448">
         <f>SUM(N5:N39)</f>
         <v>61117</v>
       </c>
@@ -22416,8 +22630,8 @@
       <c r="J41" s="71"/>
       <c r="K41" s="235"/>
       <c r="L41" s="73"/>
-      <c r="M41" s="417"/>
-      <c r="N41" s="419"/>
+      <c r="M41" s="447"/>
+      <c r="N41" s="449"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -22632,29 +22846,29 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="420" t="s">
+      <c r="H53" s="450" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="421"/>
+      <c r="I53" s="451"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="422">
+      <c r="K53" s="452">
         <f>I51+L51</f>
         <v>52857.25</v>
       </c>
-      <c r="L53" s="423"/>
-      <c r="M53" s="424">
+      <c r="L53" s="453"/>
+      <c r="M53" s="454">
         <f>N40+M40</f>
         <v>2436376</v>
       </c>
-      <c r="N53" s="425"/>
+      <c r="N53" s="455"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="426" t="s">
+      <c r="D54" s="456" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="426"/>
+      <c r="E54" s="456"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
         <v>2370653.75</v>
@@ -22665,22 +22879,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="427" t="s">
+      <c r="D55" s="457" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="427"/>
+      <c r="E55" s="457"/>
       <c r="F55" s="111">
         <v>-2401197.5699999998</v>
       </c>
-      <c r="I55" s="428" t="s">
+      <c r="I55" s="458" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="429"/>
-      <c r="K55" s="430">
+      <c r="J55" s="459"/>
+      <c r="K55" s="460">
         <f>F57+F58+F59</f>
         <v>259241.77000000016</v>
       </c>
-      <c r="L55" s="431"/>
+      <c r="L55" s="461"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -22711,11 +22925,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="432">
+      <c r="K57" s="462">
         <f>-C4</f>
         <v>-273736.42</v>
       </c>
-      <c r="L57" s="433"/>
+      <c r="L57" s="463"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -22732,22 +22946,22 @@
       <c r="C59" s="128">
         <v>44801</v>
       </c>
-      <c r="D59" s="409" t="s">
+      <c r="D59" s="439" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="410"/>
+      <c r="E59" s="440"/>
       <c r="F59" s="129">
         <v>236400.59</v>
       </c>
-      <c r="I59" s="446" t="s">
+      <c r="I59" s="465" t="s">
         <v>325</v>
       </c>
-      <c r="J59" s="447"/>
-      <c r="K59" s="448">
+      <c r="J59" s="466"/>
+      <c r="K59" s="467">
         <f>K55+K57</f>
         <v>-14494.64999999982</v>
       </c>
-      <c r="L59" s="448"/>
+      <c r="L59" s="467"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="130"/>
@@ -22872,6 +23086,18 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -22881,18 +23107,6 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -24339,23 +24553,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="434"/>
-      <c r="C1" s="436" t="s">
+      <c r="B1" s="426"/>
+      <c r="C1" s="428" t="s">
         <v>465</v>
       </c>
-      <c r="D1" s="437"/>
-      <c r="E1" s="437"/>
-      <c r="F1" s="437"/>
-      <c r="G1" s="437"/>
-      <c r="H1" s="437"/>
-      <c r="I1" s="437"/>
-      <c r="J1" s="437"/>
-      <c r="K1" s="437"/>
-      <c r="L1" s="437"/>
-      <c r="M1" s="437"/>
+      <c r="D1" s="429"/>
+      <c r="E1" s="429"/>
+      <c r="F1" s="429"/>
+      <c r="G1" s="429"/>
+      <c r="H1" s="429"/>
+      <c r="I1" s="429"/>
+      <c r="J1" s="429"/>
+      <c r="K1" s="429"/>
+      <c r="L1" s="429"/>
+      <c r="M1" s="429"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="435"/>
+      <c r="B2" s="427"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -24365,21 +24579,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="438" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="439"/>
+      <c r="B3" s="430" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="431"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="440" t="s">
+      <c r="H3" s="432" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="440"/>
+      <c r="I3" s="432"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="407" t="s">
+      <c r="R3" s="437" t="s">
         <v>38</v>
       </c>
     </row>
@@ -24394,14 +24608,14 @@
       <c r="D4" s="16">
         <v>44801</v>
       </c>
-      <c r="E4" s="441" t="s">
+      <c r="E4" s="433" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="442"/>
-      <c r="H4" s="443" t="s">
+      <c r="F4" s="434"/>
+      <c r="H4" s="435" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="444"/>
+      <c r="I4" s="436"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -24411,11 +24625,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="414" t="s">
+      <c r="P4" s="444" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="415"/>
-      <c r="R4" s="408"/>
+      <c r="Q4" s="445"/>
+      <c r="R4" s="438"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -26143,11 +26357,11 @@
       <c r="L40" s="73">
         <v>927.48</v>
       </c>
-      <c r="M40" s="416">
+      <c r="M40" s="446">
         <f>SUM(M5:M39)</f>
         <v>3147309.5</v>
       </c>
-      <c r="N40" s="418">
+      <c r="N40" s="448">
         <f>SUM(N5:N39)</f>
         <v>76569</v>
       </c>
@@ -26182,8 +26396,8 @@
       <c r="L41" s="73">
         <v>33312</v>
       </c>
-      <c r="M41" s="417"/>
-      <c r="N41" s="419"/>
+      <c r="M41" s="447"/>
+      <c r="N41" s="449"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -26426,29 +26640,29 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="420" t="s">
+      <c r="H53" s="450" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="421"/>
+      <c r="I53" s="451"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="422">
+      <c r="K53" s="452">
         <f>I51+L51</f>
         <v>102873.87000000001</v>
       </c>
-      <c r="L53" s="423"/>
-      <c r="M53" s="424">
+      <c r="L53" s="453"/>
+      <c r="M53" s="454">
         <f>N40+M40</f>
         <v>3223878.5</v>
       </c>
-      <c r="N53" s="425"/>
+      <c r="N53" s="455"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="426" t="s">
+      <c r="D54" s="456" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="426"/>
+      <c r="E54" s="456"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
         <v>3130076.13</v>
@@ -26459,22 +26673,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="427" t="s">
+      <c r="D55" s="457" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="427"/>
+      <c r="E55" s="457"/>
       <c r="F55" s="111">
         <v>-3171951.31</v>
       </c>
-      <c r="I55" s="428" t="s">
+      <c r="I55" s="458" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="429"/>
-      <c r="K55" s="430">
+      <c r="J55" s="459"/>
+      <c r="K55" s="460">
         <f>F57+F58+F59</f>
         <v>265314.0299999998</v>
       </c>
-      <c r="L55" s="431"/>
+      <c r="L55" s="461"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -26505,11 +26719,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="432">
+      <c r="K57" s="462">
         <f>-C4</f>
         <v>-236400.59</v>
       </c>
-      <c r="L57" s="433"/>
+      <c r="L57" s="463"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -26526,22 +26740,22 @@
       <c r="C59" s="128">
         <v>44836</v>
       </c>
-      <c r="D59" s="409" t="s">
+      <c r="D59" s="439" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="410"/>
+      <c r="E59" s="440"/>
       <c r="F59" s="129">
         <v>242354.21</v>
       </c>
-      <c r="I59" s="446" t="s">
+      <c r="I59" s="465" t="s">
         <v>325</v>
       </c>
-      <c r="J59" s="447"/>
-      <c r="K59" s="448">
+      <c r="J59" s="466"/>
+      <c r="K59" s="467">
         <f>K55+K57</f>
         <v>28913.439999999799</v>
       </c>
-      <c r="L59" s="448"/>
+      <c r="L59" s="467"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="130"/>
@@ -26669,18 +26883,6 @@
     <sortCondition ref="J41:J45"/>
   </sortState>
   <mergeCells count="21">
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -26690,6 +26892,18 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -28187,23 +28401,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="434"/>
-      <c r="C1" s="436" t="s">
+      <c r="B1" s="426"/>
+      <c r="C1" s="428" t="s">
         <v>512</v>
       </c>
-      <c r="D1" s="437"/>
-      <c r="E1" s="437"/>
-      <c r="F1" s="437"/>
-      <c r="G1" s="437"/>
-      <c r="H1" s="437"/>
-      <c r="I1" s="437"/>
-      <c r="J1" s="437"/>
-      <c r="K1" s="437"/>
-      <c r="L1" s="437"/>
-      <c r="M1" s="437"/>
+      <c r="D1" s="429"/>
+      <c r="E1" s="429"/>
+      <c r="F1" s="429"/>
+      <c r="G1" s="429"/>
+      <c r="H1" s="429"/>
+      <c r="I1" s="429"/>
+      <c r="J1" s="429"/>
+      <c r="K1" s="429"/>
+      <c r="L1" s="429"/>
+      <c r="M1" s="429"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="435"/>
+      <c r="B2" s="427"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -28213,21 +28427,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="438" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="439"/>
+      <c r="B3" s="430" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="431"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="440" t="s">
+      <c r="H3" s="432" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="440"/>
+      <c r="I3" s="432"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="407" t="s">
+      <c r="R3" s="437" t="s">
         <v>38</v>
       </c>
     </row>
@@ -28242,14 +28456,14 @@
       <c r="D4" s="16">
         <v>44836</v>
       </c>
-      <c r="E4" s="441" t="s">
+      <c r="E4" s="433" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="442"/>
-      <c r="H4" s="443" t="s">
+      <c r="F4" s="434"/>
+      <c r="H4" s="435" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="444"/>
+      <c r="I4" s="436"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -28259,11 +28473,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="414" t="s">
+      <c r="P4" s="444" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="415"/>
-      <c r="R4" s="408"/>
+      <c r="Q4" s="445"/>
+      <c r="R4" s="438"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -29942,11 +30156,11 @@
       <c r="J40" s="71"/>
       <c r="K40" s="360"/>
       <c r="L40" s="73"/>
-      <c r="M40" s="416">
+      <c r="M40" s="446">
         <f>SUM(M5:M39)</f>
         <v>2563550</v>
       </c>
-      <c r="N40" s="418">
+      <c r="N40" s="448">
         <f>SUM(N5:N39)</f>
         <v>77235</v>
       </c>
@@ -29976,8 +30190,8 @@
       <c r="J41" s="71"/>
       <c r="K41" s="363"/>
       <c r="L41" s="73"/>
-      <c r="M41" s="417"/>
-      <c r="N41" s="419"/>
+      <c r="M41" s="447"/>
+      <c r="N41" s="449"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -30192,29 +30406,29 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="420" t="s">
+      <c r="H53" s="450" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="421"/>
+      <c r="I53" s="451"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="422">
+      <c r="K53" s="452">
         <f>I51+L51</f>
         <v>152307.24</v>
       </c>
-      <c r="L53" s="423"/>
-      <c r="M53" s="424">
+      <c r="L53" s="453"/>
+      <c r="M53" s="454">
         <f>N40+M40</f>
         <v>2640785</v>
       </c>
-      <c r="N53" s="425"/>
+      <c r="N53" s="455"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="426" t="s">
+      <c r="D54" s="456" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="426"/>
+      <c r="E54" s="456"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
         <v>2467299.5599999996</v>
@@ -30225,22 +30439,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="427" t="s">
+      <c r="D55" s="457" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="427"/>
+      <c r="E55" s="457"/>
       <c r="F55" s="111">
         <v>-2793202.57</v>
       </c>
-      <c r="I55" s="428" t="s">
+      <c r="I55" s="458" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="429"/>
-      <c r="K55" s="430">
+      <c r="J55" s="459"/>
+      <c r="K55" s="460">
         <f>F57+F58+F59</f>
         <v>149047.74999999977</v>
       </c>
-      <c r="L55" s="431"/>
+      <c r="L55" s="461"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -30271,11 +30485,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="432">
+      <c r="K57" s="462">
         <f>-C4</f>
         <v>-242354.21</v>
       </c>
-      <c r="L57" s="433"/>
+      <c r="L57" s="463"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -30292,22 +30506,22 @@
       <c r="C59" s="128">
         <v>44864</v>
       </c>
-      <c r="D59" s="409" t="s">
+      <c r="D59" s="439" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="410"/>
+      <c r="E59" s="440"/>
       <c r="F59" s="129">
         <v>419424.76</v>
       </c>
-      <c r="I59" s="446" t="s">
+      <c r="I59" s="465" t="s">
         <v>325</v>
       </c>
-      <c r="J59" s="447"/>
-      <c r="K59" s="448">
+      <c r="J59" s="466"/>
+      <c r="K59" s="467">
         <f>K55+K57</f>
         <v>-93306.460000000225</v>
       </c>
-      <c r="L59" s="448"/>
+      <c r="L59" s="467"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="130"/>
@@ -30435,6 +30649,18 @@
     <sortCondition ref="J34:J39"/>
   </sortState>
   <mergeCells count="21">
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -30444,18 +30670,6 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -33620,23 +33834,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="434"/>
-      <c r="C1" s="436" t="s">
+      <c r="B1" s="426"/>
+      <c r="C1" s="428" t="s">
         <v>550</v>
       </c>
-      <c r="D1" s="437"/>
-      <c r="E1" s="437"/>
-      <c r="F1" s="437"/>
-      <c r="G1" s="437"/>
-      <c r="H1" s="437"/>
-      <c r="I1" s="437"/>
-      <c r="J1" s="437"/>
-      <c r="K1" s="437"/>
-      <c r="L1" s="437"/>
-      <c r="M1" s="437"/>
+      <c r="D1" s="429"/>
+      <c r="E1" s="429"/>
+      <c r="F1" s="429"/>
+      <c r="G1" s="429"/>
+      <c r="H1" s="429"/>
+      <c r="I1" s="429"/>
+      <c r="J1" s="429"/>
+      <c r="K1" s="429"/>
+      <c r="L1" s="429"/>
+      <c r="M1" s="429"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="435"/>
+      <c r="B2" s="427"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -33646,21 +33860,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="438" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="439"/>
+      <c r="B3" s="430" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="431"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="440" t="s">
+      <c r="H3" s="432" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="440"/>
+      <c r="I3" s="432"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="407" t="s">
+      <c r="R3" s="437" t="s">
         <v>38</v>
       </c>
     </row>
@@ -33675,14 +33889,14 @@
       <c r="D4" s="16">
         <v>44864</v>
       </c>
-      <c r="E4" s="441" t="s">
+      <c r="E4" s="433" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="442"/>
-      <c r="H4" s="443" t="s">
+      <c r="F4" s="434"/>
+      <c r="H4" s="435" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="444"/>
+      <c r="I4" s="436"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -33692,11 +33906,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="414" t="s">
+      <c r="P4" s="444" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="415"/>
-      <c r="R4" s="408"/>
+      <c r="Q4" s="445"/>
+      <c r="R4" s="438"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -35361,11 +35575,11 @@
       <c r="J40" s="71"/>
       <c r="K40" s="360"/>
       <c r="L40" s="73"/>
-      <c r="M40" s="416">
+      <c r="M40" s="446">
         <f>SUM(M5:M39)</f>
         <v>2972555</v>
       </c>
-      <c r="N40" s="418">
+      <c r="N40" s="448">
         <f>SUM(N5:N39)</f>
         <v>108935</v>
       </c>
@@ -35395,8 +35609,8 @@
       <c r="J41" s="71"/>
       <c r="K41" s="363"/>
       <c r="L41" s="73"/>
-      <c r="M41" s="417"/>
-      <c r="N41" s="419"/>
+      <c r="M41" s="447"/>
+      <c r="N41" s="449"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -35611,29 +35825,29 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="420" t="s">
+      <c r="H53" s="450" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="421"/>
+      <c r="I53" s="451"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="422">
+      <c r="K53" s="452">
         <f>I51+L51</f>
         <v>84934.209999999992</v>
       </c>
-      <c r="L53" s="423"/>
-      <c r="M53" s="424">
+      <c r="L53" s="453"/>
+      <c r="M53" s="454">
         <f>N40+M40</f>
         <v>3081490</v>
       </c>
-      <c r="N53" s="425"/>
+      <c r="N53" s="455"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="426" t="s">
+      <c r="D54" s="456" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="426"/>
+      <c r="E54" s="456"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
         <v>2986572.79</v>
@@ -35644,22 +35858,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="427" t="s">
+      <c r="D55" s="457" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="427"/>
+      <c r="E55" s="457"/>
       <c r="F55" s="111">
         <v>-2936244.87</v>
       </c>
-      <c r="I55" s="428" t="s">
+      <c r="I55" s="458" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="429"/>
-      <c r="K55" s="430">
+      <c r="J55" s="459"/>
+      <c r="K55" s="460">
         <f>F57+F58+F59</f>
         <v>437052.46999999991</v>
       </c>
-      <c r="L55" s="431"/>
+      <c r="L55" s="461"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -35690,11 +35904,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="432">
+      <c r="K57" s="462">
         <f>-C4</f>
         <v>-419424.76</v>
       </c>
-      <c r="L57" s="433"/>
+      <c r="L57" s="463"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -35711,22 +35925,22 @@
       <c r="C59" s="128">
         <v>44892</v>
       </c>
-      <c r="D59" s="409" t="s">
+      <c r="D59" s="439" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="410"/>
+      <c r="E59" s="440"/>
       <c r="F59" s="129">
         <v>315698.55</v>
       </c>
-      <c r="I59" s="446" t="s">
+      <c r="I59" s="465" t="s">
         <v>168</v>
       </c>
-      <c r="J59" s="447"/>
-      <c r="K59" s="448">
+      <c r="J59" s="466"/>
+      <c r="K59" s="467">
         <f>K55+K57</f>
         <v>17627.709999999905</v>
       </c>
-      <c r="L59" s="448"/>
+      <c r="L59" s="467"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="130"/>
@@ -35851,18 +36065,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -35872,6 +36074,18 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -35886,8 +36100,8 @@
   </sheetPr>
   <dimension ref="A1:J115"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -36530,11 +36744,15 @@
       <c r="C30" s="127">
         <v>160084.98000000001</v>
       </c>
-      <c r="D30" s="257"/>
-      <c r="E30" s="127"/>
+      <c r="D30" s="257">
+        <v>44897</v>
+      </c>
+      <c r="E30" s="127">
+        <v>160084.98000000001</v>
+      </c>
       <c r="F30" s="188">
         <f t="shared" si="0"/>
-        <v>160084.97999999998</v>
+        <v>-2.9103830456733704E-11</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -36545,7 +36763,7 @@
       <c r="E31" s="127"/>
       <c r="F31" s="188">
         <f t="shared" si="0"/>
-        <v>160084.97999999998</v>
+        <v>-2.9103830456733704E-11</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
@@ -36556,7 +36774,7 @@
       <c r="E32" s="127"/>
       <c r="F32" s="188">
         <f t="shared" si="0"/>
-        <v>160084.97999999998</v>
+        <v>-2.9103830456733704E-11</v>
       </c>
       <c r="G32" s="156"/>
     </row>
@@ -36568,7 +36786,7 @@
       <c r="E33" s="127"/>
       <c r="F33" s="188">
         <f t="shared" si="0"/>
-        <v>160084.97999999998</v>
+        <v>-2.9103830456733704E-11</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -36579,7 +36797,7 @@
       <c r="E34" s="127"/>
       <c r="F34" s="188">
         <f t="shared" si="0"/>
-        <v>160084.97999999998</v>
+        <v>-2.9103830456733704E-11</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -36590,7 +36808,7 @@
       <c r="E35" s="127"/>
       <c r="F35" s="188">
         <f t="shared" si="0"/>
-        <v>160084.97999999998</v>
+        <v>-2.9103830456733704E-11</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -36601,7 +36819,7 @@
       <c r="E36" s="127"/>
       <c r="F36" s="188">
         <f t="shared" si="0"/>
-        <v>160084.97999999998</v>
+        <v>-2.9103830456733704E-11</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -36612,7 +36830,7 @@
       <c r="E37" s="127"/>
       <c r="F37" s="188">
         <f t="shared" si="0"/>
-        <v>160084.97999999998</v>
+        <v>-2.9103830456733704E-11</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -36623,7 +36841,7 @@
       <c r="E38" s="127"/>
       <c r="F38" s="188">
         <f t="shared" si="0"/>
-        <v>160084.97999999998</v>
+        <v>-2.9103830456733704E-11</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -36634,7 +36852,7 @@
       <c r="E39" s="127"/>
       <c r="F39" s="188">
         <f t="shared" si="0"/>
-        <v>160084.97999999998</v>
+        <v>-2.9103830456733704E-11</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -36645,7 +36863,7 @@
       <c r="E40" s="84"/>
       <c r="F40" s="188">
         <f t="shared" si="0"/>
-        <v>160084.97999999998</v>
+        <v>-2.9103830456733704E-11</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -36656,7 +36874,7 @@
       <c r="E41" s="84"/>
       <c r="F41" s="188">
         <f t="shared" si="0"/>
-        <v>160084.97999999998</v>
+        <v>-2.9103830456733704E-11</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -36667,7 +36885,7 @@
       <c r="E42" s="84"/>
       <c r="F42" s="188">
         <f t="shared" si="0"/>
-        <v>160084.97999999998</v>
+        <v>-2.9103830456733704E-11</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -36678,7 +36896,7 @@
       <c r="E43" s="84"/>
       <c r="F43" s="188">
         <f t="shared" si="0"/>
-        <v>160084.97999999998</v>
+        <v>-2.9103830456733704E-11</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -36689,7 +36907,7 @@
       <c r="E44" s="84"/>
       <c r="F44" s="188">
         <f t="shared" si="0"/>
-        <v>160084.97999999998</v>
+        <v>-2.9103830456733704E-11</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -36700,7 +36918,7 @@
       <c r="E45" s="84"/>
       <c r="F45" s="188">
         <f t="shared" si="0"/>
-        <v>160084.97999999998</v>
+        <v>-2.9103830456733704E-11</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -36711,7 +36929,7 @@
       <c r="E46" s="84"/>
       <c r="F46" s="188">
         <f t="shared" si="0"/>
-        <v>160084.97999999998</v>
+        <v>-2.9103830456733704E-11</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -36722,7 +36940,7 @@
       <c r="E47" s="84"/>
       <c r="F47" s="188">
         <f t="shared" si="0"/>
-        <v>160084.97999999998</v>
+        <v>-2.9103830456733704E-11</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -36733,7 +36951,7 @@
       <c r="E48" s="84"/>
       <c r="F48" s="188">
         <f t="shared" si="0"/>
-        <v>160084.97999999998</v>
+        <v>-2.9103830456733704E-11</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -36744,7 +36962,7 @@
       <c r="E49" s="84"/>
       <c r="F49" s="188">
         <f t="shared" si="0"/>
-        <v>160084.97999999998</v>
+        <v>-2.9103830456733704E-11</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -36755,7 +36973,7 @@
       <c r="E50" s="84"/>
       <c r="F50" s="188">
         <f t="shared" si="0"/>
-        <v>160084.97999999998</v>
+        <v>-2.9103830456733704E-11</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -36766,7 +36984,7 @@
       <c r="E51" s="84"/>
       <c r="F51" s="188">
         <f t="shared" si="0"/>
-        <v>160084.97999999998</v>
+        <v>-2.9103830456733704E-11</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -36777,7 +36995,7 @@
       <c r="E52" s="84"/>
       <c r="F52" s="188">
         <f t="shared" si="0"/>
-        <v>160084.97999999998</v>
+        <v>-2.9103830456733704E-11</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -36788,7 +37006,7 @@
       <c r="E53" s="84"/>
       <c r="F53" s="188">
         <f t="shared" si="0"/>
-        <v>160084.97999999998</v>
+        <v>-2.9103830456733704E-11</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -36799,7 +37017,7 @@
       <c r="E54" s="84"/>
       <c r="F54" s="188">
         <f t="shared" si="0"/>
-        <v>160084.97999999998</v>
+        <v>-2.9103830456733704E-11</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -36810,7 +37028,7 @@
       <c r="E55" s="84"/>
       <c r="F55" s="188">
         <f t="shared" si="0"/>
-        <v>160084.97999999998</v>
+        <v>-2.9103830456733704E-11</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -36821,7 +37039,7 @@
       <c r="E56" s="84"/>
       <c r="F56" s="188">
         <f t="shared" si="0"/>
-        <v>160084.97999999998</v>
+        <v>-2.9103830456733704E-11</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -36832,7 +37050,7 @@
       <c r="E57" s="84"/>
       <c r="F57" s="188">
         <f t="shared" si="0"/>
-        <v>160084.97999999998</v>
+        <v>-2.9103830456733704E-11</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -36843,7 +37061,7 @@
       <c r="E58" s="84"/>
       <c r="F58" s="188">
         <f t="shared" si="0"/>
-        <v>160084.97999999998</v>
+        <v>-2.9103830456733704E-11</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -36854,7 +37072,7 @@
       <c r="E59" s="84"/>
       <c r="F59" s="188">
         <f t="shared" si="0"/>
-        <v>160084.97999999998</v>
+        <v>-2.9103830456733704E-11</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -36865,7 +37083,7 @@
       <c r="E60" s="84"/>
       <c r="F60" s="188">
         <f t="shared" si="0"/>
-        <v>160084.97999999998</v>
+        <v>-2.9103830456733704E-11</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -36876,7 +37094,7 @@
       <c r="E61" s="84"/>
       <c r="F61" s="188">
         <f t="shared" si="0"/>
-        <v>160084.97999999998</v>
+        <v>-2.9103830456733704E-11</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -36887,7 +37105,7 @@
       <c r="E62" s="32"/>
       <c r="F62" s="188">
         <f t="shared" si="0"/>
-        <v>160084.97999999998</v>
+        <v>-2.9103830456733704E-11</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -36898,7 +37116,7 @@
       <c r="E63" s="32"/>
       <c r="F63" s="188">
         <f t="shared" si="0"/>
-        <v>160084.97999999998</v>
+        <v>-2.9103830456733704E-11</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -36909,7 +37127,7 @@
       <c r="E64" s="32"/>
       <c r="F64" s="188">
         <f t="shared" si="0"/>
-        <v>160084.97999999998</v>
+        <v>-2.9103830456733704E-11</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -36920,7 +37138,7 @@
       <c r="E65" s="32"/>
       <c r="F65" s="188">
         <f t="shared" si="0"/>
-        <v>160084.97999999998</v>
+        <v>-2.9103830456733704E-11</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -36931,7 +37149,7 @@
       <c r="E66" s="32"/>
       <c r="F66" s="188">
         <f t="shared" si="0"/>
-        <v>160084.97999999998</v>
+        <v>-2.9103830456733704E-11</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -36942,7 +37160,7 @@
       <c r="E67" s="32"/>
       <c r="F67" s="188">
         <f t="shared" si="0"/>
-        <v>160084.97999999998</v>
+        <v>-2.9103830456733704E-11</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -36953,7 +37171,7 @@
       <c r="E68" s="84"/>
       <c r="F68" s="188">
         <f t="shared" si="0"/>
-        <v>160084.97999999998</v>
+        <v>-2.9103830456733704E-11</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -36964,7 +37182,7 @@
       <c r="E69" s="84"/>
       <c r="F69" s="188">
         <f t="shared" ref="F69:F78" si="1">C69-E69+F68</f>
-        <v>160084.97999999998</v>
+        <v>-2.9103830456733704E-11</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -36975,7 +37193,7 @@
       <c r="E70" s="84"/>
       <c r="F70" s="188">
         <f t="shared" si="1"/>
-        <v>160084.97999999998</v>
+        <v>-2.9103830456733704E-11</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -36986,7 +37204,7 @@
       <c r="E71" s="84"/>
       <c r="F71" s="188">
         <f t="shared" si="1"/>
-        <v>160084.97999999998</v>
+        <v>-2.9103830456733704E-11</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -36997,7 +37215,7 @@
       <c r="E72" s="84"/>
       <c r="F72" s="188">
         <f t="shared" si="1"/>
-        <v>160084.97999999998</v>
+        <v>-2.9103830456733704E-11</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -37008,7 +37226,7 @@
       <c r="E73" s="84"/>
       <c r="F73" s="188">
         <f t="shared" si="1"/>
-        <v>160084.97999999998</v>
+        <v>-2.9103830456733704E-11</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -37019,7 +37237,7 @@
       <c r="E74" s="84"/>
       <c r="F74" s="188">
         <f t="shared" si="1"/>
-        <v>160084.97999999998</v>
+        <v>-2.9103830456733704E-11</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -37030,7 +37248,7 @@
       <c r="E75" s="84"/>
       <c r="F75" s="188">
         <f t="shared" si="1"/>
-        <v>160084.97999999998</v>
+        <v>-2.9103830456733704E-11</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -37041,7 +37259,7 @@
       <c r="E76" s="84"/>
       <c r="F76" s="188">
         <f t="shared" si="1"/>
-        <v>160084.97999999998</v>
+        <v>-2.9103830456733704E-11</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -37052,7 +37270,7 @@
       <c r="E77" s="84"/>
       <c r="F77" s="188">
         <f t="shared" si="1"/>
-        <v>160084.97999999998</v>
+        <v>-2.9103830456733704E-11</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -37065,7 +37283,7 @@
       <c r="E78" s="32"/>
       <c r="F78" s="188">
         <f t="shared" si="1"/>
-        <v>160084.97999999998</v>
+        <v>-2.9103830456733704E-11</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -37078,11 +37296,11 @@
       <c r="D79" s="191"/>
       <c r="E79" s="170">
         <f>SUM(E3:E78)</f>
-        <v>2776159.8899999997</v>
+        <v>2936244.8699999996</v>
       </c>
       <c r="F79" s="171">
         <f>F78</f>
-        <v>160084.97999999998</v>
+        <v>-2.9103830456733704E-11</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -37236,10 +37454,10 @@
   <dimension ref="A1:U90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="8" ySplit="4" topLeftCell="I47" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="4" topLeftCell="I50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F68" sqref="F68"/>
+      <selection pane="bottomRight" activeCell="O70" sqref="O70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37264,23 +37482,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="434"/>
-      <c r="C1" s="436" t="s">
+      <c r="B1" s="426"/>
+      <c r="C1" s="428" t="s">
         <v>589</v>
       </c>
-      <c r="D1" s="437"/>
-      <c r="E1" s="437"/>
-      <c r="F1" s="437"/>
-      <c r="G1" s="437"/>
-      <c r="H1" s="437"/>
-      <c r="I1" s="437"/>
-      <c r="J1" s="437"/>
-      <c r="K1" s="437"/>
-      <c r="L1" s="437"/>
-      <c r="M1" s="437"/>
+      <c r="D1" s="429"/>
+      <c r="E1" s="429"/>
+      <c r="F1" s="429"/>
+      <c r="G1" s="429"/>
+      <c r="H1" s="429"/>
+      <c r="I1" s="429"/>
+      <c r="J1" s="429"/>
+      <c r="K1" s="429"/>
+      <c r="L1" s="429"/>
+      <c r="M1" s="429"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="435"/>
+      <c r="B2" s="427"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -37290,21 +37508,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="438" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="439"/>
+      <c r="B3" s="430" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="431"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="440" t="s">
+      <c r="H3" s="432" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="440"/>
+      <c r="I3" s="432"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="407" t="s">
+      <c r="R3" s="437" t="s">
         <v>38</v>
       </c>
     </row>
@@ -37319,14 +37537,14 @@
       <c r="D4" s="16">
         <v>44892</v>
       </c>
-      <c r="E4" s="441" t="s">
+      <c r="E4" s="433" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="442"/>
-      <c r="H4" s="443" t="s">
+      <c r="F4" s="434"/>
+      <c r="H4" s="435" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="444"/>
+      <c r="I4" s="436"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -37336,11 +37554,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="414" t="s">
+      <c r="P4" s="444" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="415"/>
-      <c r="R4" s="408"/>
+      <c r="Q4" s="445"/>
+      <c r="R4" s="438"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -38841,7 +39059,7 @@
       <c r="C36" s="24">
         <v>22536</v>
       </c>
-      <c r="D36" s="449" t="s">
+      <c r="D36" s="407" t="s">
         <v>598</v>
       </c>
       <c r="E36" s="322">
@@ -38986,7 +39204,7 @@
       <c r="B39" s="320">
         <v>44927</v>
       </c>
-      <c r="C39" s="455">
+      <c r="C39" s="413">
         <v>0</v>
       </c>
       <c r="D39" s="396"/>
@@ -39405,10 +39623,10 @@
       <c r="J48" s="71"/>
       <c r="K48" s="358"/>
       <c r="L48" s="73"/>
-      <c r="M48" s="450">
-        <v>0</v>
-      </c>
-      <c r="N48" s="451"/>
+      <c r="M48" s="408">
+        <v>0</v>
+      </c>
+      <c r="N48" s="409"/>
       <c r="O48" s="314"/>
       <c r="P48" s="32">
         <f t="shared" si="1"/>
@@ -39436,19 +39654,19 @@
       <c r="J49" s="71"/>
       <c r="K49" s="360"/>
       <c r="L49" s="73"/>
-      <c r="M49" s="416">
+      <c r="M49" s="446">
         <f>SUM(M5:M39)</f>
         <v>3707372</v>
       </c>
-      <c r="N49" s="418">
+      <c r="N49" s="448">
         <f>SUM(N5:N39)</f>
         <v>191908</v>
       </c>
-      <c r="P49" s="453">
+      <c r="P49" s="411">
         <f t="shared" si="1"/>
         <v>3899280</v>
       </c>
-      <c r="Q49" s="452">
+      <c r="Q49" s="410">
         <f>SUM(Q5:Q39)</f>
         <v>71027</v>
       </c>
@@ -39470,11 +39688,11 @@
       <c r="J50" s="71"/>
       <c r="K50" s="363"/>
       <c r="L50" s="73"/>
-      <c r="M50" s="417"/>
-      <c r="N50" s="419"/>
+      <c r="M50" s="447"/>
+      <c r="N50" s="449"/>
       <c r="P50" s="32"/>
       <c r="Q50" s="8"/>
-      <c r="R50" s="454" t="s">
+      <c r="R50" s="412" t="s">
         <v>601</v>
       </c>
     </row>
@@ -39689,29 +39907,29 @@
       <c r="A62" s="33"/>
       <c r="B62" s="113"/>
       <c r="C62" s="1"/>
-      <c r="H62" s="420" t="s">
+      <c r="H62" s="450" t="s">
         <v>12</v>
       </c>
-      <c r="I62" s="421"/>
+      <c r="I62" s="451"/>
       <c r="J62" s="114"/>
-      <c r="K62" s="422">
+      <c r="K62" s="452">
         <f>I60+L60</f>
         <v>80890</v>
       </c>
-      <c r="L62" s="423"/>
-      <c r="M62" s="424">
+      <c r="L62" s="453"/>
+      <c r="M62" s="454">
         <f>N49+M49</f>
         <v>3899280</v>
       </c>
-      <c r="N62" s="425"/>
+      <c r="N62" s="455"/>
       <c r="P62" s="32"/>
       <c r="Q62" s="8"/>
     </row>
     <row r="63" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D63" s="426" t="s">
+      <c r="D63" s="456" t="s">
         <v>13</v>
       </c>
-      <c r="E63" s="426"/>
+      <c r="E63" s="456"/>
       <c r="F63" s="115">
         <f>F60-K62-C60</f>
         <v>4444628</v>
@@ -39722,22 +39940,22 @@
       <c r="Q63" s="8"/>
     </row>
     <row r="64" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D64" s="427" t="s">
+      <c r="D64" s="457" t="s">
         <v>14</v>
       </c>
-      <c r="E64" s="427"/>
+      <c r="E64" s="457"/>
       <c r="F64" s="111">
-        <v>0</v>
-      </c>
-      <c r="I64" s="428" t="s">
+        <v>-4409875.54</v>
+      </c>
+      <c r="I64" s="458" t="s">
         <v>15</v>
       </c>
-      <c r="J64" s="429"/>
-      <c r="K64" s="430">
+      <c r="J64" s="459"/>
+      <c r="K64" s="460">
         <f>F66+F67+F68</f>
-        <v>4498960</v>
-      </c>
-      <c r="L64" s="431"/>
+        <v>463033.17999999993</v>
+      </c>
+      <c r="L64" s="461"/>
       <c r="P64" s="32"/>
       <c r="Q64" s="8"/>
     </row>
@@ -39761,18 +39979,18 @@
       </c>
       <c r="F66" s="111">
         <f>SUM(F63:F65)</f>
-        <v>4444628</v>
+        <v>34752.459999999963</v>
       </c>
       <c r="H66" s="22"/>
       <c r="I66" s="124" t="s">
         <v>17</v>
       </c>
       <c r="J66" s="125"/>
-      <c r="K66" s="432">
+      <c r="K66" s="462">
         <f>-C4</f>
         <v>-315698.55</v>
       </c>
-      <c r="L66" s="433"/>
+      <c r="L66" s="463"/>
     </row>
     <row r="67" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D67" s="126" t="s">
@@ -39786,23 +40004,25 @@
       </c>
     </row>
     <row r="68" spans="2:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C68" s="128"/>
-      <c r="D68" s="409" t="s">
+      <c r="C68" s="128">
+        <v>44934</v>
+      </c>
+      <c r="D68" s="439" t="s">
         <v>20</v>
       </c>
-      <c r="E68" s="410"/>
+      <c r="E68" s="440"/>
       <c r="F68" s="129">
-        <v>0</v>
-      </c>
-      <c r="I68" s="446" t="s">
+        <v>373948.72</v>
+      </c>
+      <c r="I68" s="465" t="s">
         <v>168</v>
       </c>
-      <c r="J68" s="447"/>
-      <c r="K68" s="448">
+      <c r="J68" s="466"/>
+      <c r="K68" s="467">
         <f>K64+K66</f>
-        <v>4183261.45</v>
-      </c>
-      <c r="L68" s="448"/>
+        <v>147334.62999999995</v>
+      </c>
+      <c r="L68" s="467"/>
     </row>
     <row r="69" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C69" s="130"/>
@@ -39927,18 +40147,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="I64:J64"/>
-    <mergeCell ref="K64:L64"/>
-    <mergeCell ref="K66:L66"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="I68:J68"/>
-    <mergeCell ref="K68:L68"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M49:M50"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -39948,6 +40156,18 @@
     <mergeCell ref="H62:I62"/>
     <mergeCell ref="K62:L62"/>
     <mergeCell ref="M62:N62"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M49:M50"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="I64:J64"/>
+    <mergeCell ref="K64:L64"/>
+    <mergeCell ref="K66:L66"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="I68:J68"/>
+    <mergeCell ref="K68:L68"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.35" bottom="0.28000000000000003" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -39963,8 +40183,9 @@
   </sheetPr>
   <dimension ref="A1:J115"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -39975,12 +40196,14 @@
     <col min="4" max="4" width="12.42578125" style="238" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="11.42578125" style="33"/>
+    <col min="7" max="7" width="11.42578125" style="33"/>
+    <col min="8" max="8" width="13.85546875" style="33" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" style="33"/>
     <col min="10" max="11" width="17.140625" style="33" customWidth="1"/>
     <col min="12" max="16384" width="11.42578125" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="36.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="36.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="201" t="s">
         <v>27</v>
       </c>
@@ -39992,7 +40215,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="202" t="s">
         <v>22</v>
       </c>
@@ -40012,600 +40235,1166 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="377"/>
-      <c r="B3" s="378"/>
-      <c r="C3" s="256"/>
-      <c r="D3" s="391"/>
-      <c r="E3" s="256"/>
+    <row r="3" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="377">
+        <v>44893</v>
+      </c>
+      <c r="B3" s="378" t="s">
+        <v>603</v>
+      </c>
+      <c r="C3" s="256">
+        <v>138270.20000000001</v>
+      </c>
+      <c r="D3" s="391">
+        <v>44897</v>
+      </c>
+      <c r="E3" s="256">
+        <v>138270.20000000001</v>
+      </c>
       <c r="F3" s="152">
         <f>C3-E3</f>
         <v>0</v>
       </c>
-      <c r="J3" s="127"/>
-    </row>
-    <row r="4" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="379"/>
-      <c r="B4" s="380"/>
-      <c r="C4" s="127"/>
-      <c r="D4" s="391"/>
-      <c r="E4" s="127"/>
+    </row>
+    <row r="4" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="379">
+        <v>44894</v>
+      </c>
+      <c r="B4" s="380" t="s">
+        <v>604</v>
+      </c>
+      <c r="C4" s="127">
+        <v>41375</v>
+      </c>
+      <c r="D4" s="391">
+        <v>44897</v>
+      </c>
+      <c r="E4" s="127">
+        <v>41375</v>
+      </c>
       <c r="F4" s="188">
         <f>C4-E4+F3</f>
         <v>0</v>
       </c>
-      <c r="J4" s="256"/>
-    </row>
-    <row r="5" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="379"/>
-      <c r="B5" s="380"/>
-      <c r="C5" s="127"/>
-      <c r="D5" s="391"/>
-      <c r="E5" s="127"/>
+    </row>
+    <row r="5" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="379">
+        <v>44895</v>
+      </c>
+      <c r="B5" s="380" t="s">
+        <v>605</v>
+      </c>
+      <c r="C5" s="127">
+        <v>20963.2</v>
+      </c>
+      <c r="D5" s="391">
+        <v>44897</v>
+      </c>
+      <c r="E5" s="127">
+        <v>20963.2</v>
+      </c>
       <c r="F5" s="188">
         <f t="shared" ref="F5:F68" si="0">C5-E5+F4</f>
         <v>0</v>
       </c>
-      <c r="J5" s="127"/>
-    </row>
-    <row r="6" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="379"/>
-      <c r="B6" s="380"/>
-      <c r="C6" s="127"/>
-      <c r="D6" s="391"/>
-      <c r="E6" s="127"/>
+    </row>
+    <row r="6" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="379">
+        <v>44895</v>
+      </c>
+      <c r="B6" s="380" t="s">
+        <v>606</v>
+      </c>
+      <c r="C6" s="127">
+        <v>111624</v>
+      </c>
+      <c r="D6" s="391">
+        <v>44897</v>
+      </c>
+      <c r="E6" s="127">
+        <v>111624</v>
+      </c>
       <c r="F6" s="188">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G6" s="156"/>
-      <c r="J6" s="127"/>
-    </row>
-    <row r="7" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="379"/>
-      <c r="B7" s="380"/>
-      <c r="C7" s="127"/>
-      <c r="D7" s="391"/>
-      <c r="E7" s="127"/>
+    </row>
+    <row r="7" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="379">
+        <v>44895</v>
+      </c>
+      <c r="B7" s="380" t="s">
+        <v>607</v>
+      </c>
+      <c r="C7" s="127">
+        <v>25126</v>
+      </c>
+      <c r="D7" s="391">
+        <v>44897</v>
+      </c>
+      <c r="E7" s="127">
+        <v>25126</v>
+      </c>
       <c r="F7" s="188">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J7" s="127"/>
-    </row>
-    <row r="8" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="379"/>
-      <c r="B8" s="380"/>
-      <c r="C8" s="127"/>
-      <c r="D8" s="391"/>
-      <c r="E8" s="127"/>
+    </row>
+    <row r="8" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="379">
+        <v>44896</v>
+      </c>
+      <c r="B8" s="380" t="s">
+        <v>608</v>
+      </c>
+      <c r="C8" s="127">
+        <v>157141.5</v>
+      </c>
+      <c r="D8" s="391">
+        <v>44897</v>
+      </c>
+      <c r="E8" s="127">
+        <v>157141.5</v>
+      </c>
       <c r="F8" s="188">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J8" s="127"/>
-    </row>
-    <row r="9" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="379"/>
-      <c r="B9" s="380"/>
-      <c r="C9" s="127"/>
-      <c r="D9" s="257"/>
-      <c r="E9" s="127"/>
+    </row>
+    <row r="9" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="379">
+        <v>44897</v>
+      </c>
+      <c r="B9" s="380" t="s">
+        <v>609</v>
+      </c>
+      <c r="C9" s="127">
+        <v>102821.28</v>
+      </c>
+      <c r="D9" s="387">
+        <v>44904</v>
+      </c>
+      <c r="E9" s="277">
+        <v>102821.28</v>
+      </c>
       <c r="F9" s="188">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J9" s="127"/>
-    </row>
-    <row r="10" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="379"/>
-      <c r="B10" s="380"/>
-      <c r="C10" s="127"/>
-      <c r="D10" s="257"/>
-      <c r="E10" s="127"/>
+    </row>
+    <row r="10" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="379">
+        <v>44898</v>
+      </c>
+      <c r="B10" s="380" t="s">
+        <v>610</v>
+      </c>
+      <c r="C10" s="127">
+        <v>111986.32</v>
+      </c>
+      <c r="D10" s="387">
+        <v>44904</v>
+      </c>
+      <c r="E10" s="277">
+        <v>111986.32</v>
+      </c>
       <c r="F10" s="188">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J10" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="379"/>
-      <c r="B11" s="380"/>
-      <c r="C11" s="127"/>
-      <c r="D11" s="257"/>
-      <c r="E11" s="127"/>
+    </row>
+    <row r="11" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="379">
+        <v>44898</v>
+      </c>
+      <c r="B11" s="380" t="s">
+        <v>611</v>
+      </c>
+      <c r="C11" s="127">
+        <v>25929.599999999999</v>
+      </c>
+      <c r="D11" s="387">
+        <v>44904</v>
+      </c>
+      <c r="E11" s="277">
+        <v>25929.599999999999</v>
+      </c>
       <c r="F11" s="188">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J11" s="267">
-        <f>SUM(J3:J10)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="379"/>
-      <c r="B12" s="380"/>
-      <c r="C12" s="127"/>
-      <c r="D12" s="257"/>
-      <c r="E12" s="127"/>
+    </row>
+    <row r="12" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="379">
+        <v>44900</v>
+      </c>
+      <c r="B12" s="380" t="s">
+        <v>612</v>
+      </c>
+      <c r="C12" s="127">
+        <v>139332.94</v>
+      </c>
+      <c r="D12" s="387">
+        <v>44904</v>
+      </c>
+      <c r="E12" s="277">
+        <v>139332.94</v>
+      </c>
       <c r="F12" s="188">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G12" s="156"/>
     </row>
-    <row r="13" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="379"/>
-      <c r="B13" s="380"/>
-      <c r="C13" s="127"/>
-      <c r="D13" s="257"/>
-      <c r="E13" s="127"/>
+    <row r="13" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="379">
+        <v>44901</v>
+      </c>
+      <c r="B13" s="380" t="s">
+        <v>613</v>
+      </c>
+      <c r="C13" s="127">
+        <v>117086.39999999999</v>
+      </c>
+      <c r="D13" s="387">
+        <v>44904</v>
+      </c>
+      <c r="E13" s="277">
+        <v>117086.39999999999</v>
+      </c>
       <c r="F13" s="188">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="379"/>
-      <c r="B14" s="380"/>
-      <c r="C14" s="127"/>
-      <c r="D14" s="257"/>
-      <c r="E14" s="127"/>
+    <row r="14" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="379">
+        <v>44902</v>
+      </c>
+      <c r="B14" s="380" t="s">
+        <v>614</v>
+      </c>
+      <c r="C14" s="127">
+        <v>2602.5</v>
+      </c>
+      <c r="D14" s="387">
+        <v>44904</v>
+      </c>
+      <c r="E14" s="277">
+        <v>2602.5</v>
+      </c>
       <c r="F14" s="188">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="379"/>
-      <c r="B15" s="380"/>
-      <c r="C15" s="127"/>
-      <c r="D15" s="257"/>
-      <c r="E15" s="127"/>
+    <row r="15" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="379">
+        <v>44903</v>
+      </c>
+      <c r="B15" s="380" t="s">
+        <v>615</v>
+      </c>
+      <c r="C15" s="127">
+        <v>175569.59</v>
+      </c>
+      <c r="D15" s="387">
+        <v>44904</v>
+      </c>
+      <c r="E15" s="277">
+        <v>175569.59</v>
+      </c>
       <c r="F15" s="188">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="379"/>
-      <c r="B16" s="380"/>
-      <c r="C16" s="127"/>
-      <c r="D16" s="257"/>
-      <c r="E16" s="127"/>
+    <row r="16" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="379">
+        <v>44904</v>
+      </c>
+      <c r="B16" s="380" t="s">
+        <v>616</v>
+      </c>
+      <c r="C16" s="127">
+        <v>112431.52</v>
+      </c>
+      <c r="D16" s="387">
+        <v>44904</v>
+      </c>
+      <c r="E16" s="277">
+        <v>112431.52</v>
+      </c>
       <c r="F16" s="188">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="379"/>
-      <c r="B17" s="380"/>
-      <c r="C17" s="127"/>
-      <c r="D17" s="257"/>
-      <c r="E17" s="127"/>
+    <row r="17" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="379">
+        <v>44905</v>
+      </c>
+      <c r="B17" s="380" t="s">
+        <v>617</v>
+      </c>
+      <c r="C17" s="127">
+        <v>167636.82999999999</v>
+      </c>
+      <c r="D17" s="304">
+        <v>44912</v>
+      </c>
+      <c r="E17" s="274">
+        <v>167636.82999999999</v>
+      </c>
       <c r="F17" s="188">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="379"/>
-      <c r="B18" s="380"/>
-      <c r="C18" s="127"/>
-      <c r="D18" s="257"/>
-      <c r="E18" s="127"/>
+    <row r="18" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="379">
+        <v>44907</v>
+      </c>
+      <c r="B18" s="380" t="s">
+        <v>618</v>
+      </c>
+      <c r="C18" s="127">
+        <v>123571.9</v>
+      </c>
+      <c r="D18" s="304">
+        <v>44912</v>
+      </c>
+      <c r="E18" s="274">
+        <v>123571.9</v>
+      </c>
       <c r="F18" s="188">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="379"/>
-      <c r="B19" s="380"/>
-      <c r="C19" s="127"/>
-      <c r="D19" s="257"/>
-      <c r="E19" s="127"/>
+    <row r="19" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="379">
+        <v>44907</v>
+      </c>
+      <c r="B19" s="380" t="s">
+        <v>619</v>
+      </c>
+      <c r="C19" s="127">
+        <v>13133</v>
+      </c>
+      <c r="D19" s="304">
+        <v>44912</v>
+      </c>
+      <c r="E19" s="274">
+        <v>13133</v>
+      </c>
       <c r="F19" s="188">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="379"/>
-      <c r="B20" s="380"/>
-      <c r="C20" s="127"/>
-      <c r="D20" s="257"/>
-      <c r="E20" s="127"/>
+    <row r="20" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="379">
+        <v>44908</v>
+      </c>
+      <c r="B20" s="380" t="s">
+        <v>620</v>
+      </c>
+      <c r="C20" s="127">
+        <v>4620</v>
+      </c>
+      <c r="D20" s="304">
+        <v>44912</v>
+      </c>
+      <c r="E20" s="274">
+        <v>4620</v>
+      </c>
       <c r="F20" s="188">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="379"/>
-      <c r="B21" s="380"/>
-      <c r="C21" s="127"/>
-      <c r="D21" s="394"/>
-      <c r="E21" s="127"/>
+    <row r="21" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="379">
+        <v>44909</v>
+      </c>
+      <c r="B21" s="380" t="s">
+        <v>621</v>
+      </c>
+      <c r="C21" s="127">
+        <v>165919.81</v>
+      </c>
+      <c r="D21" s="304">
+        <v>44912</v>
+      </c>
+      <c r="E21" s="274">
+        <v>165919.81</v>
+      </c>
       <c r="F21" s="188">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="379"/>
-      <c r="B22" s="380"/>
-      <c r="C22" s="127"/>
-      <c r="D22" s="257"/>
-      <c r="E22" s="127"/>
+    <row r="22" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="379">
+        <v>44910</v>
+      </c>
+      <c r="B22" s="380" t="s">
+        <v>622</v>
+      </c>
+      <c r="C22" s="127">
+        <v>153670.39999999999</v>
+      </c>
+      <c r="D22" s="304">
+        <v>44912</v>
+      </c>
+      <c r="E22" s="274">
+        <v>153670.39999999999</v>
+      </c>
       <c r="F22" s="188">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="379"/>
-      <c r="B23" s="380"/>
-      <c r="C23" s="127"/>
-      <c r="D23" s="257"/>
-      <c r="E23" s="127"/>
+    <row r="23" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="379">
+        <v>44911</v>
+      </c>
+      <c r="B23" s="380" t="s">
+        <v>623</v>
+      </c>
+      <c r="C23" s="127">
+        <v>176215.71</v>
+      </c>
+      <c r="D23" s="300">
+        <v>44918</v>
+      </c>
+      <c r="E23" s="301">
+        <v>176215.71</v>
+      </c>
       <c r="F23" s="188">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="379"/>
-      <c r="B24" s="380"/>
-      <c r="C24" s="127"/>
-      <c r="D24" s="257"/>
-      <c r="E24" s="127"/>
+      <c r="H23" s="127">
+        <v>176215.71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="379">
+        <v>44912</v>
+      </c>
+      <c r="B24" s="380" t="s">
+        <v>624</v>
+      </c>
+      <c r="C24" s="127">
+        <v>181971.56</v>
+      </c>
+      <c r="D24" s="300">
+        <v>44918</v>
+      </c>
+      <c r="E24" s="301">
+        <v>181971.56</v>
+      </c>
       <c r="F24" s="188">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G24" s="156"/>
-    </row>
-    <row r="25" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="379"/>
-      <c r="B25" s="380"/>
-      <c r="C25" s="127"/>
-      <c r="D25" s="257"/>
-      <c r="E25" s="127"/>
+      <c r="H24" s="127">
+        <v>181971.56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="379">
+        <v>44912</v>
+      </c>
+      <c r="B25" s="380" t="s">
+        <v>625</v>
+      </c>
+      <c r="C25" s="127">
+        <v>67422.53</v>
+      </c>
+      <c r="D25" s="300">
+        <v>44918</v>
+      </c>
+      <c r="E25" s="301">
+        <v>67422.53</v>
+      </c>
       <c r="F25" s="188">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="379"/>
-      <c r="B26" s="380"/>
-      <c r="C26" s="127"/>
-      <c r="D26" s="257"/>
-      <c r="E26" s="127"/>
+      <c r="H25" s="127">
+        <v>67422.53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="379">
+        <v>44913</v>
+      </c>
+      <c r="B26" s="380" t="s">
+        <v>626</v>
+      </c>
+      <c r="C26" s="127">
+        <v>2814.8</v>
+      </c>
+      <c r="D26" s="300">
+        <v>44918</v>
+      </c>
+      <c r="E26" s="301">
+        <v>2814.8</v>
+      </c>
       <c r="F26" s="188">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="379"/>
-      <c r="B27" s="380"/>
-      <c r="C27" s="127"/>
-      <c r="D27" s="257"/>
-      <c r="E27" s="127"/>
+      <c r="H26" s="127">
+        <v>2814.8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="379">
+        <v>44914</v>
+      </c>
+      <c r="B27" s="380" t="s">
+        <v>627</v>
+      </c>
+      <c r="C27" s="127">
+        <v>104094.3</v>
+      </c>
+      <c r="D27" s="300">
+        <v>44918</v>
+      </c>
+      <c r="E27" s="301">
+        <v>104094.3</v>
+      </c>
       <c r="F27" s="188">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="379"/>
-      <c r="B28" s="380"/>
-      <c r="C28" s="127"/>
-      <c r="D28" s="257"/>
-      <c r="E28" s="127"/>
+      <c r="H27" s="127">
+        <v>104094.3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="379">
+        <v>44915</v>
+      </c>
+      <c r="B28" s="380" t="s">
+        <v>628</v>
+      </c>
+      <c r="C28" s="127">
+        <v>187158.95</v>
+      </c>
+      <c r="D28" s="300">
+        <v>44918</v>
+      </c>
+      <c r="E28" s="301">
+        <v>187158.95</v>
+      </c>
       <c r="F28" s="188">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="379"/>
-      <c r="B29" s="380"/>
-      <c r="C29" s="127"/>
-      <c r="D29" s="257"/>
-      <c r="E29" s="127"/>
+      <c r="H28" s="127">
+        <v>187158.95</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="379">
+        <v>44916</v>
+      </c>
+      <c r="B29" s="380" t="s">
+        <v>629</v>
+      </c>
+      <c r="C29" s="127">
+        <v>221997.72</v>
+      </c>
+      <c r="D29" s="300">
+        <v>44918</v>
+      </c>
+      <c r="E29" s="301">
+        <v>221997.72</v>
+      </c>
       <c r="F29" s="188">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="257"/>
-      <c r="B30" s="258"/>
-      <c r="C30" s="127"/>
-      <c r="D30" s="257"/>
-      <c r="E30" s="127"/>
+      <c r="H29" s="127">
+        <v>221997.72</v>
+      </c>
+      <c r="J29" s="127">
+        <v>941675.57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="257">
+        <v>44917</v>
+      </c>
+      <c r="B30" s="258" t="s">
+        <v>630</v>
+      </c>
+      <c r="C30" s="127">
+        <v>183875.16</v>
+      </c>
+      <c r="D30" s="390" t="s">
+        <v>655</v>
+      </c>
+      <c r="E30" s="301">
+        <f>123104.8+60770.36</f>
+        <v>183875.16</v>
+      </c>
       <c r="F30" s="188">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="257"/>
-      <c r="B31" s="258"/>
-      <c r="C31" s="127"/>
-      <c r="D31" s="257"/>
-      <c r="E31" s="127"/>
+      <c r="H30" s="33">
+        <v>123104.8</v>
+      </c>
+      <c r="J30" s="420">
+        <v>-1064780.3700000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="257">
+        <v>44918</v>
+      </c>
+      <c r="B31" s="258" t="s">
+        <v>631</v>
+      </c>
+      <c r="C31" s="127">
+        <v>23104.799999999999</v>
+      </c>
+      <c r="D31" s="421">
+        <v>44925</v>
+      </c>
+      <c r="E31" s="422">
+        <v>23104.799999999999</v>
+      </c>
       <c r="F31" s="188">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="257"/>
-      <c r="B32" s="258"/>
-      <c r="C32" s="127"/>
-      <c r="D32" s="257"/>
-      <c r="E32" s="127"/>
+      <c r="H31" s="33">
+        <v>0</v>
+      </c>
+      <c r="J31" s="127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="257">
+        <v>44918</v>
+      </c>
+      <c r="B32" s="258" t="s">
+        <v>632</v>
+      </c>
+      <c r="C32" s="127">
+        <v>182703</v>
+      </c>
+      <c r="D32" s="421">
+        <v>44925</v>
+      </c>
+      <c r="E32" s="422">
+        <v>182703</v>
+      </c>
       <c r="F32" s="188">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G32" s="156"/>
-    </row>
-    <row r="33" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="257"/>
-      <c r="B33" s="258"/>
-      <c r="C33" s="127"/>
-      <c r="D33" s="257"/>
-      <c r="E33" s="127"/>
+      <c r="H32" s="267">
+        <f>SUM(H23:H31)</f>
+        <v>1064780.3700000001</v>
+      </c>
+      <c r="J32" s="127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="257">
+        <v>44919</v>
+      </c>
+      <c r="B33" s="258" t="s">
+        <v>633</v>
+      </c>
+      <c r="C33" s="127">
+        <v>12531.92</v>
+      </c>
+      <c r="D33" s="421">
+        <v>44925</v>
+      </c>
+      <c r="E33" s="422">
+        <v>12531.92</v>
+      </c>
       <c r="F33" s="188">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="257"/>
-      <c r="B34" s="258"/>
-      <c r="C34" s="127"/>
-      <c r="D34" s="257"/>
-      <c r="E34" s="127"/>
+      <c r="J33" s="127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="257">
+        <v>44921</v>
+      </c>
+      <c r="B34" s="258" t="s">
+        <v>634</v>
+      </c>
+      <c r="C34" s="127">
+        <v>23313.599999999999</v>
+      </c>
+      <c r="D34" s="421">
+        <v>44925</v>
+      </c>
+      <c r="E34" s="422">
+        <v>23313.599999999999</v>
+      </c>
       <c r="F34" s="188">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="257"/>
-      <c r="B35" s="258"/>
-      <c r="C35" s="127"/>
-      <c r="D35" s="257"/>
-      <c r="E35" s="127"/>
+      <c r="J34" s="127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="257">
+        <v>44922</v>
+      </c>
+      <c r="B35" s="258" t="s">
+        <v>635</v>
+      </c>
+      <c r="C35" s="127">
+        <v>62474.92</v>
+      </c>
+      <c r="D35" s="421">
+        <v>44925</v>
+      </c>
+      <c r="E35" s="422">
+        <v>62474.92</v>
+      </c>
       <c r="F35" s="188">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="257"/>
-      <c r="B36" s="258"/>
-      <c r="C36" s="127"/>
-      <c r="D36" s="257"/>
-      <c r="E36" s="127"/>
+      <c r="J35" s="127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="257">
+        <v>44923</v>
+      </c>
+      <c r="B36" s="258" t="s">
+        <v>636</v>
+      </c>
+      <c r="C36" s="127">
+        <v>2645.1</v>
+      </c>
+      <c r="D36" s="421">
+        <v>44925</v>
+      </c>
+      <c r="E36" s="422">
+        <v>2645.1</v>
+      </c>
       <c r="F36" s="188">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="257"/>
-      <c r="B37" s="258"/>
-      <c r="C37" s="127"/>
-      <c r="D37" s="257"/>
-      <c r="E37" s="127"/>
+      <c r="J36" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="257">
+        <v>44923</v>
+      </c>
+      <c r="B37" s="258" t="s">
+        <v>637</v>
+      </c>
+      <c r="C37" s="127">
+        <v>72492.899999999994</v>
+      </c>
+      <c r="D37" s="421">
+        <v>44925</v>
+      </c>
+      <c r="E37" s="422">
+        <v>72492.899999999994</v>
+      </c>
       <c r="F37" s="188">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="257"/>
-      <c r="B38" s="258"/>
-      <c r="C38" s="127"/>
-      <c r="D38" s="257"/>
-      <c r="E38" s="127"/>
+      <c r="J37" s="267">
+        <f>SUM(J29:J36)</f>
+        <v>-123104.80000000016</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="257">
+        <v>44924</v>
+      </c>
+      <c r="B38" s="258" t="s">
+        <v>638</v>
+      </c>
+      <c r="C38" s="127">
+        <v>109519.12</v>
+      </c>
+      <c r="D38" s="421">
+        <v>44925</v>
+      </c>
+      <c r="E38" s="422">
+        <v>109519.12</v>
+      </c>
       <c r="F38" s="188">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="257"/>
-      <c r="B39" s="258"/>
-      <c r="C39" s="127"/>
-      <c r="D39" s="257"/>
-      <c r="E39" s="127"/>
+    <row r="39" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="257">
+        <v>44924</v>
+      </c>
+      <c r="B39" s="258" t="s">
+        <v>639</v>
+      </c>
+      <c r="C39" s="127">
+        <v>98516.93</v>
+      </c>
+      <c r="D39" s="421">
+        <v>44925</v>
+      </c>
+      <c r="E39" s="422">
+        <v>98516.93</v>
+      </c>
       <c r="F39" s="188">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="257"/>
-      <c r="B40" s="258"/>
-      <c r="C40" s="127"/>
-      <c r="D40" s="257"/>
-      <c r="E40" s="84"/>
+    <row r="40" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="257">
+        <v>44924</v>
+      </c>
+      <c r="B40" s="258" t="s">
+        <v>641</v>
+      </c>
+      <c r="C40" s="127">
+        <v>5321</v>
+      </c>
+      <c r="D40" s="421">
+        <v>44925</v>
+      </c>
+      <c r="E40" s="422">
+        <v>5321</v>
+      </c>
       <c r="F40" s="188">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="257"/>
-      <c r="B41" s="258"/>
-      <c r="C41" s="127"/>
-      <c r="D41" s="257"/>
-      <c r="E41" s="84"/>
+    <row r="41" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="257">
+        <v>44925</v>
+      </c>
+      <c r="B41" s="258" t="s">
+        <v>640</v>
+      </c>
+      <c r="C41" s="127">
+        <v>6213.16</v>
+      </c>
+      <c r="D41" s="297">
+        <v>44933</v>
+      </c>
+      <c r="E41" s="296">
+        <v>6213.16</v>
+      </c>
       <c r="F41" s="188">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="259"/>
-      <c r="B42" s="260"/>
-      <c r="C42" s="84"/>
-      <c r="D42" s="257"/>
-      <c r="E42" s="84"/>
+    <row r="42" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="259">
+        <v>44925</v>
+      </c>
+      <c r="B42" s="260" t="s">
+        <v>642</v>
+      </c>
+      <c r="C42" s="84">
+        <v>172226.85</v>
+      </c>
+      <c r="D42" s="297">
+        <v>44933</v>
+      </c>
+      <c r="E42" s="423">
+        <v>172226.85</v>
+      </c>
       <c r="F42" s="188">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="157"/>
-      <c r="B43" s="154"/>
-      <c r="C43" s="84"/>
-      <c r="D43" s="388"/>
-      <c r="E43" s="84"/>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="157">
+        <v>44926</v>
+      </c>
+      <c r="B43" s="418" t="s">
+        <v>643</v>
+      </c>
+      <c r="C43" s="84">
+        <v>8444.4</v>
+      </c>
+      <c r="D43" s="297">
+        <v>44933</v>
+      </c>
+      <c r="E43" s="423">
+        <v>8444.4</v>
+      </c>
       <c r="F43" s="188">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="158"/>
-      <c r="B44" s="159"/>
-      <c r="C44" s="160"/>
-      <c r="D44" s="388"/>
-      <c r="E44" s="84"/>
+    <row r="44" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="414">
+        <v>44926</v>
+      </c>
+      <c r="B44" s="419" t="s">
+        <v>644</v>
+      </c>
+      <c r="C44" s="84">
+        <v>36150.199999999997</v>
+      </c>
+      <c r="D44" s="297">
+        <v>44933</v>
+      </c>
+      <c r="E44" s="423">
+        <v>36150.199999999997</v>
+      </c>
       <c r="F44" s="188">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="158"/>
-      <c r="B45" s="159"/>
-      <c r="C45" s="160"/>
-      <c r="D45" s="388"/>
-      <c r="E45" s="84"/>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="414">
+        <v>44929</v>
+      </c>
+      <c r="B45" s="419" t="s">
+        <v>645</v>
+      </c>
+      <c r="C45" s="84">
+        <v>98848.12</v>
+      </c>
+      <c r="D45" s="297">
+        <v>44933</v>
+      </c>
+      <c r="E45" s="423">
+        <v>98848.12</v>
+      </c>
       <c r="F45" s="188">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="158"/>
-      <c r="B46" s="159"/>
-      <c r="C46" s="160"/>
-      <c r="D46" s="388"/>
-      <c r="E46" s="84"/>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="414">
+        <v>44930</v>
+      </c>
+      <c r="B46" s="419" t="s">
+        <v>646</v>
+      </c>
+      <c r="C46" s="84">
+        <v>31240.68</v>
+      </c>
+      <c r="D46" s="297">
+        <v>44933</v>
+      </c>
+      <c r="E46" s="423">
+        <v>31240.68</v>
+      </c>
       <c r="F46" s="188">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="158"/>
-      <c r="B47" s="159"/>
-      <c r="C47" s="160"/>
-      <c r="D47" s="388"/>
-      <c r="E47" s="84"/>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="414">
+        <v>44931</v>
+      </c>
+      <c r="B47" s="419" t="s">
+        <v>647</v>
+      </c>
+      <c r="C47" s="84">
+        <v>108063.4</v>
+      </c>
+      <c r="D47" s="297">
+        <v>44933</v>
+      </c>
+      <c r="E47" s="423">
+        <v>108063.4</v>
+      </c>
       <c r="F47" s="188">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="158"/>
-      <c r="B48" s="159"/>
-      <c r="C48" s="160"/>
-      <c r="D48" s="388"/>
-      <c r="E48" s="84"/>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="414">
+        <v>44931</v>
+      </c>
+      <c r="B48" s="419" t="s">
+        <v>648</v>
+      </c>
+      <c r="C48" s="84">
+        <v>44993</v>
+      </c>
+      <c r="D48" s="297">
+        <v>44933</v>
+      </c>
+      <c r="E48" s="423">
+        <v>44993</v>
+      </c>
       <c r="F48" s="188">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="158"/>
-      <c r="B49" s="159"/>
-      <c r="C49" s="160"/>
-      <c r="D49" s="388"/>
-      <c r="E49" s="84"/>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="414">
+        <v>44932</v>
+      </c>
+      <c r="B49" s="419" t="s">
+        <v>649</v>
+      </c>
+      <c r="C49" s="84">
+        <v>72016</v>
+      </c>
+      <c r="D49" s="297">
+        <v>44933</v>
+      </c>
+      <c r="E49" s="423">
+        <v>72016</v>
+      </c>
       <c r="F49" s="188">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="158"/>
-      <c r="B50" s="159"/>
-      <c r="C50" s="160"/>
-      <c r="D50" s="388"/>
-      <c r="E50" s="84"/>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="414">
+        <v>44933</v>
+      </c>
+      <c r="B50" s="419" t="s">
+        <v>650</v>
+      </c>
+      <c r="C50" s="84">
+        <v>588</v>
+      </c>
+      <c r="D50" s="424">
+        <v>44940</v>
+      </c>
+      <c r="E50" s="425">
+        <v>588</v>
+      </c>
       <c r="F50" s="188">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="158"/>
-      <c r="B51" s="159"/>
-      <c r="C51" s="160"/>
-      <c r="D51" s="388"/>
-      <c r="E51" s="84"/>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="414">
+        <v>44933</v>
+      </c>
+      <c r="B51" s="419" t="s">
+        <v>651</v>
+      </c>
+      <c r="C51" s="84">
+        <v>1764</v>
+      </c>
+      <c r="D51" s="424">
+        <v>44940</v>
+      </c>
+      <c r="E51" s="425">
+        <v>1764</v>
+      </c>
       <c r="F51" s="188">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="158"/>
-      <c r="B52" s="159"/>
-      <c r="C52" s="160"/>
-      <c r="D52" s="388"/>
-      <c r="E52" s="84"/>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="414">
+        <v>44933</v>
+      </c>
+      <c r="B52" s="419" t="s">
+        <v>652</v>
+      </c>
+      <c r="C52" s="84">
+        <v>141725.72</v>
+      </c>
+      <c r="D52" s="424">
+        <v>44940</v>
+      </c>
+      <c r="E52" s="425">
+        <v>141725.72</v>
+      </c>
       <c r="F52" s="188">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="158"/>
-      <c r="B53" s="159"/>
-      <c r="C53" s="160"/>
-      <c r="D53" s="388"/>
-      <c r="E53" s="84"/>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="414">
+        <v>44933</v>
+      </c>
+      <c r="B53" s="419" t="s">
+        <v>653</v>
+      </c>
+      <c r="C53" s="84">
+        <v>53295</v>
+      </c>
+      <c r="D53" s="424">
+        <v>44940</v>
+      </c>
+      <c r="E53" s="425">
+        <v>53295</v>
+      </c>
       <c r="F53" s="188">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="158"/>
-      <c r="B54" s="159"/>
-      <c r="C54" s="160"/>
-      <c r="D54" s="388"/>
-      <c r="E54" s="84"/>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="414">
+        <v>44933</v>
+      </c>
+      <c r="B54" s="419" t="s">
+        <v>654</v>
+      </c>
+      <c r="C54" s="84">
+        <v>5321</v>
+      </c>
+      <c r="D54" s="424">
+        <v>44940</v>
+      </c>
+      <c r="E54" s="425">
+        <v>5321</v>
+      </c>
       <c r="F54" s="188">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="158"/>
-      <c r="B55" s="159"/>
-      <c r="C55" s="160"/>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="414"/>
+      <c r="B55" s="419"/>
+      <c r="C55" s="84"/>
       <c r="D55" s="388"/>
       <c r="E55" s="84"/>
       <c r="F55" s="188">
@@ -40613,10 +41402,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="158"/>
-      <c r="B56" s="159"/>
-      <c r="C56" s="160"/>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="414"/>
+      <c r="B56" s="419"/>
+      <c r="C56" s="84"/>
       <c r="D56" s="388"/>
       <c r="E56" s="84"/>
       <c r="F56" s="188">
@@ -40624,10 +41413,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="158"/>
-      <c r="B57" s="159"/>
-      <c r="C57" s="160"/>
+    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="414"/>
+      <c r="B57" s="419"/>
+      <c r="C57" s="84"/>
       <c r="D57" s="388"/>
       <c r="E57" s="84"/>
       <c r="F57" s="188">
@@ -40635,10 +41424,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="158"/>
-      <c r="B58" s="159"/>
-      <c r="C58" s="160"/>
+    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="414"/>
+      <c r="B58" s="419"/>
+      <c r="C58" s="84"/>
       <c r="D58" s="388"/>
       <c r="E58" s="84"/>
       <c r="F58" s="188">
@@ -40646,10 +41435,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="158"/>
-      <c r="B59" s="159"/>
-      <c r="C59" s="160"/>
+    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="414"/>
+      <c r="B59" s="419"/>
+      <c r="C59" s="84"/>
       <c r="D59" s="388"/>
       <c r="E59" s="84"/>
       <c r="F59" s="188">
@@ -40657,10 +41446,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="158"/>
-      <c r="B60" s="159"/>
-      <c r="C60" s="160"/>
+    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="414"/>
+      <c r="B60" s="419"/>
+      <c r="C60" s="84"/>
       <c r="D60" s="388"/>
       <c r="E60" s="84"/>
       <c r="F60" s="188">
@@ -40668,10 +41457,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="158"/>
-      <c r="B61" s="159"/>
-      <c r="C61" s="160"/>
+    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="414"/>
+      <c r="B61" s="419"/>
+      <c r="C61" s="84"/>
       <c r="D61" s="388"/>
       <c r="E61" s="84"/>
       <c r="F61" s="188">
@@ -40679,10 +41468,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="161"/>
-      <c r="B62" s="162"/>
-      <c r="C62" s="163"/>
+    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="416"/>
+      <c r="B62" s="417"/>
+      <c r="C62" s="32"/>
       <c r="D62" s="389"/>
       <c r="E62" s="32"/>
       <c r="F62" s="188">
@@ -40690,10 +41479,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="161"/>
-      <c r="B63" s="162"/>
-      <c r="C63" s="163"/>
+    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="416"/>
+      <c r="B63" s="417"/>
+      <c r="C63" s="32"/>
       <c r="D63" s="389"/>
       <c r="E63" s="32"/>
       <c r="F63" s="188">
@@ -40701,10 +41490,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="161"/>
-      <c r="B64" s="162"/>
-      <c r="C64" s="163"/>
+    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="416"/>
+      <c r="B64" s="417"/>
+      <c r="C64" s="32"/>
       <c r="D64" s="389"/>
       <c r="E64" s="32"/>
       <c r="F64" s="188">
@@ -40712,10 +41501,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="161"/>
-      <c r="B65" s="162"/>
-      <c r="C65" s="163"/>
+    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="416"/>
+      <c r="B65" s="417"/>
+      <c r="C65" s="32"/>
       <c r="D65" s="389"/>
       <c r="E65" s="32"/>
       <c r="F65" s="188">
@@ -40723,10 +41512,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="161"/>
-      <c r="B66" s="162"/>
-      <c r="C66" s="163"/>
+    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="416"/>
+      <c r="B66" s="417"/>
+      <c r="C66" s="32"/>
       <c r="D66" s="389"/>
       <c r="E66" s="32"/>
       <c r="F66" s="188">
@@ -40734,10 +41523,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="161"/>
-      <c r="B67" s="162"/>
-      <c r="C67" s="163"/>
+    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="416"/>
+      <c r="B67" s="417"/>
+      <c r="C67" s="32"/>
       <c r="D67" s="389"/>
       <c r="E67" s="32"/>
       <c r="F67" s="188">
@@ -40745,10 +41534,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="158"/>
-      <c r="B68" s="159"/>
-      <c r="C68" s="160"/>
+    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="414"/>
+      <c r="B68" s="415"/>
+      <c r="C68" s="84"/>
       <c r="D68" s="388"/>
       <c r="E68" s="84"/>
       <c r="F68" s="188">
@@ -40756,10 +41545,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="158"/>
-      <c r="B69" s="159"/>
-      <c r="C69" s="160"/>
+    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="414"/>
+      <c r="B69" s="415"/>
+      <c r="C69" s="84"/>
       <c r="D69" s="388"/>
       <c r="E69" s="84"/>
       <c r="F69" s="188">
@@ -40767,10 +41556,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="158"/>
-      <c r="B70" s="159"/>
-      <c r="C70" s="160"/>
+    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="414"/>
+      <c r="B70" s="415"/>
+      <c r="C70" s="84"/>
       <c r="D70" s="388"/>
       <c r="E70" s="84"/>
       <c r="F70" s="188">
@@ -40778,10 +41567,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="158"/>
-      <c r="B71" s="159"/>
-      <c r="C71" s="160"/>
+    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="414"/>
+      <c r="B71" s="415"/>
+      <c r="C71" s="84"/>
       <c r="D71" s="388"/>
       <c r="E71" s="84"/>
       <c r="F71" s="188">
@@ -40789,10 +41578,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="158"/>
-      <c r="B72" s="159"/>
-      <c r="C72" s="160"/>
+    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="414"/>
+      <c r="B72" s="415"/>
+      <c r="C72" s="84"/>
       <c r="D72" s="388"/>
       <c r="E72" s="84"/>
       <c r="F72" s="188">
@@ -40800,10 +41589,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="158"/>
-      <c r="B73" s="159"/>
-      <c r="C73" s="160"/>
+    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="414"/>
+      <c r="B73" s="415"/>
+      <c r="C73" s="84"/>
       <c r="D73" s="388"/>
       <c r="E73" s="84"/>
       <c r="F73" s="188">
@@ -40811,10 +41600,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="158"/>
-      <c r="B74" s="159"/>
-      <c r="C74" s="160"/>
+    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="414"/>
+      <c r="B74" s="415"/>
+      <c r="C74" s="84"/>
       <c r="D74" s="388"/>
       <c r="E74" s="84"/>
       <c r="F74" s="188">
@@ -40822,10 +41611,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="158"/>
-      <c r="B75" s="159"/>
-      <c r="C75" s="160"/>
+    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="414"/>
+      <c r="B75" s="415"/>
+      <c r="C75" s="84"/>
       <c r="D75" s="388"/>
       <c r="E75" s="84"/>
       <c r="F75" s="188">
@@ -40833,10 +41622,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="158"/>
-      <c r="B76" s="159"/>
-      <c r="C76" s="160"/>
+    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="414"/>
+      <c r="B76" s="415"/>
+      <c r="C76" s="84"/>
       <c r="D76" s="388"/>
       <c r="E76" s="84"/>
       <c r="F76" s="188">
@@ -40844,10 +41633,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="158"/>
-      <c r="B77" s="159"/>
-      <c r="C77" s="160"/>
+    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="414"/>
+      <c r="B77" s="415"/>
+      <c r="C77" s="84"/>
       <c r="D77" s="388"/>
       <c r="E77" s="84"/>
       <c r="F77" s="188">
@@ -40855,7 +41644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="165"/>
       <c r="B78" s="166"/>
       <c r="C78" s="32">
@@ -40873,12 +41662,12 @@
       <c r="B79" s="223"/>
       <c r="C79" s="395">
         <f>SUM(C3:C78)</f>
-        <v>0</v>
+        <v>4409875.54</v>
       </c>
       <c r="D79" s="191"/>
       <c r="E79" s="170">
         <f>SUM(E3:E78)</f>
-        <v>0</v>
+        <v>4409875.54</v>
       </c>
       <c r="F79" s="171">
         <f>F78</f>
@@ -41072,23 +41861,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="434"/>
-      <c r="C1" s="436" t="s">
+      <c r="B1" s="426"/>
+      <c r="C1" s="428" t="s">
         <v>125</v>
       </c>
-      <c r="D1" s="437"/>
-      <c r="E1" s="437"/>
-      <c r="F1" s="437"/>
-      <c r="G1" s="437"/>
-      <c r="H1" s="437"/>
-      <c r="I1" s="437"/>
-      <c r="J1" s="437"/>
-      <c r="K1" s="437"/>
-      <c r="L1" s="437"/>
-      <c r="M1" s="437"/>
+      <c r="D1" s="429"/>
+      <c r="E1" s="429"/>
+      <c r="F1" s="429"/>
+      <c r="G1" s="429"/>
+      <c r="H1" s="429"/>
+      <c r="I1" s="429"/>
+      <c r="J1" s="429"/>
+      <c r="K1" s="429"/>
+      <c r="L1" s="429"/>
+      <c r="M1" s="429"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="435"/>
+      <c r="B2" s="427"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -41098,21 +41887,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="438" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="439"/>
+      <c r="B3" s="430" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="431"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="440" t="s">
+      <c r="H3" s="432" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="440"/>
+      <c r="I3" s="432"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="407" t="s">
+      <c r="R3" s="437" t="s">
         <v>38</v>
       </c>
     </row>
@@ -41127,14 +41916,14 @@
       <c r="D4" s="16">
         <v>44591</v>
       </c>
-      <c r="E4" s="441" t="s">
+      <c r="E4" s="433" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="442"/>
-      <c r="H4" s="443" t="s">
+      <c r="F4" s="434"/>
+      <c r="H4" s="435" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="444"/>
+      <c r="I4" s="436"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -41144,11 +41933,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="414" t="s">
+      <c r="P4" s="444" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="415"/>
-      <c r="R4" s="408"/>
+      <c r="Q4" s="445"/>
+      <c r="R4" s="438"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -42585,11 +43374,11 @@
       <c r="J40" s="71"/>
       <c r="K40" s="87"/>
       <c r="L40" s="78"/>
-      <c r="M40" s="445">
+      <c r="M40" s="464">
         <f>SUM(M5:M39)</f>
         <v>1636108</v>
       </c>
-      <c r="N40" s="418">
+      <c r="N40" s="448">
         <f>SUM(N5:N39)</f>
         <v>55675</v>
       </c>
@@ -42614,8 +43403,8 @@
       <c r="J41" s="71"/>
       <c r="K41" s="74"/>
       <c r="L41" s="73"/>
-      <c r="M41" s="417"/>
-      <c r="N41" s="419"/>
+      <c r="M41" s="447"/>
+      <c r="N41" s="449"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -42822,29 +43611,29 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="420" t="s">
+      <c r="H53" s="450" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="421"/>
+      <c r="I53" s="451"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="422">
+      <c r="K53" s="452">
         <f>I51+L51</f>
         <v>45634.280000000006</v>
       </c>
-      <c r="L53" s="423"/>
-      <c r="M53" s="424">
+      <c r="L53" s="453"/>
+      <c r="M53" s="454">
         <f>N40+M40</f>
         <v>1691783</v>
       </c>
-      <c r="N53" s="425"/>
+      <c r="N53" s="455"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="426" t="s">
+      <c r="D54" s="456" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="426"/>
+      <c r="E54" s="456"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
         <v>1686442.72</v>
@@ -42855,22 +43644,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="427" t="s">
+      <c r="D55" s="457" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="427"/>
+      <c r="E55" s="457"/>
       <c r="F55" s="111">
         <v>-1631962.77</v>
       </c>
-      <c r="I55" s="428" t="s">
+      <c r="I55" s="458" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="429"/>
-      <c r="K55" s="430">
+      <c r="J55" s="459"/>
+      <c r="K55" s="460">
         <f>F57+F58+F59</f>
         <v>238822.13999999996</v>
       </c>
-      <c r="L55" s="431"/>
+      <c r="L55" s="461"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -42901,11 +43690,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="432">
+      <c r="K57" s="462">
         <f>-C4</f>
         <v>-154314.51999999999</v>
       </c>
-      <c r="L57" s="433"/>
+      <c r="L57" s="463"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -42922,22 +43711,22 @@
       <c r="C59" s="128">
         <v>44619</v>
       </c>
-      <c r="D59" s="409" t="s">
+      <c r="D59" s="439" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="410"/>
+      <c r="E59" s="440"/>
       <c r="F59" s="129">
         <v>184342.19</v>
       </c>
-      <c r="I59" s="411" t="s">
+      <c r="I59" s="441" t="s">
         <v>168</v>
       </c>
-      <c r="J59" s="412"/>
-      <c r="K59" s="413">
+      <c r="J59" s="442"/>
+      <c r="K59" s="443">
         <f>K55+K57</f>
         <v>84507.619999999966</v>
       </c>
-      <c r="L59" s="413"/>
+      <c r="L59" s="443"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="130"/>
@@ -43062,18 +43851,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -43083,6 +43860,18 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -44387,23 +45176,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="434"/>
-      <c r="C1" s="436" t="s">
+      <c r="B1" s="426"/>
+      <c r="C1" s="428" t="s">
         <v>135</v>
       </c>
-      <c r="D1" s="437"/>
-      <c r="E1" s="437"/>
-      <c r="F1" s="437"/>
-      <c r="G1" s="437"/>
-      <c r="H1" s="437"/>
-      <c r="I1" s="437"/>
-      <c r="J1" s="437"/>
-      <c r="K1" s="437"/>
-      <c r="L1" s="437"/>
-      <c r="M1" s="437"/>
+      <c r="D1" s="429"/>
+      <c r="E1" s="429"/>
+      <c r="F1" s="429"/>
+      <c r="G1" s="429"/>
+      <c r="H1" s="429"/>
+      <c r="I1" s="429"/>
+      <c r="J1" s="429"/>
+      <c r="K1" s="429"/>
+      <c r="L1" s="429"/>
+      <c r="M1" s="429"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="435"/>
+      <c r="B2" s="427"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -44413,21 +45202,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="438" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="439"/>
+      <c r="B3" s="430" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="431"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="440" t="s">
+      <c r="H3" s="432" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="440"/>
+      <c r="I3" s="432"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="407" t="s">
+      <c r="R3" s="437" t="s">
         <v>38</v>
       </c>
     </row>
@@ -44442,14 +45231,14 @@
       <c r="D4" s="16">
         <v>44619</v>
       </c>
-      <c r="E4" s="441" t="s">
+      <c r="E4" s="433" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="442"/>
-      <c r="H4" s="443" t="s">
+      <c r="F4" s="434"/>
+      <c r="H4" s="435" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="444"/>
+      <c r="I4" s="436"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -44459,11 +45248,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="414" t="s">
+      <c r="P4" s="444" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="415"/>
-      <c r="R4" s="408"/>
+      <c r="Q4" s="445"/>
+      <c r="R4" s="438"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -45914,11 +46703,11 @@
       <c r="J40" s="71"/>
       <c r="K40" s="87"/>
       <c r="L40" s="73"/>
-      <c r="M40" s="416">
+      <c r="M40" s="446">
         <f>SUM(M5:M39)</f>
         <v>1793435</v>
       </c>
-      <c r="N40" s="418">
+      <c r="N40" s="448">
         <f>SUM(N5:N39)</f>
         <v>63995</v>
       </c>
@@ -45943,8 +46732,8 @@
       <c r="J41" s="71"/>
       <c r="K41" s="235"/>
       <c r="L41" s="73"/>
-      <c r="M41" s="417"/>
-      <c r="N41" s="419"/>
+      <c r="M41" s="447"/>
+      <c r="N41" s="449"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -46083,29 +46872,29 @@
       <c r="A49" s="33"/>
       <c r="B49" s="113"/>
       <c r="C49" s="1"/>
-      <c r="H49" s="420" t="s">
+      <c r="H49" s="450" t="s">
         <v>12</v>
       </c>
-      <c r="I49" s="421"/>
+      <c r="I49" s="451"/>
       <c r="J49" s="114"/>
-      <c r="K49" s="422">
+      <c r="K49" s="452">
         <f>I47+L47</f>
         <v>90434.03</v>
       </c>
-      <c r="L49" s="423"/>
-      <c r="M49" s="424">
+      <c r="L49" s="453"/>
+      <c r="M49" s="454">
         <f>N40+M40</f>
         <v>1857430</v>
       </c>
-      <c r="N49" s="425"/>
+      <c r="N49" s="455"/>
       <c r="P49" s="32"/>
       <c r="Q49" s="8"/>
     </row>
     <row r="50" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D50" s="426" t="s">
+      <c r="D50" s="456" t="s">
         <v>13</v>
       </c>
-      <c r="E50" s="426"/>
+      <c r="E50" s="456"/>
       <c r="F50" s="115">
         <f>F47-K49-C47</f>
         <v>1824260.97</v>
@@ -46116,22 +46905,22 @@
       <c r="Q50" s="8"/>
     </row>
     <row r="51" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D51" s="427" t="s">
+      <c r="D51" s="457" t="s">
         <v>14</v>
       </c>
-      <c r="E51" s="427"/>
+      <c r="E51" s="457"/>
       <c r="F51" s="111">
         <v>-1848136.64</v>
       </c>
-      <c r="I51" s="428" t="s">
+      <c r="I51" s="458" t="s">
         <v>15</v>
       </c>
-      <c r="J51" s="429"/>
-      <c r="K51" s="430">
+      <c r="J51" s="459"/>
+      <c r="K51" s="460">
         <f>F53+F54+F55</f>
         <v>195541.70000000007</v>
       </c>
-      <c r="L51" s="431"/>
+      <c r="L51" s="461"/>
       <c r="P51" s="32"/>
       <c r="Q51" s="8"/>
     </row>
@@ -46162,11 +46951,11 @@
         <v>17</v>
       </c>
       <c r="J53" s="125"/>
-      <c r="K53" s="432">
+      <c r="K53" s="462">
         <f>-C4</f>
         <v>-184342.19</v>
       </c>
-      <c r="L53" s="433"/>
+      <c r="L53" s="463"/>
     </row>
     <row r="54" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D54" s="126" t="s">
@@ -46183,22 +46972,22 @@
       <c r="C55" s="128">
         <v>44647</v>
       </c>
-      <c r="D55" s="409" t="s">
+      <c r="D55" s="439" t="s">
         <v>20</v>
       </c>
-      <c r="E55" s="410"/>
+      <c r="E55" s="440"/>
       <c r="F55" s="129">
         <v>219417.37</v>
       </c>
-      <c r="I55" s="411" t="s">
+      <c r="I55" s="441" t="s">
         <v>226</v>
       </c>
-      <c r="J55" s="412"/>
-      <c r="K55" s="413">
+      <c r="J55" s="442"/>
+      <c r="K55" s="443">
         <f>K51+K53</f>
         <v>11199.510000000068</v>
       </c>
-      <c r="L55" s="413"/>
+      <c r="L55" s="443"/>
     </row>
     <row r="56" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C56" s="130"/>
@@ -46326,6 +47115,18 @@
     <sortCondition ref="J34:J38"/>
   </sortState>
   <mergeCells count="21">
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -46335,18 +47136,6 @@
     <mergeCell ref="H49:I49"/>
     <mergeCell ref="K49:L49"/>
     <mergeCell ref="M49:N49"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -47821,23 +48610,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="434"/>
-      <c r="C1" s="436" t="s">
+      <c r="B1" s="426"/>
+      <c r="C1" s="428" t="s">
         <v>225</v>
       </c>
-      <c r="D1" s="437"/>
-      <c r="E1" s="437"/>
-      <c r="F1" s="437"/>
-      <c r="G1" s="437"/>
-      <c r="H1" s="437"/>
-      <c r="I1" s="437"/>
-      <c r="J1" s="437"/>
-      <c r="K1" s="437"/>
-      <c r="L1" s="437"/>
-      <c r="M1" s="437"/>
+      <c r="D1" s="429"/>
+      <c r="E1" s="429"/>
+      <c r="F1" s="429"/>
+      <c r="G1" s="429"/>
+      <c r="H1" s="429"/>
+      <c r="I1" s="429"/>
+      <c r="J1" s="429"/>
+      <c r="K1" s="429"/>
+      <c r="L1" s="429"/>
+      <c r="M1" s="429"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="435"/>
+      <c r="B2" s="427"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -47847,21 +48636,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="438" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="439"/>
+      <c r="B3" s="430" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="431"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="440" t="s">
+      <c r="H3" s="432" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="440"/>
+      <c r="I3" s="432"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="407" t="s">
+      <c r="R3" s="437" t="s">
         <v>38</v>
       </c>
     </row>
@@ -47876,14 +48665,14 @@
       <c r="D4" s="16">
         <v>44647</v>
       </c>
-      <c r="E4" s="441" t="s">
+      <c r="E4" s="433" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="442"/>
-      <c r="H4" s="443" t="s">
+      <c r="F4" s="434"/>
+      <c r="H4" s="435" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="444"/>
+      <c r="I4" s="436"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -47893,11 +48682,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="414" t="s">
+      <c r="P4" s="444" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="415"/>
-      <c r="R4" s="408"/>
+      <c r="Q4" s="445"/>
+      <c r="R4" s="438"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -49494,11 +50283,11 @@
         <f>927.48+128</f>
         <v>1055.48</v>
       </c>
-      <c r="M40" s="416">
+      <c r="M40" s="446">
         <f>SUM(M5:M39)</f>
         <v>2146671</v>
       </c>
-      <c r="N40" s="418">
+      <c r="N40" s="448">
         <f>SUM(N5:N39)</f>
         <v>68590</v>
       </c>
@@ -49529,8 +50318,8 @@
       <c r="L41" s="73">
         <v>1195.68</v>
       </c>
-      <c r="M41" s="417"/>
-      <c r="N41" s="419"/>
+      <c r="M41" s="447"/>
+      <c r="N41" s="449"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -49761,29 +50550,29 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="420" t="s">
+      <c r="H53" s="450" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="421"/>
+      <c r="I53" s="451"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="422">
+      <c r="K53" s="452">
         <f>I51+L51</f>
         <v>91272.77</v>
       </c>
-      <c r="L53" s="423"/>
-      <c r="M53" s="424">
+      <c r="L53" s="453"/>
+      <c r="M53" s="454">
         <f>N40+M40</f>
         <v>2215261</v>
       </c>
-      <c r="N53" s="425"/>
+      <c r="N53" s="455"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="426" t="s">
+      <c r="D54" s="456" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="426"/>
+      <c r="E54" s="456"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
         <v>2179879.23</v>
@@ -49794,22 +50583,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="427" t="s">
+      <c r="D55" s="457" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="427"/>
+      <c r="E55" s="457"/>
       <c r="F55" s="111">
         <v>-2227493.48</v>
       </c>
-      <c r="I55" s="428" t="s">
+      <c r="I55" s="458" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="429"/>
-      <c r="K55" s="430">
+      <c r="J55" s="459"/>
+      <c r="K55" s="460">
         <f>F57+F58+F59</f>
         <v>261521.34000000003</v>
       </c>
-      <c r="L55" s="431"/>
+      <c r="L55" s="461"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -49840,11 +50629,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="432">
+      <c r="K57" s="462">
         <f>-C4</f>
         <v>-219417.37</v>
       </c>
-      <c r="L57" s="433"/>
+      <c r="L57" s="463"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -49861,22 +50650,22 @@
       <c r="C59" s="128">
         <v>44682</v>
       </c>
-      <c r="D59" s="409" t="s">
+      <c r="D59" s="439" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="410"/>
+      <c r="E59" s="440"/>
       <c r="F59" s="129">
         <v>297874.59000000003</v>
       </c>
-      <c r="I59" s="411" t="s">
+      <c r="I59" s="441" t="s">
         <v>168</v>
       </c>
-      <c r="J59" s="412"/>
-      <c r="K59" s="413">
+      <c r="J59" s="442"/>
+      <c r="K59" s="443">
         <f>K55+K57</f>
         <v>42103.97000000003</v>
       </c>
-      <c r="L59" s="413"/>
+      <c r="L59" s="443"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="130"/>
@@ -50004,6 +50793,18 @@
     <sortCondition ref="J40:J44"/>
   </sortState>
   <mergeCells count="21">
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -50013,18 +50814,6 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -51528,23 +52317,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="434"/>
-      <c r="C1" s="436" t="s">
+      <c r="B1" s="426"/>
+      <c r="C1" s="428" t="s">
         <v>277</v>
       </c>
-      <c r="D1" s="437"/>
-      <c r="E1" s="437"/>
-      <c r="F1" s="437"/>
-      <c r="G1" s="437"/>
-      <c r="H1" s="437"/>
-      <c r="I1" s="437"/>
-      <c r="J1" s="437"/>
-      <c r="K1" s="437"/>
-      <c r="L1" s="437"/>
-      <c r="M1" s="437"/>
+      <c r="D1" s="429"/>
+      <c r="E1" s="429"/>
+      <c r="F1" s="429"/>
+      <c r="G1" s="429"/>
+      <c r="H1" s="429"/>
+      <c r="I1" s="429"/>
+      <c r="J1" s="429"/>
+      <c r="K1" s="429"/>
+      <c r="L1" s="429"/>
+      <c r="M1" s="429"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="435"/>
+      <c r="B2" s="427"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -51554,21 +52343,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="438" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="439"/>
+      <c r="B3" s="430" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="431"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="440" t="s">
+      <c r="H3" s="432" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="440"/>
+      <c r="I3" s="432"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="407" t="s">
+      <c r="R3" s="437" t="s">
         <v>38</v>
       </c>
     </row>
@@ -51583,14 +52372,14 @@
       <c r="D4" s="16">
         <v>44682</v>
       </c>
-      <c r="E4" s="441" t="s">
+      <c r="E4" s="433" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="442"/>
-      <c r="H4" s="443" t="s">
+      <c r="F4" s="434"/>
+      <c r="H4" s="435" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="444"/>
+      <c r="I4" s="436"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -51600,11 +52389,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="414" t="s">
+      <c r="P4" s="444" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="415"/>
-      <c r="R4" s="408"/>
+      <c r="Q4" s="445"/>
+      <c r="R4" s="438"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -53121,11 +53910,11 @@
       <c r="J40" s="71"/>
       <c r="K40" s="74"/>
       <c r="L40" s="73"/>
-      <c r="M40" s="416">
+      <c r="M40" s="446">
         <f>SUM(M5:M39)</f>
         <v>2144215</v>
       </c>
-      <c r="N40" s="418">
+      <c r="N40" s="448">
         <f>SUM(N5:N39)</f>
         <v>62525</v>
       </c>
@@ -53150,8 +53939,8 @@
       <c r="J41" s="71"/>
       <c r="K41" s="235"/>
       <c r="L41" s="73"/>
-      <c r="M41" s="417"/>
-      <c r="N41" s="419"/>
+      <c r="M41" s="447"/>
+      <c r="N41" s="449"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -53362,29 +54151,29 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="420" t="s">
+      <c r="H53" s="450" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="421"/>
+      <c r="I53" s="451"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="422">
+      <c r="K53" s="452">
         <f>I51+L51</f>
         <v>51231.42</v>
       </c>
-      <c r="L53" s="423"/>
-      <c r="M53" s="424">
+      <c r="L53" s="453"/>
+      <c r="M53" s="454">
         <f>N40+M40</f>
         <v>2206740</v>
       </c>
-      <c r="N53" s="425"/>
+      <c r="N53" s="455"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="426" t="s">
+      <c r="D54" s="456" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="426"/>
+      <c r="E54" s="456"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
         <v>2189405.58</v>
@@ -53395,22 +54184,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="427" t="s">
+      <c r="D55" s="457" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="427"/>
+      <c r="E55" s="457"/>
       <c r="F55" s="111">
         <v>-2251924.65</v>
       </c>
-      <c r="I55" s="428" t="s">
+      <c r="I55" s="458" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="429"/>
-      <c r="K55" s="430">
+      <c r="J55" s="459"/>
+      <c r="K55" s="460">
         <f>F57+F58+F59</f>
         <v>112552.74000000017</v>
       </c>
-      <c r="L55" s="431"/>
+      <c r="L55" s="461"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -53441,11 +54230,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="432">
+      <c r="K57" s="462">
         <f>-C4</f>
         <v>-297874.59000000003</v>
       </c>
-      <c r="L57" s="433"/>
+      <c r="L57" s="463"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -53462,22 +54251,22 @@
       <c r="C59" s="128">
         <v>44710</v>
       </c>
-      <c r="D59" s="409" t="s">
+      <c r="D59" s="439" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="410"/>
+      <c r="E59" s="440"/>
       <c r="F59" s="129">
         <v>149938.81</v>
       </c>
-      <c r="I59" s="411" t="s">
+      <c r="I59" s="441" t="s">
         <v>325</v>
       </c>
-      <c r="J59" s="412"/>
-      <c r="K59" s="413">
+      <c r="J59" s="442"/>
+      <c r="K59" s="443">
         <f>K55+K57</f>
         <v>-185321.84999999986</v>
       </c>
-      <c r="L59" s="413"/>
+      <c r="L59" s="443"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="130"/>
@@ -53605,18 +54394,6 @@
     <sortCondition ref="J35:J40"/>
   </sortState>
   <mergeCells count="21">
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -53626,6 +54403,18 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL#15  ARCHIVO   2 0 2 2/CENTRAL #12  DICIEMBRE 2022/BALANCE   HERRADURA  DICIEMBRE       2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL#15  ARCHIVO   2 0 2 2/CENTRAL #12  DICIEMBRE 2022/BALANCE   HERRADURA  DICIEMBRE       2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="195" yWindow="915" windowWidth="16905" windowHeight="10110" firstSheet="21" activeTab="22"/>
+    <workbookView xWindow="195" yWindow="915" windowWidth="16905" windowHeight="10110" firstSheet="20" activeTab="22"/>
   </bookViews>
   <sheets>
     <sheet name="E N E R O    2 0 2 2         " sheetId="1" r:id="rId1"/>
@@ -752,7 +752,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1252" uniqueCount="656">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1261" uniqueCount="659">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -2746,6 +2746,15 @@
       </rPr>
       <t>-30-Dic-22</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">GUARDIA </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ADT</t>
+  </si>
+  <si>
+    <t>COMISION ????</t>
   </si>
 </sst>
 </file>
@@ -4170,7 +4179,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="468">
+  <cellXfs count="470">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -4947,6 +4956,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="33" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="11" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -10505,23 +10520,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="426"/>
-      <c r="C1" s="428" t="s">
+      <c r="B1" s="428"/>
+      <c r="C1" s="430" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="429"/>
-      <c r="E1" s="429"/>
-      <c r="F1" s="429"/>
-      <c r="G1" s="429"/>
-      <c r="H1" s="429"/>
-      <c r="I1" s="429"/>
-      <c r="J1" s="429"/>
-      <c r="K1" s="429"/>
-      <c r="L1" s="429"/>
-      <c r="M1" s="429"/>
+      <c r="D1" s="431"/>
+      <c r="E1" s="431"/>
+      <c r="F1" s="431"/>
+      <c r="G1" s="431"/>
+      <c r="H1" s="431"/>
+      <c r="I1" s="431"/>
+      <c r="J1" s="431"/>
+      <c r="K1" s="431"/>
+      <c r="L1" s="431"/>
+      <c r="M1" s="431"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="427"/>
+      <c r="B2" s="429"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -10531,21 +10546,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="430" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="431"/>
+      <c r="B3" s="432" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="433"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="432" t="s">
+      <c r="H3" s="434" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="432"/>
+      <c r="I3" s="434"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="437" t="s">
+      <c r="R3" s="439" t="s">
         <v>38</v>
       </c>
     </row>
@@ -10560,14 +10575,14 @@
       <c r="D4" s="16">
         <v>44563</v>
       </c>
-      <c r="E4" s="433" t="s">
+      <c r="E4" s="435" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="434"/>
-      <c r="H4" s="435" t="s">
+      <c r="F4" s="436"/>
+      <c r="H4" s="437" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="436"/>
+      <c r="I4" s="438"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -10577,11 +10592,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="444" t="s">
+      <c r="P4" s="446" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="445"/>
-      <c r="R4" s="438"/>
+      <c r="Q4" s="447"/>
+      <c r="R4" s="440"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -12036,11 +12051,11 @@
       <c r="J40" s="71"/>
       <c r="K40" s="87"/>
       <c r="L40" s="73"/>
-      <c r="M40" s="446">
+      <c r="M40" s="448">
         <f>SUM(M5:M39)</f>
         <v>1527030</v>
       </c>
-      <c r="N40" s="448">
+      <c r="N40" s="450">
         <f>SUM(N5:N39)</f>
         <v>50013</v>
       </c>
@@ -12065,8 +12080,8 @@
       <c r="J41" s="71"/>
       <c r="K41" s="74"/>
       <c r="L41" s="73"/>
-      <c r="M41" s="447"/>
-      <c r="N41" s="449"/>
+      <c r="M41" s="449"/>
+      <c r="N41" s="451"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -12273,29 +12288,29 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="450" t="s">
+      <c r="H53" s="452" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="451"/>
+      <c r="I53" s="453"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="452">
+      <c r="K53" s="454">
         <f>I51+L51</f>
         <v>50143.28</v>
       </c>
-      <c r="L53" s="453"/>
-      <c r="M53" s="454">
+      <c r="L53" s="455"/>
+      <c r="M53" s="456">
         <f>N40+M40</f>
         <v>1577043</v>
       </c>
-      <c r="N53" s="455"/>
+      <c r="N53" s="457"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="456" t="s">
+      <c r="D54" s="458" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="456"/>
+      <c r="E54" s="458"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
         <v>1561421.72</v>
@@ -12306,22 +12321,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="457" t="s">
+      <c r="D55" s="459" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="457"/>
+      <c r="E55" s="459"/>
       <c r="F55" s="111">
         <v>-1419082.77</v>
       </c>
-      <c r="I55" s="458" t="s">
+      <c r="I55" s="460" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="459"/>
-      <c r="K55" s="460">
+      <c r="J55" s="461"/>
+      <c r="K55" s="462">
         <f>F57+F58+F59</f>
         <v>296963.46999999997</v>
       </c>
-      <c r="L55" s="461"/>
+      <c r="L55" s="463"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -12352,11 +12367,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="462">
+      <c r="K57" s="464">
         <f>-C4</f>
         <v>-221059.7</v>
       </c>
-      <c r="L57" s="463"/>
+      <c r="L57" s="465"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -12373,22 +12388,22 @@
       <c r="C59" s="128">
         <v>44591</v>
       </c>
-      <c r="D59" s="439" t="s">
+      <c r="D59" s="441" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="440"/>
+      <c r="E59" s="442"/>
       <c r="F59" s="129">
         <v>154314.51999999999</v>
       </c>
-      <c r="I59" s="441" t="s">
+      <c r="I59" s="443" t="s">
         <v>168</v>
       </c>
-      <c r="J59" s="442"/>
-      <c r="K59" s="443">
+      <c r="J59" s="444"/>
+      <c r="K59" s="445">
         <f>K55+K57</f>
         <v>75903.76999999996</v>
       </c>
-      <c r="L59" s="443"/>
+      <c r="L59" s="445"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="130"/>
@@ -13986,23 +14001,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="426"/>
-      <c r="C1" s="428" t="s">
+      <c r="B1" s="428"/>
+      <c r="C1" s="430" t="s">
         <v>326</v>
       </c>
-      <c r="D1" s="429"/>
-      <c r="E1" s="429"/>
-      <c r="F1" s="429"/>
-      <c r="G1" s="429"/>
-      <c r="H1" s="429"/>
-      <c r="I1" s="429"/>
-      <c r="J1" s="429"/>
-      <c r="K1" s="429"/>
-      <c r="L1" s="429"/>
-      <c r="M1" s="429"/>
+      <c r="D1" s="431"/>
+      <c r="E1" s="431"/>
+      <c r="F1" s="431"/>
+      <c r="G1" s="431"/>
+      <c r="H1" s="431"/>
+      <c r="I1" s="431"/>
+      <c r="J1" s="431"/>
+      <c r="K1" s="431"/>
+      <c r="L1" s="431"/>
+      <c r="M1" s="431"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="427"/>
+      <c r="B2" s="429"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -14012,21 +14027,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="430" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="431"/>
+      <c r="B3" s="432" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="433"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="432" t="s">
+      <c r="H3" s="434" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="432"/>
+      <c r="I3" s="434"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="437" t="s">
+      <c r="R3" s="439" t="s">
         <v>38</v>
       </c>
     </row>
@@ -14041,14 +14056,14 @@
       <c r="D4" s="16">
         <v>44710</v>
       </c>
-      <c r="E4" s="433" t="s">
+      <c r="E4" s="435" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="434"/>
-      <c r="H4" s="435" t="s">
+      <c r="F4" s="436"/>
+      <c r="H4" s="437" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="436"/>
+      <c r="I4" s="438"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -14058,11 +14073,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="444" t="s">
+      <c r="P4" s="446" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="445"/>
-      <c r="R4" s="438"/>
+      <c r="Q4" s="447"/>
+      <c r="R4" s="440"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -15592,11 +15607,11 @@
       <c r="J40" s="71"/>
       <c r="K40" s="74"/>
       <c r="L40" s="73"/>
-      <c r="M40" s="446">
+      <c r="M40" s="448">
         <f>SUM(M5:M39)</f>
         <v>2772689</v>
       </c>
-      <c r="N40" s="448">
+      <c r="N40" s="450">
         <f>SUM(N5:N39)</f>
         <v>107354</v>
       </c>
@@ -15627,8 +15642,8 @@
       <c r="L41" s="73">
         <v>638.99</v>
       </c>
-      <c r="M41" s="447"/>
-      <c r="N41" s="449"/>
+      <c r="M41" s="449"/>
+      <c r="N41" s="451"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -15874,29 +15889,29 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="450" t="s">
+      <c r="H53" s="452" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="451"/>
+      <c r="I53" s="453"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="452">
+      <c r="K53" s="454">
         <f>I51+L51</f>
         <v>60691.69</v>
       </c>
-      <c r="L53" s="453"/>
-      <c r="M53" s="454">
+      <c r="L53" s="455"/>
+      <c r="M53" s="456">
         <f>N40+M40</f>
         <v>2880043</v>
       </c>
-      <c r="N53" s="455"/>
+      <c r="N53" s="457"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="456" t="s">
+      <c r="D54" s="458" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="456"/>
+      <c r="E54" s="458"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
         <v>2844548.31</v>
@@ -15907,22 +15922,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="457" t="s">
+      <c r="D55" s="459" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="457"/>
+      <c r="E55" s="459"/>
       <c r="F55" s="111">
         <v>-2875380.48</v>
       </c>
-      <c r="I55" s="458" t="s">
+      <c r="I55" s="460" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="459"/>
-      <c r="K55" s="460">
+      <c r="J55" s="461"/>
+      <c r="K55" s="462">
         <f>F57+F58+F59</f>
         <v>247554.74000000008</v>
       </c>
-      <c r="L55" s="461"/>
+      <c r="L55" s="463"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -15953,11 +15968,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="462">
+      <c r="K57" s="464">
         <f>-C4</f>
         <v>-149938.81</v>
       </c>
-      <c r="L57" s="463"/>
+      <c r="L57" s="465"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -15974,22 +15989,22 @@
       <c r="C59" s="128">
         <v>44745</v>
       </c>
-      <c r="D59" s="439" t="s">
+      <c r="D59" s="441" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="440"/>
+      <c r="E59" s="442"/>
       <c r="F59" s="129">
         <v>232165.91</v>
       </c>
-      <c r="I59" s="441" t="s">
+      <c r="I59" s="443" t="s">
         <v>168</v>
       </c>
-      <c r="J59" s="442"/>
-      <c r="K59" s="443">
+      <c r="J59" s="444"/>
+      <c r="K59" s="445">
         <f>K55+K57</f>
         <v>97615.93000000008</v>
       </c>
-      <c r="L59" s="443"/>
+      <c r="L59" s="445"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="130"/>
@@ -17619,23 +17634,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="426"/>
-      <c r="C1" s="428" t="s">
+      <c r="B1" s="428"/>
+      <c r="C1" s="430" t="s">
         <v>380</v>
       </c>
-      <c r="D1" s="429"/>
-      <c r="E1" s="429"/>
-      <c r="F1" s="429"/>
-      <c r="G1" s="429"/>
-      <c r="H1" s="429"/>
-      <c r="I1" s="429"/>
-      <c r="J1" s="429"/>
-      <c r="K1" s="429"/>
-      <c r="L1" s="429"/>
-      <c r="M1" s="429"/>
+      <c r="D1" s="431"/>
+      <c r="E1" s="431"/>
+      <c r="F1" s="431"/>
+      <c r="G1" s="431"/>
+      <c r="H1" s="431"/>
+      <c r="I1" s="431"/>
+      <c r="J1" s="431"/>
+      <c r="K1" s="431"/>
+      <c r="L1" s="431"/>
+      <c r="M1" s="431"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="427"/>
+      <c r="B2" s="429"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -17645,21 +17660,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="430" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="431"/>
+      <c r="B3" s="432" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="433"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="432" t="s">
+      <c r="H3" s="434" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="432"/>
+      <c r="I3" s="434"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="437" t="s">
+      <c r="R3" s="439" t="s">
         <v>38</v>
       </c>
     </row>
@@ -17674,14 +17689,14 @@
       <c r="D4" s="16">
         <v>44745</v>
       </c>
-      <c r="E4" s="433" t="s">
+      <c r="E4" s="435" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="434"/>
-      <c r="H4" s="435" t="s">
+      <c r="F4" s="436"/>
+      <c r="H4" s="437" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="436"/>
+      <c r="I4" s="438"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -17691,11 +17706,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="444" t="s">
+      <c r="P4" s="446" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="445"/>
-      <c r="R4" s="438"/>
+      <c r="Q4" s="447"/>
+      <c r="R4" s="440"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -19140,11 +19155,11 @@
       <c r="J40" s="71"/>
       <c r="K40" s="74"/>
       <c r="L40" s="73"/>
-      <c r="M40" s="446">
+      <c r="M40" s="448">
         <f>SUM(M5:M39)</f>
         <v>2373103</v>
       </c>
-      <c r="N40" s="448">
+      <c r="N40" s="450">
         <f>SUM(N5:N39)</f>
         <v>67308</v>
       </c>
@@ -19173,8 +19188,8 @@
       <c r="J41" s="71"/>
       <c r="K41" s="235"/>
       <c r="L41" s="73"/>
-      <c r="M41" s="447"/>
-      <c r="N41" s="449"/>
+      <c r="M41" s="449"/>
+      <c r="N41" s="451"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -19389,29 +19404,29 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="450" t="s">
+      <c r="H53" s="452" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="451"/>
+      <c r="I53" s="453"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="452">
+      <c r="K53" s="454">
         <f>I51+L51</f>
         <v>79649.720000000016</v>
       </c>
-      <c r="L53" s="453"/>
-      <c r="M53" s="454">
+      <c r="L53" s="455"/>
+      <c r="M53" s="456">
         <f>N40+M40</f>
         <v>2440411</v>
       </c>
-      <c r="N53" s="455"/>
+      <c r="N53" s="457"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="456" t="s">
+      <c r="D54" s="458" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="456"/>
+      <c r="E54" s="458"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
         <v>2356249.2799999998</v>
@@ -19422,22 +19437,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="457" t="s">
+      <c r="D55" s="459" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="457"/>
+      <c r="E55" s="459"/>
       <c r="F55" s="111">
         <v>-2471332.31</v>
       </c>
-      <c r="I55" s="458" t="s">
+      <c r="I55" s="460" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="459"/>
-      <c r="K55" s="460">
+      <c r="J55" s="461"/>
+      <c r="K55" s="462">
         <f>F57+F58+F59</f>
         <v>214026.38999999972</v>
       </c>
-      <c r="L55" s="461"/>
+      <c r="L55" s="463"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -19468,11 +19483,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="462">
+      <c r="K57" s="464">
         <f>-C4</f>
         <v>-232165.91</v>
       </c>
-      <c r="L57" s="463"/>
+      <c r="L57" s="465"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -19489,22 +19504,22 @@
       <c r="C59" s="128">
         <v>44773</v>
       </c>
-      <c r="D59" s="439" t="s">
+      <c r="D59" s="441" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="440"/>
+      <c r="E59" s="442"/>
       <c r="F59" s="129">
         <v>273736.42</v>
       </c>
-      <c r="I59" s="441" t="s">
+      <c r="I59" s="443" t="s">
         <v>325</v>
       </c>
-      <c r="J59" s="442"/>
-      <c r="K59" s="443">
+      <c r="J59" s="444"/>
+      <c r="K59" s="445">
         <f>K55+K57</f>
         <v>-18139.520000000281</v>
       </c>
-      <c r="L59" s="443"/>
+      <c r="L59" s="445"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="130"/>
@@ -21041,23 +21056,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="426"/>
-      <c r="C1" s="428" t="s">
+      <c r="B1" s="428"/>
+      <c r="C1" s="430" t="s">
         <v>421</v>
       </c>
-      <c r="D1" s="429"/>
-      <c r="E1" s="429"/>
-      <c r="F1" s="429"/>
-      <c r="G1" s="429"/>
-      <c r="H1" s="429"/>
-      <c r="I1" s="429"/>
-      <c r="J1" s="429"/>
-      <c r="K1" s="429"/>
-      <c r="L1" s="429"/>
-      <c r="M1" s="429"/>
+      <c r="D1" s="431"/>
+      <c r="E1" s="431"/>
+      <c r="F1" s="431"/>
+      <c r="G1" s="431"/>
+      <c r="H1" s="431"/>
+      <c r="I1" s="431"/>
+      <c r="J1" s="431"/>
+      <c r="K1" s="431"/>
+      <c r="L1" s="431"/>
+      <c r="M1" s="431"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="427"/>
+      <c r="B2" s="429"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -21067,21 +21082,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="430" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="431"/>
+      <c r="B3" s="432" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="433"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="432" t="s">
+      <c r="H3" s="434" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="432"/>
+      <c r="I3" s="434"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="437" t="s">
+      <c r="R3" s="439" t="s">
         <v>38</v>
       </c>
     </row>
@@ -21096,14 +21111,14 @@
       <c r="D4" s="16">
         <v>44773</v>
       </c>
-      <c r="E4" s="433" t="s">
+      <c r="E4" s="435" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="434"/>
-      <c r="H4" s="435" t="s">
+      <c r="F4" s="436"/>
+      <c r="H4" s="437" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="436"/>
+      <c r="I4" s="438"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -21113,11 +21128,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="444" t="s">
+      <c r="P4" s="446" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="445"/>
-      <c r="R4" s="438"/>
+      <c r="Q4" s="447"/>
+      <c r="R4" s="440"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -22597,11 +22612,11 @@
       <c r="J40" s="71"/>
       <c r="K40" s="74"/>
       <c r="L40" s="73"/>
-      <c r="M40" s="446">
+      <c r="M40" s="448">
         <f>SUM(M5:M39)</f>
         <v>2375259</v>
       </c>
-      <c r="N40" s="448">
+      <c r="N40" s="450">
         <f>SUM(N5:N39)</f>
         <v>61117</v>
       </c>
@@ -22630,8 +22645,8 @@
       <c r="J41" s="71"/>
       <c r="K41" s="235"/>
       <c r="L41" s="73"/>
-      <c r="M41" s="447"/>
-      <c r="N41" s="449"/>
+      <c r="M41" s="449"/>
+      <c r="N41" s="451"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -22846,29 +22861,29 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="450" t="s">
+      <c r="H53" s="452" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="451"/>
+      <c r="I53" s="453"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="452">
+      <c r="K53" s="454">
         <f>I51+L51</f>
         <v>52857.25</v>
       </c>
-      <c r="L53" s="453"/>
-      <c r="M53" s="454">
+      <c r="L53" s="455"/>
+      <c r="M53" s="456">
         <f>N40+M40</f>
         <v>2436376</v>
       </c>
-      <c r="N53" s="455"/>
+      <c r="N53" s="457"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="456" t="s">
+      <c r="D54" s="458" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="456"/>
+      <c r="E54" s="458"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
         <v>2370653.75</v>
@@ -22879,22 +22894,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="457" t="s">
+      <c r="D55" s="459" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="457"/>
+      <c r="E55" s="459"/>
       <c r="F55" s="111">
         <v>-2401197.5699999998</v>
       </c>
-      <c r="I55" s="458" t="s">
+      <c r="I55" s="460" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="459"/>
-      <c r="K55" s="460">
+      <c r="J55" s="461"/>
+      <c r="K55" s="462">
         <f>F57+F58+F59</f>
         <v>259241.77000000016</v>
       </c>
-      <c r="L55" s="461"/>
+      <c r="L55" s="463"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -22925,11 +22940,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="462">
+      <c r="K57" s="464">
         <f>-C4</f>
         <v>-273736.42</v>
       </c>
-      <c r="L57" s="463"/>
+      <c r="L57" s="465"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -22946,22 +22961,22 @@
       <c r="C59" s="128">
         <v>44801</v>
       </c>
-      <c r="D59" s="439" t="s">
+      <c r="D59" s="441" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="440"/>
+      <c r="E59" s="442"/>
       <c r="F59" s="129">
         <v>236400.59</v>
       </c>
-      <c r="I59" s="465" t="s">
+      <c r="I59" s="467" t="s">
         <v>325</v>
       </c>
-      <c r="J59" s="466"/>
-      <c r="K59" s="467">
+      <c r="J59" s="468"/>
+      <c r="K59" s="469">
         <f>K55+K57</f>
         <v>-14494.64999999982</v>
       </c>
-      <c r="L59" s="467"/>
+      <c r="L59" s="469"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="130"/>
@@ -24553,23 +24568,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="426"/>
-      <c r="C1" s="428" t="s">
+      <c r="B1" s="428"/>
+      <c r="C1" s="430" t="s">
         <v>465</v>
       </c>
-      <c r="D1" s="429"/>
-      <c r="E1" s="429"/>
-      <c r="F1" s="429"/>
-      <c r="G1" s="429"/>
-      <c r="H1" s="429"/>
-      <c r="I1" s="429"/>
-      <c r="J1" s="429"/>
-      <c r="K1" s="429"/>
-      <c r="L1" s="429"/>
-      <c r="M1" s="429"/>
+      <c r="D1" s="431"/>
+      <c r="E1" s="431"/>
+      <c r="F1" s="431"/>
+      <c r="G1" s="431"/>
+      <c r="H1" s="431"/>
+      <c r="I1" s="431"/>
+      <c r="J1" s="431"/>
+      <c r="K1" s="431"/>
+      <c r="L1" s="431"/>
+      <c r="M1" s="431"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="427"/>
+      <c r="B2" s="429"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -24579,21 +24594,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="430" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="431"/>
+      <c r="B3" s="432" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="433"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="432" t="s">
+      <c r="H3" s="434" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="432"/>
+      <c r="I3" s="434"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="437" t="s">
+      <c r="R3" s="439" t="s">
         <v>38</v>
       </c>
     </row>
@@ -24608,14 +24623,14 @@
       <c r="D4" s="16">
         <v>44801</v>
       </c>
-      <c r="E4" s="433" t="s">
+      <c r="E4" s="435" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="434"/>
-      <c r="H4" s="435" t="s">
+      <c r="F4" s="436"/>
+      <c r="H4" s="437" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="436"/>
+      <c r="I4" s="438"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -24625,11 +24640,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="444" t="s">
+      <c r="P4" s="446" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="445"/>
-      <c r="R4" s="438"/>
+      <c r="Q4" s="447"/>
+      <c r="R4" s="440"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -26357,11 +26372,11 @@
       <c r="L40" s="73">
         <v>927.48</v>
       </c>
-      <c r="M40" s="446">
+      <c r="M40" s="448">
         <f>SUM(M5:M39)</f>
         <v>3147309.5</v>
       </c>
-      <c r="N40" s="448">
+      <c r="N40" s="450">
         <f>SUM(N5:N39)</f>
         <v>76569</v>
       </c>
@@ -26396,8 +26411,8 @@
       <c r="L41" s="73">
         <v>33312</v>
       </c>
-      <c r="M41" s="447"/>
-      <c r="N41" s="449"/>
+      <c r="M41" s="449"/>
+      <c r="N41" s="451"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -26640,29 +26655,29 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="450" t="s">
+      <c r="H53" s="452" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="451"/>
+      <c r="I53" s="453"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="452">
+      <c r="K53" s="454">
         <f>I51+L51</f>
         <v>102873.87000000001</v>
       </c>
-      <c r="L53" s="453"/>
-      <c r="M53" s="454">
+      <c r="L53" s="455"/>
+      <c r="M53" s="456">
         <f>N40+M40</f>
         <v>3223878.5</v>
       </c>
-      <c r="N53" s="455"/>
+      <c r="N53" s="457"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="456" t="s">
+      <c r="D54" s="458" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="456"/>
+      <c r="E54" s="458"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
         <v>3130076.13</v>
@@ -26673,22 +26688,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="457" t="s">
+      <c r="D55" s="459" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="457"/>
+      <c r="E55" s="459"/>
       <c r="F55" s="111">
         <v>-3171951.31</v>
       </c>
-      <c r="I55" s="458" t="s">
+      <c r="I55" s="460" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="459"/>
-      <c r="K55" s="460">
+      <c r="J55" s="461"/>
+      <c r="K55" s="462">
         <f>F57+F58+F59</f>
         <v>265314.0299999998</v>
       </c>
-      <c r="L55" s="461"/>
+      <c r="L55" s="463"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -26719,11 +26734,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="462">
+      <c r="K57" s="464">
         <f>-C4</f>
         <v>-236400.59</v>
       </c>
-      <c r="L57" s="463"/>
+      <c r="L57" s="465"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -26740,22 +26755,22 @@
       <c r="C59" s="128">
         <v>44836</v>
       </c>
-      <c r="D59" s="439" t="s">
+      <c r="D59" s="441" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="440"/>
+      <c r="E59" s="442"/>
       <c r="F59" s="129">
         <v>242354.21</v>
       </c>
-      <c r="I59" s="465" t="s">
+      <c r="I59" s="467" t="s">
         <v>325</v>
       </c>
-      <c r="J59" s="466"/>
-      <c r="K59" s="467">
+      <c r="J59" s="468"/>
+      <c r="K59" s="469">
         <f>K55+K57</f>
         <v>28913.439999999799</v>
       </c>
-      <c r="L59" s="467"/>
+      <c r="L59" s="469"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="130"/>
@@ -28373,7 +28388,7 @@
   <dimension ref="A1:U81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="D35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="D32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
       <selection pane="bottomRight" activeCell="J40" sqref="J40"/>
@@ -28401,23 +28416,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="426"/>
-      <c r="C1" s="428" t="s">
+      <c r="B1" s="428"/>
+      <c r="C1" s="430" t="s">
         <v>512</v>
       </c>
-      <c r="D1" s="429"/>
-      <c r="E1" s="429"/>
-      <c r="F1" s="429"/>
-      <c r="G1" s="429"/>
-      <c r="H1" s="429"/>
-      <c r="I1" s="429"/>
-      <c r="J1" s="429"/>
-      <c r="K1" s="429"/>
-      <c r="L1" s="429"/>
-      <c r="M1" s="429"/>
+      <c r="D1" s="431"/>
+      <c r="E1" s="431"/>
+      <c r="F1" s="431"/>
+      <c r="G1" s="431"/>
+      <c r="H1" s="431"/>
+      <c r="I1" s="431"/>
+      <c r="J1" s="431"/>
+      <c r="K1" s="431"/>
+      <c r="L1" s="431"/>
+      <c r="M1" s="431"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="427"/>
+      <c r="B2" s="429"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -28427,21 +28442,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="430" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="431"/>
+      <c r="B3" s="432" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="433"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="432" t="s">
+      <c r="H3" s="434" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="432"/>
+      <c r="I3" s="434"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="437" t="s">
+      <c r="R3" s="439" t="s">
         <v>38</v>
       </c>
     </row>
@@ -28456,14 +28471,14 @@
       <c r="D4" s="16">
         <v>44836</v>
       </c>
-      <c r="E4" s="433" t="s">
+      <c r="E4" s="435" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="434"/>
-      <c r="H4" s="435" t="s">
+      <c r="F4" s="436"/>
+      <c r="H4" s="437" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="436"/>
+      <c r="I4" s="438"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -28473,11 +28488,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="444" t="s">
+      <c r="P4" s="446" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="445"/>
-      <c r="R4" s="438"/>
+      <c r="Q4" s="447"/>
+      <c r="R4" s="440"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -30156,11 +30171,11 @@
       <c r="J40" s="71"/>
       <c r="K40" s="360"/>
       <c r="L40" s="73"/>
-      <c r="M40" s="446">
+      <c r="M40" s="448">
         <f>SUM(M5:M39)</f>
         <v>2563550</v>
       </c>
-      <c r="N40" s="448">
+      <c r="N40" s="450">
         <f>SUM(N5:N39)</f>
         <v>77235</v>
       </c>
@@ -30190,8 +30205,8 @@
       <c r="J41" s="71"/>
       <c r="K41" s="363"/>
       <c r="L41" s="73"/>
-      <c r="M41" s="447"/>
-      <c r="N41" s="449"/>
+      <c r="M41" s="449"/>
+      <c r="N41" s="451"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -30406,29 +30421,29 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="450" t="s">
+      <c r="H53" s="452" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="451"/>
+      <c r="I53" s="453"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="452">
+      <c r="K53" s="454">
         <f>I51+L51</f>
         <v>152307.24</v>
       </c>
-      <c r="L53" s="453"/>
-      <c r="M53" s="454">
+      <c r="L53" s="455"/>
+      <c r="M53" s="456">
         <f>N40+M40</f>
         <v>2640785</v>
       </c>
-      <c r="N53" s="455"/>
+      <c r="N53" s="457"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="456" t="s">
+      <c r="D54" s="458" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="456"/>
+      <c r="E54" s="458"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
         <v>2467299.5599999996</v>
@@ -30439,22 +30454,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="457" t="s">
+      <c r="D55" s="459" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="457"/>
+      <c r="E55" s="459"/>
       <c r="F55" s="111">
         <v>-2793202.57</v>
       </c>
-      <c r="I55" s="458" t="s">
+      <c r="I55" s="460" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="459"/>
-      <c r="K55" s="460">
+      <c r="J55" s="461"/>
+      <c r="K55" s="462">
         <f>F57+F58+F59</f>
         <v>149047.74999999977</v>
       </c>
-      <c r="L55" s="461"/>
+      <c r="L55" s="463"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -30485,11 +30500,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="462">
+      <c r="K57" s="464">
         <f>-C4</f>
         <v>-242354.21</v>
       </c>
-      <c r="L57" s="463"/>
+      <c r="L57" s="465"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -30506,22 +30521,22 @@
       <c r="C59" s="128">
         <v>44864</v>
       </c>
-      <c r="D59" s="439" t="s">
+      <c r="D59" s="441" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="440"/>
+      <c r="E59" s="442"/>
       <c r="F59" s="129">
         <v>419424.76</v>
       </c>
-      <c r="I59" s="465" t="s">
+      <c r="I59" s="467" t="s">
         <v>325</v>
       </c>
-      <c r="J59" s="466"/>
-      <c r="K59" s="467">
+      <c r="J59" s="468"/>
+      <c r="K59" s="469">
         <f>K55+K57</f>
         <v>-93306.460000000225</v>
       </c>
-      <c r="L59" s="467"/>
+      <c r="L59" s="469"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="130"/>
@@ -33808,8 +33823,8 @@
   </sheetPr>
   <dimension ref="A1:U81"/>
   <sheetViews>
-    <sheetView topLeftCell="B27" workbookViewId="0">
-      <selection activeCell="K38" sqref="K38"/>
+    <sheetView topLeftCell="B28" workbookViewId="0">
+      <selection activeCell="K59" sqref="K59:L59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33834,23 +33849,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="426"/>
-      <c r="C1" s="428" t="s">
+      <c r="B1" s="428"/>
+      <c r="C1" s="430" t="s">
         <v>550</v>
       </c>
-      <c r="D1" s="429"/>
-      <c r="E1" s="429"/>
-      <c r="F1" s="429"/>
-      <c r="G1" s="429"/>
-      <c r="H1" s="429"/>
-      <c r="I1" s="429"/>
-      <c r="J1" s="429"/>
-      <c r="K1" s="429"/>
-      <c r="L1" s="429"/>
-      <c r="M1" s="429"/>
+      <c r="D1" s="431"/>
+      <c r="E1" s="431"/>
+      <c r="F1" s="431"/>
+      <c r="G1" s="431"/>
+      <c r="H1" s="431"/>
+      <c r="I1" s="431"/>
+      <c r="J1" s="431"/>
+      <c r="K1" s="431"/>
+      <c r="L1" s="431"/>
+      <c r="M1" s="431"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="427"/>
+      <c r="B2" s="429"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -33860,21 +33875,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="430" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="431"/>
+      <c r="B3" s="432" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="433"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="432" t="s">
+      <c r="H3" s="434" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="432"/>
+      <c r="I3" s="434"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="437" t="s">
+      <c r="R3" s="439" t="s">
         <v>38</v>
       </c>
     </row>
@@ -33889,14 +33904,14 @@
       <c r="D4" s="16">
         <v>44864</v>
       </c>
-      <c r="E4" s="433" t="s">
+      <c r="E4" s="435" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="434"/>
-      <c r="H4" s="435" t="s">
+      <c r="F4" s="436"/>
+      <c r="H4" s="437" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="436"/>
+      <c r="I4" s="438"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -33906,11 +33921,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="444" t="s">
+      <c r="P4" s="446" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="445"/>
-      <c r="R4" s="438"/>
+      <c r="Q4" s="447"/>
+      <c r="R4" s="440"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -35539,9 +35554,15 @@
       <c r="G39" s="323"/>
       <c r="H39" s="324"/>
       <c r="I39" s="29"/>
-      <c r="J39" s="71"/>
-      <c r="K39" s="358"/>
-      <c r="L39" s="73"/>
+      <c r="J39" s="71">
+        <v>44890</v>
+      </c>
+      <c r="K39" s="426" t="s">
+        <v>547</v>
+      </c>
+      <c r="L39" s="73">
+        <v>31059</v>
+      </c>
       <c r="M39" s="30">
         <v>0</v>
       </c>
@@ -35551,11 +35572,11 @@
       <c r="O39" s="314"/>
       <c r="P39" s="32">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>31059</v>
       </c>
       <c r="Q39" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>31059</v>
       </c>
       <c r="R39" s="8">
         <v>0</v>
@@ -35575,11 +35596,11 @@
       <c r="J40" s="71"/>
       <c r="K40" s="360"/>
       <c r="L40" s="73"/>
-      <c r="M40" s="446">
+      <c r="M40" s="448">
         <f>SUM(M5:M39)</f>
         <v>2972555</v>
       </c>
-      <c r="N40" s="448">
+      <c r="N40" s="450">
         <f>SUM(N5:N39)</f>
         <v>108935</v>
       </c>
@@ -35589,7 +35610,7 @@
       </c>
       <c r="Q40" s="284">
         <f>SUM(Q5:Q39)</f>
-        <v>39391.210000000006</v>
+        <v>70450.210000000006</v>
       </c>
       <c r="R40" s="316">
         <f>SUM(R5:R39)</f>
@@ -35609,8 +35630,8 @@
       <c r="J41" s="71"/>
       <c r="K41" s="363"/>
       <c r="L41" s="73"/>
-      <c r="M41" s="447"/>
-      <c r="N41" s="449"/>
+      <c r="M41" s="449"/>
+      <c r="N41" s="451"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -35807,7 +35828,7 @@
       </c>
       <c r="L51" s="110">
         <f>SUM(L5:L50)</f>
-        <v>80901.209999999992</v>
+        <v>111960.20999999999</v>
       </c>
       <c r="M51" s="111"/>
       <c r="N51" s="111"/>
@@ -35825,32 +35846,32 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="450" t="s">
+      <c r="H53" s="452" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="451"/>
+      <c r="I53" s="453"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="452">
+      <c r="K53" s="454">
         <f>I51+L51</f>
-        <v>84934.209999999992</v>
-      </c>
-      <c r="L53" s="453"/>
-      <c r="M53" s="454">
+        <v>115993.20999999999</v>
+      </c>
+      <c r="L53" s="455"/>
+      <c r="M53" s="456">
         <f>N40+M40</f>
         <v>3081490</v>
       </c>
-      <c r="N53" s="455"/>
+      <c r="N53" s="457"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="456" t="s">
+      <c r="D54" s="458" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="456"/>
+      <c r="E54" s="458"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
-        <v>2986572.79</v>
+        <v>2955513.79</v>
       </c>
       <c r="I54" s="116"/>
       <c r="J54" s="117"/>
@@ -35858,22 +35879,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="457" t="s">
+      <c r="D55" s="459" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="457"/>
+      <c r="E55" s="459"/>
       <c r="F55" s="111">
         <v>-2936244.87</v>
       </c>
-      <c r="I55" s="458" t="s">
+      <c r="I55" s="460" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="459"/>
-      <c r="K55" s="460">
+      <c r="J55" s="461"/>
+      <c r="K55" s="462">
         <f>F57+F58+F59</f>
-        <v>437052.46999999991</v>
-      </c>
-      <c r="L55" s="461"/>
+        <v>405993.46999999991</v>
+      </c>
+      <c r="L55" s="463"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -35897,18 +35918,18 @@
       </c>
       <c r="F57" s="111">
         <f>SUM(F54:F56)</f>
-        <v>50327.919999999925</v>
+        <v>19268.919999999925</v>
       </c>
       <c r="H57" s="22"/>
       <c r="I57" s="124" t="s">
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="462">
+      <c r="K57" s="464">
         <f>-C4</f>
         <v>-419424.76</v>
       </c>
-      <c r="L57" s="463"/>
+      <c r="L57" s="465"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -35925,22 +35946,22 @@
       <c r="C59" s="128">
         <v>44892</v>
       </c>
-      <c r="D59" s="439" t="s">
+      <c r="D59" s="441" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="440"/>
+      <c r="E59" s="442"/>
       <c r="F59" s="129">
         <v>315698.55</v>
       </c>
-      <c r="I59" s="465" t="s">
-        <v>168</v>
-      </c>
-      <c r="J59" s="466"/>
-      <c r="K59" s="467">
+      <c r="I59" s="467" t="s">
+        <v>325</v>
+      </c>
+      <c r="J59" s="468"/>
+      <c r="K59" s="469">
         <f>K55+K57</f>
-        <v>17627.709999999905</v>
-      </c>
-      <c r="L59" s="467"/>
+        <v>-13431.290000000095</v>
+      </c>
+      <c r="L59" s="469"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="130"/>
@@ -36088,8 +36109,9 @@
     <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -37454,10 +37476,10 @@
   <dimension ref="A1:U90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="8" ySplit="4" topLeftCell="I50" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="4" topLeftCell="I56" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="O70" sqref="O70"/>
+      <selection pane="bottomRight" activeCell="F68" sqref="F68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37482,23 +37504,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="426"/>
-      <c r="C1" s="428" t="s">
+      <c r="B1" s="428"/>
+      <c r="C1" s="430" t="s">
         <v>589</v>
       </c>
-      <c r="D1" s="429"/>
-      <c r="E1" s="429"/>
-      <c r="F1" s="429"/>
-      <c r="G1" s="429"/>
-      <c r="H1" s="429"/>
-      <c r="I1" s="429"/>
-      <c r="J1" s="429"/>
-      <c r="K1" s="429"/>
-      <c r="L1" s="429"/>
-      <c r="M1" s="429"/>
+      <c r="D1" s="431"/>
+      <c r="E1" s="431"/>
+      <c r="F1" s="431"/>
+      <c r="G1" s="431"/>
+      <c r="H1" s="431"/>
+      <c r="I1" s="431"/>
+      <c r="J1" s="431"/>
+      <c r="K1" s="431"/>
+      <c r="L1" s="431"/>
+      <c r="M1" s="431"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="427"/>
+      <c r="B2" s="429"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -37508,21 +37530,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="430" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="431"/>
+      <c r="B3" s="432" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="433"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="432" t="s">
+      <c r="H3" s="434" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="432"/>
+      <c r="I3" s="434"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="437" t="s">
+      <c r="R3" s="439" t="s">
         <v>38</v>
       </c>
     </row>
@@ -37537,14 +37559,14 @@
       <c r="D4" s="16">
         <v>44892</v>
       </c>
-      <c r="E4" s="433" t="s">
+      <c r="E4" s="435" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="434"/>
-      <c r="H4" s="435" t="s">
+      <c r="F4" s="436"/>
+      <c r="H4" s="437" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="436"/>
+      <c r="I4" s="438"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -37554,11 +37576,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="444" t="s">
+      <c r="P4" s="446" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="445"/>
-      <c r="R4" s="438"/>
+      <c r="Q4" s="447"/>
+      <c r="R4" s="440"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -39620,9 +39642,15 @@
       <c r="G48" s="323"/>
       <c r="H48" s="324"/>
       <c r="I48" s="93"/>
-      <c r="J48" s="71"/>
-      <c r="K48" s="358"/>
-      <c r="L48" s="73"/>
+      <c r="J48" s="71">
+        <v>44894</v>
+      </c>
+      <c r="K48" s="426" t="s">
+        <v>204</v>
+      </c>
+      <c r="L48" s="73">
+        <v>979.68</v>
+      </c>
       <c r="M48" s="408">
         <v>0</v>
       </c>
@@ -39630,11 +39658,11 @@
       <c r="O48" s="314"/>
       <c r="P48" s="32">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>979.68</v>
       </c>
       <c r="Q48" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>979.68</v>
       </c>
       <c r="R48" s="12">
         <v>0</v>
@@ -39651,20 +39679,26 @@
       <c r="G49" s="323"/>
       <c r="H49" s="324"/>
       <c r="I49" s="86"/>
-      <c r="J49" s="71"/>
-      <c r="K49" s="360"/>
-      <c r="L49" s="73"/>
-      <c r="M49" s="446">
+      <c r="J49" s="71">
+        <v>44902</v>
+      </c>
+      <c r="K49" s="360" t="s">
+        <v>658</v>
+      </c>
+      <c r="L49" s="73">
+        <v>1225.1199999999999</v>
+      </c>
+      <c r="M49" s="448">
         <f>SUM(M5:M39)</f>
         <v>3707372</v>
       </c>
-      <c r="N49" s="448">
+      <c r="N49" s="450">
         <f>SUM(N5:N39)</f>
         <v>191908</v>
       </c>
       <c r="P49" s="411">
         <f t="shared" si="1"/>
-        <v>3899280</v>
+        <v>3900505.12</v>
       </c>
       <c r="Q49" s="410">
         <f>SUM(Q5:Q39)</f>
@@ -39685,11 +39719,17 @@
       <c r="G50" s="323"/>
       <c r="H50" s="324"/>
       <c r="I50" s="86"/>
-      <c r="J50" s="71"/>
-      <c r="K50" s="363"/>
-      <c r="L50" s="73"/>
-      <c r="M50" s="447"/>
-      <c r="N50" s="449"/>
+      <c r="J50" s="71">
+        <v>44909</v>
+      </c>
+      <c r="K50" s="363" t="s">
+        <v>656</v>
+      </c>
+      <c r="L50" s="73">
+        <v>31059</v>
+      </c>
+      <c r="M50" s="449"/>
+      <c r="N50" s="451"/>
       <c r="P50" s="32"/>
       <c r="Q50" s="8"/>
       <c r="R50" s="412" t="s">
@@ -39706,9 +39746,15 @@
       <c r="G51" s="366"/>
       <c r="H51" s="324"/>
       <c r="I51" s="93"/>
-      <c r="J51" s="71"/>
-      <c r="K51" s="365"/>
-      <c r="L51" s="73"/>
+      <c r="J51" s="71">
+        <v>44911</v>
+      </c>
+      <c r="K51" s="365" t="s">
+        <v>318</v>
+      </c>
+      <c r="L51" s="73">
+        <v>1392</v>
+      </c>
       <c r="M51" s="94"/>
       <c r="N51" s="95"/>
       <c r="P51" s="32"/>
@@ -39724,9 +39770,15 @@
       <c r="G52" s="366"/>
       <c r="H52" s="324"/>
       <c r="I52" s="93"/>
-      <c r="J52" s="71"/>
-      <c r="K52" s="351"/>
-      <c r="L52" s="78"/>
+      <c r="J52" s="71">
+        <v>44914</v>
+      </c>
+      <c r="K52" s="282" t="s">
+        <v>464</v>
+      </c>
+      <c r="L52" s="78">
+        <v>549</v>
+      </c>
       <c r="M52" s="94"/>
       <c r="N52" s="95"/>
       <c r="P52" s="32"/>
@@ -39742,9 +39794,15 @@
       <c r="G53" s="366"/>
       <c r="H53" s="324"/>
       <c r="I53" s="93"/>
-      <c r="J53" s="71"/>
-      <c r="K53" s="368"/>
-      <c r="L53" s="78"/>
+      <c r="J53" s="71">
+        <v>44918</v>
+      </c>
+      <c r="K53" s="427" t="s">
+        <v>657</v>
+      </c>
+      <c r="L53" s="78">
+        <v>212.25</v>
+      </c>
       <c r="M53" s="94"/>
       <c r="N53" s="95"/>
       <c r="P53" s="32"/>
@@ -39760,9 +39818,15 @@
       <c r="G54" s="366"/>
       <c r="H54" s="324"/>
       <c r="I54" s="93"/>
-      <c r="J54" s="71"/>
-      <c r="K54" s="351"/>
-      <c r="L54" s="78"/>
+      <c r="J54" s="71">
+        <v>44928</v>
+      </c>
+      <c r="K54" s="265" t="s">
+        <v>190</v>
+      </c>
+      <c r="L54" s="78">
+        <v>34199</v>
+      </c>
       <c r="M54" s="94"/>
       <c r="N54" s="95"/>
       <c r="P54" s="32"/>
@@ -39778,9 +39842,15 @@
       <c r="G55" s="251"/>
       <c r="H55" s="324"/>
       <c r="I55" s="93"/>
-      <c r="J55" s="71"/>
-      <c r="K55" s="282"/>
-      <c r="L55" s="78"/>
+      <c r="J55" s="71">
+        <v>44932</v>
+      </c>
+      <c r="K55" s="358" t="s">
+        <v>378</v>
+      </c>
+      <c r="L55" s="78">
+        <v>5964.12</v>
+      </c>
       <c r="M55" s="94"/>
       <c r="N55" s="95"/>
       <c r="P55" s="32"/>
@@ -39889,7 +39959,7 @@
       </c>
       <c r="L60" s="110">
         <f>SUM(L5:L59)</f>
-        <v>75772</v>
+        <v>151352.16999999998</v>
       </c>
       <c r="M60" s="111"/>
       <c r="N60" s="111"/>
@@ -39907,32 +39977,32 @@
       <c r="A62" s="33"/>
       <c r="B62" s="113"/>
       <c r="C62" s="1"/>
-      <c r="H62" s="450" t="s">
+      <c r="H62" s="452" t="s">
         <v>12</v>
       </c>
-      <c r="I62" s="451"/>
+      <c r="I62" s="453"/>
       <c r="J62" s="114"/>
-      <c r="K62" s="452">
+      <c r="K62" s="454">
         <f>I60+L60</f>
-        <v>80890</v>
-      </c>
-      <c r="L62" s="453"/>
-      <c r="M62" s="454">
+        <v>156470.16999999998</v>
+      </c>
+      <c r="L62" s="455"/>
+      <c r="M62" s="456">
         <f>N49+M49</f>
         <v>3899280</v>
       </c>
-      <c r="N62" s="455"/>
+      <c r="N62" s="457"/>
       <c r="P62" s="32"/>
       <c r="Q62" s="8"/>
     </row>
     <row r="63" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D63" s="456" t="s">
+      <c r="D63" s="458" t="s">
         <v>13</v>
       </c>
-      <c r="E63" s="456"/>
+      <c r="E63" s="458"/>
       <c r="F63" s="115">
         <f>F60-K62-C60</f>
-        <v>4444628</v>
+        <v>4369047.83</v>
       </c>
       <c r="I63" s="116"/>
       <c r="J63" s="117"/>
@@ -39940,22 +40010,22 @@
       <c r="Q63" s="8"/>
     </row>
     <row r="64" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D64" s="457" t="s">
+      <c r="D64" s="459" t="s">
         <v>14</v>
       </c>
-      <c r="E64" s="457"/>
+      <c r="E64" s="459"/>
       <c r="F64" s="111">
         <v>-4409875.54</v>
       </c>
-      <c r="I64" s="458" t="s">
+      <c r="I64" s="460" t="s">
         <v>15</v>
       </c>
-      <c r="J64" s="459"/>
-      <c r="K64" s="460">
+      <c r="J64" s="461"/>
+      <c r="K64" s="462">
         <f>F66+F67+F68</f>
-        <v>463033.17999999993</v>
-      </c>
-      <c r="L64" s="461"/>
+        <v>386457.01</v>
+      </c>
+      <c r="L64" s="463"/>
       <c r="P64" s="32"/>
       <c r="Q64" s="8"/>
     </row>
@@ -39979,18 +40049,18 @@
       </c>
       <c r="F66" s="111">
         <f>SUM(F63:F65)</f>
-        <v>34752.459999999963</v>
+        <v>-40827.709999999963</v>
       </c>
       <c r="H66" s="22"/>
       <c r="I66" s="124" t="s">
         <v>17</v>
       </c>
       <c r="J66" s="125"/>
-      <c r="K66" s="462">
+      <c r="K66" s="464">
         <f>-C4</f>
         <v>-315698.55</v>
       </c>
-      <c r="L66" s="463"/>
+      <c r="L66" s="465"/>
     </row>
     <row r="67" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D67" s="126" t="s">
@@ -40000,29 +40070,29 @@
         <v>19</v>
       </c>
       <c r="F67" s="127">
-        <v>54332</v>
+        <v>53336</v>
       </c>
     </row>
     <row r="68" spans="2:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C68" s="128">
         <v>44934</v>
       </c>
-      <c r="D68" s="439" t="s">
+      <c r="D68" s="441" t="s">
         <v>20</v>
       </c>
-      <c r="E68" s="440"/>
+      <c r="E68" s="442"/>
       <c r="F68" s="129">
         <v>373948.72</v>
       </c>
-      <c r="I68" s="465" t="s">
+      <c r="I68" s="467" t="s">
         <v>168</v>
       </c>
-      <c r="J68" s="466"/>
-      <c r="K68" s="467">
+      <c r="J68" s="468"/>
+      <c r="K68" s="469">
         <f>K64+K66</f>
-        <v>147334.62999999995</v>
-      </c>
-      <c r="L68" s="467"/>
+        <v>70758.460000000021</v>
+      </c>
+      <c r="L68" s="469"/>
     </row>
     <row r="69" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C69" s="130"/>
@@ -40146,6 +40216,9 @@
       <c r="F90" s="144"/>
     </row>
   </sheetData>
+  <sortState ref="J48:L55">
+    <sortCondition ref="J48:J55"/>
+  </sortState>
   <mergeCells count="21">
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
@@ -41861,23 +41934,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="426"/>
-      <c r="C1" s="428" t="s">
+      <c r="B1" s="428"/>
+      <c r="C1" s="430" t="s">
         <v>125</v>
       </c>
-      <c r="D1" s="429"/>
-      <c r="E1" s="429"/>
-      <c r="F1" s="429"/>
-      <c r="G1" s="429"/>
-      <c r="H1" s="429"/>
-      <c r="I1" s="429"/>
-      <c r="J1" s="429"/>
-      <c r="K1" s="429"/>
-      <c r="L1" s="429"/>
-      <c r="M1" s="429"/>
+      <c r="D1" s="431"/>
+      <c r="E1" s="431"/>
+      <c r="F1" s="431"/>
+      <c r="G1" s="431"/>
+      <c r="H1" s="431"/>
+      <c r="I1" s="431"/>
+      <c r="J1" s="431"/>
+      <c r="K1" s="431"/>
+      <c r="L1" s="431"/>
+      <c r="M1" s="431"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="427"/>
+      <c r="B2" s="429"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -41887,21 +41960,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="430" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="431"/>
+      <c r="B3" s="432" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="433"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="432" t="s">
+      <c r="H3" s="434" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="432"/>
+      <c r="I3" s="434"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="437" t="s">
+      <c r="R3" s="439" t="s">
         <v>38</v>
       </c>
     </row>
@@ -41916,14 +41989,14 @@
       <c r="D4" s="16">
         <v>44591</v>
       </c>
-      <c r="E4" s="433" t="s">
+      <c r="E4" s="435" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="434"/>
-      <c r="H4" s="435" t="s">
+      <c r="F4" s="436"/>
+      <c r="H4" s="437" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="436"/>
+      <c r="I4" s="438"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -41933,11 +42006,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="444" t="s">
+      <c r="P4" s="446" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="445"/>
-      <c r="R4" s="438"/>
+      <c r="Q4" s="447"/>
+      <c r="R4" s="440"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -43374,11 +43447,11 @@
       <c r="J40" s="71"/>
       <c r="K40" s="87"/>
       <c r="L40" s="78"/>
-      <c r="M40" s="464">
+      <c r="M40" s="466">
         <f>SUM(M5:M39)</f>
         <v>1636108</v>
       </c>
-      <c r="N40" s="448">
+      <c r="N40" s="450">
         <f>SUM(N5:N39)</f>
         <v>55675</v>
       </c>
@@ -43403,8 +43476,8 @@
       <c r="J41" s="71"/>
       <c r="K41" s="74"/>
       <c r="L41" s="73"/>
-      <c r="M41" s="447"/>
-      <c r="N41" s="449"/>
+      <c r="M41" s="449"/>
+      <c r="N41" s="451"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -43611,29 +43684,29 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="450" t="s">
+      <c r="H53" s="452" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="451"/>
+      <c r="I53" s="453"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="452">
+      <c r="K53" s="454">
         <f>I51+L51</f>
         <v>45634.280000000006</v>
       </c>
-      <c r="L53" s="453"/>
-      <c r="M53" s="454">
+      <c r="L53" s="455"/>
+      <c r="M53" s="456">
         <f>N40+M40</f>
         <v>1691783</v>
       </c>
-      <c r="N53" s="455"/>
+      <c r="N53" s="457"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="456" t="s">
+      <c r="D54" s="458" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="456"/>
+      <c r="E54" s="458"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
         <v>1686442.72</v>
@@ -43644,22 +43717,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="457" t="s">
+      <c r="D55" s="459" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="457"/>
+      <c r="E55" s="459"/>
       <c r="F55" s="111">
         <v>-1631962.77</v>
       </c>
-      <c r="I55" s="458" t="s">
+      <c r="I55" s="460" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="459"/>
-      <c r="K55" s="460">
+      <c r="J55" s="461"/>
+      <c r="K55" s="462">
         <f>F57+F58+F59</f>
         <v>238822.13999999996</v>
       </c>
-      <c r="L55" s="461"/>
+      <c r="L55" s="463"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -43690,11 +43763,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="462">
+      <c r="K57" s="464">
         <f>-C4</f>
         <v>-154314.51999999999</v>
       </c>
-      <c r="L57" s="463"/>
+      <c r="L57" s="465"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -43711,22 +43784,22 @@
       <c r="C59" s="128">
         <v>44619</v>
       </c>
-      <c r="D59" s="439" t="s">
+      <c r="D59" s="441" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="440"/>
+      <c r="E59" s="442"/>
       <c r="F59" s="129">
         <v>184342.19</v>
       </c>
-      <c r="I59" s="441" t="s">
+      <c r="I59" s="443" t="s">
         <v>168</v>
       </c>
-      <c r="J59" s="442"/>
-      <c r="K59" s="443">
+      <c r="J59" s="444"/>
+      <c r="K59" s="445">
         <f>K55+K57</f>
         <v>84507.619999999966</v>
       </c>
-      <c r="L59" s="443"/>
+      <c r="L59" s="445"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="130"/>
@@ -45176,23 +45249,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="426"/>
-      <c r="C1" s="428" t="s">
+      <c r="B1" s="428"/>
+      <c r="C1" s="430" t="s">
         <v>135</v>
       </c>
-      <c r="D1" s="429"/>
-      <c r="E1" s="429"/>
-      <c r="F1" s="429"/>
-      <c r="G1" s="429"/>
-      <c r="H1" s="429"/>
-      <c r="I1" s="429"/>
-      <c r="J1" s="429"/>
-      <c r="K1" s="429"/>
-      <c r="L1" s="429"/>
-      <c r="M1" s="429"/>
+      <c r="D1" s="431"/>
+      <c r="E1" s="431"/>
+      <c r="F1" s="431"/>
+      <c r="G1" s="431"/>
+      <c r="H1" s="431"/>
+      <c r="I1" s="431"/>
+      <c r="J1" s="431"/>
+      <c r="K1" s="431"/>
+      <c r="L1" s="431"/>
+      <c r="M1" s="431"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="427"/>
+      <c r="B2" s="429"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -45202,21 +45275,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="430" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="431"/>
+      <c r="B3" s="432" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="433"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="432" t="s">
+      <c r="H3" s="434" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="432"/>
+      <c r="I3" s="434"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="437" t="s">
+      <c r="R3" s="439" t="s">
         <v>38</v>
       </c>
     </row>
@@ -45231,14 +45304,14 @@
       <c r="D4" s="16">
         <v>44619</v>
       </c>
-      <c r="E4" s="433" t="s">
+      <c r="E4" s="435" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="434"/>
-      <c r="H4" s="435" t="s">
+      <c r="F4" s="436"/>
+      <c r="H4" s="437" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="436"/>
+      <c r="I4" s="438"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -45248,11 +45321,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="444" t="s">
+      <c r="P4" s="446" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="445"/>
-      <c r="R4" s="438"/>
+      <c r="Q4" s="447"/>
+      <c r="R4" s="440"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -46703,11 +46776,11 @@
       <c r="J40" s="71"/>
       <c r="K40" s="87"/>
       <c r="L40" s="73"/>
-      <c r="M40" s="446">
+      <c r="M40" s="448">
         <f>SUM(M5:M39)</f>
         <v>1793435</v>
       </c>
-      <c r="N40" s="448">
+      <c r="N40" s="450">
         <f>SUM(N5:N39)</f>
         <v>63995</v>
       </c>
@@ -46732,8 +46805,8 @@
       <c r="J41" s="71"/>
       <c r="K41" s="235"/>
       <c r="L41" s="73"/>
-      <c r="M41" s="447"/>
-      <c r="N41" s="449"/>
+      <c r="M41" s="449"/>
+      <c r="N41" s="451"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -46872,29 +46945,29 @@
       <c r="A49" s="33"/>
       <c r="B49" s="113"/>
       <c r="C49" s="1"/>
-      <c r="H49" s="450" t="s">
+      <c r="H49" s="452" t="s">
         <v>12</v>
       </c>
-      <c r="I49" s="451"/>
+      <c r="I49" s="453"/>
       <c r="J49" s="114"/>
-      <c r="K49" s="452">
+      <c r="K49" s="454">
         <f>I47+L47</f>
         <v>90434.03</v>
       </c>
-      <c r="L49" s="453"/>
-      <c r="M49" s="454">
+      <c r="L49" s="455"/>
+      <c r="M49" s="456">
         <f>N40+M40</f>
         <v>1857430</v>
       </c>
-      <c r="N49" s="455"/>
+      <c r="N49" s="457"/>
       <c r="P49" s="32"/>
       <c r="Q49" s="8"/>
     </row>
     <row r="50" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D50" s="456" t="s">
+      <c r="D50" s="458" t="s">
         <v>13</v>
       </c>
-      <c r="E50" s="456"/>
+      <c r="E50" s="458"/>
       <c r="F50" s="115">
         <f>F47-K49-C47</f>
         <v>1824260.97</v>
@@ -46905,22 +46978,22 @@
       <c r="Q50" s="8"/>
     </row>
     <row r="51" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D51" s="457" t="s">
+      <c r="D51" s="459" t="s">
         <v>14</v>
       </c>
-      <c r="E51" s="457"/>
+      <c r="E51" s="459"/>
       <c r="F51" s="111">
         <v>-1848136.64</v>
       </c>
-      <c r="I51" s="458" t="s">
+      <c r="I51" s="460" t="s">
         <v>15</v>
       </c>
-      <c r="J51" s="459"/>
-      <c r="K51" s="460">
+      <c r="J51" s="461"/>
+      <c r="K51" s="462">
         <f>F53+F54+F55</f>
         <v>195541.70000000007</v>
       </c>
-      <c r="L51" s="461"/>
+      <c r="L51" s="463"/>
       <c r="P51" s="32"/>
       <c r="Q51" s="8"/>
     </row>
@@ -46951,11 +47024,11 @@
         <v>17</v>
       </c>
       <c r="J53" s="125"/>
-      <c r="K53" s="462">
+      <c r="K53" s="464">
         <f>-C4</f>
         <v>-184342.19</v>
       </c>
-      <c r="L53" s="463"/>
+      <c r="L53" s="465"/>
     </row>
     <row r="54" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D54" s="126" t="s">
@@ -46972,22 +47045,22 @@
       <c r="C55" s="128">
         <v>44647</v>
       </c>
-      <c r="D55" s="439" t="s">
+      <c r="D55" s="441" t="s">
         <v>20</v>
       </c>
-      <c r="E55" s="440"/>
+      <c r="E55" s="442"/>
       <c r="F55" s="129">
         <v>219417.37</v>
       </c>
-      <c r="I55" s="441" t="s">
+      <c r="I55" s="443" t="s">
         <v>226</v>
       </c>
-      <c r="J55" s="442"/>
-      <c r="K55" s="443">
+      <c r="J55" s="444"/>
+      <c r="K55" s="445">
         <f>K51+K53</f>
         <v>11199.510000000068</v>
       </c>
-      <c r="L55" s="443"/>
+      <c r="L55" s="445"/>
     </row>
     <row r="56" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C56" s="130"/>
@@ -48610,23 +48683,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="426"/>
-      <c r="C1" s="428" t="s">
+      <c r="B1" s="428"/>
+      <c r="C1" s="430" t="s">
         <v>225</v>
       </c>
-      <c r="D1" s="429"/>
-      <c r="E1" s="429"/>
-      <c r="F1" s="429"/>
-      <c r="G1" s="429"/>
-      <c r="H1" s="429"/>
-      <c r="I1" s="429"/>
-      <c r="J1" s="429"/>
-      <c r="K1" s="429"/>
-      <c r="L1" s="429"/>
-      <c r="M1" s="429"/>
+      <c r="D1" s="431"/>
+      <c r="E1" s="431"/>
+      <c r="F1" s="431"/>
+      <c r="G1" s="431"/>
+      <c r="H1" s="431"/>
+      <c r="I1" s="431"/>
+      <c r="J1" s="431"/>
+      <c r="K1" s="431"/>
+      <c r="L1" s="431"/>
+      <c r="M1" s="431"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="427"/>
+      <c r="B2" s="429"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -48636,21 +48709,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="430" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="431"/>
+      <c r="B3" s="432" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="433"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="432" t="s">
+      <c r="H3" s="434" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="432"/>
+      <c r="I3" s="434"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="437" t="s">
+      <c r="R3" s="439" t="s">
         <v>38</v>
       </c>
     </row>
@@ -48665,14 +48738,14 @@
       <c r="D4" s="16">
         <v>44647</v>
       </c>
-      <c r="E4" s="433" t="s">
+      <c r="E4" s="435" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="434"/>
-      <c r="H4" s="435" t="s">
+      <c r="F4" s="436"/>
+      <c r="H4" s="437" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="436"/>
+      <c r="I4" s="438"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -48682,11 +48755,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="444" t="s">
+      <c r="P4" s="446" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="445"/>
-      <c r="R4" s="438"/>
+      <c r="Q4" s="447"/>
+      <c r="R4" s="440"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -50283,11 +50356,11 @@
         <f>927.48+128</f>
         <v>1055.48</v>
       </c>
-      <c r="M40" s="446">
+      <c r="M40" s="448">
         <f>SUM(M5:M39)</f>
         <v>2146671</v>
       </c>
-      <c r="N40" s="448">
+      <c r="N40" s="450">
         <f>SUM(N5:N39)</f>
         <v>68590</v>
       </c>
@@ -50318,8 +50391,8 @@
       <c r="L41" s="73">
         <v>1195.68</v>
       </c>
-      <c r="M41" s="447"/>
-      <c r="N41" s="449"/>
+      <c r="M41" s="449"/>
+      <c r="N41" s="451"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -50550,29 +50623,29 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="450" t="s">
+      <c r="H53" s="452" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="451"/>
+      <c r="I53" s="453"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="452">
+      <c r="K53" s="454">
         <f>I51+L51</f>
         <v>91272.77</v>
       </c>
-      <c r="L53" s="453"/>
-      <c r="M53" s="454">
+      <c r="L53" s="455"/>
+      <c r="M53" s="456">
         <f>N40+M40</f>
         <v>2215261</v>
       </c>
-      <c r="N53" s="455"/>
+      <c r="N53" s="457"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="456" t="s">
+      <c r="D54" s="458" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="456"/>
+      <c r="E54" s="458"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
         <v>2179879.23</v>
@@ -50583,22 +50656,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="457" t="s">
+      <c r="D55" s="459" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="457"/>
+      <c r="E55" s="459"/>
       <c r="F55" s="111">
         <v>-2227493.48</v>
       </c>
-      <c r="I55" s="458" t="s">
+      <c r="I55" s="460" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="459"/>
-      <c r="K55" s="460">
+      <c r="J55" s="461"/>
+      <c r="K55" s="462">
         <f>F57+F58+F59</f>
         <v>261521.34000000003</v>
       </c>
-      <c r="L55" s="461"/>
+      <c r="L55" s="463"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -50629,11 +50702,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="462">
+      <c r="K57" s="464">
         <f>-C4</f>
         <v>-219417.37</v>
       </c>
-      <c r="L57" s="463"/>
+      <c r="L57" s="465"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -50650,22 +50723,22 @@
       <c r="C59" s="128">
         <v>44682</v>
       </c>
-      <c r="D59" s="439" t="s">
+      <c r="D59" s="441" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="440"/>
+      <c r="E59" s="442"/>
       <c r="F59" s="129">
         <v>297874.59000000003</v>
       </c>
-      <c r="I59" s="441" t="s">
+      <c r="I59" s="443" t="s">
         <v>168</v>
       </c>
-      <c r="J59" s="442"/>
-      <c r="K59" s="443">
+      <c r="J59" s="444"/>
+      <c r="K59" s="445">
         <f>K55+K57</f>
         <v>42103.97000000003</v>
       </c>
-      <c r="L59" s="443"/>
+      <c r="L59" s="445"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="130"/>
@@ -52317,23 +52390,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="426"/>
-      <c r="C1" s="428" t="s">
+      <c r="B1" s="428"/>
+      <c r="C1" s="430" t="s">
         <v>277</v>
       </c>
-      <c r="D1" s="429"/>
-      <c r="E1" s="429"/>
-      <c r="F1" s="429"/>
-      <c r="G1" s="429"/>
-      <c r="H1" s="429"/>
-      <c r="I1" s="429"/>
-      <c r="J1" s="429"/>
-      <c r="K1" s="429"/>
-      <c r="L1" s="429"/>
-      <c r="M1" s="429"/>
+      <c r="D1" s="431"/>
+      <c r="E1" s="431"/>
+      <c r="F1" s="431"/>
+      <c r="G1" s="431"/>
+      <c r="H1" s="431"/>
+      <c r="I1" s="431"/>
+      <c r="J1" s="431"/>
+      <c r="K1" s="431"/>
+      <c r="L1" s="431"/>
+      <c r="M1" s="431"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="427"/>
+      <c r="B2" s="429"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -52343,21 +52416,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="430" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="431"/>
+      <c r="B3" s="432" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="433"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="432" t="s">
+      <c r="H3" s="434" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="432"/>
+      <c r="I3" s="434"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="437" t="s">
+      <c r="R3" s="439" t="s">
         <v>38</v>
       </c>
     </row>
@@ -52372,14 +52445,14 @@
       <c r="D4" s="16">
         <v>44682</v>
       </c>
-      <c r="E4" s="433" t="s">
+      <c r="E4" s="435" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="434"/>
-      <c r="H4" s="435" t="s">
+      <c r="F4" s="436"/>
+      <c r="H4" s="437" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="436"/>
+      <c r="I4" s="438"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -52389,11 +52462,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="444" t="s">
+      <c r="P4" s="446" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="445"/>
-      <c r="R4" s="438"/>
+      <c r="Q4" s="447"/>
+      <c r="R4" s="440"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -53910,11 +53983,11 @@
       <c r="J40" s="71"/>
       <c r="K40" s="74"/>
       <c r="L40" s="73"/>
-      <c r="M40" s="446">
+      <c r="M40" s="448">
         <f>SUM(M5:M39)</f>
         <v>2144215</v>
       </c>
-      <c r="N40" s="448">
+      <c r="N40" s="450">
         <f>SUM(N5:N39)</f>
         <v>62525</v>
       </c>
@@ -53939,8 +54012,8 @@
       <c r="J41" s="71"/>
       <c r="K41" s="235"/>
       <c r="L41" s="73"/>
-      <c r="M41" s="447"/>
-      <c r="N41" s="449"/>
+      <c r="M41" s="449"/>
+      <c r="N41" s="451"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -54151,29 +54224,29 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="450" t="s">
+      <c r="H53" s="452" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="451"/>
+      <c r="I53" s="453"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="452">
+      <c r="K53" s="454">
         <f>I51+L51</f>
         <v>51231.42</v>
       </c>
-      <c r="L53" s="453"/>
-      <c r="M53" s="454">
+      <c r="L53" s="455"/>
+      <c r="M53" s="456">
         <f>N40+M40</f>
         <v>2206740</v>
       </c>
-      <c r="N53" s="455"/>
+      <c r="N53" s="457"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="456" t="s">
+      <c r="D54" s="458" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="456"/>
+      <c r="E54" s="458"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
         <v>2189405.58</v>
@@ -54184,22 +54257,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="457" t="s">
+      <c r="D55" s="459" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="457"/>
+      <c r="E55" s="459"/>
       <c r="F55" s="111">
         <v>-2251924.65</v>
       </c>
-      <c r="I55" s="458" t="s">
+      <c r="I55" s="460" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="459"/>
-      <c r="K55" s="460">
+      <c r="J55" s="461"/>
+      <c r="K55" s="462">
         <f>F57+F58+F59</f>
         <v>112552.74000000017</v>
       </c>
-      <c r="L55" s="461"/>
+      <c r="L55" s="463"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -54230,11 +54303,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="462">
+      <c r="K57" s="464">
         <f>-C4</f>
         <v>-297874.59000000003</v>
       </c>
-      <c r="L57" s="463"/>
+      <c r="L57" s="465"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -54251,22 +54324,22 @@
       <c r="C59" s="128">
         <v>44710</v>
       </c>
-      <c r="D59" s="439" t="s">
+      <c r="D59" s="441" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="440"/>
+      <c r="E59" s="442"/>
       <c r="F59" s="129">
         <v>149938.81</v>
       </c>
-      <c r="I59" s="441" t="s">
+      <c r="I59" s="443" t="s">
         <v>325</v>
       </c>
-      <c r="J59" s="442"/>
-      <c r="K59" s="443">
+      <c r="J59" s="444"/>
+      <c r="K59" s="445">
         <f>K55+K57</f>
         <v>-185321.84999999986</v>
       </c>
-      <c r="L59" s="443"/>
+      <c r="L59" s="445"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="130"/>

--- a/01 DOCUEMENTOS/CENTRAL#15  ARCHIVO   2 0 2 2/CENTRAL #12  DICIEMBRE 2022/BALANCE   HERRADURA  DICIEMBRE       2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL#15  ARCHIVO   2 0 2 2/CENTRAL #12  DICIEMBRE 2022/BALANCE   HERRADURA  DICIEMBRE       2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="195" yWindow="915" windowWidth="16905" windowHeight="10110" firstSheet="20" activeTab="22"/>
+    <workbookView xWindow="195" yWindow="915" windowWidth="16905" windowHeight="10110" firstSheet="21" activeTab="22"/>
   </bookViews>
   <sheets>
     <sheet name="E N E R O    2 0 2 2         " sheetId="1" r:id="rId1"/>
@@ -2414,9 +2414,6 @@
     <t>COMISION BANCO</t>
   </si>
   <si>
-    <t>??????????</t>
-  </si>
-  <si>
     <t>BALANCE      ABASTO 4 CARNES    H E R R A D U R A    NOVIEMBRE    2 0 2 2</t>
   </si>
   <si>
@@ -2755,6 +2752,9 @@
   </si>
   <si>
     <t>COMISION ????</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAMARAS </t>
   </si>
 </sst>
 </file>
@@ -3247,7 +3247,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3341,6 +3341,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00FFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99CCFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4179,7 +4185,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="470">
+  <cellXfs count="471">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -4962,39 +4968,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="44" fontId="44" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -5076,6 +5049,39 @@
     <xf numFmtId="44" fontId="13" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="44" fontId="14" fillId="0" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5088,6 +5094,9 @@
     <xf numFmtId="166" fontId="12" fillId="6" borderId="51" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -5097,6 +5106,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF99CCFF"/>
       <color rgb="FF800000"/>
       <color rgb="FFFF66CC"/>
       <color rgb="FF0000FF"/>
@@ -10520,23 +10530,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="428"/>
-      <c r="C1" s="430" t="s">
+      <c r="B1" s="455"/>
+      <c r="C1" s="457" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="431"/>
-      <c r="E1" s="431"/>
-      <c r="F1" s="431"/>
-      <c r="G1" s="431"/>
-      <c r="H1" s="431"/>
-      <c r="I1" s="431"/>
-      <c r="J1" s="431"/>
-      <c r="K1" s="431"/>
-      <c r="L1" s="431"/>
-      <c r="M1" s="431"/>
+      <c r="D1" s="458"/>
+      <c r="E1" s="458"/>
+      <c r="F1" s="458"/>
+      <c r="G1" s="458"/>
+      <c r="H1" s="458"/>
+      <c r="I1" s="458"/>
+      <c r="J1" s="458"/>
+      <c r="K1" s="458"/>
+      <c r="L1" s="458"/>
+      <c r="M1" s="458"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="429"/>
+      <c r="B2" s="456"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -10546,21 +10556,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="432" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="433"/>
+      <c r="B3" s="459" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="460"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="434" t="s">
+      <c r="H3" s="461" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="434"/>
+      <c r="I3" s="461"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="439" t="s">
+      <c r="R3" s="428" t="s">
         <v>38</v>
       </c>
     </row>
@@ -10575,14 +10585,14 @@
       <c r="D4" s="16">
         <v>44563</v>
       </c>
-      <c r="E4" s="435" t="s">
+      <c r="E4" s="462" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="436"/>
-      <c r="H4" s="437" t="s">
+      <c r="F4" s="463"/>
+      <c r="H4" s="464" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="438"/>
+      <c r="I4" s="465"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -10592,11 +10602,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="446" t="s">
+      <c r="P4" s="435" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="447"/>
-      <c r="R4" s="440"/>
+      <c r="Q4" s="436"/>
+      <c r="R4" s="429"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -12051,11 +12061,11 @@
       <c r="J40" s="71"/>
       <c r="K40" s="87"/>
       <c r="L40" s="73"/>
-      <c r="M40" s="448">
+      <c r="M40" s="437">
         <f>SUM(M5:M39)</f>
         <v>1527030</v>
       </c>
-      <c r="N40" s="450">
+      <c r="N40" s="439">
         <f>SUM(N5:N39)</f>
         <v>50013</v>
       </c>
@@ -12080,8 +12090,8 @@
       <c r="J41" s="71"/>
       <c r="K41" s="74"/>
       <c r="L41" s="73"/>
-      <c r="M41" s="449"/>
-      <c r="N41" s="451"/>
+      <c r="M41" s="438"/>
+      <c r="N41" s="440"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -12288,29 +12298,29 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="452" t="s">
+      <c r="H53" s="441" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="453"/>
+      <c r="I53" s="442"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="454">
+      <c r="K53" s="443">
         <f>I51+L51</f>
         <v>50143.28</v>
       </c>
-      <c r="L53" s="455"/>
-      <c r="M53" s="456">
+      <c r="L53" s="444"/>
+      <c r="M53" s="445">
         <f>N40+M40</f>
         <v>1577043</v>
       </c>
-      <c r="N53" s="457"/>
+      <c r="N53" s="446"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="458" t="s">
+      <c r="D54" s="447" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="458"/>
+      <c r="E54" s="447"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
         <v>1561421.72</v>
@@ -12321,22 +12331,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="459" t="s">
+      <c r="D55" s="448" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="459"/>
+      <c r="E55" s="448"/>
       <c r="F55" s="111">
         <v>-1419082.77</v>
       </c>
-      <c r="I55" s="460" t="s">
+      <c r="I55" s="449" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="461"/>
-      <c r="K55" s="462">
+      <c r="J55" s="450"/>
+      <c r="K55" s="451">
         <f>F57+F58+F59</f>
         <v>296963.46999999997</v>
       </c>
-      <c r="L55" s="463"/>
+      <c r="L55" s="452"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -12367,11 +12377,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="464">
+      <c r="K57" s="453">
         <f>-C4</f>
         <v>-221059.7</v>
       </c>
-      <c r="L57" s="465"/>
+      <c r="L57" s="454"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -12388,22 +12398,22 @@
       <c r="C59" s="128">
         <v>44591</v>
       </c>
-      <c r="D59" s="441" t="s">
+      <c r="D59" s="430" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="442"/>
+      <c r="E59" s="431"/>
       <c r="F59" s="129">
         <v>154314.51999999999</v>
       </c>
-      <c r="I59" s="443" t="s">
+      <c r="I59" s="432" t="s">
         <v>168</v>
       </c>
-      <c r="J59" s="444"/>
-      <c r="K59" s="445">
+      <c r="J59" s="433"/>
+      <c r="K59" s="434">
         <f>K55+K57</f>
         <v>75903.76999999996</v>
       </c>
-      <c r="L59" s="445"/>
+      <c r="L59" s="434"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="130"/>
@@ -12528,6 +12538,12 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="D59:E59"/>
     <mergeCell ref="I59:J59"/>
@@ -12543,12 +12559,6 @@
     <mergeCell ref="I55:J55"/>
     <mergeCell ref="K55:L55"/>
     <mergeCell ref="K57:L57"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -13978,7 +13988,7 @@
   <dimension ref="A1:U81"/>
   <sheetViews>
     <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="I59" sqref="I59:J59"/>
+      <selection activeCell="I60" sqref="I60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14001,23 +14011,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="428"/>
-      <c r="C1" s="430" t="s">
+      <c r="B1" s="455"/>
+      <c r="C1" s="457" t="s">
         <v>326</v>
       </c>
-      <c r="D1" s="431"/>
-      <c r="E1" s="431"/>
-      <c r="F1" s="431"/>
-      <c r="G1" s="431"/>
-      <c r="H1" s="431"/>
-      <c r="I1" s="431"/>
-      <c r="J1" s="431"/>
-      <c r="K1" s="431"/>
-      <c r="L1" s="431"/>
-      <c r="M1" s="431"/>
+      <c r="D1" s="458"/>
+      <c r="E1" s="458"/>
+      <c r="F1" s="458"/>
+      <c r="G1" s="458"/>
+      <c r="H1" s="458"/>
+      <c r="I1" s="458"/>
+      <c r="J1" s="458"/>
+      <c r="K1" s="458"/>
+      <c r="L1" s="458"/>
+      <c r="M1" s="458"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="429"/>
+      <c r="B2" s="456"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -14027,21 +14037,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="432" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="433"/>
+      <c r="B3" s="459" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="460"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="434" t="s">
+      <c r="H3" s="461" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="434"/>
+      <c r="I3" s="461"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="439" t="s">
+      <c r="R3" s="428" t="s">
         <v>38</v>
       </c>
     </row>
@@ -14056,14 +14066,14 @@
       <c r="D4" s="16">
         <v>44710</v>
       </c>
-      <c r="E4" s="435" t="s">
+      <c r="E4" s="462" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="436"/>
-      <c r="H4" s="437" t="s">
+      <c r="F4" s="463"/>
+      <c r="H4" s="464" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="438"/>
+      <c r="I4" s="465"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -14073,11 +14083,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="446" t="s">
+      <c r="P4" s="435" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="447"/>
-      <c r="R4" s="440"/>
+      <c r="Q4" s="436"/>
+      <c r="R4" s="429"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -15607,11 +15617,11 @@
       <c r="J40" s="71"/>
       <c r="K40" s="74"/>
       <c r="L40" s="73"/>
-      <c r="M40" s="448">
+      <c r="M40" s="437">
         <f>SUM(M5:M39)</f>
         <v>2772689</v>
       </c>
-      <c r="N40" s="450">
+      <c r="N40" s="439">
         <f>SUM(N5:N39)</f>
         <v>107354</v>
       </c>
@@ -15642,8 +15652,8 @@
       <c r="L41" s="73">
         <v>638.99</v>
       </c>
-      <c r="M41" s="449"/>
-      <c r="N41" s="451"/>
+      <c r="M41" s="438"/>
+      <c r="N41" s="440"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -15889,29 +15899,29 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="452" t="s">
+      <c r="H53" s="441" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="453"/>
+      <c r="I53" s="442"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="454">
+      <c r="K53" s="443">
         <f>I51+L51</f>
         <v>60691.69</v>
       </c>
-      <c r="L53" s="455"/>
-      <c r="M53" s="456">
+      <c r="L53" s="444"/>
+      <c r="M53" s="445">
         <f>N40+M40</f>
         <v>2880043</v>
       </c>
-      <c r="N53" s="457"/>
+      <c r="N53" s="446"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="458" t="s">
+      <c r="D54" s="447" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="458"/>
+      <c r="E54" s="447"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
         <v>2844548.31</v>
@@ -15922,22 +15932,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="459" t="s">
+      <c r="D55" s="448" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="459"/>
+      <c r="E55" s="448"/>
       <c r="F55" s="111">
         <v>-2875380.48</v>
       </c>
-      <c r="I55" s="460" t="s">
+      <c r="I55" s="449" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="461"/>
-      <c r="K55" s="462">
+      <c r="J55" s="450"/>
+      <c r="K55" s="451">
         <f>F57+F58+F59</f>
         <v>247554.74000000008</v>
       </c>
-      <c r="L55" s="463"/>
+      <c r="L55" s="452"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -15968,11 +15978,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="464">
+      <c r="K57" s="453">
         <f>-C4</f>
         <v>-149938.81</v>
       </c>
-      <c r="L57" s="465"/>
+      <c r="L57" s="454"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -15989,22 +15999,22 @@
       <c r="C59" s="128">
         <v>44745</v>
       </c>
-      <c r="D59" s="441" t="s">
+      <c r="D59" s="430" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="442"/>
+      <c r="E59" s="431"/>
       <c r="F59" s="129">
         <v>232165.91</v>
       </c>
-      <c r="I59" s="443" t="s">
+      <c r="I59" s="432" t="s">
         <v>168</v>
       </c>
-      <c r="J59" s="444"/>
-      <c r="K59" s="445">
+      <c r="J59" s="433"/>
+      <c r="K59" s="434">
         <f>K55+K57</f>
         <v>97615.93000000008</v>
       </c>
-      <c r="L59" s="445"/>
+      <c r="L59" s="434"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="130"/>
@@ -16132,18 +16142,6 @@
     <sortCondition ref="B7:B9"/>
   </sortState>
   <mergeCells count="21">
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -16153,6 +16151,18 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.38" right="0.17" top="0.4" bottom="0.34" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -17611,7 +17621,7 @@
   <dimension ref="A1:U81"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D65" sqref="D65"/>
+      <selection activeCell="I60" sqref="I60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17634,23 +17644,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="428"/>
-      <c r="C1" s="430" t="s">
+      <c r="B1" s="455"/>
+      <c r="C1" s="457" t="s">
         <v>380</v>
       </c>
-      <c r="D1" s="431"/>
-      <c r="E1" s="431"/>
-      <c r="F1" s="431"/>
-      <c r="G1" s="431"/>
-      <c r="H1" s="431"/>
-      <c r="I1" s="431"/>
-      <c r="J1" s="431"/>
-      <c r="K1" s="431"/>
-      <c r="L1" s="431"/>
-      <c r="M1" s="431"/>
+      <c r="D1" s="458"/>
+      <c r="E1" s="458"/>
+      <c r="F1" s="458"/>
+      <c r="G1" s="458"/>
+      <c r="H1" s="458"/>
+      <c r="I1" s="458"/>
+      <c r="J1" s="458"/>
+      <c r="K1" s="458"/>
+      <c r="L1" s="458"/>
+      <c r="M1" s="458"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="429"/>
+      <c r="B2" s="456"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -17660,21 +17670,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="432" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="433"/>
+      <c r="B3" s="459" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="460"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="434" t="s">
+      <c r="H3" s="461" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="434"/>
+      <c r="I3" s="461"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="439" t="s">
+      <c r="R3" s="428" t="s">
         <v>38</v>
       </c>
     </row>
@@ -17689,14 +17699,14 @@
       <c r="D4" s="16">
         <v>44745</v>
       </c>
-      <c r="E4" s="435" t="s">
+      <c r="E4" s="462" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="436"/>
-      <c r="H4" s="437" t="s">
+      <c r="F4" s="463"/>
+      <c r="H4" s="464" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="438"/>
+      <c r="I4" s="465"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -17706,11 +17716,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="446" t="s">
+      <c r="P4" s="435" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="447"/>
-      <c r="R4" s="440"/>
+      <c r="Q4" s="436"/>
+      <c r="R4" s="429"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -19155,11 +19165,11 @@
       <c r="J40" s="71"/>
       <c r="K40" s="74"/>
       <c r="L40" s="73"/>
-      <c r="M40" s="448">
+      <c r="M40" s="437">
         <f>SUM(M5:M39)</f>
         <v>2373103</v>
       </c>
-      <c r="N40" s="450">
+      <c r="N40" s="439">
         <f>SUM(N5:N39)</f>
         <v>67308</v>
       </c>
@@ -19188,8 +19198,8 @@
       <c r="J41" s="71"/>
       <c r="K41" s="235"/>
       <c r="L41" s="73"/>
-      <c r="M41" s="449"/>
-      <c r="N41" s="451"/>
+      <c r="M41" s="438"/>
+      <c r="N41" s="440"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -19404,29 +19414,29 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="452" t="s">
+      <c r="H53" s="441" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="453"/>
+      <c r="I53" s="442"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="454">
+      <c r="K53" s="443">
         <f>I51+L51</f>
         <v>79649.720000000016</v>
       </c>
-      <c r="L53" s="455"/>
-      <c r="M53" s="456">
+      <c r="L53" s="444"/>
+      <c r="M53" s="445">
         <f>N40+M40</f>
         <v>2440411</v>
       </c>
-      <c r="N53" s="457"/>
+      <c r="N53" s="446"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="458" t="s">
+      <c r="D54" s="447" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="458"/>
+      <c r="E54" s="447"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
         <v>2356249.2799999998</v>
@@ -19437,22 +19447,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="459" t="s">
+      <c r="D55" s="448" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="459"/>
+      <c r="E55" s="448"/>
       <c r="F55" s="111">
         <v>-2471332.31</v>
       </c>
-      <c r="I55" s="460" t="s">
+      <c r="I55" s="449" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="461"/>
-      <c r="K55" s="462">
+      <c r="J55" s="450"/>
+      <c r="K55" s="451">
         <f>F57+F58+F59</f>
         <v>214026.38999999972</v>
       </c>
-      <c r="L55" s="463"/>
+      <c r="L55" s="452"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -19483,11 +19493,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="464">
+      <c r="K57" s="453">
         <f>-C4</f>
         <v>-232165.91</v>
       </c>
-      <c r="L57" s="465"/>
+      <c r="L57" s="454"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -19504,22 +19514,22 @@
       <c r="C59" s="128">
         <v>44773</v>
       </c>
-      <c r="D59" s="441" t="s">
+      <c r="D59" s="430" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="442"/>
+      <c r="E59" s="431"/>
       <c r="F59" s="129">
         <v>273736.42</v>
       </c>
-      <c r="I59" s="443" t="s">
+      <c r="I59" s="467" t="s">
         <v>325</v>
       </c>
-      <c r="J59" s="444"/>
-      <c r="K59" s="445">
+      <c r="J59" s="468"/>
+      <c r="K59" s="469">
         <f>K55+K57</f>
         <v>-18139.520000000281</v>
       </c>
-      <c r="L59" s="445"/>
+      <c r="L59" s="469"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="130"/>
@@ -19644,18 +19654,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -19665,6 +19663,18 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.31496062992125984" right="0.27559055118110237" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="60" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -21032,7 +21042,7 @@
   </sheetPr>
   <dimension ref="A1:U81"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
@@ -21056,23 +21066,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="428"/>
-      <c r="C1" s="430" t="s">
+      <c r="B1" s="455"/>
+      <c r="C1" s="457" t="s">
         <v>421</v>
       </c>
-      <c r="D1" s="431"/>
-      <c r="E1" s="431"/>
-      <c r="F1" s="431"/>
-      <c r="G1" s="431"/>
-      <c r="H1" s="431"/>
-      <c r="I1" s="431"/>
-      <c r="J1" s="431"/>
-      <c r="K1" s="431"/>
-      <c r="L1" s="431"/>
-      <c r="M1" s="431"/>
+      <c r="D1" s="458"/>
+      <c r="E1" s="458"/>
+      <c r="F1" s="458"/>
+      <c r="G1" s="458"/>
+      <c r="H1" s="458"/>
+      <c r="I1" s="458"/>
+      <c r="J1" s="458"/>
+      <c r="K1" s="458"/>
+      <c r="L1" s="458"/>
+      <c r="M1" s="458"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="429"/>
+      <c r="B2" s="456"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -21082,21 +21092,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="432" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="433"/>
+      <c r="B3" s="459" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="460"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="434" t="s">
+      <c r="H3" s="461" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="434"/>
+      <c r="I3" s="461"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="439" t="s">
+      <c r="R3" s="428" t="s">
         <v>38</v>
       </c>
     </row>
@@ -21111,14 +21121,14 @@
       <c r="D4" s="16">
         <v>44773</v>
       </c>
-      <c r="E4" s="435" t="s">
+      <c r="E4" s="462" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="436"/>
-      <c r="H4" s="437" t="s">
+      <c r="F4" s="463"/>
+      <c r="H4" s="464" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="438"/>
+      <c r="I4" s="465"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -21128,11 +21138,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="446" t="s">
+      <c r="P4" s="435" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="447"/>
-      <c r="R4" s="440"/>
+      <c r="Q4" s="436"/>
+      <c r="R4" s="429"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -22612,11 +22622,11 @@
       <c r="J40" s="71"/>
       <c r="K40" s="74"/>
       <c r="L40" s="73"/>
-      <c r="M40" s="448">
+      <c r="M40" s="437">
         <f>SUM(M5:M39)</f>
         <v>2375259</v>
       </c>
-      <c r="N40" s="450">
+      <c r="N40" s="439">
         <f>SUM(N5:N39)</f>
         <v>61117</v>
       </c>
@@ -22645,8 +22655,8 @@
       <c r="J41" s="71"/>
       <c r="K41" s="235"/>
       <c r="L41" s="73"/>
-      <c r="M41" s="449"/>
-      <c r="N41" s="451"/>
+      <c r="M41" s="438"/>
+      <c r="N41" s="440"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -22861,29 +22871,29 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="452" t="s">
+      <c r="H53" s="441" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="453"/>
+      <c r="I53" s="442"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="454">
+      <c r="K53" s="443">
         <f>I51+L51</f>
         <v>52857.25</v>
       </c>
-      <c r="L53" s="455"/>
-      <c r="M53" s="456">
+      <c r="L53" s="444"/>
+      <c r="M53" s="445">
         <f>N40+M40</f>
         <v>2436376</v>
       </c>
-      <c r="N53" s="457"/>
+      <c r="N53" s="446"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="458" t="s">
+      <c r="D54" s="447" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="458"/>
+      <c r="E54" s="447"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
         <v>2370653.75</v>
@@ -22894,22 +22904,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="459" t="s">
+      <c r="D55" s="448" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="459"/>
+      <c r="E55" s="448"/>
       <c r="F55" s="111">
         <v>-2401197.5699999998</v>
       </c>
-      <c r="I55" s="460" t="s">
+      <c r="I55" s="449" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="461"/>
-      <c r="K55" s="462">
+      <c r="J55" s="450"/>
+      <c r="K55" s="451">
         <f>F57+F58+F59</f>
         <v>259241.77000000016</v>
       </c>
-      <c r="L55" s="463"/>
+      <c r="L55" s="452"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -22940,11 +22950,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="464">
+      <c r="K57" s="453">
         <f>-C4</f>
         <v>-273736.42</v>
       </c>
-      <c r="L57" s="465"/>
+      <c r="L57" s="454"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -22961,10 +22971,10 @@
       <c r="C59" s="128">
         <v>44801</v>
       </c>
-      <c r="D59" s="441" t="s">
+      <c r="D59" s="430" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="442"/>
+      <c r="E59" s="431"/>
       <c r="F59" s="129">
         <v>236400.59</v>
       </c>
@@ -23101,18 +23111,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -23122,6 +23120,18 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -24543,7 +24553,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D33" sqref="D33"/>
+      <selection pane="bottomRight" activeCell="J62" sqref="J62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24568,23 +24578,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="428"/>
-      <c r="C1" s="430" t="s">
+      <c r="B1" s="455"/>
+      <c r="C1" s="457" t="s">
         <v>465</v>
       </c>
-      <c r="D1" s="431"/>
-      <c r="E1" s="431"/>
-      <c r="F1" s="431"/>
-      <c r="G1" s="431"/>
-      <c r="H1" s="431"/>
-      <c r="I1" s="431"/>
-      <c r="J1" s="431"/>
-      <c r="K1" s="431"/>
-      <c r="L1" s="431"/>
-      <c r="M1" s="431"/>
+      <c r="D1" s="458"/>
+      <c r="E1" s="458"/>
+      <c r="F1" s="458"/>
+      <c r="G1" s="458"/>
+      <c r="H1" s="458"/>
+      <c r="I1" s="458"/>
+      <c r="J1" s="458"/>
+      <c r="K1" s="458"/>
+      <c r="L1" s="458"/>
+      <c r="M1" s="458"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="429"/>
+      <c r="B2" s="456"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -24594,21 +24604,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="432" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="433"/>
+      <c r="B3" s="459" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="460"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="434" t="s">
+      <c r="H3" s="461" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="434"/>
+      <c r="I3" s="461"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="439" t="s">
+      <c r="R3" s="428" t="s">
         <v>38</v>
       </c>
     </row>
@@ -24623,14 +24633,14 @@
       <c r="D4" s="16">
         <v>44801</v>
       </c>
-      <c r="E4" s="435" t="s">
+      <c r="E4" s="462" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="436"/>
-      <c r="H4" s="437" t="s">
+      <c r="F4" s="463"/>
+      <c r="H4" s="464" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="438"/>
+      <c r="I4" s="465"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -24640,11 +24650,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="446" t="s">
+      <c r="P4" s="435" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="447"/>
-      <c r="R4" s="440"/>
+      <c r="Q4" s="436"/>
+      <c r="R4" s="429"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -26372,11 +26382,11 @@
       <c r="L40" s="73">
         <v>927.48</v>
       </c>
-      <c r="M40" s="448">
+      <c r="M40" s="437">
         <f>SUM(M5:M39)</f>
         <v>3147309.5</v>
       </c>
-      <c r="N40" s="450">
+      <c r="N40" s="439">
         <f>SUM(N5:N39)</f>
         <v>76569</v>
       </c>
@@ -26411,8 +26421,8 @@
       <c r="L41" s="73">
         <v>33312</v>
       </c>
-      <c r="M41" s="449"/>
-      <c r="N41" s="451"/>
+      <c r="M41" s="438"/>
+      <c r="N41" s="440"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -26505,7 +26515,7 @@
       <c r="J45" s="71">
         <v>44834</v>
       </c>
-      <c r="K45" s="74" t="s">
+      <c r="K45" s="287" t="s">
         <v>378</v>
       </c>
       <c r="L45" s="78">
@@ -26655,29 +26665,29 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="452" t="s">
+      <c r="H53" s="441" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="453"/>
+      <c r="I53" s="442"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="454">
+      <c r="K53" s="443">
         <f>I51+L51</f>
         <v>102873.87000000001</v>
       </c>
-      <c r="L53" s="455"/>
-      <c r="M53" s="456">
+      <c r="L53" s="444"/>
+      <c r="M53" s="445">
         <f>N40+M40</f>
         <v>3223878.5</v>
       </c>
-      <c r="N53" s="457"/>
+      <c r="N53" s="446"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="458" t="s">
+      <c r="D54" s="447" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="458"/>
+      <c r="E54" s="447"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
         <v>3130076.13</v>
@@ -26688,22 +26698,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="459" t="s">
+      <c r="D55" s="448" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="459"/>
+      <c r="E55" s="448"/>
       <c r="F55" s="111">
         <v>-3171951.31</v>
       </c>
-      <c r="I55" s="460" t="s">
+      <c r="I55" s="449" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="461"/>
-      <c r="K55" s="462">
+      <c r="J55" s="450"/>
+      <c r="K55" s="451">
         <f>F57+F58+F59</f>
         <v>265314.0299999998</v>
       </c>
-      <c r="L55" s="463"/>
+      <c r="L55" s="452"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -26734,11 +26744,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="464">
+      <c r="K57" s="453">
         <f>-C4</f>
         <v>-236400.59</v>
       </c>
-      <c r="L57" s="465"/>
+      <c r="L57" s="454"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -26755,22 +26765,22 @@
       <c r="C59" s="128">
         <v>44836</v>
       </c>
-      <c r="D59" s="441" t="s">
+      <c r="D59" s="430" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="442"/>
+      <c r="E59" s="431"/>
       <c r="F59" s="129">
         <v>242354.21</v>
       </c>
-      <c r="I59" s="467" t="s">
-        <v>325</v>
-      </c>
-      <c r="J59" s="468"/>
-      <c r="K59" s="469">
+      <c r="I59" s="432" t="s">
+        <v>168</v>
+      </c>
+      <c r="J59" s="433"/>
+      <c r="K59" s="434">
         <f>K55+K57</f>
         <v>28913.439999999799</v>
       </c>
-      <c r="L59" s="469"/>
+      <c r="L59" s="434"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="130"/>
@@ -26898,6 +26908,18 @@
     <sortCondition ref="J41:J45"/>
   </sortState>
   <mergeCells count="21">
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -26907,18 +26929,6 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -27473,7 +27483,7 @@
         <v>74093.38</v>
       </c>
       <c r="D25" s="390" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E25" s="274">
         <f>35520.66+38572.72</f>
@@ -28391,7 +28401,7 @@
       <pane xSplit="3" ySplit="4" topLeftCell="D32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="J40" sqref="J40"/>
+      <selection pane="bottomRight" activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28416,23 +28426,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="428"/>
-      <c r="C1" s="430" t="s">
+      <c r="B1" s="455"/>
+      <c r="C1" s="457" t="s">
         <v>512</v>
       </c>
-      <c r="D1" s="431"/>
-      <c r="E1" s="431"/>
-      <c r="F1" s="431"/>
-      <c r="G1" s="431"/>
-      <c r="H1" s="431"/>
-      <c r="I1" s="431"/>
-      <c r="J1" s="431"/>
-      <c r="K1" s="431"/>
-      <c r="L1" s="431"/>
-      <c r="M1" s="431"/>
+      <c r="D1" s="458"/>
+      <c r="E1" s="458"/>
+      <c r="F1" s="458"/>
+      <c r="G1" s="458"/>
+      <c r="H1" s="458"/>
+      <c r="I1" s="458"/>
+      <c r="J1" s="458"/>
+      <c r="K1" s="458"/>
+      <c r="L1" s="458"/>
+      <c r="M1" s="458"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="429"/>
+      <c r="B2" s="456"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -28442,21 +28452,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="432" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="433"/>
+      <c r="B3" s="459" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="460"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="434" t="s">
+      <c r="H3" s="461" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="434"/>
+      <c r="I3" s="461"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="439" t="s">
+      <c r="R3" s="428" t="s">
         <v>38</v>
       </c>
     </row>
@@ -28471,14 +28481,14 @@
       <c r="D4" s="16">
         <v>44836</v>
       </c>
-      <c r="E4" s="435" t="s">
+      <c r="E4" s="462" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="436"/>
-      <c r="H4" s="437" t="s">
+      <c r="F4" s="463"/>
+      <c r="H4" s="464" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="438"/>
+      <c r="I4" s="465"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -28488,11 +28498,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="446" t="s">
+      <c r="P4" s="435" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="447"/>
-      <c r="R4" s="440"/>
+      <c r="Q4" s="436"/>
+      <c r="R4" s="429"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -29937,7 +29947,7 @@
       <c r="J34" s="71">
         <v>44848</v>
       </c>
-      <c r="K34" s="354" t="s">
+      <c r="K34" s="470" t="s">
         <v>547</v>
       </c>
       <c r="L34" s="80">
@@ -29977,7 +29987,7 @@
         <v>44848</v>
       </c>
       <c r="K35" s="376" t="s">
-        <v>549</v>
+        <v>658</v>
       </c>
       <c r="L35" s="78">
         <v>71514</v>
@@ -30171,11 +30181,11 @@
       <c r="J40" s="71"/>
       <c r="K40" s="360"/>
       <c r="L40" s="73"/>
-      <c r="M40" s="448">
+      <c r="M40" s="437">
         <f>SUM(M5:M39)</f>
         <v>2563550</v>
       </c>
-      <c r="N40" s="450">
+      <c r="N40" s="439">
         <f>SUM(N5:N39)</f>
         <v>77235</v>
       </c>
@@ -30205,8 +30215,8 @@
       <c r="J41" s="71"/>
       <c r="K41" s="363"/>
       <c r="L41" s="73"/>
-      <c r="M41" s="449"/>
-      <c r="N41" s="451"/>
+      <c r="M41" s="438"/>
+      <c r="N41" s="440"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -30421,29 +30431,29 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="452" t="s">
+      <c r="H53" s="441" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="453"/>
+      <c r="I53" s="442"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="454">
+      <c r="K53" s="443">
         <f>I51+L51</f>
         <v>152307.24</v>
       </c>
-      <c r="L53" s="455"/>
-      <c r="M53" s="456">
+      <c r="L53" s="444"/>
+      <c r="M53" s="445">
         <f>N40+M40</f>
         <v>2640785</v>
       </c>
-      <c r="N53" s="457"/>
+      <c r="N53" s="446"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="458" t="s">
+      <c r="D54" s="447" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="458"/>
+      <c r="E54" s="447"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
         <v>2467299.5599999996</v>
@@ -30454,22 +30464,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="459" t="s">
+      <c r="D55" s="448" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="459"/>
+      <c r="E55" s="448"/>
       <c r="F55" s="111">
         <v>-2793202.57</v>
       </c>
-      <c r="I55" s="460" t="s">
+      <c r="I55" s="449" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="461"/>
-      <c r="K55" s="462">
+      <c r="J55" s="450"/>
+      <c r="K55" s="451">
         <f>F57+F58+F59</f>
         <v>149047.74999999977</v>
       </c>
-      <c r="L55" s="463"/>
+      <c r="L55" s="452"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -30500,11 +30510,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="464">
+      <c r="K57" s="453">
         <f>-C4</f>
         <v>-242354.21</v>
       </c>
-      <c r="L57" s="465"/>
+      <c r="L57" s="454"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -30521,10 +30531,10 @@
       <c r="C59" s="128">
         <v>44864</v>
       </c>
-      <c r="D59" s="441" t="s">
+      <c r="D59" s="430" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="442"/>
+      <c r="E59" s="431"/>
       <c r="F59" s="129">
         <v>419424.76</v>
       </c>
@@ -30664,18 +30674,6 @@
     <sortCondition ref="J34:J39"/>
   </sortState>
   <mergeCells count="21">
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -30685,6 +30683,18 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -33823,8 +33833,8 @@
   </sheetPr>
   <dimension ref="A1:U81"/>
   <sheetViews>
-    <sheetView topLeftCell="B28" workbookViewId="0">
-      <selection activeCell="K59" sqref="K59:L59"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33849,23 +33859,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="428"/>
-      <c r="C1" s="430" t="s">
-        <v>550</v>
-      </c>
-      <c r="D1" s="431"/>
-      <c r="E1" s="431"/>
-      <c r="F1" s="431"/>
-      <c r="G1" s="431"/>
-      <c r="H1" s="431"/>
-      <c r="I1" s="431"/>
-      <c r="J1" s="431"/>
-      <c r="K1" s="431"/>
-      <c r="L1" s="431"/>
-      <c r="M1" s="431"/>
+      <c r="B1" s="455"/>
+      <c r="C1" s="457" t="s">
+        <v>549</v>
+      </c>
+      <c r="D1" s="458"/>
+      <c r="E1" s="458"/>
+      <c r="F1" s="458"/>
+      <c r="G1" s="458"/>
+      <c r="H1" s="458"/>
+      <c r="I1" s="458"/>
+      <c r="J1" s="458"/>
+      <c r="K1" s="458"/>
+      <c r="L1" s="458"/>
+      <c r="M1" s="458"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="429"/>
+      <c r="B2" s="456"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -33875,21 +33885,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="432" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="433"/>
+      <c r="B3" s="459" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="460"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="434" t="s">
+      <c r="H3" s="461" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="434"/>
+      <c r="I3" s="461"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="439" t="s">
+      <c r="R3" s="428" t="s">
         <v>38</v>
       </c>
     </row>
@@ -33904,14 +33914,14 @@
       <c r="D4" s="16">
         <v>44864</v>
       </c>
-      <c r="E4" s="435" t="s">
+      <c r="E4" s="462" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="436"/>
-      <c r="H4" s="437" t="s">
+      <c r="F4" s="463"/>
+      <c r="H4" s="464" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="438"/>
+      <c r="I4" s="465"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -33921,11 +33931,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="446" t="s">
+      <c r="P4" s="435" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="447"/>
-      <c r="R4" s="440"/>
+      <c r="Q4" s="436"/>
+      <c r="R4" s="429"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -34197,7 +34207,7 @@
         <v>44870</v>
       </c>
       <c r="K10" s="332" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="L10" s="46">
         <v>9367</v>
@@ -34430,7 +34440,7 @@
         <v>22185</v>
       </c>
       <c r="D15" s="335" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E15" s="322">
         <v>44875</v>
@@ -34546,7 +34556,7 @@
         <v>44877</v>
       </c>
       <c r="K17" s="336" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="L17" s="46">
         <v>9786</v>
@@ -34893,7 +34903,7 @@
         <v>44884</v>
       </c>
       <c r="K24" s="343" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="L24" s="61">
         <v>10357</v>
@@ -35240,7 +35250,7 @@
         <v>44891</v>
       </c>
       <c r="K31" s="351" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="L31" s="75">
         <v>12000</v>
@@ -35310,7 +35320,7 @@
         <v>0</v>
       </c>
       <c r="R32" s="8" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="S32" s="369">
         <v>44864</v>
@@ -35480,7 +35490,7 @@
         <v>44890</v>
       </c>
       <c r="K37" s="357" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="L37" s="78">
         <v>1225.1199999999999</v>
@@ -35519,7 +35529,7 @@
         <v>44890</v>
       </c>
       <c r="K38" s="329" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="L38" s="78">
         <v>2725.09</v>
@@ -35596,11 +35606,11 @@
       <c r="J40" s="71"/>
       <c r="K40" s="360"/>
       <c r="L40" s="73"/>
-      <c r="M40" s="448">
+      <c r="M40" s="437">
         <f>SUM(M5:M39)</f>
         <v>2972555</v>
       </c>
-      <c r="N40" s="450">
+      <c r="N40" s="439">
         <f>SUM(N5:N39)</f>
         <v>108935</v>
       </c>
@@ -35630,8 +35640,8 @@
       <c r="J41" s="71"/>
       <c r="K41" s="363"/>
       <c r="L41" s="73"/>
-      <c r="M41" s="449"/>
-      <c r="N41" s="451"/>
+      <c r="M41" s="438"/>
+      <c r="N41" s="440"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -35846,29 +35856,29 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="452" t="s">
+      <c r="H53" s="441" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="453"/>
+      <c r="I53" s="442"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="454">
+      <c r="K53" s="443">
         <f>I51+L51</f>
         <v>115993.20999999999</v>
       </c>
-      <c r="L53" s="455"/>
-      <c r="M53" s="456">
+      <c r="L53" s="444"/>
+      <c r="M53" s="445">
         <f>N40+M40</f>
         <v>3081490</v>
       </c>
-      <c r="N53" s="457"/>
+      <c r="N53" s="446"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="458" t="s">
+      <c r="D54" s="447" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="458"/>
+      <c r="E54" s="447"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
         <v>2955513.79</v>
@@ -35879,22 +35889,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="459" t="s">
+      <c r="D55" s="448" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="459"/>
+      <c r="E55" s="448"/>
       <c r="F55" s="111">
         <v>-2936244.87</v>
       </c>
-      <c r="I55" s="460" t="s">
+      <c r="I55" s="449" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="461"/>
-      <c r="K55" s="462">
+      <c r="J55" s="450"/>
+      <c r="K55" s="451">
         <f>F57+F58+F59</f>
         <v>405993.46999999991</v>
       </c>
-      <c r="L55" s="463"/>
+      <c r="L55" s="452"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -35925,11 +35935,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="464">
+      <c r="K57" s="453">
         <f>-C4</f>
         <v>-419424.76</v>
       </c>
-      <c r="L57" s="465"/>
+      <c r="L57" s="454"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -35946,10 +35956,10 @@
       <c r="C59" s="128">
         <v>44892</v>
       </c>
-      <c r="D59" s="441" t="s">
+      <c r="D59" s="430" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="442"/>
+      <c r="E59" s="431"/>
       <c r="F59" s="129">
         <v>315698.55</v>
       </c>
@@ -36086,6 +36096,18 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -36095,18 +36117,6 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -36176,7 +36186,7 @@
         <v>44866</v>
       </c>
       <c r="B3" s="378" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C3" s="256">
         <v>44181.2</v>
@@ -36198,7 +36208,7 @@
         <v>44866</v>
       </c>
       <c r="B4" s="380" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C4" s="127">
         <v>52074.400000000001</v>
@@ -36220,7 +36230,7 @@
         <v>44867</v>
       </c>
       <c r="B5" s="380" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C5" s="127">
         <v>5254</v>
@@ -36242,7 +36252,7 @@
         <v>44868</v>
       </c>
       <c r="B6" s="380" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C6" s="127">
         <v>103458.88</v>
@@ -36265,7 +36275,7 @@
         <v>44868</v>
       </c>
       <c r="B7" s="380" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C7" s="127">
         <v>76672.5</v>
@@ -36287,7 +36297,7 @@
         <v>44869</v>
       </c>
       <c r="B8" s="380" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C8" s="127">
         <v>113523.28</v>
@@ -36309,7 +36319,7 @@
         <v>44870</v>
       </c>
       <c r="B9" s="380" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C9" s="127">
         <v>182125.94</v>
@@ -36331,7 +36341,7 @@
         <v>44872</v>
       </c>
       <c r="B10" s="380" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C10" s="127">
         <v>155861.72</v>
@@ -36355,7 +36365,7 @@
         <v>44875</v>
       </c>
       <c r="B11" s="380" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C11" s="127">
         <v>172319.6</v>
@@ -36380,7 +36390,7 @@
         <v>44875</v>
       </c>
       <c r="B12" s="380" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C12" s="127">
         <v>25739.54</v>
@@ -36402,7 +36412,7 @@
         <v>44876</v>
       </c>
       <c r="B13" s="380" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C13" s="127">
         <v>161041.70000000001</v>
@@ -36423,7 +36433,7 @@
         <v>44876</v>
       </c>
       <c r="B14" s="380" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C14" s="127">
         <v>5213.6400000000003</v>
@@ -36444,7 +36454,7 @@
         <v>44877</v>
       </c>
       <c r="B15" s="380" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C15" s="127">
         <v>184631.6</v>
@@ -36465,7 +36475,7 @@
         <v>44877</v>
       </c>
       <c r="B16" s="380" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C16" s="127">
         <v>10281.76</v>
@@ -36486,7 +36496,7 @@
         <v>44879</v>
       </c>
       <c r="B17" s="380" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C17" s="127">
         <v>159496.46</v>
@@ -36507,7 +36517,7 @@
         <v>44879</v>
       </c>
       <c r="B18" s="380" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C18" s="127">
         <v>1076.4000000000001</v>
@@ -36528,7 +36538,7 @@
         <v>44880</v>
       </c>
       <c r="B19" s="380" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C19" s="127">
         <v>164517.22</v>
@@ -36549,7 +36559,7 @@
         <v>44882</v>
       </c>
       <c r="B20" s="380" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C20" s="127">
         <v>189776.71</v>
@@ -36570,13 +36580,13 @@
         <v>44883</v>
       </c>
       <c r="B21" s="380" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C21" s="127">
         <v>167573.96</v>
       </c>
       <c r="D21" s="394" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E21" s="296">
         <f>100000+67573.96</f>
@@ -36592,7 +36602,7 @@
         <v>44883</v>
       </c>
       <c r="B22" s="380" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C22" s="127">
         <v>6583.4</v>
@@ -36613,7 +36623,7 @@
         <v>44884</v>
       </c>
       <c r="B23" s="380" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C23" s="127">
         <v>203511.5</v>
@@ -36634,7 +36644,7 @@
         <v>44887</v>
       </c>
       <c r="B24" s="380" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C24" s="127">
         <v>165026.14000000001</v>
@@ -36656,7 +36666,7 @@
         <v>44888</v>
       </c>
       <c r="B25" s="380" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C25" s="127">
         <v>18120.78</v>
@@ -36677,7 +36687,7 @@
         <v>44889</v>
       </c>
       <c r="B26" s="380" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C26" s="127">
         <v>212875.58</v>
@@ -36698,7 +36708,7 @@
         <v>44889</v>
       </c>
       <c r="B27" s="380" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C27" s="127">
         <v>20383</v>
@@ -36719,7 +36729,7 @@
         <v>44889</v>
       </c>
       <c r="B28" s="380" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C28" s="127">
         <v>5998.5</v>
@@ -36740,7 +36750,7 @@
         <v>44890</v>
       </c>
       <c r="B29" s="380" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C29" s="127">
         <v>168840.48</v>
@@ -36761,7 +36771,7 @@
         <v>44891</v>
       </c>
       <c r="B30" s="258" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C30" s="127">
         <v>160084.98000000001</v>
@@ -37476,10 +37486,10 @@
   <dimension ref="A1:U90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="8" ySplit="4" topLeftCell="I56" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="4" topLeftCell="I53" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F68" sqref="F68"/>
+      <selection pane="bottomRight" activeCell="I73" sqref="I73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37504,23 +37514,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="428"/>
-      <c r="C1" s="430" t="s">
-        <v>589</v>
-      </c>
-      <c r="D1" s="431"/>
-      <c r="E1" s="431"/>
-      <c r="F1" s="431"/>
-      <c r="G1" s="431"/>
-      <c r="H1" s="431"/>
-      <c r="I1" s="431"/>
-      <c r="J1" s="431"/>
-      <c r="K1" s="431"/>
-      <c r="L1" s="431"/>
-      <c r="M1" s="431"/>
+      <c r="B1" s="455"/>
+      <c r="C1" s="457" t="s">
+        <v>588</v>
+      </c>
+      <c r="D1" s="458"/>
+      <c r="E1" s="458"/>
+      <c r="F1" s="458"/>
+      <c r="G1" s="458"/>
+      <c r="H1" s="458"/>
+      <c r="I1" s="458"/>
+      <c r="J1" s="458"/>
+      <c r="K1" s="458"/>
+      <c r="L1" s="458"/>
+      <c r="M1" s="458"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="429"/>
+      <c r="B2" s="456"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -37530,21 +37540,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="432" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="433"/>
+      <c r="B3" s="459" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="460"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="434" t="s">
+      <c r="H3" s="461" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="434"/>
+      <c r="I3" s="461"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="439" t="s">
+      <c r="R3" s="428" t="s">
         <v>38</v>
       </c>
     </row>
@@ -37559,14 +37569,14 @@
       <c r="D4" s="16">
         <v>44892</v>
       </c>
-      <c r="E4" s="435" t="s">
+      <c r="E4" s="462" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="436"/>
-      <c r="H4" s="437" t="s">
+      <c r="F4" s="463"/>
+      <c r="H4" s="464" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="438"/>
+      <c r="I4" s="465"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -37576,11 +37586,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="446" t="s">
+      <c r="P4" s="435" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="447"/>
-      <c r="R4" s="440"/>
+      <c r="Q4" s="436"/>
+      <c r="R4" s="429"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -37780,7 +37790,7 @@
         <v>26423</v>
       </c>
       <c r="D9" s="335" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E9" s="322">
         <v>44897</v>
@@ -37942,7 +37952,7 @@
         <v>44900</v>
       </c>
       <c r="K12" s="334" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="L12" s="38">
         <v>9500</v>
@@ -38023,7 +38033,7 @@
         <v>965</v>
       </c>
       <c r="D14" s="335" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E14" s="322">
         <v>44902</v>
@@ -38071,7 +38081,7 @@
         <v>15187</v>
       </c>
       <c r="D15" s="335" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E15" s="322">
         <v>44903</v>
@@ -38119,7 +38129,7 @@
         <v>570</v>
       </c>
       <c r="D16" s="404" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E16" s="322">
         <v>44904</v>
@@ -38167,7 +38177,7 @@
         <v>6397</v>
       </c>
       <c r="D17" s="335" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E17" s="322">
         <v>44905</v>
@@ -38186,7 +38196,7 @@
         <v>44905</v>
       </c>
       <c r="K17" s="336" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="L17" s="46">
         <v>9500</v>
@@ -38454,7 +38464,7 @@
         <v>5522</v>
       </c>
       <c r="D23" s="335" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E23" s="322">
         <v>44911</v>
@@ -38519,7 +38529,7 @@
         <v>44912</v>
       </c>
       <c r="K24" s="343" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="L24" s="61">
         <v>9500</v>
@@ -38602,7 +38612,7 @@
         <v>16579</v>
       </c>
       <c r="D26" s="326" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E26" s="322">
         <v>44914</v>
@@ -38650,7 +38660,7 @@
         <v>2929</v>
       </c>
       <c r="D27" s="328" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E27" s="322">
         <v>44915</v>
@@ -38669,7 +38679,7 @@
         <v>44915</v>
       </c>
       <c r="K27" s="345" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="L27" s="64">
         <v>14572</v>
@@ -38845,7 +38855,7 @@
         <v>19814</v>
       </c>
       <c r="D31" s="350" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E31" s="322">
         <v>44919</v>
@@ -38864,7 +38874,7 @@
         <v>44919</v>
       </c>
       <c r="K31" s="351" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="L31" s="75">
         <v>11900</v>
@@ -39082,7 +39092,7 @@
         <v>22536</v>
       </c>
       <c r="D36" s="407" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E36" s="322">
         <v>44924</v>
@@ -39176,7 +39186,7 @@
         <v>3304</v>
       </c>
       <c r="D38" s="353" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E38" s="322">
         <v>44926</v>
@@ -39195,7 +39205,7 @@
         <v>44926</v>
       </c>
       <c r="K38" s="329" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="L38" s="78">
         <v>11900</v>
@@ -39463,7 +39473,7 @@
         <v>18337</v>
       </c>
       <c r="D44" s="353" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E44" s="322">
         <v>44932</v>
@@ -39528,7 +39538,7 @@
         <v>44933</v>
       </c>
       <c r="K45" s="358" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="L45" s="73">
         <v>8900</v>
@@ -39683,16 +39693,16 @@
         <v>44902</v>
       </c>
       <c r="K49" s="360" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="L49" s="73">
         <v>1225.1199999999999</v>
       </c>
-      <c r="M49" s="448">
+      <c r="M49" s="437">
         <f>SUM(M5:M39)</f>
         <v>3707372</v>
       </c>
-      <c r="N49" s="450">
+      <c r="N49" s="439">
         <f>SUM(N5:N39)</f>
         <v>191908</v>
       </c>
@@ -39723,17 +39733,17 @@
         <v>44909</v>
       </c>
       <c r="K50" s="363" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="L50" s="73">
         <v>31059</v>
       </c>
-      <c r="M50" s="449"/>
-      <c r="N50" s="451"/>
+      <c r="M50" s="438"/>
+      <c r="N50" s="440"/>
       <c r="P50" s="32"/>
       <c r="Q50" s="8"/>
       <c r="R50" s="412" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="51" spans="1:18" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -39798,7 +39808,7 @@
         <v>44918</v>
       </c>
       <c r="K53" s="427" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="L53" s="78">
         <v>212.25</v>
@@ -39977,29 +39987,29 @@
       <c r="A62" s="33"/>
       <c r="B62" s="113"/>
       <c r="C62" s="1"/>
-      <c r="H62" s="452" t="s">
+      <c r="H62" s="441" t="s">
         <v>12</v>
       </c>
-      <c r="I62" s="453"/>
+      <c r="I62" s="442"/>
       <c r="J62" s="114"/>
-      <c r="K62" s="454">
+      <c r="K62" s="443">
         <f>I60+L60</f>
         <v>156470.16999999998</v>
       </c>
-      <c r="L62" s="455"/>
-      <c r="M62" s="456">
+      <c r="L62" s="444"/>
+      <c r="M62" s="445">
         <f>N49+M49</f>
         <v>3899280</v>
       </c>
-      <c r="N62" s="457"/>
+      <c r="N62" s="446"/>
       <c r="P62" s="32"/>
       <c r="Q62" s="8"/>
     </row>
     <row r="63" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D63" s="458" t="s">
+      <c r="D63" s="447" t="s">
         <v>13</v>
       </c>
-      <c r="E63" s="458"/>
+      <c r="E63" s="447"/>
       <c r="F63" s="115">
         <f>F60-K62-C60</f>
         <v>4369047.83</v>
@@ -40010,22 +40020,22 @@
       <c r="Q63" s="8"/>
     </row>
     <row r="64" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D64" s="459" t="s">
+      <c r="D64" s="448" t="s">
         <v>14</v>
       </c>
-      <c r="E64" s="459"/>
+      <c r="E64" s="448"/>
       <c r="F64" s="111">
         <v>-4409875.54</v>
       </c>
-      <c r="I64" s="460" t="s">
+      <c r="I64" s="449" t="s">
         <v>15</v>
       </c>
-      <c r="J64" s="461"/>
-      <c r="K64" s="462">
+      <c r="J64" s="450"/>
+      <c r="K64" s="451">
         <f>F66+F67+F68</f>
         <v>386457.01</v>
       </c>
-      <c r="L64" s="463"/>
+      <c r="L64" s="452"/>
       <c r="P64" s="32"/>
       <c r="Q64" s="8"/>
     </row>
@@ -40056,11 +40066,11 @@
         <v>17</v>
       </c>
       <c r="J66" s="125"/>
-      <c r="K66" s="464">
+      <c r="K66" s="453">
         <f>-C4</f>
         <v>-315698.55</v>
       </c>
-      <c r="L66" s="465"/>
+      <c r="L66" s="454"/>
     </row>
     <row r="67" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D67" s="126" t="s">
@@ -40077,22 +40087,22 @@
       <c r="C68" s="128">
         <v>44934</v>
       </c>
-      <c r="D68" s="441" t="s">
+      <c r="D68" s="430" t="s">
         <v>20</v>
       </c>
-      <c r="E68" s="442"/>
+      <c r="E68" s="431"/>
       <c r="F68" s="129">
         <v>373948.72</v>
       </c>
-      <c r="I68" s="467" t="s">
+      <c r="I68" s="432" t="s">
         <v>168</v>
       </c>
-      <c r="J68" s="468"/>
-      <c r="K68" s="469">
+      <c r="J68" s="433"/>
+      <c r="K68" s="434">
         <f>K64+K66</f>
         <v>70758.460000000021</v>
       </c>
-      <c r="L68" s="469"/>
+      <c r="L68" s="434"/>
     </row>
     <row r="69" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C69" s="130"/>
@@ -40220,6 +40230,18 @@
     <sortCondition ref="J48:J55"/>
   </sortState>
   <mergeCells count="21">
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="I64:J64"/>
+    <mergeCell ref="K64:L64"/>
+    <mergeCell ref="K66:L66"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="I68:J68"/>
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M49:M50"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -40229,18 +40251,6 @@
     <mergeCell ref="H62:I62"/>
     <mergeCell ref="K62:L62"/>
     <mergeCell ref="M62:N62"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M49:M50"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="I64:J64"/>
-    <mergeCell ref="K64:L64"/>
-    <mergeCell ref="K66:L66"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="I68:J68"/>
-    <mergeCell ref="K68:L68"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.35" bottom="0.28000000000000003" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -40258,7 +40268,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D49" sqref="D49"/>
+      <selection pane="bottomLeft" activeCell="D82" sqref="D82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -40313,7 +40323,7 @@
         <v>44893</v>
       </c>
       <c r="B3" s="378" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C3" s="256">
         <v>138270.20000000001</v>
@@ -40334,7 +40344,7 @@
         <v>44894</v>
       </c>
       <c r="B4" s="380" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C4" s="127">
         <v>41375</v>
@@ -40355,7 +40365,7 @@
         <v>44895</v>
       </c>
       <c r="B5" s="380" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C5" s="127">
         <v>20963.2</v>
@@ -40376,7 +40386,7 @@
         <v>44895</v>
       </c>
       <c r="B6" s="380" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C6" s="127">
         <v>111624</v>
@@ -40398,7 +40408,7 @@
         <v>44895</v>
       </c>
       <c r="B7" s="380" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C7" s="127">
         <v>25126</v>
@@ -40419,7 +40429,7 @@
         <v>44896</v>
       </c>
       <c r="B8" s="380" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C8" s="127">
         <v>157141.5</v>
@@ -40440,7 +40450,7 @@
         <v>44897</v>
       </c>
       <c r="B9" s="380" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C9" s="127">
         <v>102821.28</v>
@@ -40461,7 +40471,7 @@
         <v>44898</v>
       </c>
       <c r="B10" s="380" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C10" s="127">
         <v>111986.32</v>
@@ -40482,7 +40492,7 @@
         <v>44898</v>
       </c>
       <c r="B11" s="380" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C11" s="127">
         <v>25929.599999999999</v>
@@ -40503,7 +40513,7 @@
         <v>44900</v>
       </c>
       <c r="B12" s="380" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C12" s="127">
         <v>139332.94</v>
@@ -40525,7 +40535,7 @@
         <v>44901</v>
       </c>
       <c r="B13" s="380" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C13" s="127">
         <v>117086.39999999999</v>
@@ -40546,7 +40556,7 @@
         <v>44902</v>
       </c>
       <c r="B14" s="380" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C14" s="127">
         <v>2602.5</v>
@@ -40567,7 +40577,7 @@
         <v>44903</v>
       </c>
       <c r="B15" s="380" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C15" s="127">
         <v>175569.59</v>
@@ -40588,7 +40598,7 @@
         <v>44904</v>
       </c>
       <c r="B16" s="380" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C16" s="127">
         <v>112431.52</v>
@@ -40609,7 +40619,7 @@
         <v>44905</v>
       </c>
       <c r="B17" s="380" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C17" s="127">
         <v>167636.82999999999</v>
@@ -40630,7 +40640,7 @@
         <v>44907</v>
       </c>
       <c r="B18" s="380" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C18" s="127">
         <v>123571.9</v>
@@ -40651,7 +40661,7 @@
         <v>44907</v>
       </c>
       <c r="B19" s="380" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C19" s="127">
         <v>13133</v>
@@ -40672,7 +40682,7 @@
         <v>44908</v>
       </c>
       <c r="B20" s="380" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C20" s="127">
         <v>4620</v>
@@ -40693,7 +40703,7 @@
         <v>44909</v>
       </c>
       <c r="B21" s="380" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C21" s="127">
         <v>165919.81</v>
@@ -40714,7 +40724,7 @@
         <v>44910</v>
       </c>
       <c r="B22" s="380" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C22" s="127">
         <v>153670.39999999999</v>
@@ -40735,7 +40745,7 @@
         <v>44911</v>
       </c>
       <c r="B23" s="380" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C23" s="127">
         <v>176215.71</v>
@@ -40759,7 +40769,7 @@
         <v>44912</v>
       </c>
       <c r="B24" s="380" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C24" s="127">
         <v>181971.56</v>
@@ -40784,7 +40794,7 @@
         <v>44912</v>
       </c>
       <c r="B25" s="380" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C25" s="127">
         <v>67422.53</v>
@@ -40808,7 +40818,7 @@
         <v>44913</v>
       </c>
       <c r="B26" s="380" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C26" s="127">
         <v>2814.8</v>
@@ -40832,7 +40842,7 @@
         <v>44914</v>
       </c>
       <c r="B27" s="380" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C27" s="127">
         <v>104094.3</v>
@@ -40856,7 +40866,7 @@
         <v>44915</v>
       </c>
       <c r="B28" s="380" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C28" s="127">
         <v>187158.95</v>
@@ -40880,7 +40890,7 @@
         <v>44916</v>
       </c>
       <c r="B29" s="380" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C29" s="127">
         <v>221997.72</v>
@@ -40907,13 +40917,13 @@
         <v>44917</v>
       </c>
       <c r="B30" s="258" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C30" s="127">
         <v>183875.16</v>
       </c>
       <c r="D30" s="390" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="E30" s="301">
         <f>123104.8+60770.36</f>
@@ -40935,7 +40945,7 @@
         <v>44918</v>
       </c>
       <c r="B31" s="258" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C31" s="127">
         <v>23104.799999999999</v>
@@ -40962,7 +40972,7 @@
         <v>44918</v>
       </c>
       <c r="B32" s="258" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C32" s="127">
         <v>182703</v>
@@ -40991,7 +41001,7 @@
         <v>44919</v>
       </c>
       <c r="B33" s="258" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C33" s="127">
         <v>12531.92</v>
@@ -41015,7 +41025,7 @@
         <v>44921</v>
       </c>
       <c r="B34" s="258" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C34" s="127">
         <v>23313.599999999999</v>
@@ -41039,7 +41049,7 @@
         <v>44922</v>
       </c>
       <c r="B35" s="258" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C35" s="127">
         <v>62474.92</v>
@@ -41063,7 +41073,7 @@
         <v>44923</v>
       </c>
       <c r="B36" s="258" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C36" s="127">
         <v>2645.1</v>
@@ -41087,7 +41097,7 @@
         <v>44923</v>
       </c>
       <c r="B37" s="258" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C37" s="127">
         <v>72492.899999999994</v>
@@ -41112,7 +41122,7 @@
         <v>44924</v>
       </c>
       <c r="B38" s="258" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C38" s="127">
         <v>109519.12</v>
@@ -41133,7 +41143,7 @@
         <v>44924</v>
       </c>
       <c r="B39" s="258" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C39" s="127">
         <v>98516.93</v>
@@ -41154,7 +41164,7 @@
         <v>44924</v>
       </c>
       <c r="B40" s="258" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C40" s="127">
         <v>5321</v>
@@ -41175,7 +41185,7 @@
         <v>44925</v>
       </c>
       <c r="B41" s="258" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C41" s="127">
         <v>6213.16</v>
@@ -41196,7 +41206,7 @@
         <v>44925</v>
       </c>
       <c r="B42" s="260" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C42" s="84">
         <v>172226.85</v>
@@ -41217,7 +41227,7 @@
         <v>44926</v>
       </c>
       <c r="B43" s="418" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C43" s="84">
         <v>8444.4</v>
@@ -41238,7 +41248,7 @@
         <v>44926</v>
       </c>
       <c r="B44" s="419" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C44" s="84">
         <v>36150.199999999997</v>
@@ -41259,7 +41269,7 @@
         <v>44929</v>
       </c>
       <c r="B45" s="419" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C45" s="84">
         <v>98848.12</v>
@@ -41280,7 +41290,7 @@
         <v>44930</v>
       </c>
       <c r="B46" s="419" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C46" s="84">
         <v>31240.68</v>
@@ -41301,7 +41311,7 @@
         <v>44931</v>
       </c>
       <c r="B47" s="419" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C47" s="84">
         <v>108063.4</v>
@@ -41322,7 +41332,7 @@
         <v>44931</v>
       </c>
       <c r="B48" s="419" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C48" s="84">
         <v>44993</v>
@@ -41343,7 +41353,7 @@
         <v>44932</v>
       </c>
       <c r="B49" s="419" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C49" s="84">
         <v>72016</v>
@@ -41364,7 +41374,7 @@
         <v>44933</v>
       </c>
       <c r="B50" s="419" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C50" s="84">
         <v>588</v>
@@ -41385,7 +41395,7 @@
         <v>44933</v>
       </c>
       <c r="B51" s="419" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C51" s="84">
         <v>1764</v>
@@ -41406,7 +41416,7 @@
         <v>44933</v>
       </c>
       <c r="B52" s="419" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C52" s="84">
         <v>141725.72</v>
@@ -41427,7 +41437,7 @@
         <v>44933</v>
       </c>
       <c r="B53" s="419" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C53" s="84">
         <v>53295</v>
@@ -41448,7 +41458,7 @@
         <v>44933</v>
       </c>
       <c r="B54" s="419" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C54" s="84">
         <v>5321</v>
@@ -41934,23 +41944,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="428"/>
-      <c r="C1" s="430" t="s">
+      <c r="B1" s="455"/>
+      <c r="C1" s="457" t="s">
         <v>125</v>
       </c>
-      <c r="D1" s="431"/>
-      <c r="E1" s="431"/>
-      <c r="F1" s="431"/>
-      <c r="G1" s="431"/>
-      <c r="H1" s="431"/>
-      <c r="I1" s="431"/>
-      <c r="J1" s="431"/>
-      <c r="K1" s="431"/>
-      <c r="L1" s="431"/>
-      <c r="M1" s="431"/>
+      <c r="D1" s="458"/>
+      <c r="E1" s="458"/>
+      <c r="F1" s="458"/>
+      <c r="G1" s="458"/>
+      <c r="H1" s="458"/>
+      <c r="I1" s="458"/>
+      <c r="J1" s="458"/>
+      <c r="K1" s="458"/>
+      <c r="L1" s="458"/>
+      <c r="M1" s="458"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="429"/>
+      <c r="B2" s="456"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -41960,21 +41970,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="432" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="433"/>
+      <c r="B3" s="459" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="460"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="434" t="s">
+      <c r="H3" s="461" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="434"/>
+      <c r="I3" s="461"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="439" t="s">
+      <c r="R3" s="428" t="s">
         <v>38</v>
       </c>
     </row>
@@ -41989,14 +41999,14 @@
       <c r="D4" s="16">
         <v>44591</v>
       </c>
-      <c r="E4" s="435" t="s">
+      <c r="E4" s="462" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="436"/>
-      <c r="H4" s="437" t="s">
+      <c r="F4" s="463"/>
+      <c r="H4" s="464" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="438"/>
+      <c r="I4" s="465"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -42006,11 +42016,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="446" t="s">
+      <c r="P4" s="435" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="447"/>
-      <c r="R4" s="440"/>
+      <c r="Q4" s="436"/>
+      <c r="R4" s="429"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -43451,7 +43461,7 @@
         <f>SUM(M5:M39)</f>
         <v>1636108</v>
       </c>
-      <c r="N40" s="450">
+      <c r="N40" s="439">
         <f>SUM(N5:N39)</f>
         <v>55675</v>
       </c>
@@ -43476,8 +43486,8 @@
       <c r="J41" s="71"/>
       <c r="K41" s="74"/>
       <c r="L41" s="73"/>
-      <c r="M41" s="449"/>
-      <c r="N41" s="451"/>
+      <c r="M41" s="438"/>
+      <c r="N41" s="440"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -43684,29 +43694,29 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="452" t="s">
+      <c r="H53" s="441" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="453"/>
+      <c r="I53" s="442"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="454">
+      <c r="K53" s="443">
         <f>I51+L51</f>
         <v>45634.280000000006</v>
       </c>
-      <c r="L53" s="455"/>
-      <c r="M53" s="456">
+      <c r="L53" s="444"/>
+      <c r="M53" s="445">
         <f>N40+M40</f>
         <v>1691783</v>
       </c>
-      <c r="N53" s="457"/>
+      <c r="N53" s="446"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="458" t="s">
+      <c r="D54" s="447" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="458"/>
+      <c r="E54" s="447"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
         <v>1686442.72</v>
@@ -43717,22 +43727,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="459" t="s">
+      <c r="D55" s="448" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="459"/>
+      <c r="E55" s="448"/>
       <c r="F55" s="111">
         <v>-1631962.77</v>
       </c>
-      <c r="I55" s="460" t="s">
+      <c r="I55" s="449" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="461"/>
-      <c r="K55" s="462">
+      <c r="J55" s="450"/>
+      <c r="K55" s="451">
         <f>F57+F58+F59</f>
         <v>238822.13999999996</v>
       </c>
-      <c r="L55" s="463"/>
+      <c r="L55" s="452"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -43763,11 +43773,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="464">
+      <c r="K57" s="453">
         <f>-C4</f>
         <v>-154314.51999999999</v>
       </c>
-      <c r="L57" s="465"/>
+      <c r="L57" s="454"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -43784,22 +43794,22 @@
       <c r="C59" s="128">
         <v>44619</v>
       </c>
-      <c r="D59" s="441" t="s">
+      <c r="D59" s="430" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="442"/>
+      <c r="E59" s="431"/>
       <c r="F59" s="129">
         <v>184342.19</v>
       </c>
-      <c r="I59" s="443" t="s">
+      <c r="I59" s="432" t="s">
         <v>168</v>
       </c>
-      <c r="J59" s="444"/>
-      <c r="K59" s="445">
+      <c r="J59" s="433"/>
+      <c r="K59" s="434">
         <f>K55+K57</f>
         <v>84507.619999999966</v>
       </c>
-      <c r="L59" s="445"/>
+      <c r="L59" s="434"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="130"/>
@@ -43924,6 +43934,18 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -43933,18 +43955,6 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -45249,23 +45259,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="428"/>
-      <c r="C1" s="430" t="s">
+      <c r="B1" s="455"/>
+      <c r="C1" s="457" t="s">
         <v>135</v>
       </c>
-      <c r="D1" s="431"/>
-      <c r="E1" s="431"/>
-      <c r="F1" s="431"/>
-      <c r="G1" s="431"/>
-      <c r="H1" s="431"/>
-      <c r="I1" s="431"/>
-      <c r="J1" s="431"/>
-      <c r="K1" s="431"/>
-      <c r="L1" s="431"/>
-      <c r="M1" s="431"/>
+      <c r="D1" s="458"/>
+      <c r="E1" s="458"/>
+      <c r="F1" s="458"/>
+      <c r="G1" s="458"/>
+      <c r="H1" s="458"/>
+      <c r="I1" s="458"/>
+      <c r="J1" s="458"/>
+      <c r="K1" s="458"/>
+      <c r="L1" s="458"/>
+      <c r="M1" s="458"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="429"/>
+      <c r="B2" s="456"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -45275,21 +45285,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="432" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="433"/>
+      <c r="B3" s="459" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="460"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="434" t="s">
+      <c r="H3" s="461" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="434"/>
+      <c r="I3" s="461"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="439" t="s">
+      <c r="R3" s="428" t="s">
         <v>38</v>
       </c>
     </row>
@@ -45304,14 +45314,14 @@
       <c r="D4" s="16">
         <v>44619</v>
       </c>
-      <c r="E4" s="435" t="s">
+      <c r="E4" s="462" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="436"/>
-      <c r="H4" s="437" t="s">
+      <c r="F4" s="463"/>
+      <c r="H4" s="464" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="438"/>
+      <c r="I4" s="465"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -45321,11 +45331,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="446" t="s">
+      <c r="P4" s="435" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="447"/>
-      <c r="R4" s="440"/>
+      <c r="Q4" s="436"/>
+      <c r="R4" s="429"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -46776,11 +46786,11 @@
       <c r="J40" s="71"/>
       <c r="K40" s="87"/>
       <c r="L40" s="73"/>
-      <c r="M40" s="448">
+      <c r="M40" s="437">
         <f>SUM(M5:M39)</f>
         <v>1793435</v>
       </c>
-      <c r="N40" s="450">
+      <c r="N40" s="439">
         <f>SUM(N5:N39)</f>
         <v>63995</v>
       </c>
@@ -46805,8 +46815,8 @@
       <c r="J41" s="71"/>
       <c r="K41" s="235"/>
       <c r="L41" s="73"/>
-      <c r="M41" s="449"/>
-      <c r="N41" s="451"/>
+      <c r="M41" s="438"/>
+      <c r="N41" s="440"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -46945,29 +46955,29 @@
       <c r="A49" s="33"/>
       <c r="B49" s="113"/>
       <c r="C49" s="1"/>
-      <c r="H49" s="452" t="s">
+      <c r="H49" s="441" t="s">
         <v>12</v>
       </c>
-      <c r="I49" s="453"/>
+      <c r="I49" s="442"/>
       <c r="J49" s="114"/>
-      <c r="K49" s="454">
+      <c r="K49" s="443">
         <f>I47+L47</f>
         <v>90434.03</v>
       </c>
-      <c r="L49" s="455"/>
-      <c r="M49" s="456">
+      <c r="L49" s="444"/>
+      <c r="M49" s="445">
         <f>N40+M40</f>
         <v>1857430</v>
       </c>
-      <c r="N49" s="457"/>
+      <c r="N49" s="446"/>
       <c r="P49" s="32"/>
       <c r="Q49" s="8"/>
     </row>
     <row r="50" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D50" s="458" t="s">
+      <c r="D50" s="447" t="s">
         <v>13</v>
       </c>
-      <c r="E50" s="458"/>
+      <c r="E50" s="447"/>
       <c r="F50" s="115">
         <f>F47-K49-C47</f>
         <v>1824260.97</v>
@@ -46978,22 +46988,22 @@
       <c r="Q50" s="8"/>
     </row>
     <row r="51" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D51" s="459" t="s">
+      <c r="D51" s="448" t="s">
         <v>14</v>
       </c>
-      <c r="E51" s="459"/>
+      <c r="E51" s="448"/>
       <c r="F51" s="111">
         <v>-1848136.64</v>
       </c>
-      <c r="I51" s="460" t="s">
+      <c r="I51" s="449" t="s">
         <v>15</v>
       </c>
-      <c r="J51" s="461"/>
-      <c r="K51" s="462">
+      <c r="J51" s="450"/>
+      <c r="K51" s="451">
         <f>F53+F54+F55</f>
         <v>195541.70000000007</v>
       </c>
-      <c r="L51" s="463"/>
+      <c r="L51" s="452"/>
       <c r="P51" s="32"/>
       <c r="Q51" s="8"/>
     </row>
@@ -47024,11 +47034,11 @@
         <v>17</v>
       </c>
       <c r="J53" s="125"/>
-      <c r="K53" s="464">
+      <c r="K53" s="453">
         <f>-C4</f>
         <v>-184342.19</v>
       </c>
-      <c r="L53" s="465"/>
+      <c r="L53" s="454"/>
     </row>
     <row r="54" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D54" s="126" t="s">
@@ -47045,22 +47055,22 @@
       <c r="C55" s="128">
         <v>44647</v>
       </c>
-      <c r="D55" s="441" t="s">
+      <c r="D55" s="430" t="s">
         <v>20</v>
       </c>
-      <c r="E55" s="442"/>
+      <c r="E55" s="431"/>
       <c r="F55" s="129">
         <v>219417.37</v>
       </c>
-      <c r="I55" s="443" t="s">
+      <c r="I55" s="432" t="s">
         <v>226</v>
       </c>
-      <c r="J55" s="444"/>
-      <c r="K55" s="445">
+      <c r="J55" s="433"/>
+      <c r="K55" s="434">
         <f>K51+K53</f>
         <v>11199.510000000068</v>
       </c>
-      <c r="L55" s="445"/>
+      <c r="L55" s="434"/>
     </row>
     <row r="56" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C56" s="130"/>
@@ -47188,18 +47198,6 @@
     <sortCondition ref="J34:J38"/>
   </sortState>
   <mergeCells count="21">
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -47209,6 +47207,18 @@
     <mergeCell ref="H49:I49"/>
     <mergeCell ref="K49:L49"/>
     <mergeCell ref="M49:N49"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -48683,23 +48693,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="428"/>
-      <c r="C1" s="430" t="s">
+      <c r="B1" s="455"/>
+      <c r="C1" s="457" t="s">
         <v>225</v>
       </c>
-      <c r="D1" s="431"/>
-      <c r="E1" s="431"/>
-      <c r="F1" s="431"/>
-      <c r="G1" s="431"/>
-      <c r="H1" s="431"/>
-      <c r="I1" s="431"/>
-      <c r="J1" s="431"/>
-      <c r="K1" s="431"/>
-      <c r="L1" s="431"/>
-      <c r="M1" s="431"/>
+      <c r="D1" s="458"/>
+      <c r="E1" s="458"/>
+      <c r="F1" s="458"/>
+      <c r="G1" s="458"/>
+      <c r="H1" s="458"/>
+      <c r="I1" s="458"/>
+      <c r="J1" s="458"/>
+      <c r="K1" s="458"/>
+      <c r="L1" s="458"/>
+      <c r="M1" s="458"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="429"/>
+      <c r="B2" s="456"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -48709,21 +48719,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="432" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="433"/>
+      <c r="B3" s="459" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="460"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="434" t="s">
+      <c r="H3" s="461" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="434"/>
+      <c r="I3" s="461"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="439" t="s">
+      <c r="R3" s="428" t="s">
         <v>38</v>
       </c>
     </row>
@@ -48738,14 +48748,14 @@
       <c r="D4" s="16">
         <v>44647</v>
       </c>
-      <c r="E4" s="435" t="s">
+      <c r="E4" s="462" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="436"/>
-      <c r="H4" s="437" t="s">
+      <c r="F4" s="463"/>
+      <c r="H4" s="464" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="438"/>
+      <c r="I4" s="465"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -48755,11 +48765,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="446" t="s">
+      <c r="P4" s="435" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="447"/>
-      <c r="R4" s="440"/>
+      <c r="Q4" s="436"/>
+      <c r="R4" s="429"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -50356,11 +50366,11 @@
         <f>927.48+128</f>
         <v>1055.48</v>
       </c>
-      <c r="M40" s="448">
+      <c r="M40" s="437">
         <f>SUM(M5:M39)</f>
         <v>2146671</v>
       </c>
-      <c r="N40" s="450">
+      <c r="N40" s="439">
         <f>SUM(N5:N39)</f>
         <v>68590</v>
       </c>
@@ -50391,8 +50401,8 @@
       <c r="L41" s="73">
         <v>1195.68</v>
       </c>
-      <c r="M41" s="449"/>
-      <c r="N41" s="451"/>
+      <c r="M41" s="438"/>
+      <c r="N41" s="440"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -50623,29 +50633,29 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="452" t="s">
+      <c r="H53" s="441" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="453"/>
+      <c r="I53" s="442"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="454">
+      <c r="K53" s="443">
         <f>I51+L51</f>
         <v>91272.77</v>
       </c>
-      <c r="L53" s="455"/>
-      <c r="M53" s="456">
+      <c r="L53" s="444"/>
+      <c r="M53" s="445">
         <f>N40+M40</f>
         <v>2215261</v>
       </c>
-      <c r="N53" s="457"/>
+      <c r="N53" s="446"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="458" t="s">
+      <c r="D54" s="447" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="458"/>
+      <c r="E54" s="447"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
         <v>2179879.23</v>
@@ -50656,22 +50666,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="459" t="s">
+      <c r="D55" s="448" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="459"/>
+      <c r="E55" s="448"/>
       <c r="F55" s="111">
         <v>-2227493.48</v>
       </c>
-      <c r="I55" s="460" t="s">
+      <c r="I55" s="449" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="461"/>
-      <c r="K55" s="462">
+      <c r="J55" s="450"/>
+      <c r="K55" s="451">
         <f>F57+F58+F59</f>
         <v>261521.34000000003</v>
       </c>
-      <c r="L55" s="463"/>
+      <c r="L55" s="452"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -50702,11 +50712,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="464">
+      <c r="K57" s="453">
         <f>-C4</f>
         <v>-219417.37</v>
       </c>
-      <c r="L57" s="465"/>
+      <c r="L57" s="454"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -50723,22 +50733,22 @@
       <c r="C59" s="128">
         <v>44682</v>
       </c>
-      <c r="D59" s="441" t="s">
+      <c r="D59" s="430" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="442"/>
+      <c r="E59" s="431"/>
       <c r="F59" s="129">
         <v>297874.59000000003</v>
       </c>
-      <c r="I59" s="443" t="s">
+      <c r="I59" s="432" t="s">
         <v>168</v>
       </c>
-      <c r="J59" s="444"/>
-      <c r="K59" s="445">
+      <c r="J59" s="433"/>
+      <c r="K59" s="434">
         <f>K55+K57</f>
         <v>42103.97000000003</v>
       </c>
-      <c r="L59" s="445"/>
+      <c r="L59" s="434"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="130"/>
@@ -50866,18 +50876,6 @@
     <sortCondition ref="J40:J44"/>
   </sortState>
   <mergeCells count="21">
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -50887,6 +50885,18 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -52367,7 +52377,7 @@
       <pane xSplit="3" ySplit="4" topLeftCell="F29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="H67" sqref="H67"/>
+      <selection pane="bottomRight" activeCell="K62" sqref="K62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -52390,23 +52400,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="428"/>
-      <c r="C1" s="430" t="s">
+      <c r="B1" s="455"/>
+      <c r="C1" s="457" t="s">
         <v>277</v>
       </c>
-      <c r="D1" s="431"/>
-      <c r="E1" s="431"/>
-      <c r="F1" s="431"/>
-      <c r="G1" s="431"/>
-      <c r="H1" s="431"/>
-      <c r="I1" s="431"/>
-      <c r="J1" s="431"/>
-      <c r="K1" s="431"/>
-      <c r="L1" s="431"/>
-      <c r="M1" s="431"/>
+      <c r="D1" s="458"/>
+      <c r="E1" s="458"/>
+      <c r="F1" s="458"/>
+      <c r="G1" s="458"/>
+      <c r="H1" s="458"/>
+      <c r="I1" s="458"/>
+      <c r="J1" s="458"/>
+      <c r="K1" s="458"/>
+      <c r="L1" s="458"/>
+      <c r="M1" s="458"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="429"/>
+      <c r="B2" s="456"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -52416,21 +52426,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="432" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="433"/>
+      <c r="B3" s="459" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="460"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="434" t="s">
+      <c r="H3" s="461" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="434"/>
+      <c r="I3" s="461"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="439" t="s">
+      <c r="R3" s="428" t="s">
         <v>38</v>
       </c>
     </row>
@@ -52445,14 +52455,14 @@
       <c r="D4" s="16">
         <v>44682</v>
       </c>
-      <c r="E4" s="435" t="s">
+      <c r="E4" s="462" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="436"/>
-      <c r="H4" s="437" t="s">
+      <c r="F4" s="463"/>
+      <c r="H4" s="464" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="438"/>
+      <c r="I4" s="465"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -52462,11 +52472,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="446" t="s">
+      <c r="P4" s="435" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="447"/>
-      <c r="R4" s="440"/>
+      <c r="Q4" s="436"/>
+      <c r="R4" s="429"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -53983,11 +53993,11 @@
       <c r="J40" s="71"/>
       <c r="K40" s="74"/>
       <c r="L40" s="73"/>
-      <c r="M40" s="448">
+      <c r="M40" s="437">
         <f>SUM(M5:M39)</f>
         <v>2144215</v>
       </c>
-      <c r="N40" s="450">
+      <c r="N40" s="439">
         <f>SUM(N5:N39)</f>
         <v>62525</v>
       </c>
@@ -54012,8 +54022,8 @@
       <c r="J41" s="71"/>
       <c r="K41" s="235"/>
       <c r="L41" s="73"/>
-      <c r="M41" s="449"/>
-      <c r="N41" s="451"/>
+      <c r="M41" s="438"/>
+      <c r="N41" s="440"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -54224,29 +54234,29 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="452" t="s">
+      <c r="H53" s="441" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="453"/>
+      <c r="I53" s="442"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="454">
+      <c r="K53" s="443">
         <f>I51+L51</f>
         <v>51231.42</v>
       </c>
-      <c r="L53" s="455"/>
-      <c r="M53" s="456">
+      <c r="L53" s="444"/>
+      <c r="M53" s="445">
         <f>N40+M40</f>
         <v>2206740</v>
       </c>
-      <c r="N53" s="457"/>
+      <c r="N53" s="446"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="458" t="s">
+      <c r="D54" s="447" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="458"/>
+      <c r="E54" s="447"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
         <v>2189405.58</v>
@@ -54257,22 +54267,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="459" t="s">
+      <c r="D55" s="448" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="459"/>
+      <c r="E55" s="448"/>
       <c r="F55" s="111">
         <v>-2251924.65</v>
       </c>
-      <c r="I55" s="460" t="s">
+      <c r="I55" s="449" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="461"/>
-      <c r="K55" s="462">
+      <c r="J55" s="450"/>
+      <c r="K55" s="451">
         <f>F57+F58+F59</f>
         <v>112552.74000000017</v>
       </c>
-      <c r="L55" s="463"/>
+      <c r="L55" s="452"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -54303,11 +54313,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="464">
+      <c r="K57" s="453">
         <f>-C4</f>
         <v>-297874.59000000003</v>
       </c>
-      <c r="L57" s="465"/>
+      <c r="L57" s="454"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -54324,22 +54334,22 @@
       <c r="C59" s="128">
         <v>44710</v>
       </c>
-      <c r="D59" s="441" t="s">
+      <c r="D59" s="430" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="442"/>
+      <c r="E59" s="431"/>
       <c r="F59" s="129">
         <v>149938.81</v>
       </c>
-      <c r="I59" s="443" t="s">
+      <c r="I59" s="432" t="s">
         <v>325</v>
       </c>
-      <c r="J59" s="444"/>
-      <c r="K59" s="445">
+      <c r="J59" s="433"/>
+      <c r="K59" s="434">
         <f>K55+K57</f>
         <v>-185321.84999999986</v>
       </c>
-      <c r="L59" s="445"/>
+      <c r="L59" s="434"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="130"/>
@@ -54467,6 +54477,18 @@
     <sortCondition ref="J35:J40"/>
   </sortState>
   <mergeCells count="21">
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -54476,18 +54498,6 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL#15  ARCHIVO   2 0 2 2/CENTRAL #12  DICIEMBRE 2022/BALANCE   HERRADURA  DICIEMBRE       2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL#15  ARCHIVO   2 0 2 2/CENTRAL #12  DICIEMBRE 2022/BALANCE   HERRADURA  DICIEMBRE       2022.xlsx
@@ -2751,10 +2751,10 @@
     <t xml:space="preserve"> ADT</t>
   </si>
   <si>
-    <t>COMISION ????</t>
-  </si>
-  <si>
     <t xml:space="preserve">CAMARAS </t>
+  </si>
+  <si>
+    <t>COMISION ??</t>
   </si>
 </sst>
 </file>
@@ -4968,6 +4968,42 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="44" fontId="44" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -5049,39 +5085,6 @@
     <xf numFmtId="44" fontId="13" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="44" fontId="14" fillId="0" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5093,9 +5096,6 @@
     </xf>
     <xf numFmtId="166" fontId="12" fillId="6" borderId="51" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -10530,23 +10530,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="455"/>
-      <c r="C1" s="457" t="s">
+      <c r="B1" s="429"/>
+      <c r="C1" s="431" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="458"/>
-      <c r="E1" s="458"/>
-      <c r="F1" s="458"/>
-      <c r="G1" s="458"/>
-      <c r="H1" s="458"/>
-      <c r="I1" s="458"/>
-      <c r="J1" s="458"/>
-      <c r="K1" s="458"/>
-      <c r="L1" s="458"/>
-      <c r="M1" s="458"/>
+      <c r="D1" s="432"/>
+      <c r="E1" s="432"/>
+      <c r="F1" s="432"/>
+      <c r="G1" s="432"/>
+      <c r="H1" s="432"/>
+      <c r="I1" s="432"/>
+      <c r="J1" s="432"/>
+      <c r="K1" s="432"/>
+      <c r="L1" s="432"/>
+      <c r="M1" s="432"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="456"/>
+      <c r="B2" s="430"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -10556,21 +10556,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="459" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="460"/>
+      <c r="B3" s="433" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="434"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="461" t="s">
+      <c r="H3" s="435" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="461"/>
+      <c r="I3" s="435"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="428" t="s">
+      <c r="R3" s="440" t="s">
         <v>38</v>
       </c>
     </row>
@@ -10585,14 +10585,14 @@
       <c r="D4" s="16">
         <v>44563</v>
       </c>
-      <c r="E4" s="462" t="s">
+      <c r="E4" s="436" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="463"/>
-      <c r="H4" s="464" t="s">
+      <c r="F4" s="437"/>
+      <c r="H4" s="438" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="465"/>
+      <c r="I4" s="439"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -10602,11 +10602,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="435" t="s">
+      <c r="P4" s="447" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="436"/>
-      <c r="R4" s="429"/>
+      <c r="Q4" s="448"/>
+      <c r="R4" s="441"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -12061,11 +12061,11 @@
       <c r="J40" s="71"/>
       <c r="K40" s="87"/>
       <c r="L40" s="73"/>
-      <c r="M40" s="437">
+      <c r="M40" s="449">
         <f>SUM(M5:M39)</f>
         <v>1527030</v>
       </c>
-      <c r="N40" s="439">
+      <c r="N40" s="451">
         <f>SUM(N5:N39)</f>
         <v>50013</v>
       </c>
@@ -12090,8 +12090,8 @@
       <c r="J41" s="71"/>
       <c r="K41" s="74"/>
       <c r="L41" s="73"/>
-      <c r="M41" s="438"/>
-      <c r="N41" s="440"/>
+      <c r="M41" s="450"/>
+      <c r="N41" s="452"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -12298,29 +12298,29 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="441" t="s">
+      <c r="H53" s="453" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="442"/>
+      <c r="I53" s="454"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="443">
+      <c r="K53" s="455">
         <f>I51+L51</f>
         <v>50143.28</v>
       </c>
-      <c r="L53" s="444"/>
-      <c r="M53" s="445">
+      <c r="L53" s="456"/>
+      <c r="M53" s="457">
         <f>N40+M40</f>
         <v>1577043</v>
       </c>
-      <c r="N53" s="446"/>
+      <c r="N53" s="458"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="447" t="s">
+      <c r="D54" s="459" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="447"/>
+      <c r="E54" s="459"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
         <v>1561421.72</v>
@@ -12331,22 +12331,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="448" t="s">
+      <c r="D55" s="460" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="448"/>
+      <c r="E55" s="460"/>
       <c r="F55" s="111">
         <v>-1419082.77</v>
       </c>
-      <c r="I55" s="449" t="s">
+      <c r="I55" s="461" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="450"/>
-      <c r="K55" s="451">
+      <c r="J55" s="462"/>
+      <c r="K55" s="463">
         <f>F57+F58+F59</f>
         <v>296963.46999999997</v>
       </c>
-      <c r="L55" s="452"/>
+      <c r="L55" s="464"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -12377,11 +12377,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="453">
+      <c r="K57" s="465">
         <f>-C4</f>
         <v>-221059.7</v>
       </c>
-      <c r="L57" s="454"/>
+      <c r="L57" s="466"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -12398,22 +12398,22 @@
       <c r="C59" s="128">
         <v>44591</v>
       </c>
-      <c r="D59" s="430" t="s">
+      <c r="D59" s="442" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="431"/>
+      <c r="E59" s="443"/>
       <c r="F59" s="129">
         <v>154314.51999999999</v>
       </c>
-      <c r="I59" s="432" t="s">
+      <c r="I59" s="444" t="s">
         <v>168</v>
       </c>
-      <c r="J59" s="433"/>
-      <c r="K59" s="434">
+      <c r="J59" s="445"/>
+      <c r="K59" s="446">
         <f>K55+K57</f>
         <v>75903.76999999996</v>
       </c>
-      <c r="L59" s="434"/>
+      <c r="L59" s="446"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="130"/>
@@ -12538,12 +12538,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="D59:E59"/>
     <mergeCell ref="I59:J59"/>
@@ -12559,6 +12553,12 @@
     <mergeCell ref="I55:J55"/>
     <mergeCell ref="K55:L55"/>
     <mergeCell ref="K57:L57"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -14011,23 +14011,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="455"/>
-      <c r="C1" s="457" t="s">
+      <c r="B1" s="429"/>
+      <c r="C1" s="431" t="s">
         <v>326</v>
       </c>
-      <c r="D1" s="458"/>
-      <c r="E1" s="458"/>
-      <c r="F1" s="458"/>
-      <c r="G1" s="458"/>
-      <c r="H1" s="458"/>
-      <c r="I1" s="458"/>
-      <c r="J1" s="458"/>
-      <c r="K1" s="458"/>
-      <c r="L1" s="458"/>
-      <c r="M1" s="458"/>
+      <c r="D1" s="432"/>
+      <c r="E1" s="432"/>
+      <c r="F1" s="432"/>
+      <c r="G1" s="432"/>
+      <c r="H1" s="432"/>
+      <c r="I1" s="432"/>
+      <c r="J1" s="432"/>
+      <c r="K1" s="432"/>
+      <c r="L1" s="432"/>
+      <c r="M1" s="432"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="456"/>
+      <c r="B2" s="430"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -14037,21 +14037,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="459" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="460"/>
+      <c r="B3" s="433" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="434"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="461" t="s">
+      <c r="H3" s="435" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="461"/>
+      <c r="I3" s="435"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="428" t="s">
+      <c r="R3" s="440" t="s">
         <v>38</v>
       </c>
     </row>
@@ -14066,14 +14066,14 @@
       <c r="D4" s="16">
         <v>44710</v>
       </c>
-      <c r="E4" s="462" t="s">
+      <c r="E4" s="436" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="463"/>
-      <c r="H4" s="464" t="s">
+      <c r="F4" s="437"/>
+      <c r="H4" s="438" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="465"/>
+      <c r="I4" s="439"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -14083,11 +14083,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="435" t="s">
+      <c r="P4" s="447" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="436"/>
-      <c r="R4" s="429"/>
+      <c r="Q4" s="448"/>
+      <c r="R4" s="441"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -15617,11 +15617,11 @@
       <c r="J40" s="71"/>
       <c r="K40" s="74"/>
       <c r="L40" s="73"/>
-      <c r="M40" s="437">
+      <c r="M40" s="449">
         <f>SUM(M5:M39)</f>
         <v>2772689</v>
       </c>
-      <c r="N40" s="439">
+      <c r="N40" s="451">
         <f>SUM(N5:N39)</f>
         <v>107354</v>
       </c>
@@ -15652,8 +15652,8 @@
       <c r="L41" s="73">
         <v>638.99</v>
       </c>
-      <c r="M41" s="438"/>
-      <c r="N41" s="440"/>
+      <c r="M41" s="450"/>
+      <c r="N41" s="452"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -15899,29 +15899,29 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="441" t="s">
+      <c r="H53" s="453" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="442"/>
+      <c r="I53" s="454"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="443">
+      <c r="K53" s="455">
         <f>I51+L51</f>
         <v>60691.69</v>
       </c>
-      <c r="L53" s="444"/>
-      <c r="M53" s="445">
+      <c r="L53" s="456"/>
+      <c r="M53" s="457">
         <f>N40+M40</f>
         <v>2880043</v>
       </c>
-      <c r="N53" s="446"/>
+      <c r="N53" s="458"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="447" t="s">
+      <c r="D54" s="459" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="447"/>
+      <c r="E54" s="459"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
         <v>2844548.31</v>
@@ -15932,22 +15932,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="448" t="s">
+      <c r="D55" s="460" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="448"/>
+      <c r="E55" s="460"/>
       <c r="F55" s="111">
         <v>-2875380.48</v>
       </c>
-      <c r="I55" s="449" t="s">
+      <c r="I55" s="461" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="450"/>
-      <c r="K55" s="451">
+      <c r="J55" s="462"/>
+      <c r="K55" s="463">
         <f>F57+F58+F59</f>
         <v>247554.74000000008</v>
       </c>
-      <c r="L55" s="452"/>
+      <c r="L55" s="464"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -15978,11 +15978,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="453">
+      <c r="K57" s="465">
         <f>-C4</f>
         <v>-149938.81</v>
       </c>
-      <c r="L57" s="454"/>
+      <c r="L57" s="466"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -15999,22 +15999,22 @@
       <c r="C59" s="128">
         <v>44745</v>
       </c>
-      <c r="D59" s="430" t="s">
+      <c r="D59" s="442" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="431"/>
+      <c r="E59" s="443"/>
       <c r="F59" s="129">
         <v>232165.91</v>
       </c>
-      <c r="I59" s="432" t="s">
+      <c r="I59" s="444" t="s">
         <v>168</v>
       </c>
-      <c r="J59" s="433"/>
-      <c r="K59" s="434">
+      <c r="J59" s="445"/>
+      <c r="K59" s="446">
         <f>K55+K57</f>
         <v>97615.93000000008</v>
       </c>
-      <c r="L59" s="434"/>
+      <c r="L59" s="446"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="130"/>
@@ -16142,6 +16142,18 @@
     <sortCondition ref="B7:B9"/>
   </sortState>
   <mergeCells count="21">
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -16151,18 +16163,6 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.38" right="0.17" top="0.4" bottom="0.34" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -17644,23 +17644,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="455"/>
-      <c r="C1" s="457" t="s">
+      <c r="B1" s="429"/>
+      <c r="C1" s="431" t="s">
         <v>380</v>
       </c>
-      <c r="D1" s="458"/>
-      <c r="E1" s="458"/>
-      <c r="F1" s="458"/>
-      <c r="G1" s="458"/>
-      <c r="H1" s="458"/>
-      <c r="I1" s="458"/>
-      <c r="J1" s="458"/>
-      <c r="K1" s="458"/>
-      <c r="L1" s="458"/>
-      <c r="M1" s="458"/>
+      <c r="D1" s="432"/>
+      <c r="E1" s="432"/>
+      <c r="F1" s="432"/>
+      <c r="G1" s="432"/>
+      <c r="H1" s="432"/>
+      <c r="I1" s="432"/>
+      <c r="J1" s="432"/>
+      <c r="K1" s="432"/>
+      <c r="L1" s="432"/>
+      <c r="M1" s="432"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="456"/>
+      <c r="B2" s="430"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -17670,21 +17670,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="459" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="460"/>
+      <c r="B3" s="433" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="434"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="461" t="s">
+      <c r="H3" s="435" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="461"/>
+      <c r="I3" s="435"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="428" t="s">
+      <c r="R3" s="440" t="s">
         <v>38</v>
       </c>
     </row>
@@ -17699,14 +17699,14 @@
       <c r="D4" s="16">
         <v>44745</v>
       </c>
-      <c r="E4" s="462" t="s">
+      <c r="E4" s="436" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="463"/>
-      <c r="H4" s="464" t="s">
+      <c r="F4" s="437"/>
+      <c r="H4" s="438" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="465"/>
+      <c r="I4" s="439"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -17716,11 +17716,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="435" t="s">
+      <c r="P4" s="447" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="436"/>
-      <c r="R4" s="429"/>
+      <c r="Q4" s="448"/>
+      <c r="R4" s="441"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -19165,11 +19165,11 @@
       <c r="J40" s="71"/>
       <c r="K40" s="74"/>
       <c r="L40" s="73"/>
-      <c r="M40" s="437">
+      <c r="M40" s="449">
         <f>SUM(M5:M39)</f>
         <v>2373103</v>
       </c>
-      <c r="N40" s="439">
+      <c r="N40" s="451">
         <f>SUM(N5:N39)</f>
         <v>67308</v>
       </c>
@@ -19198,8 +19198,8 @@
       <c r="J41" s="71"/>
       <c r="K41" s="235"/>
       <c r="L41" s="73"/>
-      <c r="M41" s="438"/>
-      <c r="N41" s="440"/>
+      <c r="M41" s="450"/>
+      <c r="N41" s="452"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -19414,29 +19414,29 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="441" t="s">
+      <c r="H53" s="453" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="442"/>
+      <c r="I53" s="454"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="443">
+      <c r="K53" s="455">
         <f>I51+L51</f>
         <v>79649.720000000016</v>
       </c>
-      <c r="L53" s="444"/>
-      <c r="M53" s="445">
+      <c r="L53" s="456"/>
+      <c r="M53" s="457">
         <f>N40+M40</f>
         <v>2440411</v>
       </c>
-      <c r="N53" s="446"/>
+      <c r="N53" s="458"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="447" t="s">
+      <c r="D54" s="459" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="447"/>
+      <c r="E54" s="459"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
         <v>2356249.2799999998</v>
@@ -19447,22 +19447,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="448" t="s">
+      <c r="D55" s="460" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="448"/>
+      <c r="E55" s="460"/>
       <c r="F55" s="111">
         <v>-2471332.31</v>
       </c>
-      <c r="I55" s="449" t="s">
+      <c r="I55" s="461" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="450"/>
-      <c r="K55" s="451">
+      <c r="J55" s="462"/>
+      <c r="K55" s="463">
         <f>F57+F58+F59</f>
         <v>214026.38999999972</v>
       </c>
-      <c r="L55" s="452"/>
+      <c r="L55" s="464"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -19493,11 +19493,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="453">
+      <c r="K57" s="465">
         <f>-C4</f>
         <v>-232165.91</v>
       </c>
-      <c r="L57" s="454"/>
+      <c r="L57" s="466"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -19514,22 +19514,22 @@
       <c r="C59" s="128">
         <v>44773</v>
       </c>
-      <c r="D59" s="430" t="s">
+      <c r="D59" s="442" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="431"/>
+      <c r="E59" s="443"/>
       <c r="F59" s="129">
         <v>273736.42</v>
       </c>
-      <c r="I59" s="467" t="s">
+      <c r="I59" s="468" t="s">
         <v>325</v>
       </c>
-      <c r="J59" s="468"/>
-      <c r="K59" s="469">
+      <c r="J59" s="469"/>
+      <c r="K59" s="470">
         <f>K55+K57</f>
         <v>-18139.520000000281</v>
       </c>
-      <c r="L59" s="469"/>
+      <c r="L59" s="470"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="130"/>
@@ -19654,6 +19654,18 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -19663,18 +19675,6 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.31496062992125984" right="0.27559055118110237" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="60" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -21066,23 +21066,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="455"/>
-      <c r="C1" s="457" t="s">
+      <c r="B1" s="429"/>
+      <c r="C1" s="431" t="s">
         <v>421</v>
       </c>
-      <c r="D1" s="458"/>
-      <c r="E1" s="458"/>
-      <c r="F1" s="458"/>
-      <c r="G1" s="458"/>
-      <c r="H1" s="458"/>
-      <c r="I1" s="458"/>
-      <c r="J1" s="458"/>
-      <c r="K1" s="458"/>
-      <c r="L1" s="458"/>
-      <c r="M1" s="458"/>
+      <c r="D1" s="432"/>
+      <c r="E1" s="432"/>
+      <c r="F1" s="432"/>
+      <c r="G1" s="432"/>
+      <c r="H1" s="432"/>
+      <c r="I1" s="432"/>
+      <c r="J1" s="432"/>
+      <c r="K1" s="432"/>
+      <c r="L1" s="432"/>
+      <c r="M1" s="432"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="456"/>
+      <c r="B2" s="430"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -21092,21 +21092,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="459" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="460"/>
+      <c r="B3" s="433" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="434"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="461" t="s">
+      <c r="H3" s="435" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="461"/>
+      <c r="I3" s="435"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="428" t="s">
+      <c r="R3" s="440" t="s">
         <v>38</v>
       </c>
     </row>
@@ -21121,14 +21121,14 @@
       <c r="D4" s="16">
         <v>44773</v>
       </c>
-      <c r="E4" s="462" t="s">
+      <c r="E4" s="436" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="463"/>
-      <c r="H4" s="464" t="s">
+      <c r="F4" s="437"/>
+      <c r="H4" s="438" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="465"/>
+      <c r="I4" s="439"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -21138,11 +21138,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="435" t="s">
+      <c r="P4" s="447" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="436"/>
-      <c r="R4" s="429"/>
+      <c r="Q4" s="448"/>
+      <c r="R4" s="441"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -22622,11 +22622,11 @@
       <c r="J40" s="71"/>
       <c r="K40" s="74"/>
       <c r="L40" s="73"/>
-      <c r="M40" s="437">
+      <c r="M40" s="449">
         <f>SUM(M5:M39)</f>
         <v>2375259</v>
       </c>
-      <c r="N40" s="439">
+      <c r="N40" s="451">
         <f>SUM(N5:N39)</f>
         <v>61117</v>
       </c>
@@ -22655,8 +22655,8 @@
       <c r="J41" s="71"/>
       <c r="K41" s="235"/>
       <c r="L41" s="73"/>
-      <c r="M41" s="438"/>
-      <c r="N41" s="440"/>
+      <c r="M41" s="450"/>
+      <c r="N41" s="452"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -22871,29 +22871,29 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="441" t="s">
+      <c r="H53" s="453" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="442"/>
+      <c r="I53" s="454"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="443">
+      <c r="K53" s="455">
         <f>I51+L51</f>
         <v>52857.25</v>
       </c>
-      <c r="L53" s="444"/>
-      <c r="M53" s="445">
+      <c r="L53" s="456"/>
+      <c r="M53" s="457">
         <f>N40+M40</f>
         <v>2436376</v>
       </c>
-      <c r="N53" s="446"/>
+      <c r="N53" s="458"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="447" t="s">
+      <c r="D54" s="459" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="447"/>
+      <c r="E54" s="459"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
         <v>2370653.75</v>
@@ -22904,22 +22904,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="448" t="s">
+      <c r="D55" s="460" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="448"/>
+      <c r="E55" s="460"/>
       <c r="F55" s="111">
         <v>-2401197.5699999998</v>
       </c>
-      <c r="I55" s="449" t="s">
+      <c r="I55" s="461" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="450"/>
-      <c r="K55" s="451">
+      <c r="J55" s="462"/>
+      <c r="K55" s="463">
         <f>F57+F58+F59</f>
         <v>259241.77000000016</v>
       </c>
-      <c r="L55" s="452"/>
+      <c r="L55" s="464"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -22950,11 +22950,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="453">
+      <c r="K57" s="465">
         <f>-C4</f>
         <v>-273736.42</v>
       </c>
-      <c r="L57" s="454"/>
+      <c r="L57" s="466"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -22971,22 +22971,22 @@
       <c r="C59" s="128">
         <v>44801</v>
       </c>
-      <c r="D59" s="430" t="s">
+      <c r="D59" s="442" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="431"/>
+      <c r="E59" s="443"/>
       <c r="F59" s="129">
         <v>236400.59</v>
       </c>
-      <c r="I59" s="467" t="s">
+      <c r="I59" s="468" t="s">
         <v>325</v>
       </c>
-      <c r="J59" s="468"/>
-      <c r="K59" s="469">
+      <c r="J59" s="469"/>
+      <c r="K59" s="470">
         <f>K55+K57</f>
         <v>-14494.64999999982</v>
       </c>
-      <c r="L59" s="469"/>
+      <c r="L59" s="470"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="130"/>
@@ -23111,6 +23111,18 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -23120,18 +23132,6 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -24578,23 +24578,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="455"/>
-      <c r="C1" s="457" t="s">
+      <c r="B1" s="429"/>
+      <c r="C1" s="431" t="s">
         <v>465</v>
       </c>
-      <c r="D1" s="458"/>
-      <c r="E1" s="458"/>
-      <c r="F1" s="458"/>
-      <c r="G1" s="458"/>
-      <c r="H1" s="458"/>
-      <c r="I1" s="458"/>
-      <c r="J1" s="458"/>
-      <c r="K1" s="458"/>
-      <c r="L1" s="458"/>
-      <c r="M1" s="458"/>
+      <c r="D1" s="432"/>
+      <c r="E1" s="432"/>
+      <c r="F1" s="432"/>
+      <c r="G1" s="432"/>
+      <c r="H1" s="432"/>
+      <c r="I1" s="432"/>
+      <c r="J1" s="432"/>
+      <c r="K1" s="432"/>
+      <c r="L1" s="432"/>
+      <c r="M1" s="432"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="456"/>
+      <c r="B2" s="430"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -24604,21 +24604,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="459" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="460"/>
+      <c r="B3" s="433" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="434"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="461" t="s">
+      <c r="H3" s="435" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="461"/>
+      <c r="I3" s="435"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="428" t="s">
+      <c r="R3" s="440" t="s">
         <v>38</v>
       </c>
     </row>
@@ -24633,14 +24633,14 @@
       <c r="D4" s="16">
         <v>44801</v>
       </c>
-      <c r="E4" s="462" t="s">
+      <c r="E4" s="436" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="463"/>
-      <c r="H4" s="464" t="s">
+      <c r="F4" s="437"/>
+      <c r="H4" s="438" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="465"/>
+      <c r="I4" s="439"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -24650,11 +24650,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="435" t="s">
+      <c r="P4" s="447" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="436"/>
-      <c r="R4" s="429"/>
+      <c r="Q4" s="448"/>
+      <c r="R4" s="441"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -26382,11 +26382,11 @@
       <c r="L40" s="73">
         <v>927.48</v>
       </c>
-      <c r="M40" s="437">
+      <c r="M40" s="449">
         <f>SUM(M5:M39)</f>
         <v>3147309.5</v>
       </c>
-      <c r="N40" s="439">
+      <c r="N40" s="451">
         <f>SUM(N5:N39)</f>
         <v>76569</v>
       </c>
@@ -26421,8 +26421,8 @@
       <c r="L41" s="73">
         <v>33312</v>
       </c>
-      <c r="M41" s="438"/>
-      <c r="N41" s="440"/>
+      <c r="M41" s="450"/>
+      <c r="N41" s="452"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -26665,29 +26665,29 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="441" t="s">
+      <c r="H53" s="453" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="442"/>
+      <c r="I53" s="454"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="443">
+      <c r="K53" s="455">
         <f>I51+L51</f>
         <v>102873.87000000001</v>
       </c>
-      <c r="L53" s="444"/>
-      <c r="M53" s="445">
+      <c r="L53" s="456"/>
+      <c r="M53" s="457">
         <f>N40+M40</f>
         <v>3223878.5</v>
       </c>
-      <c r="N53" s="446"/>
+      <c r="N53" s="458"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="447" t="s">
+      <c r="D54" s="459" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="447"/>
+      <c r="E54" s="459"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
         <v>3130076.13</v>
@@ -26698,22 +26698,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="448" t="s">
+      <c r="D55" s="460" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="448"/>
+      <c r="E55" s="460"/>
       <c r="F55" s="111">
         <v>-3171951.31</v>
       </c>
-      <c r="I55" s="449" t="s">
+      <c r="I55" s="461" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="450"/>
-      <c r="K55" s="451">
+      <c r="J55" s="462"/>
+      <c r="K55" s="463">
         <f>F57+F58+F59</f>
         <v>265314.0299999998</v>
       </c>
-      <c r="L55" s="452"/>
+      <c r="L55" s="464"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -26744,11 +26744,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="453">
+      <c r="K57" s="465">
         <f>-C4</f>
         <v>-236400.59</v>
       </c>
-      <c r="L57" s="454"/>
+      <c r="L57" s="466"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -26765,22 +26765,22 @@
       <c r="C59" s="128">
         <v>44836</v>
       </c>
-      <c r="D59" s="430" t="s">
+      <c r="D59" s="442" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="431"/>
+      <c r="E59" s="443"/>
       <c r="F59" s="129">
         <v>242354.21</v>
       </c>
-      <c r="I59" s="432" t="s">
+      <c r="I59" s="444" t="s">
         <v>168</v>
       </c>
-      <c r="J59" s="433"/>
-      <c r="K59" s="434">
+      <c r="J59" s="445"/>
+      <c r="K59" s="446">
         <f>K55+K57</f>
         <v>28913.439999999799</v>
       </c>
-      <c r="L59" s="434"/>
+      <c r="L59" s="446"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="130"/>
@@ -26908,18 +26908,6 @@
     <sortCondition ref="J41:J45"/>
   </sortState>
   <mergeCells count="21">
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -26929,6 +26917,18 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -28426,23 +28426,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="455"/>
-      <c r="C1" s="457" t="s">
+      <c r="B1" s="429"/>
+      <c r="C1" s="431" t="s">
         <v>512</v>
       </c>
-      <c r="D1" s="458"/>
-      <c r="E1" s="458"/>
-      <c r="F1" s="458"/>
-      <c r="G1" s="458"/>
-      <c r="H1" s="458"/>
-      <c r="I1" s="458"/>
-      <c r="J1" s="458"/>
-      <c r="K1" s="458"/>
-      <c r="L1" s="458"/>
-      <c r="M1" s="458"/>
+      <c r="D1" s="432"/>
+      <c r="E1" s="432"/>
+      <c r="F1" s="432"/>
+      <c r="G1" s="432"/>
+      <c r="H1" s="432"/>
+      <c r="I1" s="432"/>
+      <c r="J1" s="432"/>
+      <c r="K1" s="432"/>
+      <c r="L1" s="432"/>
+      <c r="M1" s="432"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="456"/>
+      <c r="B2" s="430"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -28452,21 +28452,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="459" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="460"/>
+      <c r="B3" s="433" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="434"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="461" t="s">
+      <c r="H3" s="435" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="461"/>
+      <c r="I3" s="435"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="428" t="s">
+      <c r="R3" s="440" t="s">
         <v>38</v>
       </c>
     </row>
@@ -28481,14 +28481,14 @@
       <c r="D4" s="16">
         <v>44836</v>
       </c>
-      <c r="E4" s="462" t="s">
+      <c r="E4" s="436" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="463"/>
-      <c r="H4" s="464" t="s">
+      <c r="F4" s="437"/>
+      <c r="H4" s="438" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="465"/>
+      <c r="I4" s="439"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -28498,11 +28498,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="435" t="s">
+      <c r="P4" s="447" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="436"/>
-      <c r="R4" s="429"/>
+      <c r="Q4" s="448"/>
+      <c r="R4" s="441"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -29947,7 +29947,7 @@
       <c r="J34" s="71">
         <v>44848</v>
       </c>
-      <c r="K34" s="470" t="s">
+      <c r="K34" s="428" t="s">
         <v>547</v>
       </c>
       <c r="L34" s="80">
@@ -29987,7 +29987,7 @@
         <v>44848</v>
       </c>
       <c r="K35" s="376" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="L35" s="78">
         <v>71514</v>
@@ -30181,11 +30181,11 @@
       <c r="J40" s="71"/>
       <c r="K40" s="360"/>
       <c r="L40" s="73"/>
-      <c r="M40" s="437">
+      <c r="M40" s="449">
         <f>SUM(M5:M39)</f>
         <v>2563550</v>
       </c>
-      <c r="N40" s="439">
+      <c r="N40" s="451">
         <f>SUM(N5:N39)</f>
         <v>77235</v>
       </c>
@@ -30215,8 +30215,8 @@
       <c r="J41" s="71"/>
       <c r="K41" s="363"/>
       <c r="L41" s="73"/>
-      <c r="M41" s="438"/>
-      <c r="N41" s="440"/>
+      <c r="M41" s="450"/>
+      <c r="N41" s="452"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -30431,29 +30431,29 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="441" t="s">
+      <c r="H53" s="453" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="442"/>
+      <c r="I53" s="454"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="443">
+      <c r="K53" s="455">
         <f>I51+L51</f>
         <v>152307.24</v>
       </c>
-      <c r="L53" s="444"/>
-      <c r="M53" s="445">
+      <c r="L53" s="456"/>
+      <c r="M53" s="457">
         <f>N40+M40</f>
         <v>2640785</v>
       </c>
-      <c r="N53" s="446"/>
+      <c r="N53" s="458"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="447" t="s">
+      <c r="D54" s="459" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="447"/>
+      <c r="E54" s="459"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
         <v>2467299.5599999996</v>
@@ -30464,22 +30464,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="448" t="s">
+      <c r="D55" s="460" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="448"/>
+      <c r="E55" s="460"/>
       <c r="F55" s="111">
         <v>-2793202.57</v>
       </c>
-      <c r="I55" s="449" t="s">
+      <c r="I55" s="461" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="450"/>
-      <c r="K55" s="451">
+      <c r="J55" s="462"/>
+      <c r="K55" s="463">
         <f>F57+F58+F59</f>
         <v>149047.74999999977</v>
       </c>
-      <c r="L55" s="452"/>
+      <c r="L55" s="464"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -30510,11 +30510,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="453">
+      <c r="K57" s="465">
         <f>-C4</f>
         <v>-242354.21</v>
       </c>
-      <c r="L57" s="454"/>
+      <c r="L57" s="466"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -30531,22 +30531,22 @@
       <c r="C59" s="128">
         <v>44864</v>
       </c>
-      <c r="D59" s="430" t="s">
+      <c r="D59" s="442" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="431"/>
+      <c r="E59" s="443"/>
       <c r="F59" s="129">
         <v>419424.76</v>
       </c>
-      <c r="I59" s="467" t="s">
+      <c r="I59" s="468" t="s">
         <v>325</v>
       </c>
-      <c r="J59" s="468"/>
-      <c r="K59" s="469">
+      <c r="J59" s="469"/>
+      <c r="K59" s="470">
         <f>K55+K57</f>
         <v>-93306.460000000225</v>
       </c>
-      <c r="L59" s="469"/>
+      <c r="L59" s="470"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="130"/>
@@ -30674,6 +30674,18 @@
     <sortCondition ref="J34:J39"/>
   </sortState>
   <mergeCells count="21">
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -30683,18 +30695,6 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -33859,23 +33859,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="455"/>
-      <c r="C1" s="457" t="s">
+      <c r="B1" s="429"/>
+      <c r="C1" s="431" t="s">
         <v>549</v>
       </c>
-      <c r="D1" s="458"/>
-      <c r="E1" s="458"/>
-      <c r="F1" s="458"/>
-      <c r="G1" s="458"/>
-      <c r="H1" s="458"/>
-      <c r="I1" s="458"/>
-      <c r="J1" s="458"/>
-      <c r="K1" s="458"/>
-      <c r="L1" s="458"/>
-      <c r="M1" s="458"/>
+      <c r="D1" s="432"/>
+      <c r="E1" s="432"/>
+      <c r="F1" s="432"/>
+      <c r="G1" s="432"/>
+      <c r="H1" s="432"/>
+      <c r="I1" s="432"/>
+      <c r="J1" s="432"/>
+      <c r="K1" s="432"/>
+      <c r="L1" s="432"/>
+      <c r="M1" s="432"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="456"/>
+      <c r="B2" s="430"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -33885,21 +33885,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="459" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="460"/>
+      <c r="B3" s="433" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="434"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="461" t="s">
+      <c r="H3" s="435" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="461"/>
+      <c r="I3" s="435"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="428" t="s">
+      <c r="R3" s="440" t="s">
         <v>38</v>
       </c>
     </row>
@@ -33914,14 +33914,14 @@
       <c r="D4" s="16">
         <v>44864</v>
       </c>
-      <c r="E4" s="462" t="s">
+      <c r="E4" s="436" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="463"/>
-      <c r="H4" s="464" t="s">
+      <c r="F4" s="437"/>
+      <c r="H4" s="438" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="465"/>
+      <c r="I4" s="439"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -33931,11 +33931,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="435" t="s">
+      <c r="P4" s="447" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="436"/>
-      <c r="R4" s="429"/>
+      <c r="Q4" s="448"/>
+      <c r="R4" s="441"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -35606,11 +35606,11 @@
       <c r="J40" s="71"/>
       <c r="K40" s="360"/>
       <c r="L40" s="73"/>
-      <c r="M40" s="437">
+      <c r="M40" s="449">
         <f>SUM(M5:M39)</f>
         <v>2972555</v>
       </c>
-      <c r="N40" s="439">
+      <c r="N40" s="451">
         <f>SUM(N5:N39)</f>
         <v>108935</v>
       </c>
@@ -35640,8 +35640,8 @@
       <c r="J41" s="71"/>
       <c r="K41" s="363"/>
       <c r="L41" s="73"/>
-      <c r="M41" s="438"/>
-      <c r="N41" s="440"/>
+      <c r="M41" s="450"/>
+      <c r="N41" s="452"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -35856,29 +35856,29 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="441" t="s">
+      <c r="H53" s="453" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="442"/>
+      <c r="I53" s="454"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="443">
+      <c r="K53" s="455">
         <f>I51+L51</f>
         <v>115993.20999999999</v>
       </c>
-      <c r="L53" s="444"/>
-      <c r="M53" s="445">
+      <c r="L53" s="456"/>
+      <c r="M53" s="457">
         <f>N40+M40</f>
         <v>3081490</v>
       </c>
-      <c r="N53" s="446"/>
+      <c r="N53" s="458"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="447" t="s">
+      <c r="D54" s="459" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="447"/>
+      <c r="E54" s="459"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
         <v>2955513.79</v>
@@ -35889,22 +35889,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="448" t="s">
+      <c r="D55" s="460" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="448"/>
+      <c r="E55" s="460"/>
       <c r="F55" s="111">
         <v>-2936244.87</v>
       </c>
-      <c r="I55" s="449" t="s">
+      <c r="I55" s="461" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="450"/>
-      <c r="K55" s="451">
+      <c r="J55" s="462"/>
+      <c r="K55" s="463">
         <f>F57+F58+F59</f>
         <v>405993.46999999991</v>
       </c>
-      <c r="L55" s="452"/>
+      <c r="L55" s="464"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -35935,11 +35935,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="453">
+      <c r="K57" s="465">
         <f>-C4</f>
         <v>-419424.76</v>
       </c>
-      <c r="L57" s="454"/>
+      <c r="L57" s="466"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -35956,22 +35956,22 @@
       <c r="C59" s="128">
         <v>44892</v>
       </c>
-      <c r="D59" s="430" t="s">
+      <c r="D59" s="442" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="431"/>
+      <c r="E59" s="443"/>
       <c r="F59" s="129">
         <v>315698.55</v>
       </c>
-      <c r="I59" s="467" t="s">
+      <c r="I59" s="468" t="s">
         <v>325</v>
       </c>
-      <c r="J59" s="468"/>
-      <c r="K59" s="469">
+      <c r="J59" s="469"/>
+      <c r="K59" s="470">
         <f>K55+K57</f>
         <v>-13431.290000000095</v>
       </c>
-      <c r="L59" s="469"/>
+      <c r="L59" s="470"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="130"/>
@@ -36096,18 +36096,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -36117,6 +36105,18 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -37486,10 +37486,10 @@
   <dimension ref="A1:U90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="8" ySplit="4" topLeftCell="I53" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="4" topLeftCell="I44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="I73" sqref="I73"/>
+      <selection pane="bottomRight" activeCell="J57" sqref="J57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37514,23 +37514,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="455"/>
-      <c r="C1" s="457" t="s">
+      <c r="B1" s="429"/>
+      <c r="C1" s="431" t="s">
         <v>588</v>
       </c>
-      <c r="D1" s="458"/>
-      <c r="E1" s="458"/>
-      <c r="F1" s="458"/>
-      <c r="G1" s="458"/>
-      <c r="H1" s="458"/>
-      <c r="I1" s="458"/>
-      <c r="J1" s="458"/>
-      <c r="K1" s="458"/>
-      <c r="L1" s="458"/>
-      <c r="M1" s="458"/>
+      <c r="D1" s="432"/>
+      <c r="E1" s="432"/>
+      <c r="F1" s="432"/>
+      <c r="G1" s="432"/>
+      <c r="H1" s="432"/>
+      <c r="I1" s="432"/>
+      <c r="J1" s="432"/>
+      <c r="K1" s="432"/>
+      <c r="L1" s="432"/>
+      <c r="M1" s="432"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="456"/>
+      <c r="B2" s="430"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -37540,21 +37540,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="459" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="460"/>
+      <c r="B3" s="433" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="434"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="461" t="s">
+      <c r="H3" s="435" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="461"/>
+      <c r="I3" s="435"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="428" t="s">
+      <c r="R3" s="440" t="s">
         <v>38</v>
       </c>
     </row>
@@ -37569,14 +37569,14 @@
       <c r="D4" s="16">
         <v>44892</v>
       </c>
-      <c r="E4" s="462" t="s">
+      <c r="E4" s="436" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="463"/>
-      <c r="H4" s="464" t="s">
+      <c r="F4" s="437"/>
+      <c r="H4" s="438" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="465"/>
+      <c r="I4" s="439"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -37586,11 +37586,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="435" t="s">
+      <c r="P4" s="447" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="436"/>
-      <c r="R4" s="429"/>
+      <c r="Q4" s="448"/>
+      <c r="R4" s="441"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -39693,16 +39693,16 @@
         <v>44902</v>
       </c>
       <c r="K49" s="360" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="L49" s="73">
         <v>1225.1199999999999</v>
       </c>
-      <c r="M49" s="437">
+      <c r="M49" s="449">
         <f>SUM(M5:M39)</f>
         <v>3707372</v>
       </c>
-      <c r="N49" s="439">
+      <c r="N49" s="451">
         <f>SUM(N5:N39)</f>
         <v>191908</v>
       </c>
@@ -39738,8 +39738,8 @@
       <c r="L50" s="73">
         <v>31059</v>
       </c>
-      <c r="M50" s="438"/>
-      <c r="N50" s="440"/>
+      <c r="M50" s="450"/>
+      <c r="N50" s="452"/>
       <c r="P50" s="32"/>
       <c r="Q50" s="8"/>
       <c r="R50" s="412" t="s">
@@ -39987,29 +39987,29 @@
       <c r="A62" s="33"/>
       <c r="B62" s="113"/>
       <c r="C62" s="1"/>
-      <c r="H62" s="441" t="s">
+      <c r="H62" s="453" t="s">
         <v>12</v>
       </c>
-      <c r="I62" s="442"/>
+      <c r="I62" s="454"/>
       <c r="J62" s="114"/>
-      <c r="K62" s="443">
+      <c r="K62" s="455">
         <f>I60+L60</f>
         <v>156470.16999999998</v>
       </c>
-      <c r="L62" s="444"/>
-      <c r="M62" s="445">
+      <c r="L62" s="456"/>
+      <c r="M62" s="457">
         <f>N49+M49</f>
         <v>3899280</v>
       </c>
-      <c r="N62" s="446"/>
+      <c r="N62" s="458"/>
       <c r="P62" s="32"/>
       <c r="Q62" s="8"/>
     </row>
     <row r="63" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D63" s="447" t="s">
+      <c r="D63" s="459" t="s">
         <v>13</v>
       </c>
-      <c r="E63" s="447"/>
+      <c r="E63" s="459"/>
       <c r="F63" s="115">
         <f>F60-K62-C60</f>
         <v>4369047.83</v>
@@ -40020,22 +40020,22 @@
       <c r="Q63" s="8"/>
     </row>
     <row r="64" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D64" s="448" t="s">
+      <c r="D64" s="460" t="s">
         <v>14</v>
       </c>
-      <c r="E64" s="448"/>
+      <c r="E64" s="460"/>
       <c r="F64" s="111">
         <v>-4409875.54</v>
       </c>
-      <c r="I64" s="449" t="s">
+      <c r="I64" s="461" t="s">
         <v>15</v>
       </c>
-      <c r="J64" s="450"/>
-      <c r="K64" s="451">
+      <c r="J64" s="462"/>
+      <c r="K64" s="463">
         <f>F66+F67+F68</f>
         <v>386457.01</v>
       </c>
-      <c r="L64" s="452"/>
+      <c r="L64" s="464"/>
       <c r="P64" s="32"/>
       <c r="Q64" s="8"/>
     </row>
@@ -40066,11 +40066,11 @@
         <v>17</v>
       </c>
       <c r="J66" s="125"/>
-      <c r="K66" s="453">
+      <c r="K66" s="465">
         <f>-C4</f>
         <v>-315698.55</v>
       </c>
-      <c r="L66" s="454"/>
+      <c r="L66" s="466"/>
     </row>
     <row r="67" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D67" s="126" t="s">
@@ -40087,22 +40087,22 @@
       <c r="C68" s="128">
         <v>44934</v>
       </c>
-      <c r="D68" s="430" t="s">
+      <c r="D68" s="442" t="s">
         <v>20</v>
       </c>
-      <c r="E68" s="431"/>
+      <c r="E68" s="443"/>
       <c r="F68" s="129">
         <v>373948.72</v>
       </c>
-      <c r="I68" s="432" t="s">
+      <c r="I68" s="444" t="s">
         <v>168</v>
       </c>
-      <c r="J68" s="433"/>
-      <c r="K68" s="434">
+      <c r="J68" s="445"/>
+      <c r="K68" s="446">
         <f>K64+K66</f>
         <v>70758.460000000021</v>
       </c>
-      <c r="L68" s="434"/>
+      <c r="L68" s="446"/>
     </row>
     <row r="69" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C69" s="130"/>
@@ -40230,18 +40230,6 @@
     <sortCondition ref="J48:J55"/>
   </sortState>
   <mergeCells count="21">
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="I64:J64"/>
-    <mergeCell ref="K64:L64"/>
-    <mergeCell ref="K66:L66"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="I68:J68"/>
-    <mergeCell ref="K68:L68"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M49:M50"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -40251,6 +40239,18 @@
     <mergeCell ref="H62:I62"/>
     <mergeCell ref="K62:L62"/>
     <mergeCell ref="M62:N62"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M49:M50"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="I64:J64"/>
+    <mergeCell ref="K64:L64"/>
+    <mergeCell ref="K66:L66"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="I68:J68"/>
+    <mergeCell ref="K68:L68"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.35" bottom="0.28000000000000003" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -41944,23 +41944,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="455"/>
-      <c r="C1" s="457" t="s">
+      <c r="B1" s="429"/>
+      <c r="C1" s="431" t="s">
         <v>125</v>
       </c>
-      <c r="D1" s="458"/>
-      <c r="E1" s="458"/>
-      <c r="F1" s="458"/>
-      <c r="G1" s="458"/>
-      <c r="H1" s="458"/>
-      <c r="I1" s="458"/>
-      <c r="J1" s="458"/>
-      <c r="K1" s="458"/>
-      <c r="L1" s="458"/>
-      <c r="M1" s="458"/>
+      <c r="D1" s="432"/>
+      <c r="E1" s="432"/>
+      <c r="F1" s="432"/>
+      <c r="G1" s="432"/>
+      <c r="H1" s="432"/>
+      <c r="I1" s="432"/>
+      <c r="J1" s="432"/>
+      <c r="K1" s="432"/>
+      <c r="L1" s="432"/>
+      <c r="M1" s="432"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="456"/>
+      <c r="B2" s="430"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -41970,21 +41970,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="459" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="460"/>
+      <c r="B3" s="433" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="434"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="461" t="s">
+      <c r="H3" s="435" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="461"/>
+      <c r="I3" s="435"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="428" t="s">
+      <c r="R3" s="440" t="s">
         <v>38</v>
       </c>
     </row>
@@ -41999,14 +41999,14 @@
       <c r="D4" s="16">
         <v>44591</v>
       </c>
-      <c r="E4" s="462" t="s">
+      <c r="E4" s="436" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="463"/>
-      <c r="H4" s="464" t="s">
+      <c r="F4" s="437"/>
+      <c r="H4" s="438" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="465"/>
+      <c r="I4" s="439"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -42016,11 +42016,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="435" t="s">
+      <c r="P4" s="447" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="436"/>
-      <c r="R4" s="429"/>
+      <c r="Q4" s="448"/>
+      <c r="R4" s="441"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -43457,11 +43457,11 @@
       <c r="J40" s="71"/>
       <c r="K40" s="87"/>
       <c r="L40" s="78"/>
-      <c r="M40" s="466">
+      <c r="M40" s="467">
         <f>SUM(M5:M39)</f>
         <v>1636108</v>
       </c>
-      <c r="N40" s="439">
+      <c r="N40" s="451">
         <f>SUM(N5:N39)</f>
         <v>55675</v>
       </c>
@@ -43486,8 +43486,8 @@
       <c r="J41" s="71"/>
       <c r="K41" s="74"/>
       <c r="L41" s="73"/>
-      <c r="M41" s="438"/>
-      <c r="N41" s="440"/>
+      <c r="M41" s="450"/>
+      <c r="N41" s="452"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -43694,29 +43694,29 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="441" t="s">
+      <c r="H53" s="453" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="442"/>
+      <c r="I53" s="454"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="443">
+      <c r="K53" s="455">
         <f>I51+L51</f>
         <v>45634.280000000006</v>
       </c>
-      <c r="L53" s="444"/>
-      <c r="M53" s="445">
+      <c r="L53" s="456"/>
+      <c r="M53" s="457">
         <f>N40+M40</f>
         <v>1691783</v>
       </c>
-      <c r="N53" s="446"/>
+      <c r="N53" s="458"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="447" t="s">
+      <c r="D54" s="459" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="447"/>
+      <c r="E54" s="459"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
         <v>1686442.72</v>
@@ -43727,22 +43727,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="448" t="s">
+      <c r="D55" s="460" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="448"/>
+      <c r="E55" s="460"/>
       <c r="F55" s="111">
         <v>-1631962.77</v>
       </c>
-      <c r="I55" s="449" t="s">
+      <c r="I55" s="461" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="450"/>
-      <c r="K55" s="451">
+      <c r="J55" s="462"/>
+      <c r="K55" s="463">
         <f>F57+F58+F59</f>
         <v>238822.13999999996</v>
       </c>
-      <c r="L55" s="452"/>
+      <c r="L55" s="464"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -43773,11 +43773,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="453">
+      <c r="K57" s="465">
         <f>-C4</f>
         <v>-154314.51999999999</v>
       </c>
-      <c r="L57" s="454"/>
+      <c r="L57" s="466"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -43794,22 +43794,22 @@
       <c r="C59" s="128">
         <v>44619</v>
       </c>
-      <c r="D59" s="430" t="s">
+      <c r="D59" s="442" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="431"/>
+      <c r="E59" s="443"/>
       <c r="F59" s="129">
         <v>184342.19</v>
       </c>
-      <c r="I59" s="432" t="s">
+      <c r="I59" s="444" t="s">
         <v>168</v>
       </c>
-      <c r="J59" s="433"/>
-      <c r="K59" s="434">
+      <c r="J59" s="445"/>
+      <c r="K59" s="446">
         <f>K55+K57</f>
         <v>84507.619999999966</v>
       </c>
-      <c r="L59" s="434"/>
+      <c r="L59" s="446"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="130"/>
@@ -43934,18 +43934,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -43955,6 +43943,18 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -45259,23 +45259,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="455"/>
-      <c r="C1" s="457" t="s">
+      <c r="B1" s="429"/>
+      <c r="C1" s="431" t="s">
         <v>135</v>
       </c>
-      <c r="D1" s="458"/>
-      <c r="E1" s="458"/>
-      <c r="F1" s="458"/>
-      <c r="G1" s="458"/>
-      <c r="H1" s="458"/>
-      <c r="I1" s="458"/>
-      <c r="J1" s="458"/>
-      <c r="K1" s="458"/>
-      <c r="L1" s="458"/>
-      <c r="M1" s="458"/>
+      <c r="D1" s="432"/>
+      <c r="E1" s="432"/>
+      <c r="F1" s="432"/>
+      <c r="G1" s="432"/>
+      <c r="H1" s="432"/>
+      <c r="I1" s="432"/>
+      <c r="J1" s="432"/>
+      <c r="K1" s="432"/>
+      <c r="L1" s="432"/>
+      <c r="M1" s="432"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="456"/>
+      <c r="B2" s="430"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -45285,21 +45285,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="459" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="460"/>
+      <c r="B3" s="433" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="434"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="461" t="s">
+      <c r="H3" s="435" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="461"/>
+      <c r="I3" s="435"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="428" t="s">
+      <c r="R3" s="440" t="s">
         <v>38</v>
       </c>
     </row>
@@ -45314,14 +45314,14 @@
       <c r="D4" s="16">
         <v>44619</v>
       </c>
-      <c r="E4" s="462" t="s">
+      <c r="E4" s="436" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="463"/>
-      <c r="H4" s="464" t="s">
+      <c r="F4" s="437"/>
+      <c r="H4" s="438" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="465"/>
+      <c r="I4" s="439"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -45331,11 +45331,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="435" t="s">
+      <c r="P4" s="447" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="436"/>
-      <c r="R4" s="429"/>
+      <c r="Q4" s="448"/>
+      <c r="R4" s="441"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -46786,11 +46786,11 @@
       <c r="J40" s="71"/>
       <c r="K40" s="87"/>
       <c r="L40" s="73"/>
-      <c r="M40" s="437">
+      <c r="M40" s="449">
         <f>SUM(M5:M39)</f>
         <v>1793435</v>
       </c>
-      <c r="N40" s="439">
+      <c r="N40" s="451">
         <f>SUM(N5:N39)</f>
         <v>63995</v>
       </c>
@@ -46815,8 +46815,8 @@
       <c r="J41" s="71"/>
       <c r="K41" s="235"/>
       <c r="L41" s="73"/>
-      <c r="M41" s="438"/>
-      <c r="N41" s="440"/>
+      <c r="M41" s="450"/>
+      <c r="N41" s="452"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -46955,29 +46955,29 @@
       <c r="A49" s="33"/>
       <c r="B49" s="113"/>
       <c r="C49" s="1"/>
-      <c r="H49" s="441" t="s">
+      <c r="H49" s="453" t="s">
         <v>12</v>
       </c>
-      <c r="I49" s="442"/>
+      <c r="I49" s="454"/>
       <c r="J49" s="114"/>
-      <c r="K49" s="443">
+      <c r="K49" s="455">
         <f>I47+L47</f>
         <v>90434.03</v>
       </c>
-      <c r="L49" s="444"/>
-      <c r="M49" s="445">
+      <c r="L49" s="456"/>
+      <c r="M49" s="457">
         <f>N40+M40</f>
         <v>1857430</v>
       </c>
-      <c r="N49" s="446"/>
+      <c r="N49" s="458"/>
       <c r="P49" s="32"/>
       <c r="Q49" s="8"/>
     </row>
     <row r="50" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D50" s="447" t="s">
+      <c r="D50" s="459" t="s">
         <v>13</v>
       </c>
-      <c r="E50" s="447"/>
+      <c r="E50" s="459"/>
       <c r="F50" s="115">
         <f>F47-K49-C47</f>
         <v>1824260.97</v>
@@ -46988,22 +46988,22 @@
       <c r="Q50" s="8"/>
     </row>
     <row r="51" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D51" s="448" t="s">
+      <c r="D51" s="460" t="s">
         <v>14</v>
       </c>
-      <c r="E51" s="448"/>
+      <c r="E51" s="460"/>
       <c r="F51" s="111">
         <v>-1848136.64</v>
       </c>
-      <c r="I51" s="449" t="s">
+      <c r="I51" s="461" t="s">
         <v>15</v>
       </c>
-      <c r="J51" s="450"/>
-      <c r="K51" s="451">
+      <c r="J51" s="462"/>
+      <c r="K51" s="463">
         <f>F53+F54+F55</f>
         <v>195541.70000000007</v>
       </c>
-      <c r="L51" s="452"/>
+      <c r="L51" s="464"/>
       <c r="P51" s="32"/>
       <c r="Q51" s="8"/>
     </row>
@@ -47034,11 +47034,11 @@
         <v>17</v>
       </c>
       <c r="J53" s="125"/>
-      <c r="K53" s="453">
+      <c r="K53" s="465">
         <f>-C4</f>
         <v>-184342.19</v>
       </c>
-      <c r="L53" s="454"/>
+      <c r="L53" s="466"/>
     </row>
     <row r="54" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D54" s="126" t="s">
@@ -47055,22 +47055,22 @@
       <c r="C55" s="128">
         <v>44647</v>
       </c>
-      <c r="D55" s="430" t="s">
+      <c r="D55" s="442" t="s">
         <v>20</v>
       </c>
-      <c r="E55" s="431"/>
+      <c r="E55" s="443"/>
       <c r="F55" s="129">
         <v>219417.37</v>
       </c>
-      <c r="I55" s="432" t="s">
+      <c r="I55" s="444" t="s">
         <v>226</v>
       </c>
-      <c r="J55" s="433"/>
-      <c r="K55" s="434">
+      <c r="J55" s="445"/>
+      <c r="K55" s="446">
         <f>K51+K53</f>
         <v>11199.510000000068</v>
       </c>
-      <c r="L55" s="434"/>
+      <c r="L55" s="446"/>
     </row>
     <row r="56" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C56" s="130"/>
@@ -47198,6 +47198,18 @@
     <sortCondition ref="J34:J38"/>
   </sortState>
   <mergeCells count="21">
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -47207,18 +47219,6 @@
     <mergeCell ref="H49:I49"/>
     <mergeCell ref="K49:L49"/>
     <mergeCell ref="M49:N49"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -48693,23 +48693,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="455"/>
-      <c r="C1" s="457" t="s">
+      <c r="B1" s="429"/>
+      <c r="C1" s="431" t="s">
         <v>225</v>
       </c>
-      <c r="D1" s="458"/>
-      <c r="E1" s="458"/>
-      <c r="F1" s="458"/>
-      <c r="G1" s="458"/>
-      <c r="H1" s="458"/>
-      <c r="I1" s="458"/>
-      <c r="J1" s="458"/>
-      <c r="K1" s="458"/>
-      <c r="L1" s="458"/>
-      <c r="M1" s="458"/>
+      <c r="D1" s="432"/>
+      <c r="E1" s="432"/>
+      <c r="F1" s="432"/>
+      <c r="G1" s="432"/>
+      <c r="H1" s="432"/>
+      <c r="I1" s="432"/>
+      <c r="J1" s="432"/>
+      <c r="K1" s="432"/>
+      <c r="L1" s="432"/>
+      <c r="M1" s="432"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="456"/>
+      <c r="B2" s="430"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -48719,21 +48719,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="459" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="460"/>
+      <c r="B3" s="433" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="434"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="461" t="s">
+      <c r="H3" s="435" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="461"/>
+      <c r="I3" s="435"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="428" t="s">
+      <c r="R3" s="440" t="s">
         <v>38</v>
       </c>
     </row>
@@ -48748,14 +48748,14 @@
       <c r="D4" s="16">
         <v>44647</v>
       </c>
-      <c r="E4" s="462" t="s">
+      <c r="E4" s="436" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="463"/>
-      <c r="H4" s="464" t="s">
+      <c r="F4" s="437"/>
+      <c r="H4" s="438" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="465"/>
+      <c r="I4" s="439"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -48765,11 +48765,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="435" t="s">
+      <c r="P4" s="447" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="436"/>
-      <c r="R4" s="429"/>
+      <c r="Q4" s="448"/>
+      <c r="R4" s="441"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -50366,11 +50366,11 @@
         <f>927.48+128</f>
         <v>1055.48</v>
       </c>
-      <c r="M40" s="437">
+      <c r="M40" s="449">
         <f>SUM(M5:M39)</f>
         <v>2146671</v>
       </c>
-      <c r="N40" s="439">
+      <c r="N40" s="451">
         <f>SUM(N5:N39)</f>
         <v>68590</v>
       </c>
@@ -50401,8 +50401,8 @@
       <c r="L41" s="73">
         <v>1195.68</v>
       </c>
-      <c r="M41" s="438"/>
-      <c r="N41" s="440"/>
+      <c r="M41" s="450"/>
+      <c r="N41" s="452"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -50633,29 +50633,29 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="441" t="s">
+      <c r="H53" s="453" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="442"/>
+      <c r="I53" s="454"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="443">
+      <c r="K53" s="455">
         <f>I51+L51</f>
         <v>91272.77</v>
       </c>
-      <c r="L53" s="444"/>
-      <c r="M53" s="445">
+      <c r="L53" s="456"/>
+      <c r="M53" s="457">
         <f>N40+M40</f>
         <v>2215261</v>
       </c>
-      <c r="N53" s="446"/>
+      <c r="N53" s="458"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="447" t="s">
+      <c r="D54" s="459" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="447"/>
+      <c r="E54" s="459"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
         <v>2179879.23</v>
@@ -50666,22 +50666,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="448" t="s">
+      <c r="D55" s="460" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="448"/>
+      <c r="E55" s="460"/>
       <c r="F55" s="111">
         <v>-2227493.48</v>
       </c>
-      <c r="I55" s="449" t="s">
+      <c r="I55" s="461" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="450"/>
-      <c r="K55" s="451">
+      <c r="J55" s="462"/>
+      <c r="K55" s="463">
         <f>F57+F58+F59</f>
         <v>261521.34000000003</v>
       </c>
-      <c r="L55" s="452"/>
+      <c r="L55" s="464"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -50712,11 +50712,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="453">
+      <c r="K57" s="465">
         <f>-C4</f>
         <v>-219417.37</v>
       </c>
-      <c r="L57" s="454"/>
+      <c r="L57" s="466"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -50733,22 +50733,22 @@
       <c r="C59" s="128">
         <v>44682</v>
       </c>
-      <c r="D59" s="430" t="s">
+      <c r="D59" s="442" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="431"/>
+      <c r="E59" s="443"/>
       <c r="F59" s="129">
         <v>297874.59000000003</v>
       </c>
-      <c r="I59" s="432" t="s">
+      <c r="I59" s="444" t="s">
         <v>168</v>
       </c>
-      <c r="J59" s="433"/>
-      <c r="K59" s="434">
+      <c r="J59" s="445"/>
+      <c r="K59" s="446">
         <f>K55+K57</f>
         <v>42103.97000000003</v>
       </c>
-      <c r="L59" s="434"/>
+      <c r="L59" s="446"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="130"/>
@@ -50876,6 +50876,18 @@
     <sortCondition ref="J40:J44"/>
   </sortState>
   <mergeCells count="21">
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -50885,18 +50897,6 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -52400,23 +52400,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="455"/>
-      <c r="C1" s="457" t="s">
+      <c r="B1" s="429"/>
+      <c r="C1" s="431" t="s">
         <v>277</v>
       </c>
-      <c r="D1" s="458"/>
-      <c r="E1" s="458"/>
-      <c r="F1" s="458"/>
-      <c r="G1" s="458"/>
-      <c r="H1" s="458"/>
-      <c r="I1" s="458"/>
-      <c r="J1" s="458"/>
-      <c r="K1" s="458"/>
-      <c r="L1" s="458"/>
-      <c r="M1" s="458"/>
+      <c r="D1" s="432"/>
+      <c r="E1" s="432"/>
+      <c r="F1" s="432"/>
+      <c r="G1" s="432"/>
+      <c r="H1" s="432"/>
+      <c r="I1" s="432"/>
+      <c r="J1" s="432"/>
+      <c r="K1" s="432"/>
+      <c r="L1" s="432"/>
+      <c r="M1" s="432"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="456"/>
+      <c r="B2" s="430"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -52426,21 +52426,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="459" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="460"/>
+      <c r="B3" s="433" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="434"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="461" t="s">
+      <c r="H3" s="435" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="461"/>
+      <c r="I3" s="435"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="428" t="s">
+      <c r="R3" s="440" t="s">
         <v>38</v>
       </c>
     </row>
@@ -52455,14 +52455,14 @@
       <c r="D4" s="16">
         <v>44682</v>
       </c>
-      <c r="E4" s="462" t="s">
+      <c r="E4" s="436" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="463"/>
-      <c r="H4" s="464" t="s">
+      <c r="F4" s="437"/>
+      <c r="H4" s="438" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="465"/>
+      <c r="I4" s="439"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -52472,11 +52472,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="435" t="s">
+      <c r="P4" s="447" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="436"/>
-      <c r="R4" s="429"/>
+      <c r="Q4" s="448"/>
+      <c r="R4" s="441"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -53993,11 +53993,11 @@
       <c r="J40" s="71"/>
       <c r="K40" s="74"/>
       <c r="L40" s="73"/>
-      <c r="M40" s="437">
+      <c r="M40" s="449">
         <f>SUM(M5:M39)</f>
         <v>2144215</v>
       </c>
-      <c r="N40" s="439">
+      <c r="N40" s="451">
         <f>SUM(N5:N39)</f>
         <v>62525</v>
       </c>
@@ -54022,8 +54022,8 @@
       <c r="J41" s="71"/>
       <c r="K41" s="235"/>
       <c r="L41" s="73"/>
-      <c r="M41" s="438"/>
-      <c r="N41" s="440"/>
+      <c r="M41" s="450"/>
+      <c r="N41" s="452"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -54234,29 +54234,29 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="441" t="s">
+      <c r="H53" s="453" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="442"/>
+      <c r="I53" s="454"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="443">
+      <c r="K53" s="455">
         <f>I51+L51</f>
         <v>51231.42</v>
       </c>
-      <c r="L53" s="444"/>
-      <c r="M53" s="445">
+      <c r="L53" s="456"/>
+      <c r="M53" s="457">
         <f>N40+M40</f>
         <v>2206740</v>
       </c>
-      <c r="N53" s="446"/>
+      <c r="N53" s="458"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="447" t="s">
+      <c r="D54" s="459" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="447"/>
+      <c r="E54" s="459"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
         <v>2189405.58</v>
@@ -54267,22 +54267,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="448" t="s">
+      <c r="D55" s="460" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="448"/>
+      <c r="E55" s="460"/>
       <c r="F55" s="111">
         <v>-2251924.65</v>
       </c>
-      <c r="I55" s="449" t="s">
+      <c r="I55" s="461" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="450"/>
-      <c r="K55" s="451">
+      <c r="J55" s="462"/>
+      <c r="K55" s="463">
         <f>F57+F58+F59</f>
         <v>112552.74000000017</v>
       </c>
-      <c r="L55" s="452"/>
+      <c r="L55" s="464"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -54313,11 +54313,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="453">
+      <c r="K57" s="465">
         <f>-C4</f>
         <v>-297874.59000000003</v>
       </c>
-      <c r="L57" s="454"/>
+      <c r="L57" s="466"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -54334,22 +54334,22 @@
       <c r="C59" s="128">
         <v>44710</v>
       </c>
-      <c r="D59" s="430" t="s">
+      <c r="D59" s="442" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="431"/>
+      <c r="E59" s="443"/>
       <c r="F59" s="129">
         <v>149938.81</v>
       </c>
-      <c r="I59" s="432" t="s">
+      <c r="I59" s="444" t="s">
         <v>325</v>
       </c>
-      <c r="J59" s="433"/>
-      <c r="K59" s="434">
+      <c r="J59" s="445"/>
+      <c r="K59" s="446">
         <f>K55+K57</f>
         <v>-185321.84999999986</v>
       </c>
-      <c r="L59" s="434"/>
+      <c r="L59" s="446"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="130"/>
@@ -54477,18 +54477,6 @@
     <sortCondition ref="J35:J40"/>
   </sortState>
   <mergeCells count="21">
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -54498,6 +54486,18 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
